--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -903,7 +903,7 @@
       </c>
       <c r="N14"/>
       <c r="O14" t="n">
-        <v>8.86666666666667</v>
+        <v>8.83333333333333</v>
       </c>
       <c r="P14" t="n">
         <v>32680</v>
@@ -985,7 +985,7 @@
       </c>
       <c r="N16"/>
       <c r="O16" t="n">
-        <v>7.3</v>
+        <v>7.26666666666667</v>
       </c>
       <c r="P16" t="n">
         <v>35153</v>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="N20"/>
       <c r="O20" t="n">
-        <v>5.46666666666667</v>
+        <v>5.43333333333333</v>
       </c>
       <c r="P20" t="n">
         <v>38466</v>
@@ -3369,7 +3369,9 @@
       <c r="G66" t="n">
         <v>17569.57</v>
       </c>
-      <c r="H66"/>
+      <c r="H66" t="n">
+        <v>4575</v>
+      </c>
       <c r="I66" t="n">
         <v>22034</v>
       </c>
@@ -3419,7 +3421,7 @@
         <v>17854.59</v>
       </c>
       <c r="H67" t="n">
-        <v>4574.9</v>
+        <v>4580</v>
       </c>
       <c r="I67" t="n">
         <v>22648</v>
@@ -3470,7 +3472,7 @@
         <v>17756.87</v>
       </c>
       <c r="H68" t="n">
-        <v>4579.6</v>
+        <v>4584</v>
       </c>
       <c r="I68" t="n">
         <v>21999</v>
@@ -3521,7 +3523,7 @@
         <v>18252.52</v>
       </c>
       <c r="H69" t="n">
-        <v>4584.3</v>
+        <v>4589</v>
       </c>
       <c r="I69" t="n">
         <v>21829</v>
@@ -3572,7 +3574,7 @@
         <v>17909.61</v>
       </c>
       <c r="H70" t="n">
-        <v>4589</v>
+        <v>4593.7</v>
       </c>
       <c r="I70" t="n">
         <v>22424</v>
@@ -3623,7 +3625,7 @@
         <v>17831.94</v>
       </c>
       <c r="H71" t="n">
-        <v>4593.7</v>
+        <v>4599</v>
       </c>
       <c r="I71" t="n">
         <v>22831</v>
@@ -3674,7 +3676,7 @@
         <v>18117.1</v>
       </c>
       <c r="H72" t="n">
-        <v>4598.95</v>
+        <v>4604</v>
       </c>
       <c r="I72" t="n">
         <v>22875</v>
@@ -3693,7 +3695,7 @@
       </c>
       <c r="N72"/>
       <c r="O72" t="n">
-        <v>15.4666666666667</v>
+        <v>15.4333333333333</v>
       </c>
       <c r="P72" t="n">
         <v>55203</v>
@@ -3725,7 +3727,7 @@
         <v>18325.54</v>
       </c>
       <c r="H73" t="n">
-        <v>4604.2</v>
+        <v>4609</v>
       </c>
       <c r="I73" t="n">
         <v>22511</v>
@@ -3776,7 +3778,7 @@
         <v>17919.68</v>
       </c>
       <c r="H74" t="n">
-        <v>4609.45</v>
+        <v>4614.7</v>
       </c>
       <c r="I74" t="n">
         <v>22281</v>
@@ -3795,7 +3797,7 @@
       </c>
       <c r="N74"/>
       <c r="O74" t="n">
-        <v>14.5666666666667</v>
+        <v>14.5333333333333</v>
       </c>
       <c r="P74" t="n">
         <v>53333</v>
@@ -3827,7 +3829,7 @@
         <v>18229.46</v>
       </c>
       <c r="H75" t="n">
-        <v>4614.7</v>
+        <v>4622</v>
       </c>
       <c r="I75" t="n">
         <v>23090</v>
@@ -3878,7 +3880,7 @@
         <v>18228.76</v>
       </c>
       <c r="H76" t="n">
-        <v>4622.375</v>
+        <v>4630</v>
       </c>
       <c r="I76" t="n">
         <v>22519</v>
@@ -3929,7 +3931,7 @@
         <v>18859.8</v>
       </c>
       <c r="H77" t="n">
-        <v>4630.05</v>
+        <v>4638</v>
       </c>
       <c r="I77" t="n">
         <v>22344</v>
@@ -3980,7 +3982,7 @@
         <v>18758.97</v>
       </c>
       <c r="H78" t="n">
-        <v>4637.725</v>
+        <v>4645.4</v>
       </c>
       <c r="I78" t="n">
         <v>22605</v>
@@ -4031,7 +4033,7 @@
         <v>18847.91</v>
       </c>
       <c r="H79" t="n">
-        <v>4645.4</v>
+        <v>4656</v>
       </c>
       <c r="I79" t="n">
         <v>23287</v>
@@ -4082,7 +4084,7 @@
         <v>18796.69</v>
       </c>
       <c r="H80" t="n">
-        <v>4656</v>
+        <v>4667</v>
       </c>
       <c r="I80" t="n">
         <v>23046</v>
@@ -4133,7 +4135,7 @@
         <v>19779.07</v>
       </c>
       <c r="H81" t="n">
-        <v>4666.6</v>
+        <v>4677</v>
       </c>
       <c r="I81" t="n">
         <v>22929</v>
@@ -4186,7 +4188,7 @@
         <v>19843.89</v>
       </c>
       <c r="H82" t="n">
-        <v>4677.2</v>
+        <v>4687.8</v>
       </c>
       <c r="I82" t="n">
         <v>23625</v>
@@ -4239,7 +4241,7 @@
         <v>20022.57</v>
       </c>
       <c r="H83" t="n">
-        <v>4687.8</v>
+        <v>4701</v>
       </c>
       <c r="I83" t="n">
         <v>24799</v>
@@ -4258,7 +4260,7 @@
       </c>
       <c r="N83"/>
       <c r="O83" t="n">
-        <v>10.0666666666667</v>
+        <v>10.1</v>
       </c>
       <c r="P83" t="n">
         <v>73491</v>
@@ -4292,7 +4294,7 @@
         <v>20210.94</v>
       </c>
       <c r="H84" t="n">
-        <v>4700.75</v>
+        <v>4714</v>
       </c>
       <c r="I84" t="n">
         <v>24775</v>
@@ -4345,7 +4347,7 @@
         <v>20894.16</v>
       </c>
       <c r="H85" t="n">
-        <v>4713.7</v>
+        <v>4727</v>
       </c>
       <c r="I85" t="n">
         <v>23617</v>
@@ -4398,7 +4400,7 @@
         <v>21082.72</v>
       </c>
       <c r="H86" t="n">
-        <v>4726.65</v>
+        <v>4739.6</v>
       </c>
       <c r="I86" t="n">
         <v>24732</v>
@@ -4451,7 +4453,7 @@
         <v>21322.1</v>
       </c>
       <c r="H87" t="n">
-        <v>4739.6</v>
+        <v>4757</v>
       </c>
       <c r="I87" t="n">
         <v>25653</v>
@@ -4504,7 +4506,7 @@
         <v>21644.84</v>
       </c>
       <c r="H88" t="n">
-        <v>4757.425</v>
+        <v>4775</v>
       </c>
       <c r="I88" t="n">
         <v>26327</v>
@@ -4557,7 +4559,7 @@
         <v>22320.15</v>
       </c>
       <c r="H89" t="n">
-        <v>4775.25</v>
+        <v>4793</v>
       </c>
       <c r="I89" t="n">
         <v>24889</v>
@@ -4610,7 +4612,7 @@
         <v>22725.24</v>
       </c>
       <c r="H90" t="n">
-        <v>4793.075</v>
+        <v>4810.9</v>
       </c>
       <c r="I90" t="n">
         <v>26343</v>
@@ -4663,7 +4665,7 @@
         <v>22862.33</v>
       </c>
       <c r="H91" t="n">
-        <v>4810.9</v>
+        <v>4829</v>
       </c>
       <c r="I91" t="n">
         <v>27259</v>
@@ -4716,7 +4718,7 @@
         <v>23005.19</v>
       </c>
       <c r="H92" t="n">
-        <v>4829.4</v>
+        <v>4848</v>
       </c>
       <c r="I92" t="n">
         <v>27802</v>
@@ -4735,7 +4737,7 @@
       </c>
       <c r="N92"/>
       <c r="O92" t="n">
-        <v>6.7</v>
+        <v>6.66666666666667</v>
       </c>
       <c r="P92" t="n">
         <v>88418</v>
@@ -4769,7 +4771,7 @@
         <v>23796.79</v>
       </c>
       <c r="H93" t="n">
-        <v>4847.9</v>
+        <v>4866</v>
       </c>
       <c r="I93" t="n">
         <v>26693</v>
@@ -4822,7 +4824,7 @@
         <v>23860.34</v>
       </c>
       <c r="H94" t="n">
-        <v>4866.4</v>
+        <v>4884.9</v>
       </c>
       <c r="I94" t="n">
         <v>27081</v>
@@ -4875,7 +4877,7 @@
         <v>24449.79</v>
       </c>
       <c r="H95" t="n">
-        <v>4884.9</v>
+        <v>4903</v>
       </c>
       <c r="I95" t="n">
         <v>28743</v>
@@ -4928,7 +4930,7 @@
         <v>24625.06</v>
       </c>
       <c r="H96" t="n">
-        <v>4903.3</v>
+        <v>4922</v>
       </c>
       <c r="I96" t="n">
         <v>29000</v>
@@ -4981,7 +4983,7 @@
         <v>25356.6</v>
       </c>
       <c r="H97" t="n">
-        <v>4921.7</v>
+        <v>4940</v>
       </c>
       <c r="I97" t="n">
         <v>28072</v>
@@ -5000,7 +5002,7 @@
       </c>
       <c r="N97"/>
       <c r="O97" t="n">
-        <v>5.7</v>
+        <v>5.76666666666667</v>
       </c>
       <c r="P97" t="n">
         <v>94846</v>
@@ -5034,7 +5036,7 @@
         <v>26071.46</v>
       </c>
       <c r="H98" t="n">
-        <v>4940.1</v>
+        <v>4958.5</v>
       </c>
       <c r="I98" t="n">
         <v>29242</v>
@@ -5089,7 +5091,7 @@
         <v>26446.68</v>
       </c>
       <c r="H99" t="n">
-        <v>4958.5</v>
+        <v>4976</v>
       </c>
       <c r="I99" t="n">
         <v>30771</v>
@@ -5144,7 +5146,7 @@
         <v>26141.23</v>
       </c>
       <c r="H100" t="n">
-        <v>4976.35</v>
+        <v>4994</v>
       </c>
       <c r="I100" t="n">
         <v>30591</v>
@@ -5199,7 +5201,7 @@
         <v>27604.27</v>
       </c>
       <c r="H101" t="n">
-        <v>4994.2</v>
+        <v>5012</v>
       </c>
       <c r="I101" t="n">
         <v>30259</v>
@@ -5254,7 +5256,7 @@
         <v>27751.31</v>
       </c>
       <c r="H102" t="n">
-        <v>5012.05</v>
+        <v>5029.9</v>
       </c>
       <c r="I102" t="n">
         <v>32348</v>
@@ -5309,7 +5311,7 @@
         <v>24141.21</v>
       </c>
       <c r="H103" t="n">
-        <v>5029.9</v>
+        <v>5041</v>
       </c>
       <c r="I103" t="n">
         <v>32068</v>
@@ -5364,7 +5366,7 @@
         <v>25659.44</v>
       </c>
       <c r="H104" t="n">
-        <v>5041.1</v>
+        <v>5052</v>
       </c>
       <c r="I104" t="n">
         <v>31133</v>
@@ -5419,7 +5421,7 @@
         <v>28551.04</v>
       </c>
       <c r="H105" t="n">
-        <v>5052.3</v>
+        <v>5064</v>
       </c>
       <c r="I105" t="n">
         <v>30843</v>
@@ -5476,7 +5478,7 @@
         <v>27351.88</v>
       </c>
       <c r="H106" t="n">
-        <v>5063.5</v>
+        <v>5074.7</v>
       </c>
       <c r="I106" t="n">
         <v>31474</v>
@@ -5497,7 +5499,7 @@
         <v>1955900</v>
       </c>
       <c r="O106" t="n">
-        <v>7.3</v>
+        <v>7.36666666666667</v>
       </c>
       <c r="P106" t="n">
         <v>113276</v>
@@ -5533,7 +5535,7 @@
         <v>28694.31</v>
       </c>
       <c r="H107" t="n">
-        <v>5074.7</v>
+        <v>5102.025</v>
       </c>
       <c r="I107" t="n">
         <v>33782</v>
@@ -5554,7 +5556,7 @@
         <v>2069433.33333333</v>
       </c>
       <c r="O107" t="n">
-        <v>7</v>
+        <v>6.96666666666667</v>
       </c>
       <c r="P107" t="n">
         <v>117479</v>
@@ -5590,7 +5592,7 @@
         <v>29716.88</v>
       </c>
       <c r="H108" t="n">
-        <v>5102.025</v>
+        <v>5129.35</v>
       </c>
       <c r="I108" t="n">
         <v>34557</v>
@@ -5647,7 +5649,7 @@
         <v>31509.06</v>
       </c>
       <c r="H109" t="n">
-        <v>5129.35</v>
+        <v>5156.675</v>
       </c>
       <c r="I109" t="n">
         <v>33183</v>
@@ -5704,7 +5706,7 @@
         <v>31190.67</v>
       </c>
       <c r="H110" t="n">
-        <v>5156.675</v>
+        <v>5184</v>
       </c>
       <c r="I110" t="n">
         <v>34168</v>
@@ -5725,7 +5727,7 @@
         <v>2284166.66666667</v>
       </c>
       <c r="O110" t="n">
-        <v>4.83333333333333</v>
+        <v>4.86666666666667</v>
       </c>
       <c r="P110" t="n">
         <v>122635</v>
@@ -5761,7 +5763,7 @@
         <v>31851.08</v>
       </c>
       <c r="H111" t="n">
-        <v>5184</v>
+        <v>5208.4</v>
       </c>
       <c r="I111" t="n">
         <v>36966</v>
@@ -5818,7 +5820,7 @@
         <v>31906.11</v>
       </c>
       <c r="H112" t="n">
-        <v>5208.4</v>
+        <v>5232.8</v>
       </c>
       <c r="I112" t="n">
         <v>37636</v>
@@ -5839,7 +5841,7 @@
         <v>2384666.66666667</v>
       </c>
       <c r="O112" t="n">
-        <v>4.23333333333333</v>
+        <v>4.26666666666667</v>
       </c>
       <c r="P112" t="n">
         <v>138231</v>
@@ -5877,7 +5879,7 @@
         <v>33642.74</v>
       </c>
       <c r="H113" t="n">
-        <v>5232.8</v>
+        <v>5257.2</v>
       </c>
       <c r="I113" t="n">
         <v>36204</v>
@@ -5936,7 +5938,7 @@
         <v>35451.23</v>
       </c>
       <c r="H114" t="n">
-        <v>5257.2</v>
+        <v>5281.6</v>
       </c>
       <c r="I114" t="n">
         <v>38960</v>
@@ -5995,7 +5997,7 @@
         <v>35473.08</v>
       </c>
       <c r="H115" t="n">
-        <v>5281.6</v>
+        <v>5306.275</v>
       </c>
       <c r="I115" t="n">
         <v>40840</v>
@@ -6016,7 +6018,7 @@
         <v>2430066.66666667</v>
       </c>
       <c r="O115" t="n">
-        <v>4.2</v>
+        <v>4.16666666666667</v>
       </c>
       <c r="P115" t="n">
         <v>122096</v>
@@ -6054,12 +6056,14 @@
         <v>34901.13</v>
       </c>
       <c r="H116" t="n">
-        <v>5306.275</v>
+        <v>5330.95</v>
       </c>
       <c r="I116" t="n">
         <v>41262</v>
       </c>
-      <c r="J116"/>
+      <c r="J116" t="n">
+        <v>456388</v>
+      </c>
       <c r="K116" t="n">
         <v>119.033333333333</v>
       </c>
@@ -6073,7 +6077,7 @@
         <v>2447500</v>
       </c>
       <c r="O116" t="n">
-        <v>4.4</v>
+        <v>4.43333333333333</v>
       </c>
       <c r="P116" t="n">
         <v>126645</v>
@@ -6111,12 +6115,14 @@
         <v>36724.99</v>
       </c>
       <c r="H117" t="n">
-        <v>5330.95</v>
+        <v>5355.625</v>
       </c>
       <c r="I117" t="n">
         <v>39847</v>
       </c>
-      <c r="J117"/>
+      <c r="J117" t="n">
+        <v>456618</v>
+      </c>
       <c r="K117" t="n">
         <v>118.933333333333</v>
       </c>
@@ -6168,12 +6174,14 @@
         <v>38403.17</v>
       </c>
       <c r="H118" t="n">
-        <v>5355.625</v>
+        <v>5</v>
       </c>
       <c r="I118" t="n">
         <v>42665</v>
       </c>
-      <c r="J118"/>
+      <c r="J118" t="n">
+        <v>460207</v>
+      </c>
       <c r="K118" t="n">
         <v>118.2</v>
       </c>
@@ -6187,7 +6195,7 @@
         <v>2452466.66666667</v>
       </c>
       <c r="O118" t="n">
-        <v>4.26666666666667</v>
+        <v>4.3</v>
       </c>
       <c r="P118" t="n">
         <v>116734</v>
@@ -6196,7 +6204,7 @@
         <v>168153</v>
       </c>
       <c r="R118" t="n">
-        <v>725.192</v>
+        <v>731.954</v>
       </c>
       <c r="S118" t="n">
         <v>54026587</v>
@@ -6225,12 +6233,14 @@
         <v>37709.02</v>
       </c>
       <c r="H119" t="n">
-        <v>5380.3</v>
+        <v>380</v>
       </c>
       <c r="I119" t="n">
         <v>43029</v>
       </c>
-      <c r="J119"/>
+      <c r="J119" t="n">
+        <v>466376</v>
+      </c>
       <c r="K119" t="n">
         <v>119.7</v>
       </c>
@@ -6241,10 +6251,10 @@
         <v>2754.2</v>
       </c>
       <c r="N119" t="n">
-        <v>2491466.66666667</v>
+        <v>2492100</v>
       </c>
       <c r="O119" t="n">
-        <v>4.43333333333333</v>
+        <v>4.4</v>
       </c>
       <c r="P119" t="n">
         <v>117155</v>
@@ -6264,24 +6274,38 @@
         <v>45474</v>
       </c>
       <c r="B120"/>
-      <c r="C120"/>
-      <c r="D120"/>
-      <c r="E120"/>
-      <c r="F120"/>
+      <c r="C120" t="n">
+        <v>6988518</v>
+      </c>
+      <c r="D120" t="n">
+        <v>108</v>
+      </c>
+      <c r="E120" t="n">
+        <v>21469267453.5</v>
+      </c>
+      <c r="F120" t="n">
+        <v>157</v>
+      </c>
       <c r="G120"/>
       <c r="H120" t="n">
         <v>5396.35</v>
       </c>
       <c r="I120"/>
-      <c r="J120"/>
+      <c r="J120" t="n">
+        <v>471580</v>
+      </c>
       <c r="K120" t="n">
         <v>120.066666666667</v>
       </c>
       <c r="L120"/>
-      <c r="M120"/>
-      <c r="N120"/>
+      <c r="M120" t="n">
+        <v>2794.8</v>
+      </c>
+      <c r="N120" t="n">
+        <v>2501633.33333333</v>
+      </c>
       <c r="O120" t="n">
-        <v>4.46666666666667</v>
+        <v>4.23333333333333</v>
       </c>
       <c r="P120"/>
       <c r="Q120"/>

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -3369,9 +3369,7 @@
       <c r="G66" t="n">
         <v>17569.57</v>
       </c>
-      <c r="H66" t="n">
-        <v>4575</v>
-      </c>
+      <c r="H66"/>
       <c r="I66" t="n">
         <v>22034</v>
       </c>
@@ -3421,7 +3419,7 @@
         <v>17854.59</v>
       </c>
       <c r="H67" t="n">
-        <v>4580</v>
+        <v>4575</v>
       </c>
       <c r="I67" t="n">
         <v>22648</v>
@@ -3472,7 +3470,7 @@
         <v>17756.87</v>
       </c>
       <c r="H68" t="n">
-        <v>4584</v>
+        <v>4580</v>
       </c>
       <c r="I68" t="n">
         <v>21999</v>
@@ -3523,7 +3521,7 @@
         <v>18252.52</v>
       </c>
       <c r="H69" t="n">
-        <v>4589</v>
+        <v>4584</v>
       </c>
       <c r="I69" t="n">
         <v>21829</v>
@@ -3574,7 +3572,7 @@
         <v>17909.61</v>
       </c>
       <c r="H70" t="n">
-        <v>4593.7</v>
+        <v>4589</v>
       </c>
       <c r="I70" t="n">
         <v>22424</v>
@@ -3625,7 +3623,7 @@
         <v>17831.94</v>
       </c>
       <c r="H71" t="n">
-        <v>4599</v>
+        <v>4593.7</v>
       </c>
       <c r="I71" t="n">
         <v>22831</v>
@@ -3676,7 +3674,7 @@
         <v>18117.1</v>
       </c>
       <c r="H72" t="n">
-        <v>4604</v>
+        <v>4599</v>
       </c>
       <c r="I72" t="n">
         <v>22875</v>
@@ -3727,7 +3725,7 @@
         <v>18325.54</v>
       </c>
       <c r="H73" t="n">
-        <v>4609</v>
+        <v>4604</v>
       </c>
       <c r="I73" t="n">
         <v>22511</v>
@@ -3778,7 +3776,7 @@
         <v>17919.68</v>
       </c>
       <c r="H74" t="n">
-        <v>4614.7</v>
+        <v>4609</v>
       </c>
       <c r="I74" t="n">
         <v>22281</v>
@@ -3829,7 +3827,7 @@
         <v>18229.46</v>
       </c>
       <c r="H75" t="n">
-        <v>4622</v>
+        <v>4614.7</v>
       </c>
       <c r="I75" t="n">
         <v>23090</v>
@@ -3880,7 +3878,7 @@
         <v>18228.76</v>
       </c>
       <c r="H76" t="n">
-        <v>4630</v>
+        <v>4622</v>
       </c>
       <c r="I76" t="n">
         <v>22519</v>
@@ -3931,7 +3929,7 @@
         <v>18859.8</v>
       </c>
       <c r="H77" t="n">
-        <v>4638</v>
+        <v>4630</v>
       </c>
       <c r="I77" t="n">
         <v>22344</v>
@@ -3982,7 +3980,7 @@
         <v>18758.97</v>
       </c>
       <c r="H78" t="n">
-        <v>4645.4</v>
+        <v>4638</v>
       </c>
       <c r="I78" t="n">
         <v>22605</v>
@@ -4033,7 +4031,7 @@
         <v>18847.91</v>
       </c>
       <c r="H79" t="n">
-        <v>4656</v>
+        <v>4645.4</v>
       </c>
       <c r="I79" t="n">
         <v>23287</v>
@@ -4084,7 +4082,7 @@
         <v>18796.69</v>
       </c>
       <c r="H80" t="n">
-        <v>4667</v>
+        <v>4656</v>
       </c>
       <c r="I80" t="n">
         <v>23046</v>
@@ -4135,7 +4133,7 @@
         <v>19779.07</v>
       </c>
       <c r="H81" t="n">
-        <v>4677</v>
+        <v>4667</v>
       </c>
       <c r="I81" t="n">
         <v>22929</v>
@@ -4188,7 +4186,7 @@
         <v>19843.89</v>
       </c>
       <c r="H82" t="n">
-        <v>4687.8</v>
+        <v>4677</v>
       </c>
       <c r="I82" t="n">
         <v>23625</v>
@@ -4241,7 +4239,7 @@
         <v>20022.57</v>
       </c>
       <c r="H83" t="n">
-        <v>4701</v>
+        <v>4687.8</v>
       </c>
       <c r="I83" t="n">
         <v>24799</v>
@@ -4294,7 +4292,7 @@
         <v>20210.94</v>
       </c>
       <c r="H84" t="n">
-        <v>4714</v>
+        <v>4701</v>
       </c>
       <c r="I84" t="n">
         <v>24775</v>
@@ -4347,7 +4345,7 @@
         <v>20894.16</v>
       </c>
       <c r="H85" t="n">
-        <v>4727</v>
+        <v>4714</v>
       </c>
       <c r="I85" t="n">
         <v>23617</v>
@@ -4400,7 +4398,7 @@
         <v>21082.72</v>
       </c>
       <c r="H86" t="n">
-        <v>4739.6</v>
+        <v>4727</v>
       </c>
       <c r="I86" t="n">
         <v>24732</v>
@@ -4453,7 +4451,7 @@
         <v>21322.1</v>
       </c>
       <c r="H87" t="n">
-        <v>4757</v>
+        <v>4739.6</v>
       </c>
       <c r="I87" t="n">
         <v>25653</v>
@@ -4506,7 +4504,7 @@
         <v>21644.84</v>
       </c>
       <c r="H88" t="n">
-        <v>4775</v>
+        <v>4757</v>
       </c>
       <c r="I88" t="n">
         <v>26327</v>
@@ -4559,7 +4557,7 @@
         <v>22320.15</v>
       </c>
       <c r="H89" t="n">
-        <v>4793</v>
+        <v>4775</v>
       </c>
       <c r="I89" t="n">
         <v>24889</v>
@@ -4612,7 +4610,7 @@
         <v>22725.24</v>
       </c>
       <c r="H90" t="n">
-        <v>4810.9</v>
+        <v>4793</v>
       </c>
       <c r="I90" t="n">
         <v>26343</v>
@@ -4665,7 +4663,7 @@
         <v>22862.33</v>
       </c>
       <c r="H91" t="n">
-        <v>4829</v>
+        <v>4810.9</v>
       </c>
       <c r="I91" t="n">
         <v>27259</v>
@@ -4718,7 +4716,7 @@
         <v>23005.19</v>
       </c>
       <c r="H92" t="n">
-        <v>4848</v>
+        <v>4829</v>
       </c>
       <c r="I92" t="n">
         <v>27802</v>
@@ -4771,7 +4769,7 @@
         <v>23796.79</v>
       </c>
       <c r="H93" t="n">
-        <v>4866</v>
+        <v>4848</v>
       </c>
       <c r="I93" t="n">
         <v>26693</v>
@@ -4824,7 +4822,7 @@
         <v>23860.34</v>
       </c>
       <c r="H94" t="n">
-        <v>4884.9</v>
+        <v>4866</v>
       </c>
       <c r="I94" t="n">
         <v>27081</v>
@@ -4877,7 +4875,7 @@
         <v>24449.79</v>
       </c>
       <c r="H95" t="n">
-        <v>4903</v>
+        <v>4884.9</v>
       </c>
       <c r="I95" t="n">
         <v>28743</v>
@@ -4930,7 +4928,7 @@
         <v>24625.06</v>
       </c>
       <c r="H96" t="n">
-        <v>4922</v>
+        <v>4903</v>
       </c>
       <c r="I96" t="n">
         <v>29000</v>
@@ -4983,7 +4981,7 @@
         <v>25356.6</v>
       </c>
       <c r="H97" t="n">
-        <v>4940</v>
+        <v>4922</v>
       </c>
       <c r="I97" t="n">
         <v>28072</v>
@@ -5036,7 +5034,7 @@
         <v>26071.46</v>
       </c>
       <c r="H98" t="n">
-        <v>4958.5</v>
+        <v>4940</v>
       </c>
       <c r="I98" t="n">
         <v>29242</v>
@@ -5091,7 +5089,7 @@
         <v>26446.68</v>
       </c>
       <c r="H99" t="n">
-        <v>4976</v>
+        <v>4958.5</v>
       </c>
       <c r="I99" t="n">
         <v>30771</v>
@@ -5146,7 +5144,7 @@
         <v>26141.23</v>
       </c>
       <c r="H100" t="n">
-        <v>4994</v>
+        <v>4976</v>
       </c>
       <c r="I100" t="n">
         <v>30591</v>
@@ -5201,7 +5199,7 @@
         <v>27604.27</v>
       </c>
       <c r="H101" t="n">
-        <v>5012</v>
+        <v>4994</v>
       </c>
       <c r="I101" t="n">
         <v>30259</v>
@@ -5256,7 +5254,7 @@
         <v>27751.31</v>
       </c>
       <c r="H102" t="n">
-        <v>5029.9</v>
+        <v>5012</v>
       </c>
       <c r="I102" t="n">
         <v>32348</v>
@@ -5311,7 +5309,7 @@
         <v>24141.21</v>
       </c>
       <c r="H103" t="n">
-        <v>5041</v>
+        <v>5029.9</v>
       </c>
       <c r="I103" t="n">
         <v>32068</v>
@@ -5366,7 +5364,7 @@
         <v>25659.44</v>
       </c>
       <c r="H104" t="n">
-        <v>5052</v>
+        <v>5041</v>
       </c>
       <c r="I104" t="n">
         <v>31133</v>
@@ -5421,7 +5419,7 @@
         <v>28551.04</v>
       </c>
       <c r="H105" t="n">
-        <v>5064</v>
+        <v>5052</v>
       </c>
       <c r="I105" t="n">
         <v>30843</v>
@@ -5478,7 +5476,7 @@
         <v>27351.88</v>
       </c>
       <c r="H106" t="n">
-        <v>5074.7</v>
+        <v>5064</v>
       </c>
       <c r="I106" t="n">
         <v>31474</v>
@@ -5535,7 +5533,7 @@
         <v>28694.31</v>
       </c>
       <c r="H107" t="n">
-        <v>5102.025</v>
+        <v>5074.7</v>
       </c>
       <c r="I107" t="n">
         <v>33782</v>
@@ -5592,7 +5590,7 @@
         <v>29716.88</v>
       </c>
       <c r="H108" t="n">
-        <v>5129.35</v>
+        <v>5102.025</v>
       </c>
       <c r="I108" t="n">
         <v>34557</v>
@@ -5649,7 +5647,7 @@
         <v>31509.06</v>
       </c>
       <c r="H109" t="n">
-        <v>5156.675</v>
+        <v>5129.35</v>
       </c>
       <c r="I109" t="n">
         <v>33183</v>
@@ -5706,7 +5704,7 @@
         <v>31190.67</v>
       </c>
       <c r="H110" t="n">
-        <v>5184</v>
+        <v>5156.675</v>
       </c>
       <c r="I110" t="n">
         <v>34168</v>
@@ -5763,7 +5761,7 @@
         <v>31851.08</v>
       </c>
       <c r="H111" t="n">
-        <v>5208.4</v>
+        <v>5184</v>
       </c>
       <c r="I111" t="n">
         <v>36966</v>
@@ -5820,7 +5818,7 @@
         <v>31906.11</v>
       </c>
       <c r="H112" t="n">
-        <v>5232.8</v>
+        <v>5208.4</v>
       </c>
       <c r="I112" t="n">
         <v>37636</v>
@@ -5879,7 +5877,7 @@
         <v>33642.74</v>
       </c>
       <c r="H113" t="n">
-        <v>5257.2</v>
+        <v>5232.8</v>
       </c>
       <c r="I113" t="n">
         <v>36204</v>
@@ -5938,7 +5936,7 @@
         <v>35451.23</v>
       </c>
       <c r="H114" t="n">
-        <v>5281.6</v>
+        <v>5257.2</v>
       </c>
       <c r="I114" t="n">
         <v>38960</v>
@@ -5997,7 +5995,7 @@
         <v>35473.08</v>
       </c>
       <c r="H115" t="n">
-        <v>5306.275</v>
+        <v>5281.6</v>
       </c>
       <c r="I115" t="n">
         <v>40840</v>
@@ -6056,7 +6054,7 @@
         <v>34901.13</v>
       </c>
       <c r="H116" t="n">
-        <v>5330.95</v>
+        <v>5306.275</v>
       </c>
       <c r="I116" t="n">
         <v>41262</v>
@@ -6115,7 +6113,7 @@
         <v>36724.99</v>
       </c>
       <c r="H117" t="n">
-        <v>5355.625</v>
+        <v>5330.95</v>
       </c>
       <c r="I117" t="n">
         <v>39847</v>
@@ -6174,7 +6172,7 @@
         <v>38403.17</v>
       </c>
       <c r="H118" t="n">
-        <v>5</v>
+        <v>5355.625</v>
       </c>
       <c r="I118" t="n">
         <v>42665</v>
@@ -6233,7 +6231,7 @@
         <v>37709.02</v>
       </c>
       <c r="H119" t="n">
-        <v>380</v>
+        <v>5380</v>
       </c>
       <c r="I119" t="n">
         <v>43029</v>

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t xml:space="preserve">Gross Disposable Income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average Hourly Earnings</t>
   </si>
   <si>
     <t xml:space="preserve">Household Deposits</t>
@@ -464,6 +467,9 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -485,16 +491,17 @@
       <c r="M2"/>
       <c r="N2"/>
       <c r="O2"/>
-      <c r="P2" t="n">
+      <c r="P2"/>
+      <c r="Q2" t="n">
         <v>25295</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>12346</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>109.3</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>8208164</v>
       </c>
     </row>
@@ -518,16 +525,17 @@
       <c r="M3"/>
       <c r="N3"/>
       <c r="O3"/>
-      <c r="P3" t="n">
+      <c r="P3"/>
+      <c r="Q3" t="n">
         <v>26318</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>13283</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>112.2</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>8688563</v>
       </c>
     </row>
@@ -551,16 +559,17 @@
       <c r="M4"/>
       <c r="N4"/>
       <c r="O4"/>
-      <c r="P4" t="n">
+      <c r="P4"/>
+      <c r="Q4" t="n">
         <v>26604</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>13858</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>112.6</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>8590667</v>
       </c>
     </row>
@@ -584,16 +593,17 @@
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5"/>
-      <c r="P5" t="n">
+      <c r="P5"/>
+      <c r="Q5" t="n">
         <v>26484</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>14242</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>129.3</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>9842629</v>
       </c>
     </row>
@@ -612,23 +622,24 @@
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
-      <c r="K6" t="n">
+      <c r="K6"/>
+      <c r="L6" t="n">
         <v>68.5333333333333</v>
       </c>
-      <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
       <c r="O6"/>
-      <c r="P6" t="n">
+      <c r="P6"/>
+      <c r="Q6" t="n">
         <v>27387</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>13879</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>126.9</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>9893672</v>
       </c>
     </row>
@@ -647,23 +658,24 @@
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7"/>
-      <c r="K7" t="n">
+      <c r="K7"/>
+      <c r="L7" t="n">
         <v>68.9333333333333</v>
       </c>
-      <c r="L7"/>
       <c r="M7"/>
       <c r="N7"/>
       <c r="O7"/>
-      <c r="P7" t="n">
+      <c r="P7"/>
+      <c r="Q7" t="n">
         <v>28660</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>14933</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>126.3</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>9721115</v>
       </c>
     </row>
@@ -682,23 +694,24 @@
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
-      <c r="K8" t="n">
+      <c r="K8"/>
+      <c r="L8" t="n">
         <v>69.3</v>
       </c>
-      <c r="L8"/>
       <c r="M8"/>
       <c r="N8"/>
       <c r="O8"/>
-      <c r="P8" t="n">
+      <c r="P8"/>
+      <c r="Q8" t="n">
         <v>28168</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>15579</v>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>120.5</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>9030759</v>
       </c>
     </row>
@@ -717,23 +730,24 @@
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
-      <c r="K9" t="n">
+      <c r="K9"/>
+      <c r="L9" t="n">
         <v>69.7666666666667</v>
       </c>
-      <c r="L9"/>
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9"/>
-      <c r="P9" t="n">
+      <c r="P9"/>
+      <c r="Q9" t="n">
         <v>28213</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>16011</v>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>135.4</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>9963508</v>
       </c>
     </row>
@@ -752,23 +766,24 @@
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
-      <c r="K10" t="n">
+      <c r="K10"/>
+      <c r="L10" t="n">
         <v>69.6333333333333</v>
       </c>
-      <c r="L10"/>
       <c r="M10"/>
       <c r="N10"/>
       <c r="O10"/>
-      <c r="P10" t="n">
+      <c r="P10"/>
+      <c r="Q10" t="n">
         <v>29564</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
         <v>16315</v>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>133</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>10049469</v>
       </c>
     </row>
@@ -787,23 +802,24 @@
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11"/>
-      <c r="K11" t="n">
+      <c r="K11"/>
+      <c r="L11" t="n">
         <v>69.9666666666667</v>
       </c>
-      <c r="L11"/>
       <c r="M11"/>
       <c r="N11"/>
       <c r="O11"/>
-      <c r="P11" t="n">
+      <c r="P11"/>
+      <c r="Q11" t="n">
         <v>31442</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="R11" t="n">
         <v>17554</v>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>145.1</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>11148681</v>
       </c>
     </row>
@@ -822,23 +838,24 @@
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12"/>
-      <c r="K12" t="n">
+      <c r="K12"/>
+      <c r="L12" t="n">
         <v>69.9666666666667</v>
       </c>
-      <c r="L12"/>
       <c r="M12"/>
       <c r="N12"/>
       <c r="O12"/>
-      <c r="P12" t="n">
+      <c r="P12"/>
+      <c r="Q12" t="n">
         <v>31727</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="R12" t="n">
         <v>18313</v>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>144.9</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>11179664</v>
       </c>
     </row>
@@ -857,23 +874,24 @@
       <c r="H13"/>
       <c r="I13"/>
       <c r="J13"/>
-      <c r="K13" t="n">
+      <c r="K13"/>
+      <c r="L13" t="n">
         <v>70.4333333333333</v>
       </c>
-      <c r="L13"/>
       <c r="M13"/>
       <c r="N13"/>
       <c r="O13"/>
-      <c r="P13" t="n">
+      <c r="P13"/>
+      <c r="Q13" t="n">
         <v>32087</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="R13" t="n">
         <v>18820</v>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>161.7</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>12490287</v>
       </c>
     </row>
@@ -894,27 +912,28 @@
       <c r="H14"/>
       <c r="I14"/>
       <c r="J14"/>
-      <c r="K14" t="n">
+      <c r="K14"/>
+      <c r="L14" t="n">
         <v>70.5333333333333</v>
       </c>
-      <c r="L14"/>
-      <c r="M14" t="n">
+      <c r="M14"/>
+      <c r="N14" t="n">
         <v>1550.3</v>
       </c>
-      <c r="N14"/>
-      <c r="O14" t="n">
+      <c r="O14"/>
+      <c r="P14" t="n">
         <v>8.83333333333333</v>
       </c>
-      <c r="P14" t="n">
+      <c r="Q14" t="n">
         <v>32680</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="R14" t="n">
         <v>20030</v>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>167</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>13252764</v>
       </c>
     </row>
@@ -935,27 +954,28 @@
       <c r="H15"/>
       <c r="I15"/>
       <c r="J15"/>
-      <c r="K15" t="n">
+      <c r="K15"/>
+      <c r="L15" t="n">
         <v>71.5666666666667</v>
       </c>
-      <c r="L15"/>
-      <c r="M15" t="n">
+      <c r="M15"/>
+      <c r="N15" t="n">
         <v>1572</v>
       </c>
-      <c r="N15"/>
-      <c r="O15" t="n">
+      <c r="O15"/>
+      <c r="P15" t="n">
         <v>7.9</v>
       </c>
-      <c r="P15" t="n">
+      <c r="Q15" t="n">
         <v>33886</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="R15" t="n">
         <v>21551</v>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>180.4</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>14292933</v>
       </c>
     </row>
@@ -976,27 +996,28 @@
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
-      <c r="K16" t="n">
+      <c r="K16"/>
+      <c r="L16" t="n">
         <v>71.8333333333333</v>
       </c>
-      <c r="L16"/>
-      <c r="M16" t="n">
+      <c r="M16"/>
+      <c r="N16" t="n">
         <v>1636.3</v>
       </c>
-      <c r="N16"/>
-      <c r="O16" t="n">
+      <c r="O16"/>
+      <c r="P16" t="n">
         <v>7.26666666666667</v>
       </c>
-      <c r="P16" t="n">
+      <c r="Q16" t="n">
         <v>35153</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="R16" t="n">
         <v>22483</v>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>181.4</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>14513614</v>
       </c>
     </row>
@@ -1017,27 +1038,28 @@
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
-      <c r="K17" t="n">
+      <c r="K17"/>
+      <c r="L17" t="n">
         <v>72.0666666666667</v>
       </c>
-      <c r="L17"/>
-      <c r="M17" t="n">
+      <c r="M17"/>
+      <c r="N17" t="n">
         <v>1615.7</v>
       </c>
-      <c r="N17"/>
-      <c r="O17" t="n">
+      <c r="O17"/>
+      <c r="P17" t="n">
         <v>6.66666666666667</v>
       </c>
-      <c r="P17" t="n">
+      <c r="Q17" t="n">
         <v>34042</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="R17" t="n">
         <v>23106</v>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>199.8</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>15262506</v>
       </c>
     </row>
@@ -1060,29 +1082,30 @@
         <v>11448</v>
       </c>
       <c r="J18"/>
-      <c r="K18" t="n">
+      <c r="K18"/>
+      <c r="L18" t="n">
         <v>72</v>
       </c>
-      <c r="L18" t="n">
+      <c r="M18" t="n">
         <v>11.2</v>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>1644.4</v>
       </c>
-      <c r="N18"/>
-      <c r="O18" t="n">
+      <c r="O18"/>
+      <c r="P18" t="n">
         <v>6.26666666666667</v>
       </c>
-      <c r="P18" t="n">
+      <c r="Q18" t="n">
         <v>35877</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="R18" t="n">
         <v>22650</v>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>190.2</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>14977450</v>
       </c>
     </row>
@@ -1105,29 +1128,30 @@
         <v>10203</v>
       </c>
       <c r="J19"/>
-      <c r="K19" t="n">
+      <c r="K19"/>
+      <c r="L19" t="n">
         <v>73.1</v>
       </c>
-      <c r="L19" t="n">
+      <c r="M19" t="n">
         <v>0</v>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>1679.2</v>
       </c>
-      <c r="N19"/>
-      <c r="O19" t="n">
+      <c r="O19"/>
+      <c r="P19" t="n">
         <v>6</v>
       </c>
-      <c r="P19" t="n">
+      <c r="Q19" t="n">
         <v>36520</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="R19" t="n">
         <v>24746</v>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>206.1</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>16225474</v>
       </c>
     </row>
@@ -1150,29 +1174,30 @@
         <v>12235</v>
       </c>
       <c r="J20"/>
-      <c r="K20" t="n">
+      <c r="K20"/>
+      <c r="L20" t="n">
         <v>73.5333333333333</v>
       </c>
-      <c r="L20" t="n">
+      <c r="M20" t="n">
         <v>4.7</v>
       </c>
-      <c r="M20" t="n">
+      <c r="N20" t="n">
         <v>1746.8</v>
       </c>
-      <c r="N20"/>
-      <c r="O20" t="n">
+      <c r="O20"/>
+      <c r="P20" t="n">
         <v>5.43333333333333</v>
       </c>
-      <c r="P20" t="n">
+      <c r="Q20" t="n">
         <v>38466</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="R20" t="n">
         <v>25881</v>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>215.1</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>17130163</v>
       </c>
     </row>
@@ -1195,29 +1220,30 @@
         <v>11741</v>
       </c>
       <c r="J21"/>
-      <c r="K21" t="n">
+      <c r="K21"/>
+      <c r="L21" t="n">
         <v>74.3666666666667</v>
       </c>
-      <c r="L21" t="n">
+      <c r="M21" t="n">
         <v>10.8</v>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>1723.1</v>
       </c>
-      <c r="N21"/>
-      <c r="O21" t="n">
+      <c r="O21"/>
+      <c r="P21" t="n">
         <v>5.3</v>
       </c>
-      <c r="P21" t="n">
+      <c r="Q21" t="n">
         <v>39194</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="R21" t="n">
         <v>27641</v>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>236</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>18623121</v>
       </c>
     </row>
@@ -1242,29 +1268,30 @@
         <v>12116</v>
       </c>
       <c r="J22"/>
-      <c r="K22" t="n">
+      <c r="K22"/>
+      <c r="L22" t="n">
         <v>75.3666666666667</v>
       </c>
-      <c r="L22" t="n">
+      <c r="M22" t="n">
         <v>3.9</v>
       </c>
-      <c r="M22" t="n">
+      <c r="N22" t="n">
         <v>1726.8</v>
       </c>
-      <c r="N22"/>
-      <c r="O22" t="n">
+      <c r="O22"/>
+      <c r="P22" t="n">
         <v>4.8</v>
       </c>
-      <c r="P22" t="n">
+      <c r="Q22" t="n">
         <v>39190</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="R22" t="n">
         <v>27150</v>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>237.1</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>18520100</v>
       </c>
     </row>
@@ -1289,29 +1316,30 @@
         <v>12497</v>
       </c>
       <c r="J23"/>
-      <c r="K23" t="n">
+      <c r="K23"/>
+      <c r="L23" t="n">
         <v>76.9</v>
       </c>
-      <c r="L23" t="n">
+      <c r="M23" t="n">
         <v>1.9</v>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>1758.2</v>
       </c>
-      <c r="N23"/>
-      <c r="O23" t="n">
+      <c r="O23"/>
+      <c r="P23" t="n">
         <v>4.6</v>
       </c>
-      <c r="P23" t="n">
+      <c r="Q23" t="n">
         <v>40499</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="R23" t="n">
         <v>30214</v>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>257.9</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>20391000</v>
       </c>
     </row>
@@ -1336,29 +1364,30 @@
         <v>13569</v>
       </c>
       <c r="J24"/>
-      <c r="K24" t="n">
+      <c r="K24"/>
+      <c r="L24" t="n">
         <v>77.7333333333333</v>
       </c>
-      <c r="L24" t="n">
+      <c r="M24" t="n">
         <v>3.8</v>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" t="n">
         <v>1818.4</v>
       </c>
-      <c r="N24"/>
-      <c r="O24" t="n">
+      <c r="O24"/>
+      <c r="P24" t="n">
         <v>4.23333333333333</v>
       </c>
-      <c r="P24" t="n">
+      <c r="Q24" t="n">
         <v>41935</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="R24" t="n">
         <v>31259</v>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>261.9</v>
       </c>
-      <c r="S24" t="n">
+      <c r="T24" t="n">
         <v>20915900</v>
       </c>
     </row>
@@ -1383,29 +1412,30 @@
         <v>12941</v>
       </c>
       <c r="J25"/>
-      <c r="K25" t="n">
+      <c r="K25"/>
+      <c r="L25" t="n">
         <v>78.4666666666667</v>
       </c>
-      <c r="L25" t="n">
+      <c r="M25" t="n">
         <v>5.7</v>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>1787.6</v>
       </c>
-      <c r="N25"/>
-      <c r="O25" t="n">
+      <c r="O25"/>
+      <c r="P25" t="n">
         <v>3.9</v>
       </c>
-      <c r="P25" t="n">
+      <c r="Q25" t="n">
         <v>42543</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="R25" t="n">
         <v>33676</v>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>283.1</v>
       </c>
-      <c r="S25" t="n">
+      <c r="T25" t="n">
         <v>24159100</v>
       </c>
     </row>
@@ -1430,29 +1460,30 @@
         <v>14029</v>
       </c>
       <c r="J26"/>
-      <c r="K26" t="n">
+      <c r="K26"/>
+      <c r="L26" t="n">
         <v>78.3666666666667</v>
       </c>
-      <c r="L26" t="n">
+      <c r="M26" t="n">
         <v>8.2</v>
       </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
         <v>1780.4</v>
       </c>
-      <c r="N26"/>
-      <c r="O26" t="n">
+      <c r="O26"/>
+      <c r="P26" t="n">
         <v>3.96666666666667</v>
       </c>
-      <c r="P26" t="n">
+      <c r="Q26" t="n">
         <v>42181</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="R26" t="n">
         <v>34706</v>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>324.8</v>
       </c>
-      <c r="S26" t="n">
+      <c r="T26" t="n">
         <v>23446700</v>
       </c>
     </row>
@@ -1477,29 +1508,30 @@
         <v>14625</v>
       </c>
       <c r="J27"/>
-      <c r="K27" t="n">
+      <c r="K27"/>
+      <c r="L27" t="n">
         <v>80.1333333333333</v>
       </c>
-      <c r="L27" t="n">
+      <c r="M27" t="n">
         <v>7.1</v>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>1809.7</v>
       </c>
-      <c r="N27"/>
-      <c r="O27" t="n">
+      <c r="O27"/>
+      <c r="P27" t="n">
         <v>4</v>
       </c>
-      <c r="P27" t="n">
+      <c r="Q27" t="n">
         <v>43082</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="R27" t="n">
         <v>34270</v>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>301</v>
       </c>
-      <c r="S27" t="n">
+      <c r="T27" t="n">
         <v>23056900</v>
       </c>
     </row>
@@ -1524,29 +1556,30 @@
         <v>15520</v>
       </c>
       <c r="J28"/>
-      <c r="K28" t="n">
+      <c r="K28"/>
+      <c r="L28" t="n">
         <v>80.7333333333333</v>
       </c>
-      <c r="L28" t="n">
+      <c r="M28" t="n">
         <v>9.1</v>
       </c>
-      <c r="M28" t="n">
+      <c r="N28" t="n">
         <v>1866.8</v>
       </c>
-      <c r="N28"/>
-      <c r="O28" t="n">
+      <c r="O28"/>
+      <c r="P28" t="n">
         <v>4.36666666666667</v>
       </c>
-      <c r="P28" t="n">
+      <c r="Q28" t="n">
         <v>43151</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="R28" t="n">
         <v>34445</v>
       </c>
-      <c r="R28" t="n">
+      <c r="S28" t="n">
         <v>315.5</v>
       </c>
-      <c r="S28" t="n">
+      <c r="T28" t="n">
         <v>23011700</v>
       </c>
     </row>
@@ -1571,29 +1604,30 @@
         <v>14416</v>
       </c>
       <c r="J29"/>
-      <c r="K29" t="n">
+      <c r="K29"/>
+      <c r="L29" t="n">
         <v>81.5333333333333</v>
       </c>
-      <c r="L29" t="n">
+      <c r="M29" t="n">
         <v>8.3</v>
       </c>
-      <c r="M29" t="n">
+      <c r="N29" t="n">
         <v>1833.1</v>
       </c>
-      <c r="N29"/>
-      <c r="O29" t="n">
+      <c r="O29"/>
+      <c r="P29" t="n">
         <v>4.4</v>
       </c>
-      <c r="P29" t="n">
+      <c r="Q29" t="n">
         <v>44463</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="R29" t="n">
         <v>36011</v>
       </c>
-      <c r="R29" t="n">
+      <c r="S29" t="n">
         <v>319.2</v>
       </c>
-      <c r="S29" t="n">
+      <c r="T29" t="n">
         <v>23215100</v>
       </c>
     </row>
@@ -1618,29 +1652,30 @@
         <v>14945</v>
       </c>
       <c r="J30"/>
-      <c r="K30" t="n">
+      <c r="K30"/>
+      <c r="L30" t="n">
         <v>82.3666666666667</v>
       </c>
-      <c r="L30" t="n">
+      <c r="M30" t="n">
         <v>5.9</v>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
         <v>1825.1</v>
       </c>
-      <c r="N30"/>
-      <c r="O30" t="n">
+      <c r="O30"/>
+      <c r="P30" t="n">
         <v>4.53333333333333</v>
       </c>
-      <c r="P30" t="n">
+      <c r="Q30" t="n">
         <v>44455</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="R30" t="n">
         <v>37816</v>
       </c>
-      <c r="R30" t="n">
+      <c r="S30" t="n">
         <v>361.4</v>
       </c>
-      <c r="S30" t="n">
+      <c r="T30" t="n">
         <v>25139300</v>
       </c>
     </row>
@@ -1665,29 +1700,30 @@
         <v>16254</v>
       </c>
       <c r="J31"/>
-      <c r="K31" t="n">
+      <c r="K31"/>
+      <c r="L31" t="n">
         <v>84.0333333333333</v>
       </c>
-      <c r="L31" t="n">
+      <c r="M31" t="n">
         <v>8.6</v>
       </c>
-      <c r="M31" t="n">
+      <c r="N31" t="n">
         <v>1840.3</v>
       </c>
-      <c r="N31"/>
-      <c r="O31" t="n">
+      <c r="O31"/>
+      <c r="P31" t="n">
         <v>4.63333333333333</v>
       </c>
-      <c r="P31" t="n">
+      <c r="Q31" t="n">
         <v>45307</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="R31" t="n">
         <v>37271</v>
       </c>
-      <c r="R31" t="n">
+      <c r="S31" t="n">
         <v>342</v>
       </c>
-      <c r="S31" t="n">
+      <c r="T31" t="n">
         <v>24623300</v>
       </c>
     </row>
@@ -1712,29 +1748,30 @@
         <v>16414</v>
       </c>
       <c r="J32"/>
-      <c r="K32" t="n">
+      <c r="K32"/>
+      <c r="L32" t="n">
         <v>84.2333333333333</v>
       </c>
-      <c r="L32" t="n">
+      <c r="M32" t="n">
         <v>5.8</v>
       </c>
-      <c r="M32" t="n">
+      <c r="N32" t="n">
         <v>1883.6</v>
       </c>
-      <c r="N32"/>
-      <c r="O32" t="n">
+      <c r="O32"/>
+      <c r="P32" t="n">
         <v>4.5</v>
       </c>
-      <c r="P32" t="n">
+      <c r="Q32" t="n">
         <v>45878</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="R32" t="n">
         <v>36785</v>
       </c>
-      <c r="R32" t="n">
+      <c r="S32" t="n">
         <v>321.5</v>
       </c>
-      <c r="S32" t="n">
+      <c r="T32" t="n">
         <v>22309200</v>
       </c>
     </row>
@@ -1759,29 +1796,30 @@
         <v>15264</v>
       </c>
       <c r="J33"/>
-      <c r="K33" t="n">
+      <c r="K33"/>
+      <c r="L33" t="n">
         <v>85.2</v>
       </c>
-      <c r="L33" t="n">
+      <c r="M33" t="n">
         <v>6.4</v>
       </c>
-      <c r="M33" t="n">
+      <c r="N33" t="n">
         <v>1850.3</v>
       </c>
-      <c r="N33"/>
-      <c r="O33" t="n">
+      <c r="O33"/>
+      <c r="P33" t="n">
         <v>5.26666666666667</v>
       </c>
-      <c r="P33" t="n">
+      <c r="Q33" t="n">
         <v>47436</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="R33" t="n">
         <v>36589</v>
       </c>
-      <c r="R33" t="n">
+      <c r="S33" t="n">
         <v>311.4</v>
       </c>
-      <c r="S33" t="n">
+      <c r="T33" t="n">
         <v>21987100</v>
       </c>
     </row>
@@ -1805,32 +1843,33 @@
       <c r="I34" t="n">
         <v>16459</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J34"/>
+      <c r="K34" t="n">
         <v>142852</v>
       </c>
-      <c r="K34" t="n">
+      <c r="L34" t="n">
         <v>86.4333333333333</v>
       </c>
-      <c r="L34" t="n">
+      <c r="M34" t="n">
         <v>7.4</v>
       </c>
-      <c r="M34" t="n">
+      <c r="N34" t="n">
         <v>1855.6</v>
       </c>
-      <c r="N34"/>
-      <c r="O34" t="n">
+      <c r="O34"/>
+      <c r="P34" t="n">
         <v>4.83333333333333</v>
       </c>
-      <c r="P34" t="n">
+      <c r="Q34" t="n">
         <v>45410</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="R34" t="n">
         <v>34010</v>
       </c>
-      <c r="R34" t="n">
+      <c r="S34" t="n">
         <v>281</v>
       </c>
-      <c r="S34" t="n">
+      <c r="T34" t="n">
         <v>20038500</v>
       </c>
     </row>
@@ -1854,32 +1893,33 @@
       <c r="I35" t="n">
         <v>17466</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J35"/>
+      <c r="K35" t="n">
         <v>146674</v>
       </c>
-      <c r="K35" t="n">
+      <c r="L35" t="n">
         <v>87.4333333333333</v>
       </c>
-      <c r="L35" t="n">
+      <c r="M35" t="n">
         <v>7.5</v>
       </c>
-      <c r="M35" t="n">
+      <c r="N35" t="n">
         <v>1874</v>
       </c>
-      <c r="N35"/>
-      <c r="O35" t="n">
+      <c r="O35"/>
+      <c r="P35" t="n">
         <v>4.76666666666667</v>
       </c>
-      <c r="P35" t="n">
+      <c r="Q35" t="n">
         <v>46557</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="R35" t="n">
         <v>35642</v>
       </c>
-      <c r="R35" t="n">
+      <c r="S35" t="n">
         <v>290.8</v>
       </c>
-      <c r="S35" t="n">
+      <c r="T35" t="n">
         <v>20543700</v>
       </c>
     </row>
@@ -1903,32 +1943,33 @@
       <c r="I36" t="n">
         <v>17479</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J36"/>
+      <c r="K36" t="n">
         <v>150987</v>
       </c>
-      <c r="K36" t="n">
+      <c r="L36" t="n">
         <v>87.5333333333333</v>
       </c>
-      <c r="L36" t="n">
+      <c r="M36" t="n">
         <v>8.2</v>
       </c>
-      <c r="M36" t="n">
+      <c r="N36" t="n">
         <v>1912.8</v>
       </c>
-      <c r="N36"/>
-      <c r="O36" t="n">
+      <c r="O36"/>
+      <c r="P36" t="n">
         <v>5</v>
       </c>
-      <c r="P36" t="n">
+      <c r="Q36" t="n">
         <v>46301</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="R36" t="n">
         <v>36251</v>
       </c>
-      <c r="R36" t="n">
+      <c r="S36" t="n">
         <v>299.5</v>
       </c>
-      <c r="S36" t="n">
+      <c r="T36" t="n">
         <v>20164300</v>
       </c>
     </row>
@@ -1952,32 +1993,33 @@
       <c r="I37" t="n">
         <v>16467</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J37"/>
+      <c r="K37" t="n">
         <v>154815</v>
       </c>
-      <c r="K37" t="n">
+      <c r="L37" t="n">
         <v>87.9333333333333</v>
       </c>
-      <c r="L37" t="n">
+      <c r="M37" t="n">
         <v>9.3</v>
       </c>
-      <c r="M37" t="n">
+      <c r="N37" t="n">
         <v>1899.4</v>
       </c>
-      <c r="N37"/>
-      <c r="O37" t="n">
+      <c r="O37"/>
+      <c r="P37" t="n">
         <v>4.76666666666667</v>
       </c>
-      <c r="P37" t="n">
+      <c r="Q37" t="n">
         <v>50325</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="R37" t="n">
         <v>40037</v>
       </c>
-      <c r="R37" t="n">
+      <c r="S37" t="n">
         <v>331.2</v>
       </c>
-      <c r="S37" t="n">
+      <c r="T37" t="n">
         <v>21838400</v>
       </c>
     </row>
@@ -2001,32 +2043,33 @@
       <c r="I38" t="n">
         <v>17634</v>
       </c>
-      <c r="J38" t="n">
+      <c r="J38"/>
+      <c r="K38" t="n">
         <v>161141</v>
       </c>
-      <c r="K38" t="n">
+      <c r="L38" t="n">
         <v>88.2333333333333</v>
       </c>
-      <c r="L38" t="n">
+      <c r="M38" t="n">
         <v>8.2</v>
       </c>
-      <c r="M38" t="n">
+      <c r="N38" t="n">
         <v>1902.3</v>
       </c>
-      <c r="N38"/>
-      <c r="O38" t="n">
+      <c r="O38"/>
+      <c r="P38" t="n">
         <v>5.13333333333333</v>
       </c>
-      <c r="P38" t="n">
+      <c r="Q38" t="n">
         <v>48900</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="R38" t="n">
         <v>37008</v>
       </c>
-      <c r="R38" t="n">
+      <c r="S38" t="n">
         <v>298.4</v>
       </c>
-      <c r="S38" t="n">
+      <c r="T38" t="n">
         <v>21251000</v>
       </c>
     </row>
@@ -2050,32 +2093,33 @@
       <c r="I39" t="n">
         <v>18705</v>
       </c>
-      <c r="J39" t="n">
+      <c r="J39"/>
+      <c r="K39" t="n">
         <v>167127</v>
       </c>
-      <c r="K39" t="n">
+      <c r="L39" t="n">
         <v>89.2666666666667</v>
       </c>
-      <c r="L39" t="n">
+      <c r="M39" t="n">
         <v>8.1</v>
       </c>
-      <c r="M39" t="n">
+      <c r="N39" t="n">
         <v>1925.8</v>
       </c>
-      <c r="N39"/>
-      <c r="O39" t="n">
+      <c r="O39"/>
+      <c r="P39" t="n">
         <v>4.66666666666667</v>
       </c>
-      <c r="P39" t="n">
+      <c r="Q39" t="n">
         <v>50600</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="R39" t="n">
         <v>39393</v>
       </c>
-      <c r="R39" t="n">
+      <c r="S39" t="n">
         <v>312.9</v>
       </c>
-      <c r="S39" t="n">
+      <c r="T39" t="n">
         <v>21390800</v>
       </c>
     </row>
@@ -2099,32 +2143,33 @@
       <c r="I40" t="n">
         <v>18900</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J40"/>
+      <c r="K40" t="n">
         <v>174812</v>
       </c>
-      <c r="K40" t="n">
+      <c r="L40" t="n">
         <v>89.7</v>
       </c>
-      <c r="L40" t="n">
+      <c r="M40" t="n">
         <v>9.6</v>
       </c>
-      <c r="M40" t="n">
+      <c r="N40" t="n">
         <v>1984.1</v>
       </c>
-      <c r="N40"/>
-      <c r="O40" t="n">
+      <c r="O40"/>
+      <c r="P40" t="n">
         <v>4.5</v>
       </c>
-      <c r="P40" t="n">
+      <c r="Q40" t="n">
         <v>49559</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="R40" t="n">
         <v>38574</v>
       </c>
-      <c r="R40" t="n">
+      <c r="S40" t="n">
         <v>303.9</v>
       </c>
-      <c r="S40" t="n">
+      <c r="T40" t="n">
         <v>20545300</v>
       </c>
     </row>
@@ -2148,32 +2193,33 @@
       <c r="I41" t="n">
         <v>17723</v>
       </c>
-      <c r="J41" t="n">
+      <c r="J41"/>
+      <c r="K41" t="n">
         <v>172465</v>
       </c>
-      <c r="K41" t="n">
+      <c r="L41" t="n">
         <v>90.1666666666667</v>
       </c>
-      <c r="L41" t="n">
+      <c r="M41" t="n">
         <v>10.8</v>
       </c>
-      <c r="M41" t="n">
+      <c r="N41" t="n">
         <v>1973.8</v>
       </c>
-      <c r="N41"/>
-      <c r="O41" t="n">
+      <c r="O41"/>
+      <c r="P41" t="n">
         <v>4.7</v>
       </c>
-      <c r="P41" t="n">
+      <c r="Q41" t="n">
         <v>52337</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="R41" t="n">
         <v>40481</v>
       </c>
-      <c r="R41" t="n">
+      <c r="S41" t="n">
         <v>309.9</v>
       </c>
-      <c r="S41" t="n">
+      <c r="T41" t="n">
         <v>21762100</v>
       </c>
     </row>
@@ -2197,32 +2243,33 @@
       <c r="I42" t="n">
         <v>19374</v>
       </c>
-      <c r="J42" t="n">
+      <c r="J42"/>
+      <c r="K42" t="n">
         <v>176954</v>
       </c>
-      <c r="K42" t="n">
+      <c r="L42" t="n">
         <v>90</v>
       </c>
-      <c r="L42" t="n">
+      <c r="M42" t="n">
         <v>12</v>
       </c>
-      <c r="M42" t="n">
+      <c r="N42" t="n">
         <v>1989.7</v>
       </c>
-      <c r="N42"/>
-      <c r="O42" t="n">
+      <c r="O42"/>
+      <c r="P42" t="n">
         <v>4.43333333333333</v>
       </c>
-      <c r="P42" t="n">
+      <c r="Q42" t="n">
         <v>51784</v>
       </c>
-      <c r="Q42" t="n">
+      <c r="R42" t="n">
         <v>38258</v>
       </c>
-      <c r="R42" t="n">
+      <c r="S42" t="n">
         <v>288.7</v>
       </c>
-      <c r="S42" t="n">
+      <c r="T42" t="n">
         <v>20800900</v>
       </c>
     </row>
@@ -2246,32 +2293,33 @@
       <c r="I43" t="n">
         <v>20941</v>
       </c>
-      <c r="J43" t="n">
+      <c r="J43"/>
+      <c r="K43" t="n">
         <v>181677</v>
       </c>
-      <c r="K43" t="n">
+      <c r="L43" t="n">
         <v>91.1333333333333</v>
       </c>
-      <c r="L43" t="n">
+      <c r="M43" t="n">
         <v>11.3</v>
       </c>
-      <c r="M43" t="n">
+      <c r="N43" t="n">
         <v>2018</v>
       </c>
-      <c r="N43"/>
-      <c r="O43" t="n">
+      <c r="O43"/>
+      <c r="P43" t="n">
         <v>4.86666666666667</v>
       </c>
-      <c r="P43" t="n">
+      <c r="Q43" t="n">
         <v>53549</v>
       </c>
-      <c r="Q43" t="n">
+      <c r="R43" t="n">
         <v>41911</v>
       </c>
-      <c r="R43" t="n">
+      <c r="S43" t="n">
         <v>327.3</v>
       </c>
-      <c r="S43" t="n">
+      <c r="T43" t="n">
         <v>22250800</v>
       </c>
     </row>
@@ -2295,32 +2343,33 @@
       <c r="I44" t="n">
         <v>20549</v>
       </c>
-      <c r="J44" t="n">
+      <c r="J44"/>
+      <c r="K44" t="n">
         <v>191265</v>
       </c>
-      <c r="K44" t="n">
+      <c r="L44" t="n">
         <v>91.8333333333333</v>
       </c>
-      <c r="L44" t="n">
+      <c r="M44" t="n">
         <v>7.5</v>
       </c>
-      <c r="M44" t="n">
+      <c r="N44" t="n">
         <v>2073.3</v>
       </c>
-      <c r="N44"/>
-      <c r="O44" t="n">
+      <c r="O44"/>
+      <c r="P44" t="n">
         <v>4.7</v>
       </c>
-      <c r="P44" t="n">
+      <c r="Q44" t="n">
         <v>52368</v>
       </c>
-      <c r="Q44" t="n">
+      <c r="R44" t="n">
         <v>40346</v>
       </c>
-      <c r="R44" t="n">
+      <c r="S44" t="n">
         <v>284.3</v>
       </c>
-      <c r="S44" t="n">
+      <c r="T44" t="n">
         <v>21342000</v>
       </c>
     </row>
@@ -2344,32 +2393,33 @@
       <c r="I45" t="n">
         <v>19186</v>
       </c>
-      <c r="J45" t="n">
+      <c r="J45"/>
+      <c r="K45" t="n">
         <v>199751</v>
       </c>
-      <c r="K45" t="n">
+      <c r="L45" t="n">
         <v>92.2</v>
       </c>
-      <c r="L45" t="n">
+      <c r="M45" t="n">
         <v>9.5</v>
       </c>
-      <c r="M45" t="n">
+      <c r="N45" t="n">
         <v>2070</v>
       </c>
-      <c r="N45"/>
-      <c r="O45" t="n">
+      <c r="O45"/>
+      <c r="P45" t="n">
         <v>4.53333333333333</v>
       </c>
-      <c r="P45" t="n">
+      <c r="Q45" t="n">
         <v>55254</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="R45" t="n">
         <v>43459</v>
       </c>
-      <c r="R45" t="n">
+      <c r="S45" t="n">
         <v>323.5</v>
       </c>
-      <c r="S45" t="n">
+      <c r="T45" t="n">
         <v>22779200</v>
       </c>
     </row>
@@ -2393,32 +2443,33 @@
       <c r="I46" t="n">
         <v>21217</v>
       </c>
-      <c r="J46" t="n">
+      <c r="J46"/>
+      <c r="K46" t="n">
         <v>205236</v>
       </c>
-      <c r="K46" t="n">
+      <c r="L46" t="n">
         <v>92.3333333333333</v>
       </c>
-      <c r="L46" t="n">
+      <c r="M46" t="n">
         <v>11.1</v>
       </c>
-      <c r="M46" t="n">
+      <c r="N46" t="n">
         <v>2082.3</v>
       </c>
-      <c r="N46"/>
-      <c r="O46" t="n">
+      <c r="O46"/>
+      <c r="P46" t="n">
         <v>4.7</v>
       </c>
-      <c r="P46" t="n">
+      <c r="Q46" t="n">
         <v>55101</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="R46" t="n">
         <v>41482</v>
       </c>
-      <c r="R46" t="n">
+      <c r="S46" t="n">
         <v>287.7</v>
       </c>
-      <c r="S46" t="n">
+      <c r="T46" t="n">
         <v>21531800</v>
       </c>
     </row>
@@ -2442,32 +2493,33 @@
       <c r="I47" t="n">
         <v>22998</v>
       </c>
-      <c r="J47" t="n">
+      <c r="J47"/>
+      <c r="K47" t="n">
         <v>212157</v>
       </c>
-      <c r="K47" t="n">
+      <c r="L47" t="n">
         <v>93.7666666666667</v>
       </c>
-      <c r="L47" t="n">
+      <c r="M47" t="n">
         <v>10.6</v>
       </c>
-      <c r="M47" t="n">
+      <c r="N47" t="n">
         <v>2109</v>
       </c>
-      <c r="N47"/>
-      <c r="O47" t="n">
+      <c r="O47"/>
+      <c r="P47" t="n">
         <v>4.73333333333333</v>
       </c>
-      <c r="P47" t="n">
+      <c r="Q47" t="n">
         <v>55492</v>
       </c>
-      <c r="Q47" t="n">
+      <c r="R47" t="n">
         <v>43391</v>
       </c>
-      <c r="R47" t="n">
+      <c r="S47" t="n">
         <v>289.3</v>
       </c>
-      <c r="S47" t="n">
+      <c r="T47" t="n">
         <v>21727900</v>
       </c>
     </row>
@@ -2491,32 +2543,33 @@
       <c r="I48" t="n">
         <v>22189</v>
       </c>
-      <c r="J48" t="n">
+      <c r="J48"/>
+      <c r="K48" t="n">
         <v>222547</v>
       </c>
-      <c r="K48" t="n">
+      <c r="L48" t="n">
         <v>94.3333333333333</v>
       </c>
-      <c r="L48" t="n">
+      <c r="M48" t="n">
         <v>8.8</v>
       </c>
-      <c r="M48" t="n">
+      <c r="N48" t="n">
         <v>2159.1</v>
       </c>
-      <c r="N48"/>
-      <c r="O48" t="n">
+      <c r="O48"/>
+      <c r="P48" t="n">
         <v>5</v>
       </c>
-      <c r="P48" t="n">
+      <c r="Q48" t="n">
         <v>56020</v>
       </c>
-      <c r="Q48" t="n">
+      <c r="R48" t="n">
         <v>44115</v>
       </c>
-      <c r="R48" t="n">
+      <c r="S48" t="n">
         <v>306.7</v>
       </c>
-      <c r="S48" t="n">
+      <c r="T48" t="n">
         <v>21815500</v>
       </c>
     </row>
@@ -2540,32 +2593,33 @@
       <c r="I49" t="n">
         <v>19809</v>
       </c>
-      <c r="J49" t="n">
+      <c r="J49"/>
+      <c r="K49" t="n">
         <v>233093</v>
       </c>
-      <c r="K49" t="n">
+      <c r="L49" t="n">
         <v>94.5333333333333</v>
       </c>
-      <c r="L49" t="n">
+      <c r="M49" t="n">
         <v>5</v>
       </c>
-      <c r="M49" t="n">
+      <c r="N49" t="n">
         <v>2166.8</v>
       </c>
-      <c r="N49"/>
-      <c r="O49" t="n">
+      <c r="O49"/>
+      <c r="P49" t="n">
         <v>4.63333333333333</v>
       </c>
-      <c r="P49" t="n">
+      <c r="Q49" t="n">
         <v>56965</v>
       </c>
-      <c r="Q49" t="n">
+      <c r="R49" t="n">
         <v>44910</v>
       </c>
-      <c r="R49" t="n">
+      <c r="S49" t="n">
         <v>314.3</v>
       </c>
-      <c r="S49" t="n">
+      <c r="T49" t="n">
         <v>22421500</v>
       </c>
     </row>
@@ -2589,32 +2643,33 @@
       <c r="I50" t="n">
         <v>22634</v>
       </c>
-      <c r="J50" t="n">
+      <c r="J50"/>
+      <c r="K50" t="n">
         <v>233518</v>
       </c>
-      <c r="K50" t="n">
+      <c r="L50" t="n">
         <v>95</v>
       </c>
-      <c r="L50" t="n">
+      <c r="M50" t="n">
         <v>7.3</v>
       </c>
-      <c r="M50" t="n">
+      <c r="N50" t="n">
         <v>2185.6</v>
       </c>
-      <c r="N50"/>
-      <c r="O50" t="n">
+      <c r="O50"/>
+      <c r="P50" t="n">
         <v>4.9</v>
       </c>
-      <c r="P50" t="n">
+      <c r="Q50" t="n">
         <v>59521</v>
       </c>
-      <c r="Q50" t="n">
+      <c r="R50" t="n">
         <v>45614</v>
       </c>
-      <c r="R50" t="n">
+      <c r="S50" t="n">
         <v>312.3</v>
       </c>
-      <c r="S50" t="n">
+      <c r="T50" t="n">
         <v>22652500</v>
       </c>
     </row>
@@ -2638,32 +2693,33 @@
       <c r="I51" t="n">
         <v>24283</v>
       </c>
-      <c r="J51" t="n">
+      <c r="J51"/>
+      <c r="K51" t="n">
         <v>242699</v>
       </c>
-      <c r="K51" t="n">
+      <c r="L51" t="n">
         <v>96.3666666666667</v>
       </c>
-      <c r="L51" t="n">
+      <c r="M51" t="n">
         <v>7.7</v>
       </c>
-      <c r="M51" t="n">
+      <c r="N51" t="n">
         <v>2211.8</v>
       </c>
-      <c r="N51"/>
-      <c r="O51" t="n">
+      <c r="O51"/>
+      <c r="P51" t="n">
         <v>5</v>
       </c>
-      <c r="P51" t="n">
+      <c r="Q51" t="n">
         <v>58778</v>
       </c>
-      <c r="Q51" t="n">
+      <c r="R51" t="n">
         <v>48100</v>
       </c>
-      <c r="R51" t="n">
+      <c r="S51" t="n">
         <v>317.9</v>
       </c>
-      <c r="S51" t="n">
+      <c r="T51" t="n">
         <v>23672100</v>
       </c>
     </row>
@@ -2687,32 +2743,33 @@
       <c r="I52" t="n">
         <v>24319</v>
       </c>
-      <c r="J52" t="n">
+      <c r="J52"/>
+      <c r="K52" t="n">
         <v>246197</v>
       </c>
-      <c r="K52" t="n">
+      <c r="L52" t="n">
         <v>96.8333333333333</v>
       </c>
-      <c r="L52" t="n">
+      <c r="M52" t="n">
         <v>8.8</v>
       </c>
-      <c r="M52" t="n">
+      <c r="N52" t="n">
         <v>2251</v>
       </c>
-      <c r="N52"/>
-      <c r="O52" t="n">
+      <c r="O52"/>
+      <c r="P52" t="n">
         <v>4.9</v>
       </c>
-      <c r="P52" t="n">
+      <c r="Q52" t="n">
         <v>57320</v>
       </c>
-      <c r="Q52" t="n">
+      <c r="R52" t="n">
         <v>46377</v>
       </c>
-      <c r="R52" t="n">
+      <c r="S52" t="n">
         <v>294.1</v>
       </c>
-      <c r="S52" t="n">
+      <c r="T52" t="n">
         <v>21799900</v>
       </c>
     </row>
@@ -2736,32 +2793,33 @@
       <c r="I53" t="n">
         <v>22141</v>
       </c>
-      <c r="J53" t="n">
+      <c r="J53"/>
+      <c r="K53" t="n">
         <v>245171</v>
       </c>
-      <c r="K53" t="n">
+      <c r="L53" t="n">
         <v>97.5666666666667</v>
       </c>
-      <c r="L53" t="n">
+      <c r="M53" t="n">
         <v>7</v>
       </c>
-      <c r="M53" t="n">
+      <c r="N53" t="n">
         <v>2230.7</v>
       </c>
-      <c r="N53"/>
-      <c r="O53" t="n">
+      <c r="O53"/>
+      <c r="P53" t="n">
         <v>5.23333333333333</v>
       </c>
-      <c r="P53" t="n">
+      <c r="Q53" t="n">
         <v>59831</v>
       </c>
-      <c r="Q53" t="n">
+      <c r="R53" t="n">
         <v>49286</v>
       </c>
-      <c r="R53" t="n">
+      <c r="S53" t="n">
         <v>309.9</v>
       </c>
-      <c r="S53" t="n">
+      <c r="T53" t="n">
         <v>22455300</v>
       </c>
     </row>
@@ -2786,31 +2844,34 @@
         <v>24594</v>
       </c>
       <c r="J54" t="n">
+        <v>21.56</v>
+      </c>
+      <c r="K54" t="n">
         <v>247775</v>
       </c>
-      <c r="K54" t="n">
+      <c r="L54" t="n">
         <v>98.2333333333333</v>
       </c>
-      <c r="L54" t="n">
+      <c r="M54" t="n">
         <v>9.2</v>
       </c>
-      <c r="M54" t="n">
+      <c r="N54" t="n">
         <v>2217.8</v>
       </c>
-      <c r="N54"/>
-      <c r="O54" t="n">
+      <c r="O54"/>
+      <c r="P54" t="n">
         <v>5.36666666666667</v>
       </c>
-      <c r="P54" t="n">
+      <c r="Q54" t="n">
         <v>57888</v>
       </c>
-      <c r="Q54" t="n">
+      <c r="R54" t="n">
         <v>44431</v>
       </c>
-      <c r="R54" t="n">
+      <c r="S54" t="n">
         <v>274.9</v>
       </c>
-      <c r="S54" t="n">
+      <c r="T54" t="n">
         <v>21892500</v>
       </c>
     </row>
@@ -2835,31 +2896,34 @@
         <v>26230</v>
       </c>
       <c r="J55" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K55" t="n">
         <v>250819</v>
       </c>
-      <c r="K55" t="n">
+      <c r="L55" t="n">
         <v>99.9333333333333</v>
       </c>
-      <c r="L55" t="n">
+      <c r="M55" t="n">
         <v>13.1</v>
       </c>
-      <c r="M55" t="n">
+      <c r="N55" t="n">
         <v>2217.8</v>
       </c>
-      <c r="N55"/>
-      <c r="O55" t="n">
+      <c r="O55"/>
+      <c r="P55" t="n">
         <v>5.93333333333333</v>
       </c>
-      <c r="P55" t="n">
+      <c r="Q55" t="n">
         <v>56679</v>
       </c>
-      <c r="Q55" t="n">
+      <c r="R55" t="n">
         <v>46574</v>
       </c>
-      <c r="R55" t="n">
+      <c r="S55" t="n">
         <v>295.4</v>
       </c>
-      <c r="S55" t="n">
+      <c r="T55" t="n">
         <v>22241000</v>
       </c>
     </row>
@@ -2884,31 +2948,34 @@
         <v>25489</v>
       </c>
       <c r="J56" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="K56" t="n">
         <v>251535</v>
       </c>
-      <c r="K56" t="n">
+      <c r="L56" t="n">
         <v>100.033333333333</v>
       </c>
-      <c r="L56" t="n">
+      <c r="M56" t="n">
         <v>12.4</v>
       </c>
-      <c r="M56" t="n">
+      <c r="N56" t="n">
         <v>2209.4</v>
       </c>
-      <c r="N56"/>
-      <c r="O56" t="n">
+      <c r="O56"/>
+      <c r="P56" t="n">
         <v>7.36666666666667</v>
       </c>
-      <c r="P56" t="n">
+      <c r="Q56" t="n">
         <v>56649</v>
       </c>
-      <c r="Q56" t="n">
+      <c r="R56" t="n">
         <v>45087</v>
       </c>
-      <c r="R56" t="n">
+      <c r="S56" t="n">
         <v>283.4</v>
       </c>
-      <c r="S56" t="n">
+      <c r="T56" t="n">
         <v>21736100</v>
       </c>
     </row>
@@ -2933,31 +3000,34 @@
         <v>22898</v>
       </c>
       <c r="J57" t="n">
+        <v>22.24</v>
+      </c>
+      <c r="K57" t="n">
         <v>252963</v>
       </c>
-      <c r="K57" t="n">
+      <c r="L57" t="n">
         <v>99.6</v>
       </c>
-      <c r="L57" t="n">
+      <c r="M57" t="n">
         <v>10.8</v>
       </c>
-      <c r="M57" t="n">
+      <c r="N57" t="n">
         <v>2145.6</v>
       </c>
-      <c r="N57"/>
-      <c r="O57" t="n">
+      <c r="O57"/>
+      <c r="P57" t="n">
         <v>8.53333333333333</v>
       </c>
-      <c r="P57" t="n">
+      <c r="Q57" t="n">
         <v>53676</v>
       </c>
-      <c r="Q57" t="n">
+      <c r="R57" t="n">
         <v>46082</v>
       </c>
-      <c r="R57" t="n">
+      <c r="S57" t="n">
         <v>277.3</v>
       </c>
-      <c r="S57" t="n">
+      <c r="T57" t="n">
         <v>22633500</v>
       </c>
     </row>
@@ -2982,31 +3052,34 @@
         <v>23916</v>
       </c>
       <c r="J58" t="n">
+        <v>22.44</v>
+      </c>
+      <c r="K58" t="n">
         <v>292451</v>
       </c>
-      <c r="K58" t="n">
+      <c r="L58" t="n">
         <v>98.4</v>
       </c>
-      <c r="L58" t="n">
+      <c r="M58" t="n">
         <v>16.2</v>
       </c>
-      <c r="M58" t="n">
+      <c r="N58" t="n">
         <v>2054.5</v>
       </c>
-      <c r="N58"/>
-      <c r="O58" t="n">
+      <c r="O58"/>
+      <c r="P58" t="n">
         <v>10.8666666666667</v>
       </c>
-      <c r="P58" t="n">
+      <c r="Q58" t="n">
         <v>53757</v>
       </c>
-      <c r="Q58" t="n">
+      <c r="R58" t="n">
         <v>47334</v>
       </c>
-      <c r="R58" t="n">
+      <c r="S58" t="n">
         <v>319</v>
       </c>
-      <c r="S58" t="n">
+      <c r="T58" t="n">
         <v>22742000</v>
       </c>
     </row>
@@ -3031,31 +3104,34 @@
         <v>24106</v>
       </c>
       <c r="J59" t="n">
+        <v>22</v>
+      </c>
+      <c r="K59" t="n">
         <v>296588</v>
       </c>
-      <c r="K59" t="n">
+      <c r="L59" t="n">
         <v>98.4</v>
       </c>
-      <c r="L59" t="n">
+      <c r="M59" t="n">
         <v>15.8</v>
       </c>
-      <c r="M59" t="n">
+      <c r="N59" t="n">
         <v>2028.6</v>
       </c>
-      <c r="N59"/>
-      <c r="O59" t="n">
+      <c r="O59"/>
+      <c r="P59" t="n">
         <v>12.6</v>
       </c>
-      <c r="P59" t="n">
+      <c r="Q59" t="n">
         <v>53927</v>
       </c>
-      <c r="Q59" t="n">
+      <c r="R59" t="n">
         <v>48399</v>
       </c>
-      <c r="R59" t="n">
+      <c r="S59" t="n">
         <v>320.5</v>
       </c>
-      <c r="S59" t="n">
+      <c r="T59" t="n">
         <v>23413800</v>
       </c>
     </row>
@@ -3080,31 +3156,34 @@
         <v>23334</v>
       </c>
       <c r="J60" t="n">
+        <v>21.88</v>
+      </c>
+      <c r="K60" t="n">
         <v>298595</v>
       </c>
-      <c r="K60" t="n">
+      <c r="L60" t="n">
         <v>97.4333333333333</v>
       </c>
-      <c r="L60" t="n">
+      <c r="M60" t="n">
         <v>16.3</v>
       </c>
-      <c r="M60" t="n">
+      <c r="N60" t="n">
         <v>2006.2</v>
       </c>
-      <c r="N60"/>
-      <c r="O60" t="n">
+      <c r="O60"/>
+      <c r="P60" t="n">
         <v>13.3</v>
       </c>
-      <c r="P60" t="n">
+      <c r="Q60" t="n">
         <v>53624</v>
       </c>
-      <c r="Q60" t="n">
+      <c r="R60" t="n">
         <v>46688</v>
       </c>
-      <c r="R60" t="n">
+      <c r="S60" t="n">
         <v>305.4</v>
       </c>
-      <c r="S60" t="n">
+      <c r="T60" t="n">
         <v>21290800</v>
       </c>
     </row>
@@ -3129,31 +3208,34 @@
         <v>20996</v>
       </c>
       <c r="J61" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K61" t="n">
         <v>299207</v>
       </c>
-      <c r="K61" t="n">
+      <c r="L61" t="n">
         <v>96.8333333333333</v>
       </c>
-      <c r="L61" t="n">
+      <c r="M61" t="n">
         <v>13.6</v>
       </c>
-      <c r="M61" t="n">
+      <c r="N61" t="n">
         <v>1970.6</v>
       </c>
-      <c r="N61"/>
-      <c r="O61" t="n">
+      <c r="O61"/>
+      <c r="P61" t="n">
         <v>13.8333333333333</v>
       </c>
-      <c r="P61" t="n">
+      <c r="Q61" t="n">
         <v>52124</v>
       </c>
-      <c r="Q61" t="n">
+      <c r="R61" t="n">
         <v>48221</v>
       </c>
-      <c r="R61" t="n">
+      <c r="S61" t="n">
         <v>306.2</v>
       </c>
-      <c r="S61" t="n">
+      <c r="T61" t="n">
         <v>20138900</v>
       </c>
     </row>
@@ -3178,31 +3260,34 @@
         <v>22730</v>
       </c>
       <c r="J62" t="n">
+        <v>22.21</v>
+      </c>
+      <c r="K62" t="n">
         <v>300445</v>
       </c>
-      <c r="K62" t="n">
+      <c r="L62" t="n">
         <v>95.9666666666667</v>
       </c>
-      <c r="L62" t="n">
+      <c r="M62" t="n">
         <v>14.7</v>
       </c>
-      <c r="M62" t="n">
+      <c r="N62" t="n">
         <v>1934.6</v>
       </c>
-      <c r="N62"/>
-      <c r="O62" t="n">
+      <c r="O62"/>
+      <c r="P62" t="n">
         <v>13.8</v>
       </c>
-      <c r="P62" t="n">
+      <c r="Q62" t="n">
         <v>53601</v>
       </c>
-      <c r="Q62" t="n">
+      <c r="R62" t="n">
         <v>47642</v>
       </c>
-      <c r="R62" t="n">
+      <c r="S62" t="n">
         <v>282.4</v>
       </c>
-      <c r="S62" t="n">
+      <c r="T62" t="n">
         <v>21499800</v>
       </c>
     </row>
@@ -3227,31 +3312,34 @@
         <v>23270</v>
       </c>
       <c r="J63" t="n">
+        <v>22.03</v>
+      </c>
+      <c r="K63" t="n">
         <v>297894</v>
       </c>
-      <c r="K63" t="n">
+      <c r="L63" t="n">
         <v>96.3</v>
       </c>
-      <c r="L63" t="n">
+      <c r="M63" t="n">
         <v>14</v>
       </c>
-      <c r="M63" t="n">
+      <c r="N63" t="n">
         <v>1936.5</v>
       </c>
-      <c r="N63"/>
-      <c r="O63" t="n">
+      <c r="O63"/>
+      <c r="P63" t="n">
         <v>14.3666666666667</v>
       </c>
-      <c r="P63" t="n">
+      <c r="Q63" t="n">
         <v>54394</v>
       </c>
-      <c r="Q63" t="n">
+      <c r="R63" t="n">
         <v>51784</v>
       </c>
-      <c r="R63" t="n">
+      <c r="S63" t="n">
         <v>304.6</v>
       </c>
-      <c r="S63" t="n">
+      <c r="T63" t="n">
         <v>22683100</v>
       </c>
     </row>
@@ -3276,31 +3364,34 @@
         <v>22454</v>
       </c>
       <c r="J64" t="n">
+        <v>21.78</v>
+      </c>
+      <c r="K64" t="n">
         <v>294384</v>
       </c>
-      <c r="K64" t="n">
+      <c r="L64" t="n">
         <v>96.2666666666667</v>
       </c>
-      <c r="L64" t="n">
+      <c r="M64" t="n">
         <v>12.8</v>
       </c>
-      <c r="M64" t="n">
+      <c r="N64" t="n">
         <v>1930.3</v>
       </c>
-      <c r="N64"/>
-      <c r="O64" t="n">
+      <c r="O64"/>
+      <c r="P64" t="n">
         <v>14.5666666666667</v>
       </c>
-      <c r="P64" t="n">
+      <c r="Q64" t="n">
         <v>55010</v>
       </c>
-      <c r="Q64" t="n">
+      <c r="R64" t="n">
         <v>51555</v>
       </c>
-      <c r="R64" t="n">
+      <c r="S64" t="n">
         <v>304.9</v>
       </c>
-      <c r="S64" t="n">
+      <c r="T64" t="n">
         <v>23344800</v>
       </c>
     </row>
@@ -3325,31 +3416,34 @@
         <v>21000</v>
       </c>
       <c r="J65" t="n">
+        <v>22.14</v>
+      </c>
+      <c r="K65" t="n">
         <v>288538</v>
       </c>
-      <c r="K65" t="n">
+      <c r="L65" t="n">
         <v>96.2333333333333</v>
       </c>
-      <c r="L65" t="n">
+      <c r="M65" t="n">
         <v>11.5</v>
       </c>
-      <c r="M65" t="n">
+      <c r="N65" t="n">
         <v>1896.6</v>
       </c>
-      <c r="N65"/>
-      <c r="O65" t="n">
+      <c r="O65"/>
+      <c r="P65" t="n">
         <v>15.6333333333333</v>
       </c>
-      <c r="P65" t="n">
+      <c r="Q65" t="n">
         <v>54018</v>
       </c>
-      <c r="Q65" t="n">
+      <c r="R65" t="n">
         <v>51065</v>
       </c>
-      <c r="R65" t="n">
+      <c r="S65" t="n">
         <v>308.3</v>
       </c>
-      <c r="S65" t="n">
+      <c r="T65" t="n">
         <v>23395900</v>
       </c>
     </row>
@@ -3374,31 +3468,34 @@
         <v>22034</v>
       </c>
       <c r="J66" t="n">
+        <v>22.18</v>
+      </c>
+      <c r="K66" t="n">
         <v>283563</v>
       </c>
-      <c r="K66" t="n">
+      <c r="L66" t="n">
         <v>96.7666666666667</v>
       </c>
-      <c r="L66" t="n">
+      <c r="M66" t="n">
         <v>11.4</v>
       </c>
-      <c r="M66" t="n">
+      <c r="N66" t="n">
         <v>1878.1</v>
       </c>
-      <c r="N66"/>
-      <c r="O66" t="n">
+      <c r="O66"/>
+      <c r="P66" t="n">
         <v>15.1666666666667</v>
       </c>
-      <c r="P66" t="n">
+      <c r="Q66" t="n">
         <v>54770</v>
       </c>
-      <c r="Q66" t="n">
+      <c r="R66" t="n">
         <v>51401</v>
       </c>
-      <c r="R66" t="n">
+      <c r="S66" t="n">
         <v>333.3</v>
       </c>
-      <c r="S66" t="n">
+      <c r="T66" t="n">
         <v>23827600</v>
       </c>
     </row>
@@ -3425,31 +3522,34 @@
         <v>22648</v>
       </c>
       <c r="J67" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="K67" t="n">
         <v>280520</v>
       </c>
-      <c r="K67" t="n">
+      <c r="L67" t="n">
         <v>97.5333333333333</v>
       </c>
-      <c r="L67" t="n">
+      <c r="M67" t="n">
         <v>11</v>
       </c>
-      <c r="M67" t="n">
+      <c r="N67" t="n">
         <v>1899.6</v>
       </c>
-      <c r="N67"/>
-      <c r="O67" t="n">
+      <c r="O67"/>
+      <c r="P67" t="n">
         <v>15.0333333333333</v>
       </c>
-      <c r="P67" t="n">
+      <c r="Q67" t="n">
         <v>55847</v>
       </c>
-      <c r="Q67" t="n">
+      <c r="R67" t="n">
         <v>53266</v>
       </c>
-      <c r="R67" t="n">
+      <c r="S67" t="n">
         <v>337</v>
       </c>
-      <c r="S67" t="n">
+      <c r="T67" t="n">
         <v>23719500</v>
       </c>
     </row>
@@ -3476,31 +3576,34 @@
         <v>21999</v>
       </c>
       <c r="J68" t="n">
+        <v>21.57</v>
+      </c>
+      <c r="K68" t="n">
         <v>277716</v>
       </c>
-      <c r="K68" t="n">
+      <c r="L68" t="n">
         <v>97.3666666666667</v>
       </c>
-      <c r="L68" t="n">
+      <c r="M68" t="n">
         <v>12.5</v>
       </c>
-      <c r="M68" t="n">
+      <c r="N68" t="n">
         <v>1885.7</v>
       </c>
-      <c r="N68"/>
-      <c r="O68" t="n">
+      <c r="O68"/>
+      <c r="P68" t="n">
         <v>15.6</v>
       </c>
-      <c r="P68" t="n">
+      <c r="Q68" t="n">
         <v>55522</v>
       </c>
-      <c r="Q68" t="n">
+      <c r="R68" t="n">
         <v>51516</v>
       </c>
-      <c r="R68" t="n">
+      <c r="S68" t="n">
         <v>304.1</v>
       </c>
-      <c r="S68" t="n">
+      <c r="T68" t="n">
         <v>22777500</v>
       </c>
     </row>
@@ -3527,31 +3630,34 @@
         <v>21829</v>
       </c>
       <c r="J69" t="n">
+        <v>22.06</v>
+      </c>
+      <c r="K69" t="n">
         <v>275690</v>
       </c>
-      <c r="K69" t="n">
+      <c r="L69" t="n">
         <v>97.7666666666667</v>
       </c>
-      <c r="L69" t="n">
+      <c r="M69" t="n">
         <v>14.9</v>
       </c>
-      <c r="M69" t="n">
+      <c r="N69" t="n">
         <v>1886.4</v>
       </c>
-      <c r="N69"/>
-      <c r="O69" t="n">
+      <c r="O69"/>
+      <c r="P69" t="n">
         <v>15.8333333333333</v>
       </c>
-      <c r="P69" t="n">
+      <c r="Q69" t="n">
         <v>54464</v>
       </c>
-      <c r="Q69" t="n">
+      <c r="R69" t="n">
         <v>52144</v>
       </c>
-      <c r="R69" t="n">
+      <c r="S69" t="n">
         <v>304.3</v>
       </c>
-      <c r="S69" t="n">
+      <c r="T69" t="n">
         <v>22866200</v>
       </c>
     </row>
@@ -3578,31 +3684,34 @@
         <v>22424</v>
       </c>
       <c r="J70" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="K70" t="n">
         <v>275275</v>
       </c>
-      <c r="K70" t="n">
+      <c r="L70" t="n">
         <v>98.3666666666667</v>
       </c>
-      <c r="L70" t="n">
+      <c r="M70" t="n">
         <v>14.9</v>
       </c>
-      <c r="M70" t="n">
+      <c r="N70" t="n">
         <v>1862.6</v>
       </c>
-      <c r="N70"/>
-      <c r="O70" t="n">
+      <c r="O70"/>
+      <c r="P70" t="n">
         <v>15.9333333333333</v>
       </c>
-      <c r="P70" t="n">
+      <c r="Q70" t="n">
         <v>53666</v>
       </c>
-      <c r="Q70" t="n">
+      <c r="R70" t="n">
         <v>49346</v>
       </c>
-      <c r="R70" t="n">
+      <c r="S70" t="n">
         <v>310.3</v>
       </c>
-      <c r="S70" t="n">
+      <c r="T70" t="n">
         <v>24027800</v>
       </c>
     </row>
@@ -3629,31 +3738,34 @@
         <v>22831</v>
       </c>
       <c r="J71" t="n">
+        <v>21.96</v>
+      </c>
+      <c r="K71" t="n">
         <v>276590</v>
       </c>
-      <c r="K71" t="n">
+      <c r="L71" t="n">
         <v>99.3333333333333</v>
       </c>
-      <c r="L71" t="n">
+      <c r="M71" t="n">
         <v>13</v>
       </c>
-      <c r="M71" t="n">
+      <c r="N71" t="n">
         <v>1876.8</v>
       </c>
-      <c r="N71"/>
-      <c r="O71" t="n">
+      <c r="O71"/>
+      <c r="P71" t="n">
         <v>15.5333333333333</v>
       </c>
-      <c r="P71" t="n">
+      <c r="Q71" t="n">
         <v>55960</v>
       </c>
-      <c r="Q71" t="n">
+      <c r="R71" t="n">
         <v>52300</v>
       </c>
-      <c r="R71" t="n">
+      <c r="S71" t="n">
         <v>302.3</v>
       </c>
-      <c r="S71" t="n">
+      <c r="T71" t="n">
         <v>23041300</v>
       </c>
     </row>
@@ -3680,31 +3792,34 @@
         <v>22875</v>
       </c>
       <c r="J72" t="n">
+        <v>21.82</v>
+      </c>
+      <c r="K72" t="n">
         <v>276744</v>
       </c>
-      <c r="K72" t="n">
+      <c r="L72" t="n">
         <v>99.6333333333333</v>
       </c>
-      <c r="L72" t="n">
+      <c r="M72" t="n">
         <v>14.1</v>
       </c>
-      <c r="M72" t="n">
+      <c r="N72" t="n">
         <v>1888.5</v>
       </c>
-      <c r="N72"/>
-      <c r="O72" t="n">
+      <c r="O72"/>
+      <c r="P72" t="n">
         <v>15.4333333333333</v>
       </c>
-      <c r="P72" t="n">
+      <c r="Q72" t="n">
         <v>55203</v>
       </c>
-      <c r="Q72" t="n">
+      <c r="R72" t="n">
         <v>51327</v>
       </c>
-      <c r="R72" t="n">
+      <c r="S72" t="n">
         <v>296.7</v>
       </c>
-      <c r="S72" t="n">
+      <c r="T72" t="n">
         <v>23956100</v>
       </c>
     </row>
@@ -3731,31 +3846,34 @@
         <v>22511</v>
       </c>
       <c r="J73" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="K73" t="n">
         <v>276911</v>
       </c>
-      <c r="K73" t="n">
+      <c r="L73" t="n">
         <v>99.5</v>
       </c>
-      <c r="L73" t="n">
+      <c r="M73" t="n">
         <v>15.4</v>
       </c>
-      <c r="M73" t="n">
+      <c r="N73" t="n">
         <v>1892.9</v>
       </c>
-      <c r="N73"/>
-      <c r="O73" t="n">
+      <c r="O73"/>
+      <c r="P73" t="n">
         <v>15</v>
       </c>
-      <c r="P73" t="n">
+      <c r="Q73" t="n">
         <v>54893</v>
       </c>
-      <c r="Q73" t="n">
+      <c r="R73" t="n">
         <v>53641</v>
       </c>
-      <c r="R73" t="n">
+      <c r="S73" t="n">
         <v>297.4</v>
       </c>
-      <c r="S73" t="n">
+      <c r="T73" t="n">
         <v>22481500</v>
       </c>
     </row>
@@ -3782,31 +3900,34 @@
         <v>22281</v>
       </c>
       <c r="J74" t="n">
+        <v>22.24</v>
+      </c>
+      <c r="K74" t="n">
         <v>277219</v>
       </c>
-      <c r="K74" t="n">
+      <c r="L74" t="n">
         <v>99.4666666666667</v>
       </c>
-      <c r="L74" t="n">
+      <c r="M74" t="n">
         <v>12.2</v>
       </c>
-      <c r="M74" t="n">
+      <c r="N74" t="n">
         <v>1893.2</v>
       </c>
-      <c r="N74"/>
-      <c r="O74" t="n">
+      <c r="O74"/>
+      <c r="P74" t="n">
         <v>14.5333333333333</v>
       </c>
-      <c r="P74" t="n">
+      <c r="Q74" t="n">
         <v>53333</v>
       </c>
-      <c r="Q74" t="n">
+      <c r="R74" t="n">
         <v>50627</v>
       </c>
-      <c r="R74" t="n">
+      <c r="S74" t="n">
         <v>286</v>
       </c>
-      <c r="S74" t="n">
+      <c r="T74" t="n">
         <v>21987400</v>
       </c>
     </row>
@@ -3833,31 +3954,34 @@
         <v>23090</v>
       </c>
       <c r="J75" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="K75" t="n">
         <v>275189</v>
       </c>
-      <c r="K75" t="n">
+      <c r="L75" t="n">
         <v>99.8666666666667</v>
       </c>
-      <c r="L75" t="n">
+      <c r="M75" t="n">
         <v>12.6</v>
       </c>
-      <c r="M75" t="n">
+      <c r="N75" t="n">
         <v>1924.2</v>
       </c>
-      <c r="N75"/>
-      <c r="O75" t="n">
+      <c r="O75"/>
+      <c r="P75" t="n">
         <v>14.3666666666667</v>
       </c>
-      <c r="P75" t="n">
+      <c r="Q75" t="n">
         <v>55553</v>
       </c>
-      <c r="Q75" t="n">
+      <c r="R75" t="n">
         <v>55969</v>
       </c>
-      <c r="R75" t="n">
+      <c r="S75" t="n">
         <v>310.8</v>
       </c>
-      <c r="S75" t="n">
+      <c r="T75" t="n">
         <v>22496400</v>
       </c>
     </row>
@@ -3884,31 +4008,34 @@
         <v>22519</v>
       </c>
       <c r="J76" t="n">
+        <v>21.53</v>
+      </c>
+      <c r="K76" t="n">
         <v>274244</v>
       </c>
-      <c r="K76" t="n">
+      <c r="L76" t="n">
         <v>99.9333333333333</v>
       </c>
-      <c r="L76" t="n">
+      <c r="M76" t="n">
         <v>11.6</v>
       </c>
-      <c r="M76" t="n">
+      <c r="N76" t="n">
         <v>1962</v>
       </c>
-      <c r="N76"/>
-      <c r="O76" t="n">
+      <c r="O76"/>
+      <c r="P76" t="n">
         <v>13.3333333333333</v>
       </c>
-      <c r="P76" t="n">
+      <c r="Q76" t="n">
         <v>58401</v>
       </c>
-      <c r="Q76" t="n">
+      <c r="R76" t="n">
         <v>55276</v>
       </c>
-      <c r="R76" t="n">
+      <c r="S76" t="n">
         <v>311</v>
       </c>
-      <c r="S76" t="n">
+      <c r="T76" t="n">
         <v>22538800</v>
       </c>
     </row>
@@ -3935,31 +4062,34 @@
         <v>22344</v>
       </c>
       <c r="J77" t="n">
+        <v>21.89</v>
+      </c>
+      <c r="K77" t="n">
         <v>274302</v>
       </c>
-      <c r="K77" t="n">
+      <c r="L77" t="n">
         <v>99.6666666666667</v>
       </c>
-      <c r="L77" t="n">
+      <c r="M77" t="n">
         <v>12.8</v>
       </c>
-      <c r="M77" t="n">
+      <c r="N77" t="n">
         <v>1969.6</v>
       </c>
-      <c r="N77"/>
-      <c r="O77" t="n">
+      <c r="O77"/>
+      <c r="P77" t="n">
         <v>12.8333333333333</v>
       </c>
-      <c r="P77" t="n">
+      <c r="Q77" t="n">
         <v>57252</v>
       </c>
-      <c r="Q77" t="n">
+      <c r="R77" t="n">
         <v>56837</v>
       </c>
-      <c r="R77" t="n">
+      <c r="S77" t="n">
         <v>308.8</v>
       </c>
-      <c r="S77" t="n">
+      <c r="T77" t="n">
         <v>22158800</v>
       </c>
     </row>
@@ -3986,31 +4116,34 @@
         <v>22605</v>
       </c>
       <c r="J78" t="n">
+        <v>22.37</v>
+      </c>
+      <c r="K78" t="n">
         <v>274535</v>
       </c>
-      <c r="K78" t="n">
+      <c r="L78" t="n">
         <v>99.6666666666667</v>
       </c>
-      <c r="L78" t="n">
+      <c r="M78" t="n">
         <v>12.6</v>
       </c>
-      <c r="M78" t="n">
+      <c r="N78" t="n">
         <v>1950.8</v>
       </c>
-      <c r="N78"/>
-      <c r="O78" t="n">
+      <c r="O78"/>
+      <c r="P78" t="n">
         <v>12.8333333333333</v>
       </c>
-      <c r="P78" t="n">
+      <c r="Q78" t="n">
         <v>58751</v>
       </c>
-      <c r="Q78" t="n">
+      <c r="R78" t="n">
         <v>57178</v>
       </c>
-      <c r="R78" t="n">
+      <c r="S78" t="n">
         <v>306.4</v>
       </c>
-      <c r="S78" t="n">
+      <c r="T78" t="n">
         <v>21764800</v>
       </c>
     </row>
@@ -4037,31 +4170,34 @@
         <v>23287</v>
       </c>
       <c r="J79" t="n">
+        <v>21.81</v>
+      </c>
+      <c r="K79" t="n">
         <v>274455</v>
       </c>
-      <c r="K79" t="n">
+      <c r="L79" t="n">
         <v>100.266666666667</v>
       </c>
-      <c r="L79" t="n">
+      <c r="M79" t="n">
         <v>10.6</v>
       </c>
-      <c r="M79" t="n">
+      <c r="N79" t="n">
         <v>1968.9</v>
       </c>
-      <c r="N79"/>
-      <c r="O79" t="n">
+      <c r="O79"/>
+      <c r="P79" t="n">
         <v>12.2</v>
       </c>
-      <c r="P79" t="n">
+      <c r="Q79" t="n">
         <v>60607</v>
       </c>
-      <c r="Q79" t="n">
+      <c r="R79" t="n">
         <v>63494</v>
       </c>
-      <c r="R79" t="n">
+      <c r="S79" t="n">
         <v>317.7</v>
       </c>
-      <c r="S79" t="n">
+      <c r="T79" t="n">
         <v>23559100</v>
       </c>
     </row>
@@ -4088,31 +4224,34 @@
         <v>23046</v>
       </c>
       <c r="J80" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="K80" t="n">
         <v>275050</v>
       </c>
-      <c r="K80" t="n">
+      <c r="L80" t="n">
         <v>100.433333333333</v>
       </c>
-      <c r="L80" t="n">
+      <c r="M80" t="n">
         <v>10.2</v>
       </c>
-      <c r="M80" t="n">
+      <c r="N80" t="n">
         <v>2009.4</v>
       </c>
-      <c r="N80"/>
-      <c r="O80" t="n">
+      <c r="O80"/>
+      <c r="P80" t="n">
         <v>11.6666666666667</v>
       </c>
-      <c r="P80" t="n">
+      <c r="Q80" t="n">
         <v>63072</v>
       </c>
-      <c r="Q80" t="n">
+      <c r="R80" t="n">
         <v>64919</v>
       </c>
-      <c r="R80" t="n">
+      <c r="S80" t="n">
         <v>310.7</v>
       </c>
-      <c r="S80" t="n">
+      <c r="T80" t="n">
         <v>23271200</v>
       </c>
     </row>
@@ -4139,31 +4278,34 @@
         <v>22929</v>
       </c>
       <c r="J81" t="n">
+        <v>22.05</v>
+      </c>
+      <c r="K81" t="n">
         <v>276050</v>
       </c>
-      <c r="K81" t="n">
+      <c r="L81" t="n">
         <v>99.7666666666667</v>
       </c>
-      <c r="L81" t="n">
+      <c r="M81" t="n">
         <v>10.8</v>
       </c>
-      <c r="M81" t="n">
+      <c r="N81" t="n">
         <v>2025</v>
       </c>
-      <c r="N81"/>
-      <c r="O81" t="n">
+      <c r="O81"/>
+      <c r="P81" t="n">
         <v>10.8666666666667</v>
       </c>
-      <c r="P81" t="n">
+      <c r="Q81" t="n">
         <v>63072</v>
       </c>
-      <c r="Q81" t="n">
+      <c r="R81" t="n">
         <v>65753</v>
       </c>
-      <c r="R81" t="n">
+      <c r="S81" t="n">
         <v>309.9</v>
       </c>
-      <c r="S81" t="n">
+      <c r="T81" t="n">
         <v>24020600</v>
       </c>
     </row>
@@ -4192,31 +4334,34 @@
         <v>23625</v>
       </c>
       <c r="J82" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="K82" t="n">
         <v>277112</v>
       </c>
-      <c r="K82" t="n">
+      <c r="L82" t="n">
         <v>99.3333333333333</v>
       </c>
-      <c r="L82" t="n">
+      <c r="M82" t="n">
         <v>12.3</v>
       </c>
-      <c r="M82" t="n">
+      <c r="N82" t="n">
         <v>2012.4</v>
       </c>
-      <c r="N82"/>
-      <c r="O82" t="n">
+      <c r="O82"/>
+      <c r="P82" t="n">
         <v>10.6333333333333</v>
       </c>
-      <c r="P82" t="n">
+      <c r="Q82" t="n">
         <v>75460</v>
       </c>
-      <c r="Q82" t="n">
+      <c r="R82" t="n">
         <v>82209</v>
       </c>
-      <c r="R82" t="n">
+      <c r="S82" t="n">
         <v>330</v>
       </c>
-      <c r="S82" t="n">
+      <c r="T82" t="n">
         <v>26042800</v>
       </c>
     </row>
@@ -4245,31 +4390,34 @@
         <v>24799</v>
       </c>
       <c r="J83" t="n">
+        <v>21.86</v>
+      </c>
+      <c r="K83" t="n">
         <v>280276</v>
       </c>
-      <c r="K83" t="n">
+      <c r="L83" t="n">
         <v>100.366666666667</v>
       </c>
-      <c r="L83" t="n">
+      <c r="M83" t="n">
         <v>13.2</v>
       </c>
-      <c r="M83" t="n">
+      <c r="N83" t="n">
         <v>2047.7</v>
       </c>
-      <c r="N83"/>
-      <c r="O83" t="n">
+      <c r="O83"/>
+      <c r="P83" t="n">
         <v>10.1</v>
       </c>
-      <c r="P83" t="n">
+      <c r="Q83" t="n">
         <v>73491</v>
       </c>
-      <c r="Q83" t="n">
+      <c r="R83" t="n">
         <v>86416</v>
       </c>
-      <c r="R83" t="n">
+      <c r="S83" t="n">
         <v>344</v>
       </c>
-      <c r="S83" t="n">
+      <c r="T83" t="n">
         <v>28704500</v>
       </c>
     </row>
@@ -4298,31 +4446,34 @@
         <v>24775</v>
       </c>
       <c r="J84" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K84" t="n">
         <v>282123</v>
       </c>
-      <c r="K84" t="n">
+      <c r="L84" t="n">
         <v>100.533333333333</v>
       </c>
-      <c r="L84" t="n">
+      <c r="M84" t="n">
         <v>11.8</v>
       </c>
-      <c r="M84" t="n">
+      <c r="N84" t="n">
         <v>2078.6</v>
       </c>
-      <c r="N84"/>
-      <c r="O84" t="n">
+      <c r="O84"/>
+      <c r="P84" t="n">
         <v>9.56666666666667</v>
       </c>
-      <c r="P84" t="n">
+      <c r="Q84" t="n">
         <v>78116</v>
       </c>
-      <c r="Q84" t="n">
+      <c r="R84" t="n">
         <v>90486</v>
       </c>
-      <c r="R84" t="n">
+      <c r="S84" t="n">
         <v>343.5</v>
       </c>
-      <c r="S84" t="n">
+      <c r="T84" t="n">
         <v>27476800</v>
       </c>
     </row>
@@ -4351,31 +4502,34 @@
         <v>23617</v>
       </c>
       <c r="J85" t="n">
+        <v>21.91</v>
+      </c>
+      <c r="K85" t="n">
         <v>284786</v>
       </c>
-      <c r="K85" t="n">
+      <c r="L85" t="n">
         <v>99.7666666666667</v>
       </c>
-      <c r="L85" t="n">
+      <c r="M85" t="n">
         <v>11.1</v>
       </c>
-      <c r="M85" t="n">
+      <c r="N85" t="n">
         <v>2083.9</v>
       </c>
-      <c r="N85"/>
-      <c r="O85" t="n">
+      <c r="O85"/>
+      <c r="P85" t="n">
         <v>9.43333333333333</v>
       </c>
-      <c r="P85" t="n">
+      <c r="Q85" t="n">
         <v>78867</v>
       </c>
-      <c r="Q85" t="n">
+      <c r="R85" t="n">
         <v>95341</v>
       </c>
-      <c r="R85" t="n">
+      <c r="S85" t="n">
         <v>370.7</v>
       </c>
-      <c r="S85" t="n">
+      <c r="T85" t="n">
         <v>30183300</v>
       </c>
     </row>
@@ -4404,31 +4558,34 @@
         <v>24732</v>
       </c>
       <c r="J86" t="n">
+        <v>22.55</v>
+      </c>
+      <c r="K86" t="n">
         <v>286347</v>
       </c>
-      <c r="K86" t="n">
+      <c r="L86" t="n">
         <v>99.0666666666667</v>
       </c>
-      <c r="L86" t="n">
+      <c r="M86" t="n">
         <v>10.6</v>
       </c>
-      <c r="M86" t="n">
+      <c r="N86" t="n">
         <v>2079</v>
       </c>
-      <c r="N86"/>
-      <c r="O86" t="n">
+      <c r="O86"/>
+      <c r="P86" t="n">
         <v>8.93333333333333</v>
       </c>
-      <c r="P86" t="n">
+      <c r="Q86" t="n">
         <v>73829</v>
       </c>
-      <c r="Q86" t="n">
+      <c r="R86" t="n">
         <v>89723</v>
       </c>
-      <c r="R86" t="n">
+      <c r="S86" t="n">
         <v>358.5</v>
       </c>
-      <c r="S86" t="n">
+      <c r="T86" t="n">
         <v>27813124</v>
       </c>
     </row>
@@ -4457,31 +4614,34 @@
         <v>25653</v>
       </c>
       <c r="J87" t="n">
+        <v>21.97</v>
+      </c>
+      <c r="K87" t="n">
         <v>288308</v>
       </c>
-      <c r="K87" t="n">
+      <c r="L87" t="n">
         <v>100.266666666667</v>
       </c>
-      <c r="L87" t="n">
+      <c r="M87" t="n">
         <v>11.6</v>
       </c>
-      <c r="M87" t="n">
+      <c r="N87" t="n">
         <v>2124.4</v>
       </c>
-      <c r="N87"/>
-      <c r="O87" t="n">
+      <c r="O87"/>
+      <c r="P87" t="n">
         <v>8.8</v>
       </c>
-      <c r="P87" t="n">
+      <c r="Q87" t="n">
         <v>73854</v>
       </c>
-      <c r="Q87" t="n">
+      <c r="R87" t="n">
         <v>90170</v>
       </c>
-      <c r="R87" t="n">
+      <c r="S87" t="n">
         <v>387.1</v>
       </c>
-      <c r="S87" t="n">
+      <c r="T87" t="n">
         <v>30306574</v>
       </c>
     </row>
@@ -4510,31 +4670,34 @@
         <v>26327</v>
       </c>
       <c r="J88" t="n">
+        <v>21.56</v>
+      </c>
+      <c r="K88" t="n">
         <v>290213</v>
       </c>
-      <c r="K88" t="n">
+      <c r="L88" t="n">
         <v>100.333333333333</v>
       </c>
-      <c r="L88" t="n">
+      <c r="M88" t="n">
         <v>13.6</v>
       </c>
-      <c r="M88" t="n">
+      <c r="N88" t="n">
         <v>2159.9</v>
       </c>
-      <c r="N88"/>
-      <c r="O88" t="n">
+      <c r="O88"/>
+      <c r="P88" t="n">
         <v>8.23333333333333</v>
       </c>
-      <c r="P88" t="n">
+      <c r="Q88" t="n">
         <v>76641</v>
       </c>
-      <c r="Q88" t="n">
+      <c r="R88" t="n">
         <v>93278</v>
       </c>
-      <c r="R88" t="n">
+      <c r="S88" t="n">
         <v>379.4</v>
       </c>
-      <c r="S88" t="n">
+      <c r="T88" t="n">
         <v>30360762</v>
       </c>
     </row>
@@ -4563,31 +4726,34 @@
         <v>24889</v>
       </c>
       <c r="J89" t="n">
+        <v>22.18</v>
+      </c>
+      <c r="K89" t="n">
         <v>291699</v>
       </c>
-      <c r="K89" t="n">
+      <c r="L89" t="n">
         <v>99.5</v>
       </c>
-      <c r="L89" t="n">
+      <c r="M89" t="n">
         <v>11.6</v>
       </c>
-      <c r="M89" t="n">
+      <c r="N89" t="n">
         <v>2165.5</v>
       </c>
-      <c r="N89"/>
-      <c r="O89" t="n">
+      <c r="O89"/>
+      <c r="P89" t="n">
         <v>7.56666666666667</v>
       </c>
-      <c r="P89" t="n">
+      <c r="Q89" t="n">
         <v>85351</v>
       </c>
-      <c r="Q89" t="n">
+      <c r="R89" t="n">
         <v>96956</v>
       </c>
-      <c r="R89" t="n">
+      <c r="S89" t="n">
         <v>382.9</v>
       </c>
-      <c r="S89" t="n">
+      <c r="T89" t="n">
         <v>30811693</v>
       </c>
     </row>
@@ -4616,31 +4782,34 @@
         <v>26343</v>
       </c>
       <c r="J90" t="n">
+        <v>22.69</v>
+      </c>
+      <c r="K90" t="n">
         <v>293879</v>
       </c>
-      <c r="K90" t="n">
+      <c r="L90" t="n">
         <v>99.4333333333333</v>
       </c>
-      <c r="L90" t="n">
+      <c r="M90" t="n">
         <v>13.9</v>
       </c>
-      <c r="M90" t="n">
+      <c r="N90" t="n">
         <v>2162.8</v>
       </c>
-      <c r="N90"/>
-      <c r="O90" t="n">
+      <c r="O90"/>
+      <c r="P90" t="n">
         <v>7.26666666666667</v>
       </c>
-      <c r="P90" t="n">
+      <c r="Q90" t="n">
         <v>79797</v>
       </c>
-      <c r="Q90" t="n">
+      <c r="R90" t="n">
         <v>93167</v>
       </c>
-      <c r="R90" t="n">
+      <c r="S90" t="n">
         <v>410.9</v>
       </c>
-      <c r="S90" t="n">
+      <c r="T90" t="n">
         <v>32178710</v>
       </c>
     </row>
@@ -4669,31 +4838,34 @@
         <v>27259</v>
       </c>
       <c r="J91" t="n">
+        <v>22.27</v>
+      </c>
+      <c r="K91" t="n">
         <v>298142</v>
       </c>
-      <c r="K91" t="n">
+      <c r="L91" t="n">
         <v>100.3</v>
       </c>
-      <c r="L91" t="n">
+      <c r="M91" t="n">
         <v>14.3</v>
       </c>
-      <c r="M91" t="n">
+      <c r="N91" t="n">
         <v>2187.4</v>
       </c>
-      <c r="N91"/>
-      <c r="O91" t="n">
+      <c r="O91"/>
+      <c r="P91" t="n">
         <v>6.66666666666667</v>
       </c>
-      <c r="P91" t="n">
+      <c r="Q91" t="n">
         <v>80312</v>
       </c>
-      <c r="Q91" t="n">
+      <c r="R91" t="n">
         <v>98742</v>
       </c>
-      <c r="R91" t="n">
+      <c r="S91" t="n">
         <v>402.5</v>
       </c>
-      <c r="S91" t="n">
+      <c r="T91" t="n">
         <v>31076438</v>
       </c>
     </row>
@@ -4722,31 +4894,34 @@
         <v>27802</v>
       </c>
       <c r="J92" t="n">
+        <v>22.16</v>
+      </c>
+      <c r="K92" t="n">
         <v>301282</v>
       </c>
-      <c r="K92" t="n">
+      <c r="L92" t="n">
         <v>100.466666666667</v>
       </c>
-      <c r="L92" t="n">
+      <c r="M92" t="n">
         <v>14.6</v>
       </c>
-      <c r="M92" t="n">
+      <c r="N92" t="n">
         <v>2212.3</v>
       </c>
-      <c r="N92"/>
-      <c r="O92" t="n">
+      <c r="O92"/>
+      <c r="P92" t="n">
         <v>6.66666666666667</v>
       </c>
-      <c r="P92" t="n">
+      <c r="Q92" t="n">
         <v>88418</v>
       </c>
-      <c r="Q92" t="n">
+      <c r="R92" t="n">
         <v>102956</v>
       </c>
-      <c r="R92" t="n">
+      <c r="S92" t="n">
         <v>387.3</v>
       </c>
-      <c r="S92" t="n">
+      <c r="T92" t="n">
         <v>28983231</v>
       </c>
     </row>
@@ -4775,31 +4950,34 @@
         <v>26693</v>
       </c>
       <c r="J93" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="K93" t="n">
         <v>302146</v>
       </c>
-      <c r="K93" t="n">
+      <c r="L93" t="n">
         <v>100</v>
       </c>
-      <c r="L93" t="n">
+      <c r="M93" t="n">
         <v>14</v>
       </c>
-      <c r="M93" t="n">
+      <c r="N93" t="n">
         <v>2234.7</v>
       </c>
-      <c r="N93"/>
-      <c r="O93" t="n">
+      <c r="O93"/>
+      <c r="P93" t="n">
         <v>6.43333333333333</v>
       </c>
-      <c r="P93" t="n">
+      <c r="Q93" t="n">
         <v>92267</v>
       </c>
-      <c r="Q93" t="n">
+      <c r="R93" t="n">
         <v>120234</v>
       </c>
-      <c r="R93" t="n">
+      <c r="S93" t="n">
         <v>423.1</v>
       </c>
-      <c r="S93" t="n">
+      <c r="T93" t="n">
         <v>30546414</v>
       </c>
     </row>
@@ -4828,31 +5006,34 @@
         <v>27081</v>
       </c>
       <c r="J94" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K94" t="n">
         <v>302368</v>
       </c>
-      <c r="K94" t="n">
+      <c r="L94" t="n">
         <v>99.9333333333333</v>
       </c>
-      <c r="L94" t="n">
+      <c r="M94" t="n">
         <v>11.6</v>
       </c>
-      <c r="M94" t="n">
+      <c r="N94" t="n">
         <v>2225.3</v>
       </c>
-      <c r="N94"/>
-      <c r="O94" t="n">
+      <c r="O94"/>
+      <c r="P94" t="n">
         <v>5.93333333333333</v>
       </c>
-      <c r="P94" t="n">
+      <c r="Q94" t="n">
         <v>88228</v>
       </c>
-      <c r="Q94" t="n">
+      <c r="R94" t="n">
         <v>99634</v>
       </c>
-      <c r="R94" t="n">
+      <c r="S94" t="n">
         <v>456.8</v>
       </c>
-      <c r="S94" t="n">
+      <c r="T94" t="n">
         <v>33842889</v>
       </c>
     </row>
@@ -4881,31 +5062,34 @@
         <v>28743</v>
       </c>
       <c r="J95" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="K95" t="n">
         <v>306592</v>
       </c>
-      <c r="K95" t="n">
+      <c r="L95" t="n">
         <v>100.733333333333</v>
       </c>
-      <c r="L95" t="n">
+      <c r="M95" t="n">
         <v>12.6</v>
       </c>
-      <c r="M95" t="n">
+      <c r="N95" t="n">
         <v>2261.7</v>
       </c>
-      <c r="N95"/>
-      <c r="O95" t="n">
+      <c r="O95"/>
+      <c r="P95" t="n">
         <v>5.86666666666667</v>
       </c>
-      <c r="P95" t="n">
+      <c r="Q95" t="n">
         <v>89520</v>
       </c>
-      <c r="Q95" t="n">
+      <c r="R95" t="n">
         <v>107800</v>
       </c>
-      <c r="R95" t="n">
+      <c r="S95" t="n">
         <v>484.4</v>
       </c>
-      <c r="S95" t="n">
+      <c r="T95" t="n">
         <v>35555779</v>
       </c>
     </row>
@@ -4934,31 +5118,34 @@
         <v>29000</v>
       </c>
       <c r="J96" t="n">
+        <v>22.62</v>
+      </c>
+      <c r="K96" t="n">
         <v>309669</v>
       </c>
-      <c r="K96" t="n">
+      <c r="L96" t="n">
         <v>101.5</v>
       </c>
-      <c r="L96" t="n">
+      <c r="M96" t="n">
         <v>13.3</v>
       </c>
-      <c r="M96" t="n">
+      <c r="N96" t="n">
         <v>2282.7</v>
       </c>
-      <c r="N96"/>
-      <c r="O96" t="n">
+      <c r="O96"/>
+      <c r="P96" t="n">
         <v>5.7</v>
       </c>
-      <c r="P96" t="n">
+      <c r="Q96" t="n">
         <v>93912</v>
       </c>
-      <c r="Q96" t="n">
+      <c r="R96" t="n">
         <v>109989</v>
       </c>
-      <c r="R96" t="n">
+      <c r="S96" t="n">
         <v>444.6</v>
       </c>
-      <c r="S96" t="n">
+      <c r="T96" t="n">
         <v>34162903</v>
       </c>
     </row>
@@ -4987,31 +5174,34 @@
         <v>28072</v>
       </c>
       <c r="J97" t="n">
+        <v>23.31</v>
+      </c>
+      <c r="K97" t="n">
         <v>312901</v>
       </c>
-      <c r="K97" t="n">
+      <c r="L97" t="n">
         <v>100.9</v>
       </c>
-      <c r="L97" t="n">
+      <c r="M97" t="n">
         <v>13.5</v>
       </c>
-      <c r="M97" t="n">
+      <c r="N97" t="n">
         <v>2290.4</v>
       </c>
-      <c r="N97"/>
-      <c r="O97" t="n">
+      <c r="O97"/>
+      <c r="P97" t="n">
         <v>5.76666666666667</v>
       </c>
-      <c r="P97" t="n">
+      <c r="Q97" t="n">
         <v>94846</v>
       </c>
-      <c r="Q97" t="n">
+      <c r="R97" t="n">
         <v>120014</v>
       </c>
-      <c r="R97" t="n">
+      <c r="S97" t="n">
         <v>489.7</v>
       </c>
-      <c r="S97" t="n">
+      <c r="T97" t="n">
         <v>37083398</v>
       </c>
     </row>
@@ -5040,33 +5230,36 @@
         <v>29242</v>
       </c>
       <c r="J98" t="n">
+        <v>24.05</v>
+      </c>
+      <c r="K98" t="n">
         <v>317031</v>
       </c>
-      <c r="K98" t="n">
+      <c r="L98" t="n">
         <v>100.8</v>
       </c>
-      <c r="L98" t="n">
+      <c r="M98" t="n">
         <v>13.5</v>
       </c>
-      <c r="M98" t="n">
+      <c r="N98" t="n">
         <v>2312.8</v>
       </c>
-      <c r="N98" t="n">
+      <c r="O98" t="n">
         <v>2107100</v>
       </c>
-      <c r="O98" t="n">
+      <c r="P98" t="n">
         <v>5</v>
       </c>
-      <c r="P98" t="n">
+      <c r="Q98" t="n">
         <v>91639</v>
       </c>
-      <c r="Q98" t="n">
+      <c r="R98" t="n">
         <v>112066</v>
       </c>
-      <c r="R98" t="n">
+      <c r="S98" t="n">
         <v>499.5</v>
       </c>
-      <c r="S98" t="n">
+      <c r="T98" t="n">
         <v>37576554</v>
       </c>
     </row>
@@ -5095,33 +5288,36 @@
         <v>30771</v>
       </c>
       <c r="J99" t="n">
+        <v>23.69</v>
+      </c>
+      <c r="K99" t="n">
         <v>323217</v>
       </c>
-      <c r="K99" t="n">
+      <c r="L99" t="n">
         <v>102</v>
       </c>
-      <c r="L99" t="n">
+      <c r="M99" t="n">
         <v>13.4</v>
       </c>
-      <c r="M99" t="n">
+      <c r="N99" t="n">
         <v>2311.5</v>
       </c>
-      <c r="N99" t="n">
+      <c r="O99" t="n">
         <v>2152133.33333333</v>
       </c>
-      <c r="O99" t="n">
+      <c r="P99" t="n">
         <v>5.16666666666667</v>
       </c>
-      <c r="P99" t="n">
+      <c r="Q99" t="n">
         <v>93264</v>
       </c>
-      <c r="Q99" t="n">
+      <c r="R99" t="n">
         <v>117560</v>
       </c>
-      <c r="R99" t="n">
+      <c r="S99" t="n">
         <v>511.9</v>
       </c>
-      <c r="S99" t="n">
+      <c r="T99" t="n">
         <v>38539854</v>
       </c>
     </row>
@@ -5150,33 +5346,36 @@
         <v>30591</v>
       </c>
       <c r="J100" t="n">
+        <v>23.54</v>
+      </c>
+      <c r="K100" t="n">
         <v>328307</v>
       </c>
-      <c r="K100" t="n">
+      <c r="L100" t="n">
         <v>102.066666666667</v>
       </c>
-      <c r="L100" t="n">
+      <c r="M100" t="n">
         <v>13.6</v>
       </c>
-      <c r="M100" t="n">
+      <c r="N100" t="n">
         <v>2341.6</v>
       </c>
-      <c r="N100" t="n">
+      <c r="O100" t="n">
         <v>2176300</v>
       </c>
-      <c r="O100" t="n">
+      <c r="P100" t="n">
         <v>5</v>
       </c>
-      <c r="P100" t="n">
+      <c r="Q100" t="n">
         <v>99609</v>
       </c>
-      <c r="Q100" t="n">
+      <c r="R100" t="n">
         <v>121420</v>
       </c>
-      <c r="R100" t="n">
+      <c r="S100" t="n">
         <v>499.6</v>
       </c>
-      <c r="S100" t="n">
+      <c r="T100" t="n">
         <v>37628972</v>
       </c>
     </row>
@@ -5205,33 +5404,36 @@
         <v>30259</v>
       </c>
       <c r="J101" t="n">
+        <v>24.23</v>
+      </c>
+      <c r="K101" t="n">
         <v>332431</v>
       </c>
-      <c r="K101" t="n">
+      <c r="L101" t="n">
         <v>101.733333333333</v>
       </c>
-      <c r="L101" t="n">
+      <c r="M101" t="n">
         <v>15.7</v>
       </c>
-      <c r="M101" t="n">
+      <c r="N101" t="n">
         <v>2377.8</v>
       </c>
-      <c r="N101" t="n">
+      <c r="O101" t="n">
         <v>2180333.33333333</v>
       </c>
-      <c r="O101" t="n">
+      <c r="P101" t="n">
         <v>4.8</v>
       </c>
-      <c r="P101" t="n">
+      <c r="Q101" t="n">
         <v>100469</v>
       </c>
-      <c r="Q101" t="n">
+      <c r="R101" t="n">
         <v>132238</v>
       </c>
-      <c r="R101" t="n">
+      <c r="S101" t="n">
         <v>512.4</v>
       </c>
-      <c r="S101" t="n">
+      <c r="T101" t="n">
         <v>38788618</v>
       </c>
     </row>
@@ -5260,33 +5462,36 @@
         <v>32348</v>
       </c>
       <c r="J102" t="n">
+        <v>24.76</v>
+      </c>
+      <c r="K102" t="n">
         <v>337724</v>
       </c>
-      <c r="K102" t="n">
+      <c r="L102" t="n">
         <v>101.633333333333</v>
       </c>
-      <c r="L102" t="n">
+      <c r="M102" t="n">
         <v>24.7</v>
       </c>
-      <c r="M102" t="n">
+      <c r="N102" t="n">
         <v>2368.8</v>
       </c>
-      <c r="N102" t="n">
+      <c r="O102" t="n">
         <v>2180366.66666667</v>
       </c>
-      <c r="O102" t="n">
+      <c r="P102" t="n">
         <v>4.86666666666667</v>
       </c>
-      <c r="P102" t="n">
+      <c r="Q102" t="n">
         <v>99741</v>
       </c>
-      <c r="Q102" t="n">
+      <c r="R102" t="n">
         <v>131570</v>
       </c>
-      <c r="R102" t="n">
+      <c r="S102" t="n">
         <v>610.4</v>
       </c>
-      <c r="S102" t="n">
+      <c r="T102" t="n">
         <v>44223535</v>
       </c>
     </row>
@@ -5315,33 +5520,36 @@
         <v>32068</v>
       </c>
       <c r="J103" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="K103" t="n">
         <v>352949</v>
       </c>
-      <c r="K103" t="n">
+      <c r="L103" t="n">
         <v>101.433333333333</v>
       </c>
-      <c r="L103" t="n">
+      <c r="M103" t="n">
         <v>34</v>
       </c>
-      <c r="M103" t="n">
+      <c r="N103" t="n">
         <v>2161.3</v>
       </c>
-      <c r="N103" t="n">
+      <c r="O103" t="n">
         <v>1905733.33333333</v>
       </c>
-      <c r="O103" t="n">
+      <c r="P103" t="n">
         <v>5.13333333333333</v>
       </c>
-      <c r="P103" t="n">
+      <c r="Q103" t="n">
         <v>95476</v>
       </c>
-      <c r="Q103" t="n">
+      <c r="R103" t="n">
         <v>124951</v>
       </c>
-      <c r="R103" t="n">
+      <c r="S103" t="n">
         <v>523</v>
       </c>
-      <c r="S103" t="n">
+      <c r="T103" t="n">
         <v>37865269</v>
       </c>
     </row>
@@ -5370,33 +5578,36 @@
         <v>31133</v>
       </c>
       <c r="J104" t="n">
+        <v>24.38</v>
+      </c>
+      <c r="K104" t="n">
         <v>363116</v>
       </c>
-      <c r="K104" t="n">
+      <c r="L104" t="n">
         <v>101.1</v>
       </c>
-      <c r="L104" t="n">
+      <c r="M104" t="n">
         <v>21.1</v>
       </c>
-      <c r="M104" t="n">
+      <c r="N104" t="n">
         <v>2275</v>
       </c>
-      <c r="N104" t="n">
+      <c r="O104" t="n">
         <v>2077933.33333333</v>
       </c>
-      <c r="O104" t="n">
+      <c r="P104" t="n">
         <v>7.1</v>
       </c>
-      <c r="P104" t="n">
+      <c r="Q104" t="n">
         <v>111258</v>
       </c>
-      <c r="Q104" t="n">
+      <c r="R104" t="n">
         <v>135741</v>
       </c>
-      <c r="R104" t="n">
+      <c r="S104" t="n">
         <v>571.3</v>
       </c>
-      <c r="S104" t="n">
+      <c r="T104" t="n">
         <v>40543260</v>
       </c>
     </row>
@@ -5425,33 +5636,36 @@
         <v>30843</v>
       </c>
       <c r="J105" t="n">
+        <v>25.57</v>
+      </c>
+      <c r="K105" t="n">
         <v>376492</v>
       </c>
-      <c r="K105" t="n">
+      <c r="L105" t="n">
         <v>100.566666666667</v>
       </c>
-      <c r="L105" t="n">
+      <c r="M105" t="n">
         <v>25.7</v>
       </c>
-      <c r="M105" t="n">
+      <c r="N105" t="n">
         <v>2305.1</v>
       </c>
-      <c r="N105" t="n">
+      <c r="O105" t="n">
         <v>2065133.33333333</v>
       </c>
-      <c r="O105" t="n">
+      <c r="P105" t="n">
         <v>6.26666666666667</v>
       </c>
-      <c r="P105" t="n">
+      <c r="Q105" t="n">
         <v>106062</v>
       </c>
-      <c r="Q105" t="n">
+      <c r="R105" t="n">
         <v>157759</v>
       </c>
-      <c r="R105" t="n">
+      <c r="S105" t="n">
         <v>555.1</v>
       </c>
-      <c r="S105" t="n">
+      <c r="T105" t="n">
         <v>39499018</v>
       </c>
     </row>
@@ -5482,33 +5696,36 @@
         <v>31474</v>
       </c>
       <c r="J106" t="n">
+        <v>26.84</v>
+      </c>
+      <c r="K106" t="n">
         <v>397284</v>
       </c>
-      <c r="K106" t="n">
+      <c r="L106" t="n">
         <v>101.5</v>
       </c>
-      <c r="L106" t="n">
+      <c r="M106" t="n">
         <v>31</v>
       </c>
-      <c r="M106" t="n">
+      <c r="N106" t="n">
         <v>2259.9</v>
       </c>
-      <c r="N106" t="n">
+      <c r="O106" t="n">
         <v>1955900</v>
       </c>
-      <c r="O106" t="n">
+      <c r="P106" t="n">
         <v>7.36666666666667</v>
       </c>
-      <c r="P106" t="n">
+      <c r="Q106" t="n">
         <v>113276</v>
       </c>
-      <c r="Q106" t="n">
+      <c r="R106" t="n">
         <v>142652</v>
       </c>
-      <c r="R106" t="n">
+      <c r="S106" t="n">
         <v>586.2</v>
       </c>
-      <c r="S106" t="n">
+      <c r="T106" t="n">
         <v>40352700</v>
       </c>
     </row>
@@ -5539,33 +5756,36 @@
         <v>33782</v>
       </c>
       <c r="J107" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="K107" t="n">
         <v>408772</v>
       </c>
-      <c r="K107" t="n">
+      <c r="L107" t="n">
         <v>102.966666666667</v>
       </c>
-      <c r="L107" t="n">
+      <c r="M107" t="n">
         <v>22</v>
       </c>
-      <c r="M107" t="n">
+      <c r="N107" t="n">
         <v>2382.2</v>
       </c>
-      <c r="N107" t="n">
+      <c r="O107" t="n">
         <v>2069433.33333333</v>
       </c>
-      <c r="O107" t="n">
+      <c r="P107" t="n">
         <v>6.96666666666667</v>
       </c>
-      <c r="P107" t="n">
+      <c r="Q107" t="n">
         <v>117479</v>
       </c>
-      <c r="Q107" t="n">
+      <c r="R107" t="n">
         <v>155256</v>
       </c>
-      <c r="R107" t="n">
+      <c r="S107" t="n">
         <v>584.7</v>
       </c>
-      <c r="S107" t="n">
+      <c r="T107" t="n">
         <v>40586158</v>
       </c>
     </row>
@@ -5596,33 +5816,36 @@
         <v>34557</v>
       </c>
       <c r="J108" t="n">
+        <v>25.31</v>
+      </c>
+      <c r="K108" t="n">
         <v>416274</v>
       </c>
-      <c r="K108" t="n">
+      <c r="L108" t="n">
         <v>104.1</v>
       </c>
-      <c r="L108" t="n">
+      <c r="M108" t="n">
         <v>19.6</v>
       </c>
-      <c r="M108" t="n">
+      <c r="N108" t="n">
         <v>2515</v>
       </c>
-      <c r="N108" t="n">
+      <c r="O108" t="n">
         <v>2211866.66666667</v>
       </c>
-      <c r="O108" t="n">
+      <c r="P108" t="n">
         <v>5.46666666666667</v>
       </c>
-      <c r="P108" t="n">
+      <c r="Q108" t="n">
         <v>126559</v>
       </c>
-      <c r="Q108" t="n">
+      <c r="R108" t="n">
         <v>158998</v>
       </c>
-      <c r="R108" t="n">
+      <c r="S108" t="n">
         <v>554.1</v>
       </c>
-      <c r="S108" t="n">
+      <c r="T108" t="n">
         <v>41140686</v>
       </c>
     </row>
@@ -5653,33 +5876,36 @@
         <v>33183</v>
       </c>
       <c r="J109" t="n">
+        <v>26.29</v>
+      </c>
+      <c r="K109" t="n">
         <v>419861</v>
       </c>
-      <c r="K109" t="n">
+      <c r="L109" t="n">
         <v>105.966666666667</v>
       </c>
-      <c r="L109" t="n">
+      <c r="M109" t="n">
         <v>19.4</v>
       </c>
-      <c r="M109" t="n">
+      <c r="N109" t="n">
         <v>2551.4</v>
       </c>
-      <c r="N109" t="n">
+      <c r="O109" t="n">
         <v>2260666.66666667</v>
       </c>
-      <c r="O109" t="n">
+      <c r="P109" t="n">
         <v>5.23333333333333</v>
       </c>
-      <c r="P109" t="n">
+      <c r="Q109" t="n">
         <v>122282</v>
       </c>
-      <c r="Q109" t="n">
+      <c r="R109" t="n">
         <v>170473</v>
       </c>
-      <c r="R109" t="n">
+      <c r="S109" t="n">
         <v>575.6</v>
       </c>
-      <c r="S109" t="n">
+      <c r="T109" t="n">
         <v>43635570</v>
       </c>
     </row>
@@ -5710,33 +5936,36 @@
         <v>34168</v>
       </c>
       <c r="J110" t="n">
+        <v>27.46</v>
+      </c>
+      <c r="K110" t="n">
         <v>424786</v>
       </c>
-      <c r="K110" t="n">
+      <c r="L110" t="n">
         <v>107.5</v>
       </c>
-      <c r="L110" t="n">
+      <c r="M110" t="n">
         <v>16.4</v>
       </c>
-      <c r="M110" t="n">
+      <c r="N110" t="n">
         <v>2559.4</v>
       </c>
-      <c r="N110" t="n">
+      <c r="O110" t="n">
         <v>2284166.66666667</v>
       </c>
-      <c r="O110" t="n">
+      <c r="P110" t="n">
         <v>4.86666666666667</v>
       </c>
-      <c r="P110" t="n">
+      <c r="Q110" t="n">
         <v>122635</v>
       </c>
-      <c r="Q110" t="n">
+      <c r="R110" t="n">
         <v>162832</v>
       </c>
-      <c r="R110" t="n">
+      <c r="S110" t="n">
         <v>718.141</v>
       </c>
-      <c r="S110" t="n">
+      <c r="T110" t="n">
         <v>52199816</v>
       </c>
     </row>
@@ -5767,33 +5996,36 @@
         <v>36966</v>
       </c>
       <c r="J111" t="n">
+        <v>26.76</v>
+      </c>
+      <c r="K111" t="n">
         <v>431406</v>
       </c>
-      <c r="K111" t="n">
+      <c r="L111" t="n">
         <v>111.6</v>
       </c>
-      <c r="L111" t="n">
+      <c r="M111" t="n">
         <v>16</v>
       </c>
-      <c r="M111" t="n">
+      <c r="N111" t="n">
         <v>2601.2</v>
       </c>
-      <c r="N111" t="n">
+      <c r="O111" t="n">
         <v>2353700</v>
       </c>
-      <c r="O111" t="n">
+      <c r="P111" t="n">
         <v>4.3</v>
       </c>
-      <c r="P111" t="n">
+      <c r="Q111" t="n">
         <v>127060</v>
       </c>
-      <c r="Q111" t="n">
+      <c r="R111" t="n">
         <v>174701</v>
       </c>
-      <c r="R111" t="n">
+      <c r="S111" t="n">
         <v>717.519</v>
       </c>
-      <c r="S111" t="n">
+      <c r="T111" t="n">
         <v>52834241</v>
       </c>
     </row>
@@ -5824,33 +6056,36 @@
         <v>37636</v>
       </c>
       <c r="J112" t="n">
+        <v>26.22</v>
+      </c>
+      <c r="K112" t="n">
         <v>439391</v>
       </c>
-      <c r="K112" t="n">
+      <c r="L112" t="n">
         <v>113.533333333333</v>
       </c>
-      <c r="L112" t="n">
+      <c r="M112" t="n">
         <v>15.2</v>
       </c>
-      <c r="M112" t="n">
+      <c r="N112" t="n">
         <v>2602.6</v>
       </c>
-      <c r="N112" t="n">
+      <c r="O112" t="n">
         <v>2384666.66666667</v>
       </c>
-      <c r="O112" t="n">
+      <c r="P112" t="n">
         <v>4.26666666666667</v>
       </c>
-      <c r="P112" t="n">
+      <c r="Q112" t="n">
         <v>138231</v>
       </c>
-      <c r="Q112" t="n">
+      <c r="R112" t="n">
         <v>185324</v>
       </c>
-      <c r="R112" t="n">
+      <c r="S112" t="n">
         <v>714.975</v>
       </c>
-      <c r="S112" t="n">
+      <c r="T112" t="n">
         <v>53727718</v>
       </c>
     </row>
@@ -5883,33 +6118,36 @@
         <v>36204</v>
       </c>
       <c r="J113" t="n">
+        <v>27.89</v>
+      </c>
+      <c r="K113" t="n">
         <v>443619</v>
       </c>
-      <c r="K113" t="n">
+      <c r="L113" t="n">
         <v>115.333333333333</v>
       </c>
-      <c r="L113" t="n">
+      <c r="M113" t="n">
         <v>14.2</v>
       </c>
-      <c r="M113" t="n">
+      <c r="N113" t="n">
         <v>2616.7</v>
       </c>
-      <c r="N113" t="n">
+      <c r="O113" t="n">
         <v>2399666.66666667</v>
       </c>
-      <c r="O113" t="n">
+      <c r="P113" t="n">
         <v>4.43333333333333</v>
       </c>
-      <c r="P113" t="n">
+      <c r="Q113" t="n">
         <v>133009</v>
       </c>
-      <c r="Q113" t="n">
+      <c r="R113" t="n">
         <v>189180</v>
       </c>
-      <c r="R113" t="n">
+      <c r="S113" t="n">
         <v>641.195</v>
       </c>
-      <c r="S113" t="n">
+      <c r="T113" t="n">
         <v>50000866</v>
       </c>
     </row>
@@ -5942,33 +6180,36 @@
         <v>38960</v>
       </c>
       <c r="J114" t="n">
+        <v>28.54</v>
+      </c>
+      <c r="K114" t="n">
         <v>446737</v>
       </c>
-      <c r="K114" t="n">
+      <c r="L114" t="n">
         <v>115.6</v>
       </c>
-      <c r="L114" t="n">
+      <c r="M114" t="n">
         <v>15.4</v>
       </c>
-      <c r="M114" t="n">
+      <c r="N114" t="n">
         <v>2652.7</v>
       </c>
-      <c r="N114" t="n">
+      <c r="O114" t="n">
         <v>2393300</v>
       </c>
-      <c r="O114" t="n">
+      <c r="P114" t="n">
         <v>4.2</v>
       </c>
-      <c r="P114" t="n">
+      <c r="Q114" t="n">
         <v>122440</v>
       </c>
-      <c r="Q114" t="n">
+      <c r="R114" t="n">
         <v>169567</v>
       </c>
-      <c r="R114" t="n">
+      <c r="S114" t="n">
         <v>698.192</v>
       </c>
-      <c r="S114" t="n">
+      <c r="T114" t="n">
         <v>50949371</v>
       </c>
     </row>
@@ -6001,33 +6242,36 @@
         <v>40840</v>
       </c>
       <c r="J115" t="n">
+        <v>28.19</v>
+      </c>
+      <c r="K115" t="n">
         <v>453431</v>
       </c>
-      <c r="K115" t="n">
+      <c r="L115" t="n">
         <v>117.7</v>
       </c>
-      <c r="L115" t="n">
+      <c r="M115" t="n">
         <v>13.2</v>
       </c>
-      <c r="M115" t="n">
+      <c r="N115" t="n">
         <v>2682.7</v>
       </c>
-      <c r="N115" t="n">
+      <c r="O115" t="n">
         <v>2430066.66666667</v>
       </c>
-      <c r="O115" t="n">
+      <c r="P115" t="n">
         <v>4.16666666666667</v>
       </c>
-      <c r="P115" t="n">
+      <c r="Q115" t="n">
         <v>122096</v>
       </c>
-      <c r="Q115" t="n">
+      <c r="R115" t="n">
         <v>164597</v>
       </c>
-      <c r="R115" t="n">
+      <c r="S115" t="n">
         <v>682.158</v>
       </c>
-      <c r="S115" t="n">
+      <c r="T115" t="n">
         <v>50144962</v>
       </c>
     </row>
@@ -6060,33 +6304,36 @@
         <v>41262</v>
       </c>
       <c r="J116" t="n">
+        <v>27.83</v>
+      </c>
+      <c r="K116" t="n">
         <v>456388</v>
       </c>
-      <c r="K116" t="n">
+      <c r="L116" t="n">
         <v>119.033333333333</v>
       </c>
-      <c r="L116" t="n">
+      <c r="M116" t="n">
         <v>13.7</v>
       </c>
-      <c r="M116" t="n">
+      <c r="N116" t="n">
         <v>2696.2</v>
       </c>
-      <c r="N116" t="n">
+      <c r="O116" t="n">
         <v>2447500</v>
       </c>
-      <c r="O116" t="n">
+      <c r="P116" t="n">
         <v>4.43333333333333</v>
       </c>
-      <c r="P116" t="n">
+      <c r="Q116" t="n">
         <v>126645</v>
       </c>
-      <c r="Q116" t="n">
+      <c r="R116" t="n">
         <v>166703</v>
       </c>
-      <c r="R116" t="n">
+      <c r="S116" t="n">
         <v>640.322</v>
       </c>
-      <c r="S116" t="n">
+      <c r="T116" t="n">
         <v>47580578</v>
       </c>
     </row>
@@ -6119,33 +6366,36 @@
         <v>39847</v>
       </c>
       <c r="J117" t="n">
+        <v>28.43</v>
+      </c>
+      <c r="K117" t="n">
         <v>456618</v>
       </c>
-      <c r="K117" t="n">
+      <c r="L117" t="n">
         <v>118.933333333333</v>
       </c>
-      <c r="L117" t="n">
+      <c r="M117" t="n">
         <v>13.2</v>
       </c>
-      <c r="M117" t="n">
+      <c r="N117" t="n">
         <v>2706.4</v>
       </c>
-      <c r="N117" t="n">
+      <c r="O117" t="n">
         <v>2456000</v>
       </c>
-      <c r="O117" t="n">
+      <c r="P117" t="n">
         <v>4.46666666666667</v>
       </c>
-      <c r="P117" t="n">
+      <c r="Q117" t="n">
         <v>120947</v>
       </c>
-      <c r="Q117" t="n">
+      <c r="R117" t="n">
         <v>169742</v>
       </c>
-      <c r="R117" t="n">
+      <c r="S117" t="n">
         <v>620.473</v>
       </c>
-      <c r="S117" t="n">
+      <c r="T117" t="n">
         <v>47354838</v>
       </c>
     </row>
@@ -6178,33 +6428,36 @@
         <v>42665</v>
       </c>
       <c r="J118" t="n">
+        <v>29.95</v>
+      </c>
+      <c r="K118" t="n">
         <v>460207</v>
       </c>
-      <c r="K118" t="n">
+      <c r="L118" t="n">
         <v>118.2</v>
       </c>
-      <c r="L118" t="n">
+      <c r="M118" t="n">
         <v>14.5</v>
       </c>
-      <c r="M118" t="n">
+      <c r="N118" t="n">
         <v>2704.2</v>
       </c>
-      <c r="N118" t="n">
+      <c r="O118" t="n">
         <v>2452466.66666667</v>
       </c>
-      <c r="O118" t="n">
+      <c r="P118" t="n">
         <v>4.3</v>
       </c>
-      <c r="P118" t="n">
+      <c r="Q118" t="n">
         <v>116734</v>
       </c>
-      <c r="Q118" t="n">
+      <c r="R118" t="n">
         <v>168153</v>
       </c>
-      <c r="R118" t="n">
+      <c r="S118" t="n">
         <v>731.954</v>
       </c>
-      <c r="S118" t="n">
+      <c r="T118" t="n">
         <v>54026587</v>
       </c>
     </row>
@@ -6237,33 +6490,36 @@
         <v>43029</v>
       </c>
       <c r="J119" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K119" t="n">
         <v>466376</v>
       </c>
-      <c r="K119" t="n">
+      <c r="L119" t="n">
         <v>119.7</v>
       </c>
-      <c r="L119" t="n">
+      <c r="M119" t="n">
         <v>12.7</v>
       </c>
-      <c r="M119" t="n">
+      <c r="N119" t="n">
         <v>2754.2</v>
       </c>
-      <c r="N119" t="n">
+      <c r="O119" t="n">
         <v>2492100</v>
       </c>
-      <c r="O119" t="n">
+      <c r="P119" t="n">
         <v>4.4</v>
       </c>
-      <c r="P119" t="n">
+      <c r="Q119" t="n">
         <v>117155</v>
       </c>
-      <c r="Q119" t="n">
+      <c r="R119" t="n">
         <v>194853</v>
       </c>
-      <c r="R119" t="n">
+      <c r="S119" t="n">
         <v>725.591</v>
       </c>
-      <c r="S119" t="n">
+      <c r="T119" t="n">
         <v>54367123</v>
       </c>
     </row>
@@ -6289,26 +6545,27 @@
         <v>5396.35</v>
       </c>
       <c r="I120"/>
-      <c r="J120" t="n">
+      <c r="J120"/>
+      <c r="K120" t="n">
         <v>471580</v>
       </c>
-      <c r="K120" t="n">
+      <c r="L120" t="n">
         <v>120.066666666667</v>
       </c>
-      <c r="L120"/>
-      <c r="M120" t="n">
+      <c r="M120"/>
+      <c r="N120" t="n">
         <v>2794.8</v>
       </c>
-      <c r="N120" t="n">
+      <c r="O120" t="n">
         <v>2501633.33333333</v>
       </c>
-      <c r="O120" t="n">
+      <c r="P120" t="n">
         <v>4.23333333333333</v>
       </c>
-      <c r="P120"/>
       <c r="Q120"/>
       <c r="R120"/>
-      <c r="S120" t="n">
+      <c r="S120"/>
+      <c r="T120" t="n">
         <v>57456780</v>
       </c>
     </row>
@@ -6336,6 +6593,7 @@
       <c r="Q121"/>
       <c r="R121"/>
       <c r="S121"/>
+      <c r="T121"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -6361,6 +6619,7 @@
       <c r="Q122"/>
       <c r="R122"/>
       <c r="S122"/>
+      <c r="T122"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -6386,6 +6645,7 @@
       <c r="Q123"/>
       <c r="R123"/>
       <c r="S123"/>
+      <c r="T123"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -6411,6 +6671,7 @@
       <c r="Q124"/>
       <c r="R124"/>
       <c r="S124"/>
+      <c r="T124"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -6436,6 +6697,7 @@
       <c r="Q125"/>
       <c r="R125"/>
       <c r="S125"/>
+      <c r="T125"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -6461,6 +6723,7 @@
       <c r="Q126"/>
       <c r="R126"/>
       <c r="S126"/>
+      <c r="T126"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -6486,6 +6749,7 @@
       <c r="Q127"/>
       <c r="R127"/>
       <c r="S127"/>
+      <c r="T127"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -6511,6 +6775,7 @@
       <c r="Q128"/>
       <c r="R128"/>
       <c r="S128"/>
+      <c r="T128"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -6536,6 +6801,7 @@
       <c r="Q129"/>
       <c r="R129"/>
       <c r="S129"/>
+      <c r="T129"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -6561,6 +6827,7 @@
       <c r="Q130"/>
       <c r="R130"/>
       <c r="S130"/>
+      <c r="T130"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -6586,6 +6853,7 @@
       <c r="Q131"/>
       <c r="R131"/>
       <c r="S131"/>
+      <c r="T131"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -6611,6 +6879,7 @@
       <c r="Q132"/>
       <c r="R132"/>
       <c r="S132"/>
+      <c r="T132"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -6636,6 +6905,7 @@
       <c r="Q133"/>
       <c r="R133"/>
       <c r="S133"/>
+      <c r="T133"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -6661,6 +6931,7 @@
       <c r="Q134"/>
       <c r="R134"/>
       <c r="S134"/>
+      <c r="T134"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -6686,6 +6957,7 @@
       <c r="Q135"/>
       <c r="R135"/>
       <c r="S135"/>
+      <c r="T135"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -6711,6 +6983,7 @@
       <c r="Q136"/>
       <c r="R136"/>
       <c r="S136"/>
+      <c r="T136"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -6736,6 +7009,7 @@
       <c r="Q137"/>
       <c r="R137"/>
       <c r="S137"/>
+      <c r="T137"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -6761,6 +7035,7 @@
       <c r="Q138"/>
       <c r="R138"/>
       <c r="S138"/>
+      <c r="T138"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6786,6 +7061,7 @@
       <c r="Q139"/>
       <c r="R139"/>
       <c r="S139"/>
+      <c r="T139"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6811,6 +7087,7 @@
       <c r="Q140"/>
       <c r="R140"/>
       <c r="S140"/>
+      <c r="T140"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6836,6 +7113,7 @@
       <c r="Q141"/>
       <c r="R141"/>
       <c r="S141"/>
+      <c r="T141"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6861,6 +7139,7 @@
       <c r="Q142"/>
       <c r="R142"/>
       <c r="S142"/>
+      <c r="T142"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6886,6 +7165,7 @@
       <c r="Q143"/>
       <c r="R143"/>
       <c r="S143"/>
+      <c r="T143"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6911,6 +7191,7 @@
       <c r="Q144"/>
       <c r="R144"/>
       <c r="S144"/>
+      <c r="T144"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6936,6 +7217,7 @@
       <c r="Q145"/>
       <c r="R145"/>
       <c r="S145"/>
+      <c r="T145"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -922,7 +922,7 @@
       </c>
       <c r="O14"/>
       <c r="P14" t="n">
-        <v>8.83333333333333</v>
+        <v>8.8</v>
       </c>
       <c r="Q14" t="n">
         <v>32680</v>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="O16"/>
       <c r="P16" t="n">
-        <v>7.26666666666667</v>
+        <v>7.3</v>
       </c>
       <c r="Q16" t="n">
         <v>35153</v>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="O17"/>
       <c r="P17" t="n">
-        <v>6.66666666666667</v>
+        <v>6.7</v>
       </c>
       <c r="Q17" t="n">
         <v>34042</v>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="O18"/>
       <c r="P18" t="n">
-        <v>6.26666666666667</v>
+        <v>6.3</v>
       </c>
       <c r="Q18" t="n">
         <v>35877</v>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="O20"/>
       <c r="P20" t="n">
-        <v>5.43333333333333</v>
+        <v>5.4</v>
       </c>
       <c r="Q20" t="n">
         <v>38466</v>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="O24"/>
       <c r="P24" t="n">
-        <v>4.23333333333333</v>
+        <v>4.2</v>
       </c>
       <c r="Q24" t="n">
         <v>41935</v>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="O26"/>
       <c r="P26" t="n">
-        <v>3.96666666666667</v>
+        <v>4</v>
       </c>
       <c r="Q26" t="n">
         <v>42181</v>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="O28"/>
       <c r="P28" t="n">
-        <v>4.36666666666667</v>
+        <v>4.4</v>
       </c>
       <c r="Q28" t="n">
         <v>43151</v>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="O30"/>
       <c r="P30" t="n">
-        <v>4.53333333333333</v>
+        <v>4.5</v>
       </c>
       <c r="Q30" t="n">
         <v>44455</v>
@@ -1712,7 +1712,7 @@
       </c>
       <c r="O31"/>
       <c r="P31" t="n">
-        <v>4.63333333333333</v>
+        <v>4.6</v>
       </c>
       <c r="Q31" t="n">
         <v>45307</v>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="O33"/>
       <c r="P33" t="n">
-        <v>5.26666666666667</v>
+        <v>5.3</v>
       </c>
       <c r="Q33" t="n">
         <v>47436</v>
@@ -1858,7 +1858,7 @@
       </c>
       <c r="O34"/>
       <c r="P34" t="n">
-        <v>4.83333333333333</v>
+        <v>4.8</v>
       </c>
       <c r="Q34" t="n">
         <v>45410</v>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="O35"/>
       <c r="P35" t="n">
-        <v>4.76666666666667</v>
+        <v>4.8</v>
       </c>
       <c r="Q35" t="n">
         <v>46557</v>
@@ -2008,7 +2008,7 @@
       </c>
       <c r="O37"/>
       <c r="P37" t="n">
-        <v>4.76666666666667</v>
+        <v>4.8</v>
       </c>
       <c r="Q37" t="n">
         <v>50325</v>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="O38"/>
       <c r="P38" t="n">
-        <v>5.13333333333333</v>
+        <v>5.1</v>
       </c>
       <c r="Q38" t="n">
         <v>48900</v>
@@ -2108,7 +2108,7 @@
       </c>
       <c r="O39"/>
       <c r="P39" t="n">
-        <v>4.66666666666667</v>
+        <v>4.7</v>
       </c>
       <c r="Q39" t="n">
         <v>50600</v>
@@ -2258,7 +2258,7 @@
       </c>
       <c r="O42"/>
       <c r="P42" t="n">
-        <v>4.43333333333333</v>
+        <v>4.4</v>
       </c>
       <c r="Q42" t="n">
         <v>51784</v>
@@ -2308,7 +2308,7 @@
       </c>
       <c r="O43"/>
       <c r="P43" t="n">
-        <v>4.86666666666667</v>
+        <v>4.9</v>
       </c>
       <c r="Q43" t="n">
         <v>53549</v>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="O45"/>
       <c r="P45" t="n">
-        <v>4.53333333333333</v>
+        <v>4.5</v>
       </c>
       <c r="Q45" t="n">
         <v>55254</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="O47"/>
       <c r="P47" t="n">
-        <v>4.73333333333333</v>
+        <v>4.8</v>
       </c>
       <c r="Q47" t="n">
         <v>55492</v>
@@ -2608,7 +2608,7 @@
       </c>
       <c r="O49"/>
       <c r="P49" t="n">
-        <v>4.63333333333333</v>
+        <v>4.6</v>
       </c>
       <c r="Q49" t="n">
         <v>56965</v>
@@ -2808,7 +2808,7 @@
       </c>
       <c r="O53"/>
       <c r="P53" t="n">
-        <v>5.23333333333333</v>
+        <v>5.2</v>
       </c>
       <c r="Q53" t="n">
         <v>59831</v>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="O54"/>
       <c r="P54" t="n">
-        <v>5.36666666666667</v>
+        <v>5.4</v>
       </c>
       <c r="Q54" t="n">
         <v>57888</v>
@@ -2912,7 +2912,7 @@
       </c>
       <c r="O55"/>
       <c r="P55" t="n">
-        <v>5.93333333333333</v>
+        <v>5.9</v>
       </c>
       <c r="Q55" t="n">
         <v>56679</v>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="O56"/>
       <c r="P56" t="n">
-        <v>7.36666666666667</v>
+        <v>7.4</v>
       </c>
       <c r="Q56" t="n">
         <v>56649</v>
@@ -3016,7 +3016,7 @@
       </c>
       <c r="O57"/>
       <c r="P57" t="n">
-        <v>8.53333333333333</v>
+        <v>8.6</v>
       </c>
       <c r="Q57" t="n">
         <v>53676</v>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="O58"/>
       <c r="P58" t="n">
-        <v>10.8666666666667</v>
+        <v>10.8</v>
       </c>
       <c r="Q58" t="n">
         <v>53757</v>
@@ -3224,7 +3224,7 @@
       </c>
       <c r="O61"/>
       <c r="P61" t="n">
-        <v>13.8333333333333</v>
+        <v>13.8</v>
       </c>
       <c r="Q61" t="n">
         <v>52124</v>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="O63"/>
       <c r="P63" t="n">
-        <v>14.3666666666667</v>
+        <v>14.4</v>
       </c>
       <c r="Q63" t="n">
         <v>54394</v>
@@ -3380,7 +3380,7 @@
       </c>
       <c r="O64"/>
       <c r="P64" t="n">
-        <v>14.5666666666667</v>
+        <v>14.6</v>
       </c>
       <c r="Q64" t="n">
         <v>55010</v>
@@ -3432,7 +3432,7 @@
       </c>
       <c r="O65"/>
       <c r="P65" t="n">
-        <v>15.6333333333333</v>
+        <v>15.6</v>
       </c>
       <c r="Q65" t="n">
         <v>54018</v>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="O66"/>
       <c r="P66" t="n">
-        <v>15.1666666666667</v>
+        <v>15.2</v>
       </c>
       <c r="Q66" t="n">
         <v>54770</v>
@@ -3538,7 +3538,7 @@
       </c>
       <c r="O67"/>
       <c r="P67" t="n">
-        <v>15.0333333333333</v>
+        <v>15.1</v>
       </c>
       <c r="Q67" t="n">
         <v>55847</v>
@@ -3646,7 +3646,7 @@
       </c>
       <c r="O69"/>
       <c r="P69" t="n">
-        <v>15.8333333333333</v>
+        <v>15.9</v>
       </c>
       <c r="Q69" t="n">
         <v>54464</v>
@@ -3700,7 +3700,7 @@
       </c>
       <c r="O70"/>
       <c r="P70" t="n">
-        <v>15.9333333333333</v>
+        <v>15.9</v>
       </c>
       <c r="Q70" t="n">
         <v>53666</v>
@@ -3754,7 +3754,7 @@
       </c>
       <c r="O71"/>
       <c r="P71" t="n">
-        <v>15.5333333333333</v>
+        <v>15.5</v>
       </c>
       <c r="Q71" t="n">
         <v>55960</v>
@@ -3808,7 +3808,7 @@
       </c>
       <c r="O72"/>
       <c r="P72" t="n">
-        <v>15.4333333333333</v>
+        <v>15.5</v>
       </c>
       <c r="Q72" t="n">
         <v>55203</v>
@@ -3916,7 +3916,7 @@
       </c>
       <c r="O74"/>
       <c r="P74" t="n">
-        <v>14.5333333333333</v>
+        <v>14.5</v>
       </c>
       <c r="Q74" t="n">
         <v>53333</v>
@@ -3970,7 +3970,7 @@
       </c>
       <c r="O75"/>
       <c r="P75" t="n">
-        <v>14.3666666666667</v>
+        <v>14.4</v>
       </c>
       <c r="Q75" t="n">
         <v>55553</v>
@@ -4024,7 +4024,7 @@
       </c>
       <c r="O76"/>
       <c r="P76" t="n">
-        <v>13.3333333333333</v>
+        <v>13.3</v>
       </c>
       <c r="Q76" t="n">
         <v>58401</v>
@@ -4078,7 +4078,7 @@
       </c>
       <c r="O77"/>
       <c r="P77" t="n">
-        <v>12.8333333333333</v>
+        <v>12.9</v>
       </c>
       <c r="Q77" t="n">
         <v>57252</v>
@@ -4132,7 +4132,7 @@
       </c>
       <c r="O78"/>
       <c r="P78" t="n">
-        <v>12.8333333333333</v>
+        <v>12.8</v>
       </c>
       <c r="Q78" t="n">
         <v>58751</v>
@@ -4240,7 +4240,7 @@
       </c>
       <c r="O80"/>
       <c r="P80" t="n">
-        <v>11.6666666666667</v>
+        <v>11.7</v>
       </c>
       <c r="Q80" t="n">
         <v>63072</v>
@@ -4294,7 +4294,7 @@
       </c>
       <c r="O81"/>
       <c r="P81" t="n">
-        <v>10.8666666666667</v>
+        <v>10.9</v>
       </c>
       <c r="Q81" t="n">
         <v>63072</v>
@@ -4350,7 +4350,7 @@
       </c>
       <c r="O82"/>
       <c r="P82" t="n">
-        <v>10.6333333333333</v>
+        <v>10.6</v>
       </c>
       <c r="Q82" t="n">
         <v>75460</v>
@@ -4462,7 +4462,7 @@
       </c>
       <c r="O84"/>
       <c r="P84" t="n">
-        <v>9.56666666666667</v>
+        <v>9.6</v>
       </c>
       <c r="Q84" t="n">
         <v>78116</v>
@@ -4518,7 +4518,7 @@
       </c>
       <c r="O85"/>
       <c r="P85" t="n">
-        <v>9.43333333333333</v>
+        <v>9.4</v>
       </c>
       <c r="Q85" t="n">
         <v>78867</v>
@@ -4574,7 +4574,7 @@
       </c>
       <c r="O86"/>
       <c r="P86" t="n">
-        <v>8.93333333333333</v>
+        <v>8.9</v>
       </c>
       <c r="Q86" t="n">
         <v>73829</v>
@@ -4686,7 +4686,7 @@
       </c>
       <c r="O88"/>
       <c r="P88" t="n">
-        <v>8.23333333333333</v>
+        <v>8.2</v>
       </c>
       <c r="Q88" t="n">
         <v>76641</v>
@@ -4742,7 +4742,7 @@
       </c>
       <c r="O89"/>
       <c r="P89" t="n">
-        <v>7.56666666666667</v>
+        <v>7.5</v>
       </c>
       <c r="Q89" t="n">
         <v>85351</v>
@@ -4798,7 +4798,7 @@
       </c>
       <c r="O90"/>
       <c r="P90" t="n">
-        <v>7.26666666666667</v>
+        <v>7.3</v>
       </c>
       <c r="Q90" t="n">
         <v>79797</v>
@@ -4854,7 +4854,7 @@
       </c>
       <c r="O91"/>
       <c r="P91" t="n">
-        <v>6.66666666666667</v>
+        <v>6.7</v>
       </c>
       <c r="Q91" t="n">
         <v>80312</v>
@@ -4910,7 +4910,7 @@
       </c>
       <c r="O92"/>
       <c r="P92" t="n">
-        <v>6.66666666666667</v>
+        <v>6.7</v>
       </c>
       <c r="Q92" t="n">
         <v>88418</v>
@@ -4966,7 +4966,7 @@
       </c>
       <c r="O93"/>
       <c r="P93" t="n">
-        <v>6.43333333333333</v>
+        <v>6.4</v>
       </c>
       <c r="Q93" t="n">
         <v>92267</v>
@@ -5022,7 +5022,7 @@
       </c>
       <c r="O94"/>
       <c r="P94" t="n">
-        <v>5.93333333333333</v>
+        <v>5.9</v>
       </c>
       <c r="Q94" t="n">
         <v>88228</v>
@@ -5078,7 +5078,7 @@
       </c>
       <c r="O95"/>
       <c r="P95" t="n">
-        <v>5.86666666666667</v>
+        <v>5.9</v>
       </c>
       <c r="Q95" t="n">
         <v>89520</v>
@@ -5190,7 +5190,7 @@
       </c>
       <c r="O97"/>
       <c r="P97" t="n">
-        <v>5.76666666666667</v>
+        <v>5.7</v>
       </c>
       <c r="Q97" t="n">
         <v>94846</v>
@@ -5306,7 +5306,7 @@
         <v>2152133.33333333</v>
       </c>
       <c r="P99" t="n">
-        <v>5.16666666666667</v>
+        <v>5.2</v>
       </c>
       <c r="Q99" t="n">
         <v>93264</v>
@@ -5480,7 +5480,7 @@
         <v>2180366.66666667</v>
       </c>
       <c r="P102" t="n">
-        <v>4.86666666666667</v>
+        <v>4.9</v>
       </c>
       <c r="Q102" t="n">
         <v>99741</v>
@@ -5538,7 +5538,7 @@
         <v>1905733.33333333</v>
       </c>
       <c r="P103" t="n">
-        <v>5.13333333333333</v>
+        <v>5.2</v>
       </c>
       <c r="Q103" t="n">
         <v>95476</v>
@@ -5654,7 +5654,7 @@
         <v>2065133.33333333</v>
       </c>
       <c r="P105" t="n">
-        <v>6.26666666666667</v>
+        <v>6.3</v>
       </c>
       <c r="Q105" t="n">
         <v>106062</v>
@@ -5714,7 +5714,7 @@
         <v>1955900</v>
       </c>
       <c r="P106" t="n">
-        <v>7.36666666666667</v>
+        <v>7.3</v>
       </c>
       <c r="Q106" t="n">
         <v>113276</v>
@@ -5774,7 +5774,7 @@
         <v>2069433.33333333</v>
       </c>
       <c r="P107" t="n">
-        <v>6.96666666666667</v>
+        <v>7</v>
       </c>
       <c r="Q107" t="n">
         <v>117479</v>
@@ -5834,7 +5834,7 @@
         <v>2211866.66666667</v>
       </c>
       <c r="P108" t="n">
-        <v>5.46666666666667</v>
+        <v>5.5</v>
       </c>
       <c r="Q108" t="n">
         <v>126559</v>
@@ -5894,7 +5894,7 @@
         <v>2260666.66666667</v>
       </c>
       <c r="P109" t="n">
-        <v>5.23333333333333</v>
+        <v>5.2</v>
       </c>
       <c r="Q109" t="n">
         <v>122282</v>
@@ -5954,7 +5954,7 @@
         <v>2284166.66666667</v>
       </c>
       <c r="P110" t="n">
-        <v>4.86666666666667</v>
+        <v>4.9</v>
       </c>
       <c r="Q110" t="n">
         <v>122635</v>
@@ -6074,7 +6074,7 @@
         <v>2384666.66666667</v>
       </c>
       <c r="P112" t="n">
-        <v>4.26666666666667</v>
+        <v>4.2</v>
       </c>
       <c r="Q112" t="n">
         <v>138231</v>
@@ -6136,7 +6136,7 @@
         <v>2399666.66666667</v>
       </c>
       <c r="P113" t="n">
-        <v>4.43333333333333</v>
+        <v>4.4</v>
       </c>
       <c r="Q113" t="n">
         <v>133009</v>
@@ -6260,7 +6260,7 @@
         <v>2430066.66666667</v>
       </c>
       <c r="P115" t="n">
-        <v>4.16666666666667</v>
+        <v>4.2</v>
       </c>
       <c r="Q115" t="n">
         <v>122096</v>
@@ -6322,7 +6322,7 @@
         <v>2447500</v>
       </c>
       <c r="P116" t="n">
-        <v>4.43333333333333</v>
+        <v>4.4</v>
       </c>
       <c r="Q116" t="n">
         <v>126645</v>
@@ -6384,7 +6384,7 @@
         <v>2456000</v>
       </c>
       <c r="P117" t="n">
-        <v>4.46666666666667</v>
+        <v>4.5</v>
       </c>
       <c r="Q117" t="n">
         <v>120947</v>
@@ -6560,7 +6560,7 @@
         <v>2501633.33333333</v>
       </c>
       <c r="P120" t="n">
-        <v>4.23333333333333</v>
+        <v>4.5</v>
       </c>
       <c r="Q120"/>
       <c r="R120"/>

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -6056,7 +6056,7 @@
         <v>37636</v>
       </c>
       <c r="J112" t="n">
-        <v>26.22</v>
+        <v>26.23</v>
       </c>
       <c r="K112" t="n">
         <v>439391</v>
@@ -6118,7 +6118,7 @@
         <v>36204</v>
       </c>
       <c r="J113" t="n">
-        <v>27.89</v>
+        <v>27.9</v>
       </c>
       <c r="K113" t="n">
         <v>443619</v>
@@ -6180,7 +6180,7 @@
         <v>38960</v>
       </c>
       <c r="J114" t="n">
-        <v>28.54</v>
+        <v>28.55</v>
       </c>
       <c r="K114" t="n">
         <v>446737</v>
@@ -6304,7 +6304,7 @@
         <v>41262</v>
       </c>
       <c r="J116" t="n">
-        <v>27.83</v>
+        <v>27.84</v>
       </c>
       <c r="K116" t="n">
         <v>456388</v>
@@ -6366,7 +6366,7 @@
         <v>39847</v>
       </c>
       <c r="J117" t="n">
-        <v>28.43</v>
+        <v>28.44</v>
       </c>
       <c r="K117" t="n">
         <v>456618</v>
@@ -6428,7 +6428,7 @@
         <v>42665</v>
       </c>
       <c r="J118" t="n">
-        <v>29.95</v>
+        <v>29.96</v>
       </c>
       <c r="K118" t="n">
         <v>460207</v>
@@ -6490,7 +6490,7 @@
         <v>43029</v>
       </c>
       <c r="J119" t="n">
-        <v>29.71</v>
+        <v>29.75</v>
       </c>
       <c r="K119" t="n">
         <v>466376</v>
@@ -6545,7 +6545,9 @@
         <v>5396.35</v>
       </c>
       <c r="I120"/>
-      <c r="J120"/>
+      <c r="J120" t="n">
+        <v>29.14</v>
+      </c>
       <c r="K120" t="n">
         <v>471580</v>
       </c>

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -6404,7 +6404,7 @@
         <v>45292</v>
       </c>
       <c r="B118" t="n">
-        <v>33890</v>
+        <v>34059</v>
       </c>
       <c r="C118" t="n">
         <v>7145517</v>
@@ -6449,7 +6449,7 @@
         <v>4.3</v>
       </c>
       <c r="Q118" t="n">
-        <v>116734</v>
+        <v>116519</v>
       </c>
       <c r="R118" t="n">
         <v>168153</v>
@@ -6466,7 +6466,7 @@
         <v>45383</v>
       </c>
       <c r="B119" t="n">
-        <v>35191</v>
+        <v>35545</v>
       </c>
       <c r="C119" t="n">
         <v>3806495</v>
@@ -6511,7 +6511,7 @@
         <v>4.4</v>
       </c>
       <c r="Q119" t="n">
-        <v>117155</v>
+        <v>118222</v>
       </c>
       <c r="R119" t="n">
         <v>194853</v>
@@ -6527,7 +6527,9 @@
       <c r="A120" s="1" t="n">
         <v>45474</v>
       </c>
-      <c r="B120"/>
+      <c r="B120" t="n">
+        <v>35572</v>
+      </c>
       <c r="C120" t="n">
         <v>6988518</v>
       </c>
@@ -6540,7 +6542,9 @@
       <c r="F120" t="n">
         <v>157</v>
       </c>
-      <c r="G120"/>
+      <c r="G120" t="n">
+        <v>37031.7</v>
+      </c>
       <c r="H120" t="n">
         <v>5396.35</v>
       </c>
@@ -6564,8 +6568,12 @@
       <c r="P120" t="n">
         <v>4.5</v>
       </c>
-      <c r="Q120"/>
-      <c r="R120"/>
+      <c r="Q120" t="n">
+        <v>130266</v>
+      </c>
+      <c r="R120" t="n">
+        <v>184233</v>
+      </c>
       <c r="S120"/>
       <c r="T120" t="n">
         <v>57456780</v>

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -1845,7 +1845,7 @@
       </c>
       <c r="J34"/>
       <c r="K34" t="n">
-        <v>142852</v>
+        <v>117353</v>
       </c>
       <c r="L34" t="n">
         <v>86.4333333333333</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="J35"/>
       <c r="K35" t="n">
-        <v>146674</v>
+        <v>119112</v>
       </c>
       <c r="L35" t="n">
         <v>87.4333333333333</v>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="J36"/>
       <c r="K36" t="n">
-        <v>150987</v>
+        <v>125150</v>
       </c>
       <c r="L36" t="n">
         <v>87.5333333333333</v>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="J37"/>
       <c r="K37" t="n">
-        <v>154815</v>
+        <v>128661</v>
       </c>
       <c r="L37" t="n">
         <v>87.9333333333333</v>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="J38"/>
       <c r="K38" t="n">
-        <v>161141</v>
+        <v>128178</v>
       </c>
       <c r="L38" t="n">
         <v>88.2333333333333</v>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="J39"/>
       <c r="K39" t="n">
-        <v>167127</v>
+        <v>131960</v>
       </c>
       <c r="L39" t="n">
         <v>89.2666666666667</v>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="J40"/>
       <c r="K40" t="n">
-        <v>174812</v>
+        <v>139025</v>
       </c>
       <c r="L40" t="n">
         <v>89.7</v>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="J41"/>
       <c r="K41" t="n">
-        <v>172465</v>
+        <v>140971</v>
       </c>
       <c r="L41" t="n">
         <v>90.1666666666667</v>
@@ -2245,7 +2245,7 @@
       </c>
       <c r="J42"/>
       <c r="K42" t="n">
-        <v>176954</v>
+        <v>145928</v>
       </c>
       <c r="L42" t="n">
         <v>90</v>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="J43"/>
       <c r="K43" t="n">
-        <v>181677</v>
+        <v>150228</v>
       </c>
       <c r="L43" t="n">
         <v>91.1333333333333</v>
@@ -2345,7 +2345,7 @@
       </c>
       <c r="J44"/>
       <c r="K44" t="n">
-        <v>191265</v>
+        <v>158682</v>
       </c>
       <c r="L44" t="n">
         <v>91.8333333333333</v>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="J45"/>
       <c r="K45" t="n">
-        <v>199751</v>
+        <v>165860</v>
       </c>
       <c r="L45" t="n">
         <v>92.2</v>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="J46"/>
       <c r="K46" t="n">
-        <v>205236</v>
+        <v>171719</v>
       </c>
       <c r="L46" t="n">
         <v>92.3333333333333</v>
@@ -2495,7 +2495,7 @@
       </c>
       <c r="J47"/>
       <c r="K47" t="n">
-        <v>212157</v>
+        <v>178870</v>
       </c>
       <c r="L47" t="n">
         <v>93.7666666666667</v>
@@ -2545,7 +2545,7 @@
       </c>
       <c r="J48"/>
       <c r="K48" t="n">
-        <v>222547</v>
+        <v>184801</v>
       </c>
       <c r="L48" t="n">
         <v>94.3333333333333</v>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="J49"/>
       <c r="K49" t="n">
-        <v>233093</v>
+        <v>193464</v>
       </c>
       <c r="L49" t="n">
         <v>94.5333333333333</v>
@@ -2645,7 +2645,7 @@
       </c>
       <c r="J50"/>
       <c r="K50" t="n">
-        <v>233518</v>
+        <v>191262</v>
       </c>
       <c r="L50" t="n">
         <v>95</v>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="J51"/>
       <c r="K51" t="n">
-        <v>242699</v>
+        <v>189440</v>
       </c>
       <c r="L51" t="n">
         <v>96.3666666666667</v>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="J52"/>
       <c r="K52" t="n">
-        <v>246197</v>
+        <v>194190</v>
       </c>
       <c r="L52" t="n">
         <v>96.8333333333333</v>
@@ -2795,7 +2795,7 @@
       </c>
       <c r="J53"/>
       <c r="K53" t="n">
-        <v>245171</v>
+        <v>193650</v>
       </c>
       <c r="L53" t="n">
         <v>97.5666666666667</v>
@@ -2847,7 +2847,7 @@
         <v>21.56</v>
       </c>
       <c r="K54" t="n">
-        <v>247775</v>
+        <v>191609</v>
       </c>
       <c r="L54" t="n">
         <v>98.2333333333333</v>
@@ -2899,7 +2899,7 @@
         <v>21.5</v>
       </c>
       <c r="K55" t="n">
-        <v>250819</v>
+        <v>193711</v>
       </c>
       <c r="L55" t="n">
         <v>99.9333333333333</v>
@@ -2951,7 +2951,7 @@
         <v>21.2</v>
       </c>
       <c r="K56" t="n">
-        <v>251535</v>
+        <v>195316</v>
       </c>
       <c r="L56" t="n">
         <v>100.033333333333</v>
@@ -3003,7 +3003,7 @@
         <v>22.24</v>
       </c>
       <c r="K57" t="n">
-        <v>252963</v>
+        <v>197292</v>
       </c>
       <c r="L57" t="n">
         <v>99.6</v>
@@ -3055,7 +3055,7 @@
         <v>22.44</v>
       </c>
       <c r="K58" t="n">
-        <v>292451</v>
+        <v>199389</v>
       </c>
       <c r="L58" t="n">
         <v>98.4</v>
@@ -3107,7 +3107,7 @@
         <v>22</v>
       </c>
       <c r="K59" t="n">
-        <v>296588</v>
+        <v>201356</v>
       </c>
       <c r="L59" t="n">
         <v>98.4</v>
@@ -3159,7 +3159,7 @@
         <v>21.88</v>
       </c>
       <c r="K60" t="n">
-        <v>298595</v>
+        <v>205269</v>
       </c>
       <c r="L60" t="n">
         <v>97.4333333333333</v>
@@ -3211,7 +3211,7 @@
         <v>22.5</v>
       </c>
       <c r="K61" t="n">
-        <v>299207</v>
+        <v>206864</v>
       </c>
       <c r="L61" t="n">
         <v>96.8333333333333</v>
@@ -3263,7 +3263,7 @@
         <v>22.21</v>
       </c>
       <c r="K62" t="n">
-        <v>300445</v>
+        <v>203563</v>
       </c>
       <c r="L62" t="n">
         <v>95.9666666666667</v>
@@ -3315,7 +3315,7 @@
         <v>22.03</v>
       </c>
       <c r="K63" t="n">
-        <v>297894</v>
+        <v>198573</v>
       </c>
       <c r="L63" t="n">
         <v>96.3</v>
@@ -3367,7 +3367,7 @@
         <v>21.78</v>
       </c>
       <c r="K64" t="n">
-        <v>294384</v>
+        <v>197020</v>
       </c>
       <c r="L64" t="n">
         <v>96.2666666666667</v>
@@ -3419,7 +3419,7 @@
         <v>22.14</v>
       </c>
       <c r="K65" t="n">
-        <v>288538</v>
+        <v>191550</v>
       </c>
       <c r="L65" t="n">
         <v>96.2333333333333</v>
@@ -3471,7 +3471,7 @@
         <v>22.18</v>
       </c>
       <c r="K66" t="n">
-        <v>283563</v>
+        <v>185644</v>
       </c>
       <c r="L66" t="n">
         <v>96.7666666666667</v>
@@ -3525,7 +3525,7 @@
         <v>21.9</v>
       </c>
       <c r="K67" t="n">
-        <v>280520</v>
+        <v>183608</v>
       </c>
       <c r="L67" t="n">
         <v>97.5333333333333</v>
@@ -3579,7 +3579,7 @@
         <v>21.57</v>
       </c>
       <c r="K68" t="n">
-        <v>277716</v>
+        <v>183770</v>
       </c>
       <c r="L68" t="n">
         <v>97.3666666666667</v>
@@ -3633,7 +3633,7 @@
         <v>22.06</v>
       </c>
       <c r="K69" t="n">
-        <v>275690</v>
+        <v>185159</v>
       </c>
       <c r="L69" t="n">
         <v>97.7666666666667</v>
@@ -3687,7 +3687,7 @@
         <v>22.25</v>
       </c>
       <c r="K70" t="n">
-        <v>275275</v>
+        <v>182862</v>
       </c>
       <c r="L70" t="n">
         <v>98.3666666666667</v>
@@ -3741,7 +3741,7 @@
         <v>21.96</v>
       </c>
       <c r="K71" t="n">
-        <v>276590</v>
+        <v>185642</v>
       </c>
       <c r="L71" t="n">
         <v>99.3333333333333</v>
@@ -3795,7 +3795,7 @@
         <v>21.82</v>
       </c>
       <c r="K72" t="n">
-        <v>276744</v>
+        <v>187074</v>
       </c>
       <c r="L72" t="n">
         <v>99.6333333333333</v>
@@ -3849,7 +3849,7 @@
         <v>21.9</v>
       </c>
       <c r="K73" t="n">
-        <v>276911</v>
+        <v>188273</v>
       </c>
       <c r="L73" t="n">
         <v>99.5</v>
@@ -3903,7 +3903,7 @@
         <v>22.24</v>
       </c>
       <c r="K74" t="n">
-        <v>277219</v>
+        <v>186715</v>
       </c>
       <c r="L74" t="n">
         <v>99.4666666666667</v>
@@ -3957,7 +3957,7 @@
         <v>22.02</v>
       </c>
       <c r="K75" t="n">
-        <v>275189</v>
+        <v>183580</v>
       </c>
       <c r="L75" t="n">
         <v>99.8666666666667</v>
@@ -4011,7 +4011,7 @@
         <v>21.53</v>
       </c>
       <c r="K76" t="n">
-        <v>274244</v>
+        <v>182392</v>
       </c>
       <c r="L76" t="n">
         <v>99.9333333333333</v>
@@ -4065,7 +4065,7 @@
         <v>21.89</v>
       </c>
       <c r="K77" t="n">
-        <v>274302</v>
+        <v>182338</v>
       </c>
       <c r="L77" t="n">
         <v>99.6666666666667</v>
@@ -4119,7 +4119,7 @@
         <v>22.37</v>
       </c>
       <c r="K78" t="n">
-        <v>274535</v>
+        <v>181138</v>
       </c>
       <c r="L78" t="n">
         <v>99.6666666666667</v>
@@ -4173,7 +4173,7 @@
         <v>21.81</v>
       </c>
       <c r="K79" t="n">
-        <v>274455</v>
+        <v>180972</v>
       </c>
       <c r="L79" t="n">
         <v>100.266666666667</v>
@@ -4227,7 +4227,7 @@
         <v>21.2</v>
       </c>
       <c r="K80" t="n">
-        <v>275050</v>
+        <v>181338</v>
       </c>
       <c r="L80" t="n">
         <v>100.433333333333</v>
@@ -4281,7 +4281,7 @@
         <v>22.05</v>
       </c>
       <c r="K81" t="n">
-        <v>276050</v>
+        <v>183774</v>
       </c>
       <c r="L81" t="n">
         <v>99.7666666666667</v>
@@ -4337,7 +4337,7 @@
         <v>22.3</v>
       </c>
       <c r="K82" t="n">
-        <v>277112</v>
+        <v>180251</v>
       </c>
       <c r="L82" t="n">
         <v>99.3333333333333</v>
@@ -4393,7 +4393,7 @@
         <v>21.86</v>
       </c>
       <c r="K83" t="n">
-        <v>280276</v>
+        <v>179964</v>
       </c>
       <c r="L83" t="n">
         <v>100.366666666667</v>
@@ -4449,13 +4449,13 @@
         <v>21.5</v>
       </c>
       <c r="K84" t="n">
-        <v>282123</v>
+        <v>182578</v>
       </c>
       <c r="L84" t="n">
         <v>100.533333333333</v>
       </c>
       <c r="M84" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="N84" t="n">
         <v>2078.6</v>
@@ -4505,7 +4505,7 @@
         <v>21.91</v>
       </c>
       <c r="K85" t="n">
-        <v>284786</v>
+        <v>180782</v>
       </c>
       <c r="L85" t="n">
         <v>99.7666666666667</v>
@@ -4561,7 +4561,7 @@
         <v>22.55</v>
       </c>
       <c r="K86" t="n">
-        <v>286347</v>
+        <v>178509</v>
       </c>
       <c r="L86" t="n">
         <v>99.0666666666667</v>
@@ -4617,7 +4617,7 @@
         <v>21.97</v>
       </c>
       <c r="K87" t="n">
-        <v>288308</v>
+        <v>179155</v>
       </c>
       <c r="L87" t="n">
         <v>100.266666666667</v>
@@ -4673,7 +4673,7 @@
         <v>21.56</v>
       </c>
       <c r="K88" t="n">
-        <v>290213</v>
+        <v>176672</v>
       </c>
       <c r="L88" t="n">
         <v>100.333333333333</v>
@@ -4729,7 +4729,7 @@
         <v>22.18</v>
       </c>
       <c r="K89" t="n">
-        <v>291699</v>
+        <v>176242</v>
       </c>
       <c r="L89" t="n">
         <v>99.5</v>
@@ -4785,7 +4785,7 @@
         <v>22.69</v>
       </c>
       <c r="K90" t="n">
-        <v>293879</v>
+        <v>174952</v>
       </c>
       <c r="L90" t="n">
         <v>99.4333333333333</v>
@@ -4841,13 +4841,13 @@
         <v>22.27</v>
       </c>
       <c r="K91" t="n">
-        <v>298142</v>
+        <v>175585</v>
       </c>
       <c r="L91" t="n">
         <v>100.3</v>
       </c>
       <c r="M91" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="N91" t="n">
         <v>2187.4</v>
@@ -4897,13 +4897,13 @@
         <v>22.16</v>
       </c>
       <c r="K92" t="n">
-        <v>301282</v>
+        <v>179171</v>
       </c>
       <c r="L92" t="n">
         <v>100.466666666667</v>
       </c>
       <c r="M92" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="N92" t="n">
         <v>2212.3</v>
@@ -4953,7 +4953,7 @@
         <v>22.6</v>
       </c>
       <c r="K93" t="n">
-        <v>302146</v>
+        <v>184755</v>
       </c>
       <c r="L93" t="n">
         <v>100</v>
@@ -5009,13 +5009,13 @@
         <v>23.4</v>
       </c>
       <c r="K94" t="n">
-        <v>302368</v>
+        <v>182457</v>
       </c>
       <c r="L94" t="n">
         <v>99.9333333333333</v>
       </c>
       <c r="M94" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="N94" t="n">
         <v>2225.3</v>
@@ -5065,13 +5065,13 @@
         <v>22.94</v>
       </c>
       <c r="K95" t="n">
-        <v>306592</v>
+        <v>183487</v>
       </c>
       <c r="L95" t="n">
         <v>100.733333333333</v>
       </c>
       <c r="M95" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="N95" t="n">
         <v>2261.7</v>
@@ -5121,13 +5121,13 @@
         <v>22.62</v>
       </c>
       <c r="K96" t="n">
-        <v>309669</v>
+        <v>188255</v>
       </c>
       <c r="L96" t="n">
         <v>101.5</v>
       </c>
       <c r="M96" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="N96" t="n">
         <v>2282.7</v>
@@ -5177,7 +5177,7 @@
         <v>23.31</v>
       </c>
       <c r="K97" t="n">
-        <v>312901</v>
+        <v>189240</v>
       </c>
       <c r="L97" t="n">
         <v>100.9</v>
@@ -5233,7 +5233,7 @@
         <v>24.05</v>
       </c>
       <c r="K98" t="n">
-        <v>317031</v>
+        <v>184672</v>
       </c>
       <c r="L98" t="n">
         <v>100.8</v>
@@ -5291,13 +5291,13 @@
         <v>23.69</v>
       </c>
       <c r="K99" t="n">
-        <v>323217</v>
+        <v>188551</v>
       </c>
       <c r="L99" t="n">
         <v>102</v>
       </c>
       <c r="M99" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="N99" t="n">
         <v>2311.5</v>
@@ -5349,13 +5349,13 @@
         <v>23.54</v>
       </c>
       <c r="K100" t="n">
-        <v>328307</v>
+        <v>194972</v>
       </c>
       <c r="L100" t="n">
         <v>102.066666666667</v>
       </c>
       <c r="M100" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="N100" t="n">
         <v>2341.6</v>
@@ -5407,7 +5407,7 @@
         <v>24.23</v>
       </c>
       <c r="K101" t="n">
-        <v>332431</v>
+        <v>201853</v>
       </c>
       <c r="L101" t="n">
         <v>101.733333333333</v>
@@ -5465,13 +5465,13 @@
         <v>24.76</v>
       </c>
       <c r="K102" t="n">
-        <v>337724</v>
+        <v>200288</v>
       </c>
       <c r="L102" t="n">
         <v>101.633333333333</v>
       </c>
       <c r="M102" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="N102" t="n">
         <v>2368.8</v>
@@ -5523,7 +5523,7 @@
         <v>25.38</v>
       </c>
       <c r="K103" t="n">
-        <v>352949</v>
+        <v>204997</v>
       </c>
       <c r="L103" t="n">
         <v>101.433333333333</v>
@@ -5581,13 +5581,13 @@
         <v>24.38</v>
       </c>
       <c r="K104" t="n">
-        <v>363116</v>
+        <v>212254</v>
       </c>
       <c r="L104" t="n">
         <v>101.1</v>
       </c>
       <c r="M104" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="N104" t="n">
         <v>2275</v>
@@ -5639,7 +5639,7 @@
         <v>25.57</v>
       </c>
       <c r="K105" t="n">
-        <v>376492</v>
+        <v>214953</v>
       </c>
       <c r="L105" t="n">
         <v>100.566666666667</v>
@@ -5699,13 +5699,13 @@
         <v>26.84</v>
       </c>
       <c r="K106" t="n">
-        <v>397284</v>
+        <v>199768</v>
       </c>
       <c r="L106" t="n">
         <v>101.5</v>
       </c>
       <c r="M106" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="N106" t="n">
         <v>2259.9</v>
@@ -5759,7 +5759,7 @@
         <v>26.08</v>
       </c>
       <c r="K107" t="n">
-        <v>408772</v>
+        <v>205745</v>
       </c>
       <c r="L107" t="n">
         <v>102.966666666667</v>
@@ -5819,13 +5819,13 @@
         <v>25.31</v>
       </c>
       <c r="K108" t="n">
-        <v>416274</v>
+        <v>208146</v>
       </c>
       <c r="L108" t="n">
         <v>104.1</v>
       </c>
       <c r="M108" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="N108" t="n">
         <v>2515</v>
@@ -5879,13 +5879,13 @@
         <v>26.29</v>
       </c>
       <c r="K109" t="n">
-        <v>419861</v>
+        <v>209529</v>
       </c>
       <c r="L109" t="n">
         <v>105.966666666667</v>
       </c>
       <c r="M109" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="N109" t="n">
         <v>2551.4</v>
@@ -5939,13 +5939,13 @@
         <v>27.46</v>
       </c>
       <c r="K110" t="n">
-        <v>424786</v>
+        <v>207735</v>
       </c>
       <c r="L110" t="n">
         <v>107.5</v>
       </c>
       <c r="M110" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="N110" t="n">
         <v>2559.4</v>
@@ -5999,13 +5999,13 @@
         <v>26.76</v>
       </c>
       <c r="K111" t="n">
-        <v>431406</v>
+        <v>211523</v>
       </c>
       <c r="L111" t="n">
         <v>111.6</v>
       </c>
       <c r="M111" t="n">
-        <v>16</v>
+        <v>16.3</v>
       </c>
       <c r="N111" t="n">
         <v>2601.2</v>
@@ -6059,13 +6059,13 @@
         <v>26.23</v>
       </c>
       <c r="K112" t="n">
-        <v>439391</v>
+        <v>210920</v>
       </c>
       <c r="L112" t="n">
         <v>113.533333333333</v>
       </c>
       <c r="M112" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="N112" t="n">
         <v>2602.6</v>
@@ -6121,13 +6121,13 @@
         <v>27.9</v>
       </c>
       <c r="K113" t="n">
-        <v>443619</v>
+        <v>218475</v>
       </c>
       <c r="L113" t="n">
         <v>115.333333333333</v>
       </c>
       <c r="M113" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="N113" t="n">
         <v>2616.7</v>
@@ -6183,13 +6183,13 @@
         <v>28.55</v>
       </c>
       <c r="K114" t="n">
-        <v>446737</v>
+        <v>218651</v>
       </c>
       <c r="L114" t="n">
         <v>115.6</v>
       </c>
       <c r="M114" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="N114" t="n">
         <v>2652.7</v>
@@ -6245,13 +6245,13 @@
         <v>28.19</v>
       </c>
       <c r="K115" t="n">
-        <v>453431</v>
+        <v>216603</v>
       </c>
       <c r="L115" t="n">
         <v>117.7</v>
       </c>
       <c r="M115" t="n">
-        <v>13.2</v>
+        <v>13.8</v>
       </c>
       <c r="N115" t="n">
         <v>2682.7</v>
@@ -6307,13 +6307,13 @@
         <v>27.84</v>
       </c>
       <c r="K116" t="n">
-        <v>456388</v>
+        <v>218999</v>
       </c>
       <c r="L116" t="n">
         <v>119.033333333333</v>
       </c>
       <c r="M116" t="n">
-        <v>13.7</v>
+        <v>13.4</v>
       </c>
       <c r="N116" t="n">
         <v>2696.2</v>
@@ -6369,13 +6369,13 @@
         <v>28.44</v>
       </c>
       <c r="K117" t="n">
-        <v>456618</v>
+        <v>227916</v>
       </c>
       <c r="L117" t="n">
         <v>118.933333333333</v>
       </c>
       <c r="M117" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="N117" t="n">
         <v>2706.4</v>
@@ -6431,13 +6431,13 @@
         <v>29.96</v>
       </c>
       <c r="K118" t="n">
-        <v>460207</v>
+        <v>227023</v>
       </c>
       <c r="L118" t="n">
         <v>118.2</v>
       </c>
       <c r="M118" t="n">
-        <v>14.5</v>
+        <v>13.9</v>
       </c>
       <c r="N118" t="n">
         <v>2704.2</v>
@@ -6493,13 +6493,13 @@
         <v>29.75</v>
       </c>
       <c r="K119" t="n">
-        <v>466376</v>
+        <v>233944</v>
       </c>
       <c r="L119" t="n">
         <v>119.7</v>
       </c>
       <c r="M119" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="N119" t="n">
         <v>2754.2</v>
@@ -6553,17 +6553,19 @@
         <v>29.14</v>
       </c>
       <c r="K120" t="n">
-        <v>471580</v>
+        <v>242926</v>
       </c>
       <c r="L120" t="n">
         <v>120.066666666667</v>
       </c>
-      <c r="M120"/>
+      <c r="M120" t="n">
+        <v>14.1</v>
+      </c>
       <c r="N120" t="n">
         <v>2794.8</v>
       </c>
       <c r="O120" t="n">
-        <v>2501633.33333333</v>
+        <v>2505933.33333333</v>
       </c>
       <c r="P120" t="n">
         <v>4.5</v>

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -1845,7 +1845,7 @@
       </c>
       <c r="J34"/>
       <c r="K34" t="n">
-        <v>117353</v>
+        <v>142852</v>
       </c>
       <c r="L34" t="n">
         <v>86.4333333333333</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="J35"/>
       <c r="K35" t="n">
-        <v>119112</v>
+        <v>146674</v>
       </c>
       <c r="L35" t="n">
         <v>87.4333333333333</v>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="J36"/>
       <c r="K36" t="n">
-        <v>125150</v>
+        <v>150987</v>
       </c>
       <c r="L36" t="n">
         <v>87.5333333333333</v>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="J37"/>
       <c r="K37" t="n">
-        <v>128661</v>
+        <v>154815</v>
       </c>
       <c r="L37" t="n">
         <v>87.9333333333333</v>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="J38"/>
       <c r="K38" t="n">
-        <v>128178</v>
+        <v>161141</v>
       </c>
       <c r="L38" t="n">
         <v>88.2333333333333</v>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="J39"/>
       <c r="K39" t="n">
-        <v>131960</v>
+        <v>167127</v>
       </c>
       <c r="L39" t="n">
         <v>89.2666666666667</v>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="J40"/>
       <c r="K40" t="n">
-        <v>139025</v>
+        <v>174812</v>
       </c>
       <c r="L40" t="n">
         <v>89.7</v>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="J41"/>
       <c r="K41" t="n">
-        <v>140971</v>
+        <v>172465</v>
       </c>
       <c r="L41" t="n">
         <v>90.1666666666667</v>
@@ -2245,7 +2245,7 @@
       </c>
       <c r="J42"/>
       <c r="K42" t="n">
-        <v>145928</v>
+        <v>176954</v>
       </c>
       <c r="L42" t="n">
         <v>90</v>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="J43"/>
       <c r="K43" t="n">
-        <v>150228</v>
+        <v>181677</v>
       </c>
       <c r="L43" t="n">
         <v>91.1333333333333</v>
@@ -2345,7 +2345,7 @@
       </c>
       <c r="J44"/>
       <c r="K44" t="n">
-        <v>158682</v>
+        <v>191265</v>
       </c>
       <c r="L44" t="n">
         <v>91.8333333333333</v>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="J45"/>
       <c r="K45" t="n">
-        <v>165860</v>
+        <v>199751</v>
       </c>
       <c r="L45" t="n">
         <v>92.2</v>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="J46"/>
       <c r="K46" t="n">
-        <v>171719</v>
+        <v>205236</v>
       </c>
       <c r="L46" t="n">
         <v>92.3333333333333</v>
@@ -2495,7 +2495,7 @@
       </c>
       <c r="J47"/>
       <c r="K47" t="n">
-        <v>178870</v>
+        <v>212157</v>
       </c>
       <c r="L47" t="n">
         <v>93.7666666666667</v>
@@ -2545,7 +2545,7 @@
       </c>
       <c r="J48"/>
       <c r="K48" t="n">
-        <v>184801</v>
+        <v>222547</v>
       </c>
       <c r="L48" t="n">
         <v>94.3333333333333</v>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="J49"/>
       <c r="K49" t="n">
-        <v>193464</v>
+        <v>233093</v>
       </c>
       <c r="L49" t="n">
         <v>94.5333333333333</v>
@@ -2645,7 +2645,7 @@
       </c>
       <c r="J50"/>
       <c r="K50" t="n">
-        <v>191262</v>
+        <v>233518</v>
       </c>
       <c r="L50" t="n">
         <v>95</v>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="J51"/>
       <c r="K51" t="n">
-        <v>189440</v>
+        <v>242699</v>
       </c>
       <c r="L51" t="n">
         <v>96.3666666666667</v>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="J52"/>
       <c r="K52" t="n">
-        <v>194190</v>
+        <v>246197</v>
       </c>
       <c r="L52" t="n">
         <v>96.8333333333333</v>
@@ -2795,7 +2795,7 @@
       </c>
       <c r="J53"/>
       <c r="K53" t="n">
-        <v>193650</v>
+        <v>245171</v>
       </c>
       <c r="L53" t="n">
         <v>97.5666666666667</v>
@@ -2847,7 +2847,7 @@
         <v>21.56</v>
       </c>
       <c r="K54" t="n">
-        <v>191609</v>
+        <v>247775</v>
       </c>
       <c r="L54" t="n">
         <v>98.2333333333333</v>
@@ -2899,7 +2899,7 @@
         <v>21.5</v>
       </c>
       <c r="K55" t="n">
-        <v>193711</v>
+        <v>250819</v>
       </c>
       <c r="L55" t="n">
         <v>99.9333333333333</v>
@@ -2951,7 +2951,7 @@
         <v>21.2</v>
       </c>
       <c r="K56" t="n">
-        <v>195316</v>
+        <v>251535</v>
       </c>
       <c r="L56" t="n">
         <v>100.033333333333</v>
@@ -3003,7 +3003,7 @@
         <v>22.24</v>
       </c>
       <c r="K57" t="n">
-        <v>197292</v>
+        <v>252963</v>
       </c>
       <c r="L57" t="n">
         <v>99.6</v>
@@ -3055,7 +3055,7 @@
         <v>22.44</v>
       </c>
       <c r="K58" t="n">
-        <v>199389</v>
+        <v>292451</v>
       </c>
       <c r="L58" t="n">
         <v>98.4</v>
@@ -3107,7 +3107,7 @@
         <v>22</v>
       </c>
       <c r="K59" t="n">
-        <v>201356</v>
+        <v>296588</v>
       </c>
       <c r="L59" t="n">
         <v>98.4</v>
@@ -3159,7 +3159,7 @@
         <v>21.88</v>
       </c>
       <c r="K60" t="n">
-        <v>205269</v>
+        <v>298595</v>
       </c>
       <c r="L60" t="n">
         <v>97.4333333333333</v>
@@ -3211,7 +3211,7 @@
         <v>22.5</v>
       </c>
       <c r="K61" t="n">
-        <v>206864</v>
+        <v>299207</v>
       </c>
       <c r="L61" t="n">
         <v>96.8333333333333</v>
@@ -3263,7 +3263,7 @@
         <v>22.21</v>
       </c>
       <c r="K62" t="n">
-        <v>203563</v>
+        <v>300445</v>
       </c>
       <c r="L62" t="n">
         <v>95.9666666666667</v>
@@ -3315,7 +3315,7 @@
         <v>22.03</v>
       </c>
       <c r="K63" t="n">
-        <v>198573</v>
+        <v>297894</v>
       </c>
       <c r="L63" t="n">
         <v>96.3</v>
@@ -3367,7 +3367,7 @@
         <v>21.78</v>
       </c>
       <c r="K64" t="n">
-        <v>197020</v>
+        <v>294384</v>
       </c>
       <c r="L64" t="n">
         <v>96.2666666666667</v>
@@ -3419,7 +3419,7 @@
         <v>22.14</v>
       </c>
       <c r="K65" t="n">
-        <v>191550</v>
+        <v>288538</v>
       </c>
       <c r="L65" t="n">
         <v>96.2333333333333</v>
@@ -3471,7 +3471,7 @@
         <v>22.18</v>
       </c>
       <c r="K66" t="n">
-        <v>185644</v>
+        <v>283563</v>
       </c>
       <c r="L66" t="n">
         <v>96.7666666666667</v>
@@ -3525,7 +3525,7 @@
         <v>21.9</v>
       </c>
       <c r="K67" t="n">
-        <v>183608</v>
+        <v>280520</v>
       </c>
       <c r="L67" t="n">
         <v>97.5333333333333</v>
@@ -3579,7 +3579,7 @@
         <v>21.57</v>
       </c>
       <c r="K68" t="n">
-        <v>183770</v>
+        <v>277716</v>
       </c>
       <c r="L68" t="n">
         <v>97.3666666666667</v>
@@ -3633,7 +3633,7 @@
         <v>22.06</v>
       </c>
       <c r="K69" t="n">
-        <v>185159</v>
+        <v>275690</v>
       </c>
       <c r="L69" t="n">
         <v>97.7666666666667</v>
@@ -3687,7 +3687,7 @@
         <v>22.25</v>
       </c>
       <c r="K70" t="n">
-        <v>182862</v>
+        <v>275275</v>
       </c>
       <c r="L70" t="n">
         <v>98.3666666666667</v>
@@ -3741,7 +3741,7 @@
         <v>21.96</v>
       </c>
       <c r="K71" t="n">
-        <v>185642</v>
+        <v>276590</v>
       </c>
       <c r="L71" t="n">
         <v>99.3333333333333</v>
@@ -3795,7 +3795,7 @@
         <v>21.82</v>
       </c>
       <c r="K72" t="n">
-        <v>187074</v>
+        <v>276744</v>
       </c>
       <c r="L72" t="n">
         <v>99.6333333333333</v>
@@ -3849,7 +3849,7 @@
         <v>21.9</v>
       </c>
       <c r="K73" t="n">
-        <v>188273</v>
+        <v>276911</v>
       </c>
       <c r="L73" t="n">
         <v>99.5</v>
@@ -3903,7 +3903,7 @@
         <v>22.24</v>
       </c>
       <c r="K74" t="n">
-        <v>186715</v>
+        <v>277219</v>
       </c>
       <c r="L74" t="n">
         <v>99.4666666666667</v>
@@ -3957,7 +3957,7 @@
         <v>22.02</v>
       </c>
       <c r="K75" t="n">
-        <v>183580</v>
+        <v>275189</v>
       </c>
       <c r="L75" t="n">
         <v>99.8666666666667</v>
@@ -4011,7 +4011,7 @@
         <v>21.53</v>
       </c>
       <c r="K76" t="n">
-        <v>182392</v>
+        <v>274244</v>
       </c>
       <c r="L76" t="n">
         <v>99.9333333333333</v>
@@ -4065,7 +4065,7 @@
         <v>21.89</v>
       </c>
       <c r="K77" t="n">
-        <v>182338</v>
+        <v>274302</v>
       </c>
       <c r="L77" t="n">
         <v>99.6666666666667</v>
@@ -4119,7 +4119,7 @@
         <v>22.37</v>
       </c>
       <c r="K78" t="n">
-        <v>181138</v>
+        <v>274535</v>
       </c>
       <c r="L78" t="n">
         <v>99.6666666666667</v>
@@ -4173,7 +4173,7 @@
         <v>21.81</v>
       </c>
       <c r="K79" t="n">
-        <v>180972</v>
+        <v>274455</v>
       </c>
       <c r="L79" t="n">
         <v>100.266666666667</v>
@@ -4227,7 +4227,7 @@
         <v>21.2</v>
       </c>
       <c r="K80" t="n">
-        <v>181338</v>
+        <v>275050</v>
       </c>
       <c r="L80" t="n">
         <v>100.433333333333</v>
@@ -4281,7 +4281,7 @@
         <v>22.05</v>
       </c>
       <c r="K81" t="n">
-        <v>183774</v>
+        <v>276050</v>
       </c>
       <c r="L81" t="n">
         <v>99.7666666666667</v>
@@ -4337,7 +4337,7 @@
         <v>22.3</v>
       </c>
       <c r="K82" t="n">
-        <v>180251</v>
+        <v>277112</v>
       </c>
       <c r="L82" t="n">
         <v>99.3333333333333</v>
@@ -4393,7 +4393,7 @@
         <v>21.86</v>
       </c>
       <c r="K83" t="n">
-        <v>179964</v>
+        <v>280276</v>
       </c>
       <c r="L83" t="n">
         <v>100.366666666667</v>
@@ -4449,7 +4449,7 @@
         <v>21.5</v>
       </c>
       <c r="K84" t="n">
-        <v>182578</v>
+        <v>282123</v>
       </c>
       <c r="L84" t="n">
         <v>100.533333333333</v>
@@ -4505,7 +4505,7 @@
         <v>21.91</v>
       </c>
       <c r="K85" t="n">
-        <v>180782</v>
+        <v>284786</v>
       </c>
       <c r="L85" t="n">
         <v>99.7666666666667</v>
@@ -4561,7 +4561,7 @@
         <v>22.55</v>
       </c>
       <c r="K86" t="n">
-        <v>178509</v>
+        <v>286347</v>
       </c>
       <c r="L86" t="n">
         <v>99.0666666666667</v>
@@ -4617,7 +4617,7 @@
         <v>21.97</v>
       </c>
       <c r="K87" t="n">
-        <v>179155</v>
+        <v>288308</v>
       </c>
       <c r="L87" t="n">
         <v>100.266666666667</v>
@@ -4673,7 +4673,7 @@
         <v>21.56</v>
       </c>
       <c r="K88" t="n">
-        <v>176672</v>
+        <v>290213</v>
       </c>
       <c r="L88" t="n">
         <v>100.333333333333</v>
@@ -4729,7 +4729,7 @@
         <v>22.18</v>
       </c>
       <c r="K89" t="n">
-        <v>176242</v>
+        <v>291699</v>
       </c>
       <c r="L89" t="n">
         <v>99.5</v>
@@ -4785,7 +4785,7 @@
         <v>22.69</v>
       </c>
       <c r="K90" t="n">
-        <v>174952</v>
+        <v>293879</v>
       </c>
       <c r="L90" t="n">
         <v>99.4333333333333</v>
@@ -4841,7 +4841,7 @@
         <v>22.27</v>
       </c>
       <c r="K91" t="n">
-        <v>175585</v>
+        <v>298142</v>
       </c>
       <c r="L91" t="n">
         <v>100.3</v>
@@ -4897,7 +4897,7 @@
         <v>22.16</v>
       </c>
       <c r="K92" t="n">
-        <v>179171</v>
+        <v>301282</v>
       </c>
       <c r="L92" t="n">
         <v>100.466666666667</v>
@@ -4953,7 +4953,7 @@
         <v>22.6</v>
       </c>
       <c r="K93" t="n">
-        <v>184755</v>
+        <v>302146</v>
       </c>
       <c r="L93" t="n">
         <v>100</v>
@@ -5009,7 +5009,7 @@
         <v>23.4</v>
       </c>
       <c r="K94" t="n">
-        <v>182457</v>
+        <v>302368</v>
       </c>
       <c r="L94" t="n">
         <v>99.9333333333333</v>
@@ -5065,7 +5065,7 @@
         <v>22.94</v>
       </c>
       <c r="K95" t="n">
-        <v>183487</v>
+        <v>306592</v>
       </c>
       <c r="L95" t="n">
         <v>100.733333333333</v>
@@ -5121,7 +5121,7 @@
         <v>22.62</v>
       </c>
       <c r="K96" t="n">
-        <v>188255</v>
+        <v>309669</v>
       </c>
       <c r="L96" t="n">
         <v>101.5</v>
@@ -5177,7 +5177,7 @@
         <v>23.31</v>
       </c>
       <c r="K97" t="n">
-        <v>189240</v>
+        <v>312901</v>
       </c>
       <c r="L97" t="n">
         <v>100.9</v>
@@ -5233,7 +5233,7 @@
         <v>24.05</v>
       </c>
       <c r="K98" t="n">
-        <v>184672</v>
+        <v>317031</v>
       </c>
       <c r="L98" t="n">
         <v>100.8</v>
@@ -5291,7 +5291,7 @@
         <v>23.69</v>
       </c>
       <c r="K99" t="n">
-        <v>188551</v>
+        <v>323217</v>
       </c>
       <c r="L99" t="n">
         <v>102</v>
@@ -5349,7 +5349,7 @@
         <v>23.54</v>
       </c>
       <c r="K100" t="n">
-        <v>194972</v>
+        <v>328307</v>
       </c>
       <c r="L100" t="n">
         <v>102.066666666667</v>
@@ -5407,7 +5407,7 @@
         <v>24.23</v>
       </c>
       <c r="K101" t="n">
-        <v>201853</v>
+        <v>332431</v>
       </c>
       <c r="L101" t="n">
         <v>101.733333333333</v>
@@ -5465,7 +5465,7 @@
         <v>24.76</v>
       </c>
       <c r="K102" t="n">
-        <v>200288</v>
+        <v>337724</v>
       </c>
       <c r="L102" t="n">
         <v>101.633333333333</v>
@@ -5523,7 +5523,7 @@
         <v>25.38</v>
       </c>
       <c r="K103" t="n">
-        <v>204997</v>
+        <v>352949</v>
       </c>
       <c r="L103" t="n">
         <v>101.433333333333</v>
@@ -5581,7 +5581,7 @@
         <v>24.38</v>
       </c>
       <c r="K104" t="n">
-        <v>212254</v>
+        <v>363116</v>
       </c>
       <c r="L104" t="n">
         <v>101.1</v>
@@ -5639,7 +5639,7 @@
         <v>25.57</v>
       </c>
       <c r="K105" t="n">
-        <v>214953</v>
+        <v>376492</v>
       </c>
       <c r="L105" t="n">
         <v>100.566666666667</v>
@@ -5699,7 +5699,7 @@
         <v>26.84</v>
       </c>
       <c r="K106" t="n">
-        <v>199768</v>
+        <v>397284</v>
       </c>
       <c r="L106" t="n">
         <v>101.5</v>
@@ -5759,7 +5759,7 @@
         <v>26.08</v>
       </c>
       <c r="K107" t="n">
-        <v>205745</v>
+        <v>408772</v>
       </c>
       <c r="L107" t="n">
         <v>102.966666666667</v>
@@ -5819,7 +5819,7 @@
         <v>25.31</v>
       </c>
       <c r="K108" t="n">
-        <v>208146</v>
+        <v>416274</v>
       </c>
       <c r="L108" t="n">
         <v>104.1</v>
@@ -5879,7 +5879,7 @@
         <v>26.29</v>
       </c>
       <c r="K109" t="n">
-        <v>209529</v>
+        <v>419861</v>
       </c>
       <c r="L109" t="n">
         <v>105.966666666667</v>
@@ -5939,7 +5939,7 @@
         <v>27.46</v>
       </c>
       <c r="K110" t="n">
-        <v>207735</v>
+        <v>424786</v>
       </c>
       <c r="L110" t="n">
         <v>107.5</v>
@@ -5999,7 +5999,7 @@
         <v>26.76</v>
       </c>
       <c r="K111" t="n">
-        <v>211523</v>
+        <v>431406</v>
       </c>
       <c r="L111" t="n">
         <v>111.6</v>
@@ -6059,7 +6059,7 @@
         <v>26.23</v>
       </c>
       <c r="K112" t="n">
-        <v>210920</v>
+        <v>439391</v>
       </c>
       <c r="L112" t="n">
         <v>113.533333333333</v>
@@ -6121,7 +6121,7 @@
         <v>27.9</v>
       </c>
       <c r="K113" t="n">
-        <v>218475</v>
+        <v>443619</v>
       </c>
       <c r="L113" t="n">
         <v>115.333333333333</v>
@@ -6183,7 +6183,7 @@
         <v>28.55</v>
       </c>
       <c r="K114" t="n">
-        <v>218651</v>
+        <v>446737</v>
       </c>
       <c r="L114" t="n">
         <v>115.6</v>
@@ -6245,7 +6245,7 @@
         <v>28.19</v>
       </c>
       <c r="K115" t="n">
-        <v>216603</v>
+        <v>453431</v>
       </c>
       <c r="L115" t="n">
         <v>117.7</v>
@@ -6307,7 +6307,7 @@
         <v>27.84</v>
       </c>
       <c r="K116" t="n">
-        <v>218999</v>
+        <v>456388</v>
       </c>
       <c r="L116" t="n">
         <v>119.033333333333</v>
@@ -6369,7 +6369,7 @@
         <v>28.44</v>
       </c>
       <c r="K117" t="n">
-        <v>227916</v>
+        <v>456618</v>
       </c>
       <c r="L117" t="n">
         <v>118.933333333333</v>
@@ -6431,7 +6431,7 @@
         <v>29.96</v>
       </c>
       <c r="K118" t="n">
-        <v>227023</v>
+        <v>460207</v>
       </c>
       <c r="L118" t="n">
         <v>118.2</v>
@@ -6493,7 +6493,7 @@
         <v>29.75</v>
       </c>
       <c r="K119" t="n">
-        <v>233944</v>
+        <v>466376</v>
       </c>
       <c r="L119" t="n">
         <v>119.7</v>
@@ -6553,7 +6553,7 @@
         <v>29.14</v>
       </c>
       <c r="K120" t="n">
-        <v>242926</v>
+        <v>471580</v>
       </c>
       <c r="L120" t="n">
         <v>120.066666666667</v>

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -6517,10 +6517,10 @@
         <v>194853</v>
       </c>
       <c r="S119" t="n">
-        <v>725.591</v>
+        <v>730.675</v>
       </c>
       <c r="T119" t="n">
-        <v>54367123</v>
+        <v>54201864</v>
       </c>
     </row>
     <row r="120">
@@ -6576,9 +6576,11 @@
       <c r="R120" t="n">
         <v>184233</v>
       </c>
-      <c r="S120"/>
+      <c r="S120" t="n">
+        <v>774.024</v>
+      </c>
       <c r="T120" t="n">
-        <v>57456780</v>
+        <v>57692274</v>
       </c>
     </row>
     <row r="121">

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -922,7 +922,7 @@
       </c>
       <c r="O14"/>
       <c r="P14" t="n">
-        <v>8.8</v>
+        <v>8.86666666666667</v>
       </c>
       <c r="Q14" t="n">
         <v>32680</v>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="O16"/>
       <c r="P16" t="n">
-        <v>7.3</v>
+        <v>7.26666666666667</v>
       </c>
       <c r="Q16" t="n">
         <v>35153</v>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="O17"/>
       <c r="P17" t="n">
-        <v>6.7</v>
+        <v>6.66666666666667</v>
       </c>
       <c r="Q17" t="n">
         <v>34042</v>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="O20"/>
       <c r="P20" t="n">
-        <v>5.4</v>
+        <v>5.46666666666667</v>
       </c>
       <c r="Q20" t="n">
         <v>38466</v>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="O24"/>
       <c r="P24" t="n">
-        <v>4.2</v>
+        <v>4.23333333333333</v>
       </c>
       <c r="Q24" t="n">
         <v>41935</v>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="O26"/>
       <c r="P26" t="n">
-        <v>4</v>
+        <v>3.96666666666667</v>
       </c>
       <c r="Q26" t="n">
         <v>42181</v>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="O28"/>
       <c r="P28" t="n">
-        <v>4.4</v>
+        <v>4.36666666666667</v>
       </c>
       <c r="Q28" t="n">
         <v>43151</v>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="O30"/>
       <c r="P30" t="n">
-        <v>4.5</v>
+        <v>4.53333333333333</v>
       </c>
       <c r="Q30" t="n">
         <v>44455</v>
@@ -1712,7 +1712,7 @@
       </c>
       <c r="O31"/>
       <c r="P31" t="n">
-        <v>4.6</v>
+        <v>4.63333333333333</v>
       </c>
       <c r="Q31" t="n">
         <v>45307</v>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="O33"/>
       <c r="P33" t="n">
-        <v>5.3</v>
+        <v>5.26666666666667</v>
       </c>
       <c r="Q33" t="n">
         <v>47436</v>
@@ -1858,7 +1858,7 @@
       </c>
       <c r="O34"/>
       <c r="P34" t="n">
-        <v>4.8</v>
+        <v>4.83333333333333</v>
       </c>
       <c r="Q34" t="n">
         <v>45410</v>
@@ -2008,7 +2008,7 @@
       </c>
       <c r="O37"/>
       <c r="P37" t="n">
-        <v>4.8</v>
+        <v>4.76666666666667</v>
       </c>
       <c r="Q37" t="n">
         <v>50325</v>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="O38"/>
       <c r="P38" t="n">
-        <v>5.1</v>
+        <v>5.13333333333333</v>
       </c>
       <c r="Q38" t="n">
         <v>48900</v>
@@ -2108,7 +2108,7 @@
       </c>
       <c r="O39"/>
       <c r="P39" t="n">
-        <v>4.7</v>
+        <v>4.66666666666667</v>
       </c>
       <c r="Q39" t="n">
         <v>50600</v>
@@ -2258,7 +2258,7 @@
       </c>
       <c r="O42"/>
       <c r="P42" t="n">
-        <v>4.4</v>
+        <v>4.43333333333333</v>
       </c>
       <c r="Q42" t="n">
         <v>51784</v>
@@ -2308,7 +2308,7 @@
       </c>
       <c r="O43"/>
       <c r="P43" t="n">
-        <v>4.9</v>
+        <v>4.86666666666667</v>
       </c>
       <c r="Q43" t="n">
         <v>53549</v>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="O45"/>
       <c r="P45" t="n">
-        <v>4.5</v>
+        <v>4.53333333333333</v>
       </c>
       <c r="Q45" t="n">
         <v>55254</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="O47"/>
       <c r="P47" t="n">
-        <v>4.8</v>
+        <v>4.73333333333333</v>
       </c>
       <c r="Q47" t="n">
         <v>55492</v>
@@ -2608,7 +2608,7 @@
       </c>
       <c r="O49"/>
       <c r="P49" t="n">
-        <v>4.6</v>
+        <v>4.63333333333333</v>
       </c>
       <c r="Q49" t="n">
         <v>56965</v>
@@ -2808,7 +2808,7 @@
       </c>
       <c r="O53"/>
       <c r="P53" t="n">
-        <v>5.2</v>
+        <v>5.23333333333333</v>
       </c>
       <c r="Q53" t="n">
         <v>59831</v>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="O54"/>
       <c r="P54" t="n">
-        <v>5.4</v>
+        <v>5.36666666666667</v>
       </c>
       <c r="Q54" t="n">
         <v>57888</v>
@@ -2912,7 +2912,7 @@
       </c>
       <c r="O55"/>
       <c r="P55" t="n">
-        <v>5.9</v>
+        <v>5.93333333333333</v>
       </c>
       <c r="Q55" t="n">
         <v>56679</v>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="O56"/>
       <c r="P56" t="n">
-        <v>7.4</v>
+        <v>7.36666666666667</v>
       </c>
       <c r="Q56" t="n">
         <v>56649</v>
@@ -3016,7 +3016,7 @@
       </c>
       <c r="O57"/>
       <c r="P57" t="n">
-        <v>8.6</v>
+        <v>8.53333333333333</v>
       </c>
       <c r="Q57" t="n">
         <v>53676</v>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="O58"/>
       <c r="P58" t="n">
-        <v>10.8</v>
+        <v>10.8666666666667</v>
       </c>
       <c r="Q58" t="n">
         <v>53757</v>
@@ -3224,7 +3224,7 @@
       </c>
       <c r="O61"/>
       <c r="P61" t="n">
-        <v>13.8</v>
+        <v>13.8333333333333</v>
       </c>
       <c r="Q61" t="n">
         <v>52124</v>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="O63"/>
       <c r="P63" t="n">
-        <v>14.4</v>
+        <v>14.3666666666667</v>
       </c>
       <c r="Q63" t="n">
         <v>54394</v>
@@ -3380,7 +3380,7 @@
       </c>
       <c r="O64"/>
       <c r="P64" t="n">
-        <v>14.6</v>
+        <v>14.6333333333333</v>
       </c>
       <c r="Q64" t="n">
         <v>55010</v>
@@ -3432,7 +3432,7 @@
       </c>
       <c r="O65"/>
       <c r="P65" t="n">
-        <v>15.6</v>
+        <v>15.6333333333333</v>
       </c>
       <c r="Q65" t="n">
         <v>54018</v>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="O66"/>
       <c r="P66" t="n">
-        <v>15.2</v>
+        <v>15.1666666666667</v>
       </c>
       <c r="Q66" t="n">
         <v>54770</v>
@@ -3538,7 +3538,7 @@
       </c>
       <c r="O67"/>
       <c r="P67" t="n">
-        <v>15.1</v>
+        <v>15.0333333333333</v>
       </c>
       <c r="Q67" t="n">
         <v>55847</v>
@@ -3646,7 +3646,7 @@
       </c>
       <c r="O69"/>
       <c r="P69" t="n">
-        <v>15.9</v>
+        <v>15.8333333333333</v>
       </c>
       <c r="Q69" t="n">
         <v>54464</v>
@@ -3700,7 +3700,7 @@
       </c>
       <c r="O70"/>
       <c r="P70" t="n">
-        <v>15.9</v>
+        <v>15.9333333333333</v>
       </c>
       <c r="Q70" t="n">
         <v>53666</v>
@@ -3754,7 +3754,7 @@
       </c>
       <c r="O71"/>
       <c r="P71" t="n">
-        <v>15.5</v>
+        <v>15.5333333333333</v>
       </c>
       <c r="Q71" t="n">
         <v>55960</v>
@@ -3916,7 +3916,7 @@
       </c>
       <c r="O74"/>
       <c r="P74" t="n">
-        <v>14.5</v>
+        <v>14.5666666666667</v>
       </c>
       <c r="Q74" t="n">
         <v>53333</v>
@@ -3970,7 +3970,7 @@
       </c>
       <c r="O75"/>
       <c r="P75" t="n">
-        <v>14.4</v>
+        <v>14.3666666666667</v>
       </c>
       <c r="Q75" t="n">
         <v>55553</v>
@@ -4024,7 +4024,7 @@
       </c>
       <c r="O76"/>
       <c r="P76" t="n">
-        <v>13.3</v>
+        <v>13.3333333333333</v>
       </c>
       <c r="Q76" t="n">
         <v>58401</v>
@@ -4078,7 +4078,7 @@
       </c>
       <c r="O77"/>
       <c r="P77" t="n">
-        <v>12.9</v>
+        <v>12.8333333333333</v>
       </c>
       <c r="Q77" t="n">
         <v>57252</v>
@@ -4132,7 +4132,7 @@
       </c>
       <c r="O78"/>
       <c r="P78" t="n">
-        <v>12.8</v>
+        <v>12.8333333333333</v>
       </c>
       <c r="Q78" t="n">
         <v>58751</v>
@@ -4240,7 +4240,7 @@
       </c>
       <c r="O80"/>
       <c r="P80" t="n">
-        <v>11.7</v>
+        <v>11.6666666666667</v>
       </c>
       <c r="Q80" t="n">
         <v>63072</v>
@@ -4294,7 +4294,7 @@
       </c>
       <c r="O81"/>
       <c r="P81" t="n">
-        <v>10.9</v>
+        <v>10.8666666666667</v>
       </c>
       <c r="Q81" t="n">
         <v>63072</v>
@@ -4350,7 +4350,7 @@
       </c>
       <c r="O82"/>
       <c r="P82" t="n">
-        <v>10.6</v>
+        <v>10.6333333333333</v>
       </c>
       <c r="Q82" t="n">
         <v>75460</v>
@@ -4462,7 +4462,7 @@
       </c>
       <c r="O84"/>
       <c r="P84" t="n">
-        <v>9.6</v>
+        <v>9.53333333333333</v>
       </c>
       <c r="Q84" t="n">
         <v>78116</v>
@@ -4518,7 +4518,7 @@
       </c>
       <c r="O85"/>
       <c r="P85" t="n">
-        <v>9.4</v>
+        <v>9.43333333333333</v>
       </c>
       <c r="Q85" t="n">
         <v>78867</v>
@@ -4574,7 +4574,7 @@
       </c>
       <c r="O86"/>
       <c r="P86" t="n">
-        <v>8.9</v>
+        <v>8.93333333333333</v>
       </c>
       <c r="Q86" t="n">
         <v>73829</v>
@@ -4686,7 +4686,7 @@
       </c>
       <c r="O88"/>
       <c r="P88" t="n">
-        <v>8.2</v>
+        <v>8.23333333333333</v>
       </c>
       <c r="Q88" t="n">
         <v>76641</v>
@@ -4742,7 +4742,7 @@
       </c>
       <c r="O89"/>
       <c r="P89" t="n">
-        <v>7.5</v>
+        <v>7.53333333333333</v>
       </c>
       <c r="Q89" t="n">
         <v>85351</v>
@@ -4798,7 +4798,7 @@
       </c>
       <c r="O90"/>
       <c r="P90" t="n">
-        <v>7.3</v>
+        <v>7.26666666666667</v>
       </c>
       <c r="Q90" t="n">
         <v>79797</v>
@@ -4854,7 +4854,7 @@
       </c>
       <c r="O91"/>
       <c r="P91" t="n">
-        <v>6.7</v>
+        <v>6.66666666666667</v>
       </c>
       <c r="Q91" t="n">
         <v>80312</v>
@@ -4910,7 +4910,7 @@
       </c>
       <c r="O92"/>
       <c r="P92" t="n">
-        <v>6.7</v>
+        <v>6.66666666666667</v>
       </c>
       <c r="Q92" t="n">
         <v>88418</v>
@@ -4966,7 +4966,7 @@
       </c>
       <c r="O93"/>
       <c r="P93" t="n">
-        <v>6.4</v>
+        <v>6.43333333333333</v>
       </c>
       <c r="Q93" t="n">
         <v>92267</v>
@@ -5022,7 +5022,7 @@
       </c>
       <c r="O94"/>
       <c r="P94" t="n">
-        <v>5.9</v>
+        <v>5.96666666666667</v>
       </c>
       <c r="Q94" t="n">
         <v>88228</v>
@@ -5078,7 +5078,7 @@
       </c>
       <c r="O95"/>
       <c r="P95" t="n">
-        <v>5.9</v>
+        <v>5.86666666666667</v>
       </c>
       <c r="Q95" t="n">
         <v>89520</v>
@@ -5306,7 +5306,7 @@
         <v>2152133.33333333</v>
       </c>
       <c r="P99" t="n">
-        <v>5.2</v>
+        <v>5.16666666666667</v>
       </c>
       <c r="Q99" t="n">
         <v>93264</v>
@@ -5480,7 +5480,7 @@
         <v>2180366.66666667</v>
       </c>
       <c r="P102" t="n">
-        <v>4.9</v>
+        <v>4.86666666666667</v>
       </c>
       <c r="Q102" t="n">
         <v>99741</v>
@@ -5538,7 +5538,7 @@
         <v>1905733.33333333</v>
       </c>
       <c r="P103" t="n">
-        <v>5.2</v>
+        <v>5.13333333333333</v>
       </c>
       <c r="Q103" t="n">
         <v>95476</v>
@@ -5654,7 +5654,7 @@
         <v>2065133.33333333</v>
       </c>
       <c r="P105" t="n">
-        <v>6.3</v>
+        <v>6.26666666666667</v>
       </c>
       <c r="Q105" t="n">
         <v>106062</v>
@@ -5714,7 +5714,7 @@
         <v>1955900</v>
       </c>
       <c r="P106" t="n">
-        <v>7.3</v>
+        <v>7.33333333333333</v>
       </c>
       <c r="Q106" t="n">
         <v>113276</v>
@@ -5774,7 +5774,7 @@
         <v>2069433.33333333</v>
       </c>
       <c r="P107" t="n">
-        <v>7</v>
+        <v>6.96666666666667</v>
       </c>
       <c r="Q107" t="n">
         <v>117479</v>
@@ -5834,7 +5834,7 @@
         <v>2211866.66666667</v>
       </c>
       <c r="P108" t="n">
-        <v>5.5</v>
+        <v>5.46666666666667</v>
       </c>
       <c r="Q108" t="n">
         <v>126559</v>
@@ -5885,7 +5885,7 @@
         <v>105.966666666667</v>
       </c>
       <c r="M109" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="N109" t="n">
         <v>2551.4</v>
@@ -5894,7 +5894,7 @@
         <v>2260666.66666667</v>
       </c>
       <c r="P109" t="n">
-        <v>5.2</v>
+        <v>5.23333333333333</v>
       </c>
       <c r="Q109" t="n">
         <v>122282</v>
@@ -5954,7 +5954,7 @@
         <v>2284166.66666667</v>
       </c>
       <c r="P110" t="n">
-        <v>4.9</v>
+        <v>4.86666666666667</v>
       </c>
       <c r="Q110" t="n">
         <v>122635</v>
@@ -6074,7 +6074,7 @@
         <v>2384666.66666667</v>
       </c>
       <c r="P112" t="n">
-        <v>4.2</v>
+        <v>4.26666666666667</v>
       </c>
       <c r="Q112" t="n">
         <v>138231</v>
@@ -6136,7 +6136,7 @@
         <v>2399666.66666667</v>
       </c>
       <c r="P113" t="n">
-        <v>4.4</v>
+        <v>4.43333333333333</v>
       </c>
       <c r="Q113" t="n">
         <v>133009</v>
@@ -6260,7 +6260,7 @@
         <v>2430066.66666667</v>
       </c>
       <c r="P115" t="n">
-        <v>4.2</v>
+        <v>4.16666666666667</v>
       </c>
       <c r="Q115" t="n">
         <v>122096</v>
@@ -6313,7 +6313,7 @@
         <v>119.033333333333</v>
       </c>
       <c r="M116" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="N116" t="n">
         <v>2696.2</v>
@@ -6322,7 +6322,7 @@
         <v>2447500</v>
       </c>
       <c r="P116" t="n">
-        <v>4.4</v>
+        <v>4.43333333333333</v>
       </c>
       <c r="Q116" t="n">
         <v>126645</v>
@@ -6375,7 +6375,7 @@
         <v>118.933333333333</v>
       </c>
       <c r="M117" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="N117" t="n">
         <v>2706.4</v>
@@ -6384,7 +6384,7 @@
         <v>2456000</v>
       </c>
       <c r="P117" t="n">
-        <v>4.5</v>
+        <v>4.43333333333333</v>
       </c>
       <c r="Q117" t="n">
         <v>120947</v>
@@ -6425,7 +6425,7 @@
         <v>5355.625</v>
       </c>
       <c r="I118" t="n">
-        <v>42665</v>
+        <v>42705</v>
       </c>
       <c r="J118" t="n">
         <v>29.96</v>
@@ -6437,16 +6437,16 @@
         <v>118.2</v>
       </c>
       <c r="M118" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="N118" t="n">
         <v>2704.2</v>
       </c>
       <c r="O118" t="n">
-        <v>2452466.66666667</v>
+        <v>2452566.66666667</v>
       </c>
       <c r="P118" t="n">
-        <v>4.3</v>
+        <v>4.26666666666667</v>
       </c>
       <c r="Q118" t="n">
         <v>116519</v>
@@ -6487,7 +6487,7 @@
         <v>5380</v>
       </c>
       <c r="I119" t="n">
-        <v>43029</v>
+        <v>43050</v>
       </c>
       <c r="J119" t="n">
         <v>29.75</v>
@@ -6505,10 +6505,10 @@
         <v>2754.2</v>
       </c>
       <c r="O119" t="n">
-        <v>2492100</v>
+        <v>2492200</v>
       </c>
       <c r="P119" t="n">
-        <v>4.4</v>
+        <v>4.36666666666667</v>
       </c>
       <c r="Q119" t="n">
         <v>118222</v>
@@ -6517,10 +6517,10 @@
         <v>194853</v>
       </c>
       <c r="S119" t="n">
-        <v>730.675</v>
+        <v>730.42</v>
       </c>
       <c r="T119" t="n">
-        <v>54201864</v>
+        <v>54221130</v>
       </c>
     </row>
     <row r="120">
@@ -6540,7 +6540,7 @@
         <v>21469267453.5</v>
       </c>
       <c r="F120" t="n">
-        <v>157</v>
+        <v>156.7</v>
       </c>
       <c r="G120" t="n">
         <v>37031.7</v>
@@ -6548,7 +6548,9 @@
       <c r="H120" t="n">
         <v>5396.35</v>
       </c>
-      <c r="I120"/>
+      <c r="I120" t="n">
+        <v>43825</v>
+      </c>
       <c r="J120" t="n">
         <v>29.14</v>
       </c>
@@ -6559,16 +6561,16 @@
         <v>120.066666666667</v>
       </c>
       <c r="M120" t="n">
-        <v>14.1</v>
+        <v>14.3</v>
       </c>
       <c r="N120" t="n">
         <v>2794.8</v>
       </c>
       <c r="O120" t="n">
-        <v>2505933.33333333</v>
+        <v>2506966.66666667</v>
       </c>
       <c r="P120" t="n">
-        <v>4.5</v>
+        <v>4.26666666666667</v>
       </c>
       <c r="Q120" t="n">
         <v>130266</v>
@@ -6588,9 +6590,15 @@
         <v>45566</v>
       </c>
       <c r="B121"/>
-      <c r="C121"/>
-      <c r="D121"/>
-      <c r="E121"/>
+      <c r="C121" t="n">
+        <v>3894691</v>
+      </c>
+      <c r="D121" t="n">
+        <v>116.733333333333</v>
+      </c>
+      <c r="E121" t="n">
+        <v>23263588708.15</v>
+      </c>
       <c r="F121"/>
       <c r="G121"/>
       <c r="H121" t="n">
@@ -6599,11 +6607,15 @@
       <c r="I121"/>
       <c r="J121"/>
       <c r="K121"/>
-      <c r="L121"/>
+      <c r="L121" t="n">
+        <v>119.566666666667</v>
+      </c>
       <c r="M121"/>
       <c r="N121"/>
       <c r="O121"/>
-      <c r="P121"/>
+      <c r="P121" t="n">
+        <v>4.3</v>
+      </c>
       <c r="Q121"/>
       <c r="R121"/>
       <c r="S121"/>

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -4455,7 +4455,7 @@
         <v>100.533333333333</v>
       </c>
       <c r="M84" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="N84" t="n">
         <v>2078.6</v>
@@ -4847,7 +4847,7 @@
         <v>100.3</v>
       </c>
       <c r="M91" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="N91" t="n">
         <v>2187.4</v>
@@ -4903,7 +4903,7 @@
         <v>100.466666666667</v>
       </c>
       <c r="M92" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="N92" t="n">
         <v>2212.3</v>
@@ -4959,7 +4959,7 @@
         <v>100</v>
       </c>
       <c r="M93" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="N93" t="n">
         <v>2234.7</v>
@@ -5015,7 +5015,7 @@
         <v>99.9333333333333</v>
       </c>
       <c r="M94" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="N94" t="n">
         <v>2225.3</v>
@@ -5127,7 +5127,7 @@
         <v>101.5</v>
       </c>
       <c r="M96" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="N96" t="n">
         <v>2282.7</v>
@@ -5183,7 +5183,7 @@
         <v>100.9</v>
       </c>
       <c r="M97" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="N97" t="n">
         <v>2290.4</v>
@@ -5297,7 +5297,7 @@
         <v>102</v>
       </c>
       <c r="M99" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="N99" t="n">
         <v>2311.5</v>
@@ -5355,7 +5355,7 @@
         <v>102.066666666667</v>
       </c>
       <c r="M100" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="N100" t="n">
         <v>2341.6</v>
@@ -5471,7 +5471,7 @@
         <v>101.633333333333</v>
       </c>
       <c r="M102" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="N102" t="n">
         <v>2368.8</v>
@@ -5587,7 +5587,7 @@
         <v>101.1</v>
       </c>
       <c r="M104" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="N104" t="n">
         <v>2275</v>
@@ -5705,7 +5705,7 @@
         <v>101.5</v>
       </c>
       <c r="M106" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="N106" t="n">
         <v>2259.9</v>
@@ -5825,7 +5825,7 @@
         <v>104.1</v>
       </c>
       <c r="M108" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="N108" t="n">
         <v>2515</v>
@@ -5885,7 +5885,7 @@
         <v>105.966666666667</v>
       </c>
       <c r="M109" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="N109" t="n">
         <v>2551.4</v>
@@ -5945,7 +5945,7 @@
         <v>107.5</v>
       </c>
       <c r="M110" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="N110" t="n">
         <v>2559.4</v>
@@ -6065,7 +6065,7 @@
         <v>113.533333333333</v>
       </c>
       <c r="M112" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="N112" t="n">
         <v>2602.6</v>
@@ -6251,7 +6251,7 @@
         <v>117.7</v>
       </c>
       <c r="M115" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="N115" t="n">
         <v>2682.7</v>
@@ -6313,7 +6313,7 @@
         <v>119.033333333333</v>
       </c>
       <c r="M116" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="N116" t="n">
         <v>2696.2</v>
@@ -6375,7 +6375,7 @@
         <v>118.933333333333</v>
       </c>
       <c r="M117" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="N117" t="n">
         <v>2706.4</v>
@@ -6437,7 +6437,7 @@
         <v>118.2</v>
       </c>
       <c r="M118" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="N118" t="n">
         <v>2704.2</v>
@@ -6561,7 +6561,7 @@
         <v>120.066666666667</v>
       </c>
       <c r="M120" t="n">
-        <v>14.3</v>
+        <v>14.8</v>
       </c>
       <c r="N120" t="n">
         <v>2794.8</v>
@@ -6602,7 +6602,7 @@
         <v>23263588708.15</v>
       </c>
       <c r="F121" t="n">
-        <v>169.9</v>
+        <v>169.7</v>
       </c>
       <c r="G121" t="n">
         <v>38902.8</v>
@@ -6620,7 +6620,9 @@
       <c r="L121" t="n">
         <v>119.566666666667</v>
       </c>
-      <c r="M121"/>
+      <c r="M121" t="n">
+        <v>13.8</v>
+      </c>
       <c r="N121" t="n">
         <v>2776.4</v>
       </c>

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -6505,7 +6505,7 @@
         <v>2754.2</v>
       </c>
       <c r="O119" t="n">
-        <v>2492200</v>
+        <v>2492300</v>
       </c>
       <c r="P119" t="n">
         <v>4.4</v>
@@ -6567,7 +6567,7 @@
         <v>2794.8</v>
       </c>
       <c r="O120" t="n">
-        <v>2507000</v>
+        <v>2507033.33333333</v>
       </c>
       <c r="P120" t="n">
         <v>4.3</v>
@@ -6579,10 +6579,10 @@
         <v>184724</v>
       </c>
       <c r="S120" t="n">
-        <v>774.024</v>
+        <v>777.165</v>
       </c>
       <c r="T120" t="n">
-        <v>57692274</v>
+        <v>57938207</v>
       </c>
     </row>
     <row r="121">
@@ -6627,7 +6627,7 @@
         <v>2776.4</v>
       </c>
       <c r="O121" t="n">
-        <v>2515933.33333333</v>
+        <v>2519133.33333333</v>
       </c>
       <c r="P121" t="n">
         <v>4.2</v>
@@ -6639,10 +6639,10 @@
         <v>200112</v>
       </c>
       <c r="S121" t="n">
-        <v>769.948</v>
+        <v>776.75</v>
       </c>
       <c r="T121" t="n">
-        <v>57887571</v>
+        <v>58537800</v>
       </c>
     </row>
     <row r="122">

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -922,7 +922,7 @@
       </c>
       <c r="O14"/>
       <c r="P14" t="n">
-        <v>8.8</v>
+        <v>8.86666666666667</v>
       </c>
       <c r="Q14" t="n">
         <v>32680</v>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="O16"/>
       <c r="P16" t="n">
-        <v>7.3</v>
+        <v>7.26666666666667</v>
       </c>
       <c r="Q16" t="n">
         <v>35153</v>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="O17"/>
       <c r="P17" t="n">
-        <v>6.7</v>
+        <v>6.66666666666667</v>
       </c>
       <c r="Q17" t="n">
         <v>34042</v>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="O20"/>
       <c r="P20" t="n">
-        <v>5.4</v>
+        <v>5.46666666666667</v>
       </c>
       <c r="Q20" t="n">
         <v>38466</v>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="O24"/>
       <c r="P24" t="n">
-        <v>4.2</v>
+        <v>4.23333333333333</v>
       </c>
       <c r="Q24" t="n">
         <v>41935</v>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="O26"/>
       <c r="P26" t="n">
-        <v>4</v>
+        <v>3.96666666666667</v>
       </c>
       <c r="Q26" t="n">
         <v>42181</v>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="O28"/>
       <c r="P28" t="n">
-        <v>4.4</v>
+        <v>4.36666666666667</v>
       </c>
       <c r="Q28" t="n">
         <v>43151</v>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="O30"/>
       <c r="P30" t="n">
-        <v>4.5</v>
+        <v>4.53333333333333</v>
       </c>
       <c r="Q30" t="n">
         <v>44455</v>
@@ -1712,7 +1712,7 @@
       </c>
       <c r="O31"/>
       <c r="P31" t="n">
-        <v>4.6</v>
+        <v>4.63333333333333</v>
       </c>
       <c r="Q31" t="n">
         <v>45307</v>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="O33"/>
       <c r="P33" t="n">
-        <v>5.3</v>
+        <v>5.26666666666667</v>
       </c>
       <c r="Q33" t="n">
         <v>47436</v>
@@ -1858,7 +1858,7 @@
       </c>
       <c r="O34"/>
       <c r="P34" t="n">
-        <v>4.8</v>
+        <v>4.83333333333333</v>
       </c>
       <c r="Q34" t="n">
         <v>45410</v>
@@ -2008,7 +2008,7 @@
       </c>
       <c r="O37"/>
       <c r="P37" t="n">
-        <v>4.8</v>
+        <v>4.76666666666667</v>
       </c>
       <c r="Q37" t="n">
         <v>50325</v>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="O38"/>
       <c r="P38" t="n">
-        <v>5.1</v>
+        <v>5.13333333333333</v>
       </c>
       <c r="Q38" t="n">
         <v>48900</v>
@@ -2108,7 +2108,7 @@
       </c>
       <c r="O39"/>
       <c r="P39" t="n">
-        <v>4.7</v>
+        <v>4.66666666666667</v>
       </c>
       <c r="Q39" t="n">
         <v>50600</v>
@@ -2258,7 +2258,7 @@
       </c>
       <c r="O42"/>
       <c r="P42" t="n">
-        <v>4.4</v>
+        <v>4.43333333333333</v>
       </c>
       <c r="Q42" t="n">
         <v>51784</v>
@@ -2308,7 +2308,7 @@
       </c>
       <c r="O43"/>
       <c r="P43" t="n">
-        <v>4.9</v>
+        <v>4.86666666666667</v>
       </c>
       <c r="Q43" t="n">
         <v>53549</v>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="O45"/>
       <c r="P45" t="n">
-        <v>4.5</v>
+        <v>4.53333333333333</v>
       </c>
       <c r="Q45" t="n">
         <v>55254</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="O47"/>
       <c r="P47" t="n">
-        <v>4.8</v>
+        <v>4.73333333333333</v>
       </c>
       <c r="Q47" t="n">
         <v>55492</v>
@@ -2608,7 +2608,7 @@
       </c>
       <c r="O49"/>
       <c r="P49" t="n">
-        <v>4.6</v>
+        <v>4.63333333333333</v>
       </c>
       <c r="Q49" t="n">
         <v>56965</v>
@@ -2808,7 +2808,7 @@
       </c>
       <c r="O53"/>
       <c r="P53" t="n">
-        <v>5.2</v>
+        <v>5.23333333333333</v>
       </c>
       <c r="Q53" t="n">
         <v>59831</v>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="O54"/>
       <c r="P54" t="n">
-        <v>5.4</v>
+        <v>5.36666666666667</v>
       </c>
       <c r="Q54" t="n">
         <v>57888</v>
@@ -2912,7 +2912,7 @@
       </c>
       <c r="O55"/>
       <c r="P55" t="n">
-        <v>5.9</v>
+        <v>5.93333333333333</v>
       </c>
       <c r="Q55" t="n">
         <v>56679</v>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="O56"/>
       <c r="P56" t="n">
-        <v>7.4</v>
+        <v>7.36666666666667</v>
       </c>
       <c r="Q56" t="n">
         <v>56649</v>
@@ -3016,7 +3016,7 @@
       </c>
       <c r="O57"/>
       <c r="P57" t="n">
-        <v>8.5</v>
+        <v>8.53333333333333</v>
       </c>
       <c r="Q57" t="n">
         <v>53676</v>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="O58"/>
       <c r="P58" t="n">
-        <v>10.8</v>
+        <v>10.8666666666667</v>
       </c>
       <c r="Q58" t="n">
         <v>53757</v>
@@ -3224,7 +3224,7 @@
       </c>
       <c r="O61"/>
       <c r="P61" t="n">
-        <v>13.8</v>
+        <v>13.8333333333333</v>
       </c>
       <c r="Q61" t="n">
         <v>52124</v>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="O63"/>
       <c r="P63" t="n">
-        <v>14.4</v>
+        <v>14.3666666666667</v>
       </c>
       <c r="Q63" t="n">
         <v>54394</v>
@@ -3380,7 +3380,7 @@
       </c>
       <c r="O64"/>
       <c r="P64" t="n">
-        <v>14.6</v>
+        <v>14.6333333333333</v>
       </c>
       <c r="Q64" t="n">
         <v>55010</v>
@@ -3432,7 +3432,7 @@
       </c>
       <c r="O65"/>
       <c r="P65" t="n">
-        <v>15.6</v>
+        <v>15.6333333333333</v>
       </c>
       <c r="Q65" t="n">
         <v>54018</v>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="O66"/>
       <c r="P66" t="n">
-        <v>15.2</v>
+        <v>15.1333333333333</v>
       </c>
       <c r="Q66" t="n">
         <v>54770</v>
@@ -3538,7 +3538,7 @@
       </c>
       <c r="O67"/>
       <c r="P67" t="n">
-        <v>15.1</v>
+        <v>15.0333333333333</v>
       </c>
       <c r="Q67" t="n">
         <v>55847</v>
@@ -3646,7 +3646,7 @@
       </c>
       <c r="O69"/>
       <c r="P69" t="n">
-        <v>15.9</v>
+        <v>15.8333333333333</v>
       </c>
       <c r="Q69" t="n">
         <v>54464</v>
@@ -3700,7 +3700,7 @@
       </c>
       <c r="O70"/>
       <c r="P70" t="n">
-        <v>15.9</v>
+        <v>15.9333333333333</v>
       </c>
       <c r="Q70" t="n">
         <v>53666</v>
@@ -3754,7 +3754,7 @@
       </c>
       <c r="O71"/>
       <c r="P71" t="n">
-        <v>15.5</v>
+        <v>15.5333333333333</v>
       </c>
       <c r="Q71" t="n">
         <v>55960</v>
@@ -3916,7 +3916,7 @@
       </c>
       <c r="O74"/>
       <c r="P74" t="n">
-        <v>14.5</v>
+        <v>14.5666666666667</v>
       </c>
       <c r="Q74" t="n">
         <v>53333</v>
@@ -3970,7 +3970,7 @@
       </c>
       <c r="O75"/>
       <c r="P75" t="n">
-        <v>14.4</v>
+        <v>14.3666666666667</v>
       </c>
       <c r="Q75" t="n">
         <v>55553</v>
@@ -4024,7 +4024,7 @@
       </c>
       <c r="O76"/>
       <c r="P76" t="n">
-        <v>13.3</v>
+        <v>13.3333333333333</v>
       </c>
       <c r="Q76" t="n">
         <v>58401</v>
@@ -4078,7 +4078,7 @@
       </c>
       <c r="O77"/>
       <c r="P77" t="n">
-        <v>12.9</v>
+        <v>12.8333333333333</v>
       </c>
       <c r="Q77" t="n">
         <v>57252</v>
@@ -4132,7 +4132,7 @@
       </c>
       <c r="O78"/>
       <c r="P78" t="n">
-        <v>12.8</v>
+        <v>12.8333333333333</v>
       </c>
       <c r="Q78" t="n">
         <v>58751</v>
@@ -4240,7 +4240,7 @@
       </c>
       <c r="O80"/>
       <c r="P80" t="n">
-        <v>11.7</v>
+        <v>11.6666666666667</v>
       </c>
       <c r="Q80" t="n">
         <v>63072</v>
@@ -4294,7 +4294,7 @@
       </c>
       <c r="O81"/>
       <c r="P81" t="n">
-        <v>10.9</v>
+        <v>10.8666666666667</v>
       </c>
       <c r="Q81" t="n">
         <v>63072</v>
@@ -4350,7 +4350,7 @@
       </c>
       <c r="O82"/>
       <c r="P82" t="n">
-        <v>10.6</v>
+        <v>10.6333333333333</v>
       </c>
       <c r="Q82" t="n">
         <v>75460</v>
@@ -4462,7 +4462,7 @@
       </c>
       <c r="O84"/>
       <c r="P84" t="n">
-        <v>9.6</v>
+        <v>9.53333333333333</v>
       </c>
       <c r="Q84" t="n">
         <v>78116</v>
@@ -4518,7 +4518,7 @@
       </c>
       <c r="O85"/>
       <c r="P85" t="n">
-        <v>9.4</v>
+        <v>9.43333333333333</v>
       </c>
       <c r="Q85" t="n">
         <v>78867</v>
@@ -4574,7 +4574,7 @@
       </c>
       <c r="O86"/>
       <c r="P86" t="n">
-        <v>8.9</v>
+        <v>8.93333333333333</v>
       </c>
       <c r="Q86" t="n">
         <v>73829</v>
@@ -4686,7 +4686,7 @@
       </c>
       <c r="O88"/>
       <c r="P88" t="n">
-        <v>8.2</v>
+        <v>8.23333333333333</v>
       </c>
       <c r="Q88" t="n">
         <v>76641</v>
@@ -4742,7 +4742,7 @@
       </c>
       <c r="O89"/>
       <c r="P89" t="n">
-        <v>7.5</v>
+        <v>7.53333333333333</v>
       </c>
       <c r="Q89" t="n">
         <v>85351</v>
@@ -4798,7 +4798,7 @@
       </c>
       <c r="O90"/>
       <c r="P90" t="n">
-        <v>7.3</v>
+        <v>7.26666666666667</v>
       </c>
       <c r="Q90" t="n">
         <v>79797</v>
@@ -4854,7 +4854,7 @@
       </c>
       <c r="O91"/>
       <c r="P91" t="n">
-        <v>6.6</v>
+        <v>6.66666666666667</v>
       </c>
       <c r="Q91" t="n">
         <v>80312</v>
@@ -4910,7 +4910,7 @@
       </c>
       <c r="O92"/>
       <c r="P92" t="n">
-        <v>6.7</v>
+        <v>6.66666666666667</v>
       </c>
       <c r="Q92" t="n">
         <v>88418</v>
@@ -4966,7 +4966,7 @@
       </c>
       <c r="O93"/>
       <c r="P93" t="n">
-        <v>6.4</v>
+        <v>6.43333333333333</v>
       </c>
       <c r="Q93" t="n">
         <v>92267</v>
@@ -5022,7 +5022,7 @@
       </c>
       <c r="O94"/>
       <c r="P94" t="n">
-        <v>5.9</v>
+        <v>5.96666666666667</v>
       </c>
       <c r="Q94" t="n">
         <v>88228</v>
@@ -5078,7 +5078,7 @@
       </c>
       <c r="O95"/>
       <c r="P95" t="n">
-        <v>5.9</v>
+        <v>5.86666666666667</v>
       </c>
       <c r="Q95" t="n">
         <v>89520</v>
@@ -5306,7 +5306,7 @@
         <v>2152133.33333333</v>
       </c>
       <c r="P99" t="n">
-        <v>5.2</v>
+        <v>5.16666666666667</v>
       </c>
       <c r="Q99" t="n">
         <v>93264</v>
@@ -5480,7 +5480,7 @@
         <v>2180366.66666667</v>
       </c>
       <c r="P102" t="n">
-        <v>4.9</v>
+        <v>4.86666666666667</v>
       </c>
       <c r="Q102" t="n">
         <v>99741</v>
@@ -5538,7 +5538,7 @@
         <v>1905733.33333333</v>
       </c>
       <c r="P103" t="n">
-        <v>5.1</v>
+        <v>5.13333333333333</v>
       </c>
       <c r="Q103" t="n">
         <v>95476</v>
@@ -5654,7 +5654,7 @@
         <v>2065133.33333333</v>
       </c>
       <c r="P105" t="n">
-        <v>6.3</v>
+        <v>6.26666666666667</v>
       </c>
       <c r="Q105" t="n">
         <v>106062</v>
@@ -5714,7 +5714,7 @@
         <v>1955900</v>
       </c>
       <c r="P106" t="n">
-        <v>7.3</v>
+        <v>7.36666666666667</v>
       </c>
       <c r="Q106" t="n">
         <v>113276</v>
@@ -5774,7 +5774,7 @@
         <v>2069433.33333333</v>
       </c>
       <c r="P107" t="n">
-        <v>6.9</v>
+        <v>6.96666666666667</v>
       </c>
       <c r="Q107" t="n">
         <v>117479</v>
@@ -5834,7 +5834,7 @@
         <v>2211866.66666667</v>
       </c>
       <c r="P108" t="n">
-        <v>5.5</v>
+        <v>5.46666666666667</v>
       </c>
       <c r="Q108" t="n">
         <v>126559</v>
@@ -5894,7 +5894,7 @@
         <v>2260666.66666667</v>
       </c>
       <c r="P109" t="n">
-        <v>5.2</v>
+        <v>5.23333333333333</v>
       </c>
       <c r="Q109" t="n">
         <v>122282</v>
@@ -5954,7 +5954,7 @@
         <v>2284166.66666667</v>
       </c>
       <c r="P110" t="n">
-        <v>4.9</v>
+        <v>4.86666666666667</v>
       </c>
       <c r="Q110" t="n">
         <v>122635</v>
@@ -6074,7 +6074,7 @@
         <v>2384666.66666667</v>
       </c>
       <c r="P112" t="n">
-        <v>4.3</v>
+        <v>4.26666666666667</v>
       </c>
       <c r="Q112" t="n">
         <v>138231</v>
@@ -6136,7 +6136,7 @@
         <v>2399666.66666667</v>
       </c>
       <c r="P113" t="n">
-        <v>4.4</v>
+        <v>4.43333333333333</v>
       </c>
       <c r="Q113" t="n">
         <v>133009</v>
@@ -6260,7 +6260,7 @@
         <v>2430066.66666667</v>
       </c>
       <c r="P115" t="n">
-        <v>4.2</v>
+        <v>4.16666666666667</v>
       </c>
       <c r="Q115" t="n">
         <v>122096</v>
@@ -6322,7 +6322,7 @@
         <v>2447500</v>
       </c>
       <c r="P116" t="n">
-        <v>4.5</v>
+        <v>4.43333333333333</v>
       </c>
       <c r="Q116" t="n">
         <v>126645</v>
@@ -6384,7 +6384,7 @@
         <v>2456000</v>
       </c>
       <c r="P117" t="n">
-        <v>4.5</v>
+        <v>4.43333333333333</v>
       </c>
       <c r="Q117" t="n">
         <v>120947</v>
@@ -6446,7 +6446,7 @@
         <v>2452633.33333333</v>
       </c>
       <c r="P118" t="n">
-        <v>4.2</v>
+        <v>4.33333333333333</v>
       </c>
       <c r="Q118" t="n">
         <v>116961</v>
@@ -6508,7 +6508,7 @@
         <v>2492300</v>
       </c>
       <c r="P119" t="n">
-        <v>4.4</v>
+        <v>4.33333333333333</v>
       </c>
       <c r="Q119" t="n">
         <v>118388</v>
@@ -6570,7 +6570,7 @@
         <v>2507033.33333333</v>
       </c>
       <c r="P120" t="n">
-        <v>4.3</v>
+        <v>4.26666666666667</v>
       </c>
       <c r="Q120" t="n">
         <v>130736</v>
@@ -6630,7 +6630,7 @@
         <v>2519133.33333333</v>
       </c>
       <c r="P121" t="n">
-        <v>4.2</v>
+        <v>4.26666666666667</v>
       </c>
       <c r="Q121" t="n">
         <v>132052</v>
@@ -6665,7 +6665,9 @@
       <c r="M122"/>
       <c r="N122"/>
       <c r="O122"/>
-      <c r="P122"/>
+      <c r="P122" t="n">
+        <v>3.96666666666667</v>
+      </c>
       <c r="Q122"/>
       <c r="R122"/>
       <c r="S122"/>

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -6650,7 +6650,9 @@
         <v>45658</v>
       </c>
       <c r="B122"/>
-      <c r="C122"/>
+      <c r="C122" t="n">
+        <v>7444881</v>
+      </c>
       <c r="D122"/>
       <c r="E122"/>
       <c r="F122"/>

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -6663,7 +6663,9 @@
       <c r="I122"/>
       <c r="J122"/>
       <c r="K122"/>
-      <c r="L122"/>
+      <c r="L122" t="n">
+        <v>120.133333333333</v>
+      </c>
       <c r="M122"/>
       <c r="N122"/>
       <c r="O122"/>

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -4455,7 +4455,7 @@
         <v>100.533333333333</v>
       </c>
       <c r="M84" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="N84" t="n">
         <v>2078.6</v>
@@ -4847,7 +4847,7 @@
         <v>100.3</v>
       </c>
       <c r="M91" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="N91" t="n">
         <v>2187.4</v>
@@ -4903,7 +4903,7 @@
         <v>100.466666666667</v>
       </c>
       <c r="M92" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="N92" t="n">
         <v>2212.3</v>
@@ -4959,7 +4959,7 @@
         <v>100</v>
       </c>
       <c r="M93" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="N93" t="n">
         <v>2234.7</v>
@@ -5015,7 +5015,7 @@
         <v>99.9333333333333</v>
       </c>
       <c r="M94" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="N94" t="n">
         <v>2225.3</v>
@@ -5127,7 +5127,7 @@
         <v>101.5</v>
       </c>
       <c r="M96" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="N96" t="n">
         <v>2282.7</v>
@@ -5183,7 +5183,7 @@
         <v>100.9</v>
       </c>
       <c r="M97" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="N97" t="n">
         <v>2290.4</v>
@@ -5297,7 +5297,7 @@
         <v>102</v>
       </c>
       <c r="M99" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="N99" t="n">
         <v>2311.5</v>
@@ -5355,7 +5355,7 @@
         <v>102.066666666667</v>
       </c>
       <c r="M100" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="N100" t="n">
         <v>2341.6</v>
@@ -5587,7 +5587,7 @@
         <v>101.1</v>
       </c>
       <c r="M104" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="N104" t="n">
         <v>2275</v>
@@ -5645,7 +5645,7 @@
         <v>100.566666666667</v>
       </c>
       <c r="M105" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="N105" t="n">
         <v>2305.1</v>
@@ -5825,7 +5825,7 @@
         <v>104.1</v>
       </c>
       <c r="M108" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="N108" t="n">
         <v>2515</v>
@@ -5885,7 +5885,7 @@
         <v>105.966666666667</v>
       </c>
       <c r="M109" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="N109" t="n">
         <v>2551.4</v>
@@ -6005,7 +6005,7 @@
         <v>111.6</v>
       </c>
       <c r="M111" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="N111" t="n">
         <v>2601.2</v>
@@ -6065,7 +6065,7 @@
         <v>113.533333333333</v>
       </c>
       <c r="M112" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="N112" t="n">
         <v>2602.6</v>
@@ -6127,7 +6127,7 @@
         <v>115.333333333333</v>
       </c>
       <c r="M113" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="N113" t="n">
         <v>2616.7</v>
@@ -6189,7 +6189,7 @@
         <v>115.6</v>
       </c>
       <c r="M114" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="N114" t="n">
         <v>2652.7</v>
@@ -6251,7 +6251,7 @@
         <v>117.7</v>
       </c>
       <c r="M115" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="N115" t="n">
         <v>2682.7</v>
@@ -6301,7 +6301,7 @@
         <v>5306.275</v>
       </c>
       <c r="I116" t="n">
-        <v>41262</v>
+        <v>41263</v>
       </c>
       <c r="J116" t="n">
         <v>27.84</v>
@@ -6313,7 +6313,7 @@
         <v>119.033333333333</v>
       </c>
       <c r="M116" t="n">
-        <v>13.1</v>
+        <v>13.3</v>
       </c>
       <c r="N116" t="n">
         <v>2696.2</v>
@@ -6363,7 +6363,7 @@
         <v>5330.95</v>
       </c>
       <c r="I117" t="n">
-        <v>39847</v>
+        <v>39848</v>
       </c>
       <c r="J117" t="n">
         <v>28.44</v>
@@ -6375,7 +6375,7 @@
         <v>118.933333333333</v>
       </c>
       <c r="M117" t="n">
-        <v>13.1</v>
+        <v>12.7</v>
       </c>
       <c r="N117" t="n">
         <v>2706.4</v>
@@ -6425,7 +6425,7 @@
         <v>5355.625</v>
       </c>
       <c r="I118" t="n">
-        <v>42705</v>
+        <v>42588</v>
       </c>
       <c r="J118" t="n">
         <v>29.96</v>
@@ -6487,7 +6487,7 @@
         <v>5380</v>
       </c>
       <c r="I119" t="n">
-        <v>43050</v>
+        <v>42985</v>
       </c>
       <c r="J119" t="n">
         <v>29.75</v>
@@ -6499,7 +6499,7 @@
         <v>119.7</v>
       </c>
       <c r="M119" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="N119" t="n">
         <v>2754.2</v>
@@ -6549,7 +6549,7 @@
         <v>5396.35</v>
       </c>
       <c r="I120" t="n">
-        <v>43825</v>
+        <v>44181</v>
       </c>
       <c r="J120" t="n">
         <v>29.23</v>
@@ -6561,7 +6561,7 @@
         <v>120.066666666667</v>
       </c>
       <c r="M120" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="N120" t="n">
         <v>2794.8</v>
@@ -6610,7 +6610,9 @@
       <c r="H121" t="n">
         <v>5412.4</v>
       </c>
-      <c r="I121"/>
+      <c r="I121" t="n">
+        <v>43229</v>
+      </c>
       <c r="J121" t="n">
         <v>30.21</v>
       </c>
@@ -6621,7 +6623,7 @@
         <v>119.566666666667</v>
       </c>
       <c r="M121" t="n">
-        <v>13.8</v>
+        <v>15.3</v>
       </c>
       <c r="N121" t="n">
         <v>2776.4</v>

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -6579,10 +6579,10 @@
         <v>184724</v>
       </c>
       <c r="S120" t="n">
-        <v>777.165</v>
+        <v>779.324</v>
       </c>
       <c r="T120" t="n">
-        <v>57938207</v>
+        <v>57993461</v>
       </c>
     </row>
     <row r="121">
@@ -6641,7 +6641,7 @@
         <v>200112</v>
       </c>
       <c r="S121" t="n">
-        <v>776.75</v>
+        <v>775.139</v>
       </c>
       <c r="T121" t="n">
         <v>58537800</v>

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -6629,7 +6629,7 @@
         <v>2776.4</v>
       </c>
       <c r="O121" t="n">
-        <v>2519133.33333333</v>
+        <v>2519666.66666667</v>
       </c>
       <c r="P121" t="n">
         <v>4.26666666666667</v>

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -6655,7 +6655,9 @@
       <c r="C122" t="n">
         <v>7444881</v>
       </c>
-      <c r="D122"/>
+      <c r="D122" t="n">
+        <v>117.9</v>
+      </c>
       <c r="E122"/>
       <c r="F122"/>
       <c r="G122"/>

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -1186,7 +1186,7 @@
       </c>
       <c r="O20"/>
       <c r="P20" t="n">
-        <v>5.46666666666667</v>
+        <v>5.43333333333333</v>
       </c>
       <c r="Q20" t="n">
         <v>38466</v>
@@ -3380,7 +3380,7 @@
       </c>
       <c r="O64"/>
       <c r="P64" t="n">
-        <v>14.6333333333333</v>
+        <v>14.6</v>
       </c>
       <c r="Q64" t="n">
         <v>55010</v>
@@ -5022,7 +5022,7 @@
       </c>
       <c r="O94"/>
       <c r="P94" t="n">
-        <v>5.96666666666667</v>
+        <v>5.93333333333333</v>
       </c>
       <c r="Q94" t="n">
         <v>88228</v>
@@ -5714,7 +5714,7 @@
         <v>1955900</v>
       </c>
       <c r="P106" t="n">
-        <v>7.36666666666667</v>
+        <v>7.26666666666667</v>
       </c>
       <c r="Q106" t="n">
         <v>113276</v>
@@ -5954,7 +5954,7 @@
         <v>2284166.66666667</v>
       </c>
       <c r="P110" t="n">
-        <v>4.86666666666667</v>
+        <v>4.83333333333333</v>
       </c>
       <c r="Q110" t="n">
         <v>122635</v>
@@ -6198,7 +6198,7 @@
         <v>2393300</v>
       </c>
       <c r="P114" t="n">
-        <v>4.2</v>
+        <v>4.16666666666667</v>
       </c>
       <c r="Q114" t="n">
         <v>122440</v>
@@ -6322,7 +6322,7 @@
         <v>2447500</v>
       </c>
       <c r="P116" t="n">
-        <v>4.43333333333333</v>
+        <v>4.46666666666667</v>
       </c>
       <c r="Q116" t="n">
         <v>126645</v>
@@ -6446,7 +6446,7 @@
         <v>2452633.33333333</v>
       </c>
       <c r="P118" t="n">
-        <v>4.33333333333333</v>
+        <v>4.23333333333333</v>
       </c>
       <c r="Q118" t="n">
         <v>116961</v>
@@ -6508,7 +6508,7 @@
         <v>2492300</v>
       </c>
       <c r="P119" t="n">
-        <v>4.33333333333333</v>
+        <v>4.4</v>
       </c>
       <c r="Q119" t="n">
         <v>118388</v>
@@ -6674,7 +6674,7 @@
       <c r="N122"/>
       <c r="O122"/>
       <c r="P122" t="n">
-        <v>3.96666666666667</v>
+        <v>4.43333333333333</v>
       </c>
       <c r="Q122"/>
       <c r="R122"/>

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -6658,7 +6658,9 @@
       <c r="D122" t="n">
         <v>117.9</v>
       </c>
-      <c r="E122"/>
+      <c r="E122" t="n">
+        <v>21501607569.35</v>
+      </c>
       <c r="F122"/>
       <c r="G122"/>
       <c r="H122" t="n">

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -6455,7 +6455,7 @@
         <v>168996</v>
       </c>
       <c r="S118" t="n">
-        <v>731.954</v>
+        <v>712.091</v>
       </c>
       <c r="T118" t="n">
         <v>54026587</v>
@@ -6517,7 +6517,7 @@
         <v>195076</v>
       </c>
       <c r="S119" t="n">
-        <v>729.686</v>
+        <v>710.331</v>
       </c>
       <c r="T119" t="n">
         <v>54179804</v>
@@ -6579,10 +6579,10 @@
         <v>184724</v>
       </c>
       <c r="S120" t="n">
-        <v>779.324</v>
+        <v>755.066</v>
       </c>
       <c r="T120" t="n">
-        <v>57993461</v>
+        <v>57703021</v>
       </c>
     </row>
     <row r="121">
@@ -6641,7 +6641,7 @@
         <v>200112</v>
       </c>
       <c r="S121" t="n">
-        <v>775.139</v>
+        <v>754.761</v>
       </c>
       <c r="T121" t="n">
         <v>58537800</v>
@@ -6653,7 +6653,7 @@
       </c>
       <c r="B122"/>
       <c r="C122" t="n">
-        <v>7444881</v>
+        <v>7632907</v>
       </c>
       <c r="D122" t="n">
         <v>117.9</v>
@@ -6668,7 +6668,9 @@
       </c>
       <c r="I122"/>
       <c r="J122"/>
-      <c r="K122"/>
+      <c r="K122" t="n">
+        <v>491315</v>
+      </c>
       <c r="L122" t="n">
         <v>120.133333333333</v>
       </c>
@@ -6680,8 +6682,12 @@
       </c>
       <c r="Q122"/>
       <c r="R122"/>
-      <c r="S122"/>
-      <c r="T122"/>
+      <c r="S122" t="n">
+        <v>1208.506</v>
+      </c>
+      <c r="T122" t="n">
+        <v>88374633</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -6567,7 +6567,7 @@
         <v>2794.8</v>
       </c>
       <c r="O120" t="n">
-        <v>2507033.33333333</v>
+        <v>2507066.66666667</v>
       </c>
       <c r="P120" t="n">
         <v>4.26666666666667</v>
@@ -6629,7 +6629,7 @@
         <v>2776.4</v>
       </c>
       <c r="O121" t="n">
-        <v>2519666.66666667</v>
+        <v>2519700</v>
       </c>
       <c r="P121" t="n">
         <v>4.26666666666667</v>
@@ -6676,7 +6676,9 @@
       </c>
       <c r="M122"/>
       <c r="N122"/>
-      <c r="O122"/>
+      <c r="O122" t="n">
+        <v>2505733.33333333</v>
+      </c>
       <c r="P122" t="n">
         <v>4.43333333333333</v>
       </c>

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -29,7 +29,7 @@
     <t xml:space="preserve">Central Bank Card Payment</t>
   </si>
   <si>
-    <t xml:space="preserve">Services Index</t>
+    <t xml:space="preserve">Modified Services Index</t>
   </si>
   <si>
     <t xml:space="preserve">Compensation of Employees</t>

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -922,7 +922,7 @@
       </c>
       <c r="O14"/>
       <c r="P14" t="n">
-        <v>8.86666666666667</v>
+        <v>8.8</v>
       </c>
       <c r="Q14" t="n">
         <v>32680</v>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="O16"/>
       <c r="P16" t="n">
-        <v>7.26666666666667</v>
+        <v>7.3</v>
       </c>
       <c r="Q16" t="n">
         <v>35153</v>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="O17"/>
       <c r="P17" t="n">
-        <v>6.66666666666667</v>
+        <v>6.7</v>
       </c>
       <c r="Q17" t="n">
         <v>34042</v>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="O20"/>
       <c r="P20" t="n">
-        <v>5.43333333333333</v>
+        <v>5.4</v>
       </c>
       <c r="Q20" t="n">
         <v>38466</v>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="O24"/>
       <c r="P24" t="n">
-        <v>4.23333333333333</v>
+        <v>4.2</v>
       </c>
       <c r="Q24" t="n">
         <v>41935</v>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="O26"/>
       <c r="P26" t="n">
-        <v>3.96666666666667</v>
+        <v>4</v>
       </c>
       <c r="Q26" t="n">
         <v>42181</v>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="O28"/>
       <c r="P28" t="n">
-        <v>4.36666666666667</v>
+        <v>4.4</v>
       </c>
       <c r="Q28" t="n">
         <v>43151</v>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="O30"/>
       <c r="P30" t="n">
-        <v>4.53333333333333</v>
+        <v>4.5</v>
       </c>
       <c r="Q30" t="n">
         <v>44455</v>
@@ -1712,7 +1712,7 @@
       </c>
       <c r="O31"/>
       <c r="P31" t="n">
-        <v>4.63333333333333</v>
+        <v>4.6</v>
       </c>
       <c r="Q31" t="n">
         <v>45307</v>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="O33"/>
       <c r="P33" t="n">
-        <v>5.26666666666667</v>
+        <v>5.3</v>
       </c>
       <c r="Q33" t="n">
         <v>47436</v>
@@ -1858,7 +1858,7 @@
       </c>
       <c r="O34"/>
       <c r="P34" t="n">
-        <v>4.83333333333333</v>
+        <v>4.8</v>
       </c>
       <c r="Q34" t="n">
         <v>45410</v>
@@ -2008,7 +2008,7 @@
       </c>
       <c r="O37"/>
       <c r="P37" t="n">
-        <v>4.76666666666667</v>
+        <v>4.8</v>
       </c>
       <c r="Q37" t="n">
         <v>50325</v>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="O38"/>
       <c r="P38" t="n">
-        <v>5.13333333333333</v>
+        <v>5.1</v>
       </c>
       <c r="Q38" t="n">
         <v>48900</v>
@@ -2108,7 +2108,7 @@
       </c>
       <c r="O39"/>
       <c r="P39" t="n">
-        <v>4.66666666666667</v>
+        <v>4.7</v>
       </c>
       <c r="Q39" t="n">
         <v>50600</v>
@@ -2258,7 +2258,7 @@
       </c>
       <c r="O42"/>
       <c r="P42" t="n">
-        <v>4.43333333333333</v>
+        <v>4.4</v>
       </c>
       <c r="Q42" t="n">
         <v>51784</v>
@@ -2308,7 +2308,7 @@
       </c>
       <c r="O43"/>
       <c r="P43" t="n">
-        <v>4.86666666666667</v>
+        <v>4.9</v>
       </c>
       <c r="Q43" t="n">
         <v>53549</v>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="O45"/>
       <c r="P45" t="n">
-        <v>4.53333333333333</v>
+        <v>4.5</v>
       </c>
       <c r="Q45" t="n">
         <v>55254</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="O47"/>
       <c r="P47" t="n">
-        <v>4.73333333333333</v>
+        <v>4.8</v>
       </c>
       <c r="Q47" t="n">
         <v>55492</v>
@@ -2608,7 +2608,7 @@
       </c>
       <c r="O49"/>
       <c r="P49" t="n">
-        <v>4.63333333333333</v>
+        <v>4.6</v>
       </c>
       <c r="Q49" t="n">
         <v>56965</v>
@@ -2808,7 +2808,7 @@
       </c>
       <c r="O53"/>
       <c r="P53" t="n">
-        <v>5.23333333333333</v>
+        <v>5.2</v>
       </c>
       <c r="Q53" t="n">
         <v>59831</v>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="O54"/>
       <c r="P54" t="n">
-        <v>5.36666666666667</v>
+        <v>5.4</v>
       </c>
       <c r="Q54" t="n">
         <v>57888</v>
@@ -2912,7 +2912,7 @@
       </c>
       <c r="O55"/>
       <c r="P55" t="n">
-        <v>5.93333333333333</v>
+        <v>5.9</v>
       </c>
       <c r="Q55" t="n">
         <v>56679</v>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="O56"/>
       <c r="P56" t="n">
-        <v>7.36666666666667</v>
+        <v>7.4</v>
       </c>
       <c r="Q56" t="n">
         <v>56649</v>
@@ -3016,7 +3016,7 @@
       </c>
       <c r="O57"/>
       <c r="P57" t="n">
-        <v>8.53333333333333</v>
+        <v>8.5</v>
       </c>
       <c r="Q57" t="n">
         <v>53676</v>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="O58"/>
       <c r="P58" t="n">
-        <v>10.8666666666667</v>
+        <v>10.8</v>
       </c>
       <c r="Q58" t="n">
         <v>53757</v>
@@ -3224,7 +3224,7 @@
       </c>
       <c r="O61"/>
       <c r="P61" t="n">
-        <v>13.8333333333333</v>
+        <v>13.8</v>
       </c>
       <c r="Q61" t="n">
         <v>52124</v>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="O63"/>
       <c r="P63" t="n">
-        <v>14.3666666666667</v>
+        <v>14.4</v>
       </c>
       <c r="Q63" t="n">
         <v>54394</v>
@@ -3432,7 +3432,7 @@
       </c>
       <c r="O65"/>
       <c r="P65" t="n">
-        <v>15.6333333333333</v>
+        <v>15.6</v>
       </c>
       <c r="Q65" t="n">
         <v>54018</v>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="O66"/>
       <c r="P66" t="n">
-        <v>15.1333333333333</v>
+        <v>15.2</v>
       </c>
       <c r="Q66" t="n">
         <v>54770</v>
@@ -3538,7 +3538,7 @@
       </c>
       <c r="O67"/>
       <c r="P67" t="n">
-        <v>15.0333333333333</v>
+        <v>15.1</v>
       </c>
       <c r="Q67" t="n">
         <v>55847</v>
@@ -3646,7 +3646,7 @@
       </c>
       <c r="O69"/>
       <c r="P69" t="n">
-        <v>15.8333333333333</v>
+        <v>15.9</v>
       </c>
       <c r="Q69" t="n">
         <v>54464</v>
@@ -3700,7 +3700,7 @@
       </c>
       <c r="O70"/>
       <c r="P70" t="n">
-        <v>15.9333333333333</v>
+        <v>15.9</v>
       </c>
       <c r="Q70" t="n">
         <v>53666</v>
@@ -3754,7 +3754,7 @@
       </c>
       <c r="O71"/>
       <c r="P71" t="n">
-        <v>15.5333333333333</v>
+        <v>15.5</v>
       </c>
       <c r="Q71" t="n">
         <v>55960</v>
@@ -3916,7 +3916,7 @@
       </c>
       <c r="O74"/>
       <c r="P74" t="n">
-        <v>14.5666666666667</v>
+        <v>14.5</v>
       </c>
       <c r="Q74" t="n">
         <v>53333</v>
@@ -3970,7 +3970,7 @@
       </c>
       <c r="O75"/>
       <c r="P75" t="n">
-        <v>14.3666666666667</v>
+        <v>14.4</v>
       </c>
       <c r="Q75" t="n">
         <v>55553</v>
@@ -4024,7 +4024,7 @@
       </c>
       <c r="O76"/>
       <c r="P76" t="n">
-        <v>13.3333333333333</v>
+        <v>13.3</v>
       </c>
       <c r="Q76" t="n">
         <v>58401</v>
@@ -4078,7 +4078,7 @@
       </c>
       <c r="O77"/>
       <c r="P77" t="n">
-        <v>12.8333333333333</v>
+        <v>12.9</v>
       </c>
       <c r="Q77" t="n">
         <v>57252</v>
@@ -4132,7 +4132,7 @@
       </c>
       <c r="O78"/>
       <c r="P78" t="n">
-        <v>12.8333333333333</v>
+        <v>12.8</v>
       </c>
       <c r="Q78" t="n">
         <v>58751</v>
@@ -4240,7 +4240,7 @@
       </c>
       <c r="O80"/>
       <c r="P80" t="n">
-        <v>11.6666666666667</v>
+        <v>11.7</v>
       </c>
       <c r="Q80" t="n">
         <v>63072</v>
@@ -4294,7 +4294,7 @@
       </c>
       <c r="O81"/>
       <c r="P81" t="n">
-        <v>10.8666666666667</v>
+        <v>10.9</v>
       </c>
       <c r="Q81" t="n">
         <v>63072</v>
@@ -4350,7 +4350,7 @@
       </c>
       <c r="O82"/>
       <c r="P82" t="n">
-        <v>10.6333333333333</v>
+        <v>10.6</v>
       </c>
       <c r="Q82" t="n">
         <v>75460</v>
@@ -4462,7 +4462,7 @@
       </c>
       <c r="O84"/>
       <c r="P84" t="n">
-        <v>9.53333333333333</v>
+        <v>9.6</v>
       </c>
       <c r="Q84" t="n">
         <v>78116</v>
@@ -4518,7 +4518,7 @@
       </c>
       <c r="O85"/>
       <c r="P85" t="n">
-        <v>9.43333333333333</v>
+        <v>9.4</v>
       </c>
       <c r="Q85" t="n">
         <v>78867</v>
@@ -4574,7 +4574,7 @@
       </c>
       <c r="O86"/>
       <c r="P86" t="n">
-        <v>8.93333333333333</v>
+        <v>9</v>
       </c>
       <c r="Q86" t="n">
         <v>73829</v>
@@ -4686,7 +4686,7 @@
       </c>
       <c r="O88"/>
       <c r="P88" t="n">
-        <v>8.23333333333333</v>
+        <v>8.2</v>
       </c>
       <c r="Q88" t="n">
         <v>76641</v>
@@ -4742,7 +4742,7 @@
       </c>
       <c r="O89"/>
       <c r="P89" t="n">
-        <v>7.53333333333333</v>
+        <v>7.5</v>
       </c>
       <c r="Q89" t="n">
         <v>85351</v>
@@ -4798,7 +4798,7 @@
       </c>
       <c r="O90"/>
       <c r="P90" t="n">
-        <v>7.26666666666667</v>
+        <v>7.3</v>
       </c>
       <c r="Q90" t="n">
         <v>79797</v>
@@ -4854,7 +4854,7 @@
       </c>
       <c r="O91"/>
       <c r="P91" t="n">
-        <v>6.66666666666667</v>
+        <v>6.7</v>
       </c>
       <c r="Q91" t="n">
         <v>80312</v>
@@ -4910,7 +4910,7 @@
       </c>
       <c r="O92"/>
       <c r="P92" t="n">
-        <v>6.66666666666667</v>
+        <v>6.7</v>
       </c>
       <c r="Q92" t="n">
         <v>88418</v>
@@ -4966,7 +4966,7 @@
       </c>
       <c r="O93"/>
       <c r="P93" t="n">
-        <v>6.43333333333333</v>
+        <v>6.4</v>
       </c>
       <c r="Q93" t="n">
         <v>92267</v>
@@ -5022,7 +5022,7 @@
       </c>
       <c r="O94"/>
       <c r="P94" t="n">
-        <v>5.93333333333333</v>
+        <v>6</v>
       </c>
       <c r="Q94" t="n">
         <v>88228</v>
@@ -5078,7 +5078,7 @@
       </c>
       <c r="O95"/>
       <c r="P95" t="n">
-        <v>5.86666666666667</v>
+        <v>5.9</v>
       </c>
       <c r="Q95" t="n">
         <v>89520</v>
@@ -5306,7 +5306,7 @@
         <v>2152133.33333333</v>
       </c>
       <c r="P99" t="n">
-        <v>5.16666666666667</v>
+        <v>5.2</v>
       </c>
       <c r="Q99" t="n">
         <v>93264</v>
@@ -5480,7 +5480,7 @@
         <v>2180366.66666667</v>
       </c>
       <c r="P102" t="n">
-        <v>4.86666666666667</v>
+        <v>4.9</v>
       </c>
       <c r="Q102" t="n">
         <v>99741</v>
@@ -5538,7 +5538,7 @@
         <v>1905733.33333333</v>
       </c>
       <c r="P103" t="n">
-        <v>5.13333333333333</v>
+        <v>5.1</v>
       </c>
       <c r="Q103" t="n">
         <v>95476</v>
@@ -5654,7 +5654,7 @@
         <v>2065133.33333333</v>
       </c>
       <c r="P105" t="n">
-        <v>6.26666666666667</v>
+        <v>6.3</v>
       </c>
       <c r="Q105" t="n">
         <v>106062</v>
@@ -5714,7 +5714,7 @@
         <v>1955900</v>
       </c>
       <c r="P106" t="n">
-        <v>7.26666666666667</v>
+        <v>7.3</v>
       </c>
       <c r="Q106" t="n">
         <v>113276</v>
@@ -5774,7 +5774,7 @@
         <v>2069433.33333333</v>
       </c>
       <c r="P107" t="n">
-        <v>6.96666666666667</v>
+        <v>7</v>
       </c>
       <c r="Q107" t="n">
         <v>117479</v>
@@ -5834,7 +5834,7 @@
         <v>2211866.66666667</v>
       </c>
       <c r="P108" t="n">
-        <v>5.46666666666667</v>
+        <v>5.5</v>
       </c>
       <c r="Q108" t="n">
         <v>126559</v>
@@ -5894,7 +5894,7 @@
         <v>2260666.66666667</v>
       </c>
       <c r="P109" t="n">
-        <v>5.23333333333333</v>
+        <v>5.2</v>
       </c>
       <c r="Q109" t="n">
         <v>122282</v>
@@ -5954,7 +5954,7 @@
         <v>2284166.66666667</v>
       </c>
       <c r="P110" t="n">
-        <v>4.83333333333333</v>
+        <v>4.9</v>
       </c>
       <c r="Q110" t="n">
         <v>122635</v>
@@ -6074,7 +6074,7 @@
         <v>2384666.66666667</v>
       </c>
       <c r="P112" t="n">
-        <v>4.26666666666667</v>
+        <v>4.3</v>
       </c>
       <c r="Q112" t="n">
         <v>138231</v>
@@ -6136,7 +6136,7 @@
         <v>2399666.66666667</v>
       </c>
       <c r="P113" t="n">
-        <v>4.43333333333333</v>
+        <v>4.4</v>
       </c>
       <c r="Q113" t="n">
         <v>133009</v>
@@ -6198,7 +6198,7 @@
         <v>2393300</v>
       </c>
       <c r="P114" t="n">
-        <v>4.16666666666667</v>
+        <v>4.2</v>
       </c>
       <c r="Q114" t="n">
         <v>122440</v>
@@ -6260,7 +6260,7 @@
         <v>2430066.66666667</v>
       </c>
       <c r="P115" t="n">
-        <v>4.16666666666667</v>
+        <v>4.2</v>
       </c>
       <c r="Q115" t="n">
         <v>122096</v>
@@ -6322,7 +6322,7 @@
         <v>2447500</v>
       </c>
       <c r="P116" t="n">
-        <v>4.46666666666667</v>
+        <v>4.4</v>
       </c>
       <c r="Q116" t="n">
         <v>126645</v>
@@ -6384,7 +6384,7 @@
         <v>2456000</v>
       </c>
       <c r="P117" t="n">
-        <v>4.43333333333333</v>
+        <v>4.5</v>
       </c>
       <c r="Q117" t="n">
         <v>120947</v>
@@ -6446,7 +6446,7 @@
         <v>2452633.33333333</v>
       </c>
       <c r="P118" t="n">
-        <v>4.23333333333333</v>
+        <v>4.3</v>
       </c>
       <c r="Q118" t="n">
         <v>116961</v>
@@ -6508,7 +6508,7 @@
         <v>2492300</v>
       </c>
       <c r="P119" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Q119" t="n">
         <v>118388</v>
@@ -6570,7 +6570,7 @@
         <v>2507066.66666667</v>
       </c>
       <c r="P120" t="n">
-        <v>4.26666666666667</v>
+        <v>4.3</v>
       </c>
       <c r="Q120" t="n">
         <v>130736</v>
@@ -6632,7 +6632,7 @@
         <v>2519700</v>
       </c>
       <c r="P121" t="n">
-        <v>4.26666666666667</v>
+        <v>4.3</v>
       </c>
       <c r="Q121" t="n">
         <v>132052</v>
@@ -6675,12 +6675,14 @@
         <v>120.133333333333</v>
       </c>
       <c r="M122"/>
-      <c r="N122"/>
+      <c r="N122" t="n">
+        <v>2794.1</v>
+      </c>
       <c r="O122" t="n">
         <v>2505733.33333333</v>
       </c>
       <c r="P122" t="n">
-        <v>4.43333333333333</v>
+        <v>4</v>
       </c>
       <c r="Q122"/>
       <c r="R122"/>

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -6614,7 +6614,7 @@
         <v>43229</v>
       </c>
       <c r="J121" t="n">
-        <v>30.21</v>
+        <v>30.18</v>
       </c>
       <c r="K121" t="n">
         <v>483905</v>
@@ -6667,7 +6667,9 @@
         <v>5428.45</v>
       </c>
       <c r="I122"/>
-      <c r="J122"/>
+      <c r="J122" t="n">
+        <v>31.72</v>
+      </c>
       <c r="K122" t="n">
         <v>491315</v>
       </c>

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -6656,7 +6656,7 @@
         <v>7632907</v>
       </c>
       <c r="D122" t="n">
-        <v>117.9</v>
+        <v>117.8</v>
       </c>
       <c r="E122" t="n">
         <v>21501607569.35</v>

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -6651,7 +6651,9 @@
       <c r="A122" s="1" t="n">
         <v>45658</v>
       </c>
-      <c r="B122"/>
+      <c r="B122" t="n">
+        <v>34908</v>
+      </c>
       <c r="C122" t="n">
         <v>7632907</v>
       </c>
@@ -6662,7 +6664,9 @@
         <v>21501607569.35</v>
       </c>
       <c r="F122"/>
-      <c r="G122"/>
+      <c r="G122" t="n">
+        <v>40967.24</v>
+      </c>
       <c r="H122" t="n">
         <v>5428.45</v>
       </c>
@@ -6686,8 +6690,12 @@
       <c r="P122" t="n">
         <v>4</v>
       </c>
-      <c r="Q122"/>
-      <c r="R122"/>
+      <c r="Q122" t="n">
+        <v>142902</v>
+      </c>
+      <c r="R122" t="n">
+        <v>208309</v>
+      </c>
       <c r="S122" t="n">
         <v>1208.506</v>
       </c>

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -4455,7 +4455,7 @@
         <v>100.533333333333</v>
       </c>
       <c r="M84" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="N84" t="n">
         <v>2078.6</v>
@@ -4847,7 +4847,7 @@
         <v>100.3</v>
       </c>
       <c r="M91" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="N91" t="n">
         <v>2187.4</v>
@@ -4903,7 +4903,7 @@
         <v>100.466666666667</v>
       </c>
       <c r="M92" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="N92" t="n">
         <v>2212.3</v>
@@ -4959,7 +4959,7 @@
         <v>100</v>
       </c>
       <c r="M93" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="N93" t="n">
         <v>2234.7</v>
@@ -5015,7 +5015,7 @@
         <v>99.9333333333333</v>
       </c>
       <c r="M94" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="N94" t="n">
         <v>2225.3</v>
@@ -5071,7 +5071,7 @@
         <v>100.733333333333</v>
       </c>
       <c r="M95" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="N95" t="n">
         <v>2261.7</v>
@@ -5127,7 +5127,7 @@
         <v>101.5</v>
       </c>
       <c r="M96" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="N96" t="n">
         <v>2282.7</v>
@@ -5183,7 +5183,7 @@
         <v>100.9</v>
       </c>
       <c r="M97" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="N97" t="n">
         <v>2290.4</v>
@@ -5239,7 +5239,7 @@
         <v>100.8</v>
       </c>
       <c r="M98" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="N98" t="n">
         <v>2312.8</v>
@@ -5297,7 +5297,7 @@
         <v>102</v>
       </c>
       <c r="M99" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="N99" t="n">
         <v>2311.5</v>
@@ -5355,7 +5355,7 @@
         <v>102.066666666667</v>
       </c>
       <c r="M100" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="N100" t="n">
         <v>2341.6</v>
@@ -5471,7 +5471,7 @@
         <v>101.633333333333</v>
       </c>
       <c r="M102" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="N102" t="n">
         <v>2368.8</v>
@@ -5529,7 +5529,7 @@
         <v>101.433333333333</v>
       </c>
       <c r="M103" t="n">
-        <v>34</v>
+        <v>34.1</v>
       </c>
       <c r="N103" t="n">
         <v>2161.3</v>
@@ -5587,7 +5587,7 @@
         <v>101.1</v>
       </c>
       <c r="M104" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="N104" t="n">
         <v>2275</v>
@@ -5705,7 +5705,7 @@
         <v>101.5</v>
       </c>
       <c r="M106" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="N106" t="n">
         <v>2259.9</v>
@@ -5765,7 +5765,7 @@
         <v>102.966666666667</v>
       </c>
       <c r="M107" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="N107" t="n">
         <v>2382.2</v>
@@ -5825,7 +5825,7 @@
         <v>104.1</v>
       </c>
       <c r="M108" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="N108" t="n">
         <v>2515</v>
@@ -5885,7 +5885,7 @@
         <v>105.966666666667</v>
       </c>
       <c r="M109" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="N109" t="n">
         <v>2551.4</v>
@@ -5945,7 +5945,7 @@
         <v>107.5</v>
       </c>
       <c r="M110" t="n">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="N110" t="n">
         <v>2559.4</v>
@@ -6065,7 +6065,7 @@
         <v>113.533333333333</v>
       </c>
       <c r="M112" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="N112" t="n">
         <v>2602.6</v>
@@ -6127,7 +6127,7 @@
         <v>115.333333333333</v>
       </c>
       <c r="M113" t="n">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
       <c r="N113" t="n">
         <v>2616.7</v>
@@ -6189,7 +6189,7 @@
         <v>115.6</v>
       </c>
       <c r="M114" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="N114" t="n">
         <v>2652.7</v>
@@ -6313,7 +6313,7 @@
         <v>119.033333333333</v>
       </c>
       <c r="M116" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="N116" t="n">
         <v>2696.2</v>
@@ -6375,7 +6375,7 @@
         <v>118.933333333333</v>
       </c>
       <c r="M117" t="n">
-        <v>12.7</v>
+        <v>12.3</v>
       </c>
       <c r="N117" t="n">
         <v>2706.4</v>
@@ -6437,7 +6437,7 @@
         <v>118.2</v>
       </c>
       <c r="M118" t="n">
-        <v>13.9</v>
+        <v>14.5</v>
       </c>
       <c r="N118" t="n">
         <v>2704.2</v>
@@ -6623,7 +6623,7 @@
         <v>119.566666666667</v>
       </c>
       <c r="M121" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="N121" t="n">
         <v>2776.4</v>
@@ -6680,7 +6680,9 @@
       <c r="L122" t="n">
         <v>120.133333333333</v>
       </c>
-      <c r="M122"/>
+      <c r="M122" t="n">
+        <v>14</v>
+      </c>
       <c r="N122" t="n">
         <v>2794.1</v>
       </c>

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -6644,7 +6644,7 @@
         <v>754.761</v>
       </c>
       <c r="T121" t="n">
-        <v>58537800</v>
+        <v>58430400</v>
       </c>
     </row>
     <row r="122">
@@ -6699,10 +6699,10 @@
         <v>208309</v>
       </c>
       <c r="S122" t="n">
-        <v>1208.506</v>
+        <v>1216.387</v>
       </c>
       <c r="T122" t="n">
-        <v>88374633</v>
+        <v>89211441</v>
       </c>
     </row>
     <row r="123">

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -6687,7 +6687,7 @@
         <v>2794.1</v>
       </c>
       <c r="O122" t="n">
-        <v>2505733.33333333</v>
+        <v>2509300</v>
       </c>
       <c r="P122" t="n">
         <v>4</v>

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -476,7 +476,7 @@
         <v>34700</v>
       </c>
       <c r="B2" t="n">
-        <v>11575</v>
+        <v>12458</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -493,10 +493,10 @@
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2" t="n">
-        <v>25295</v>
+        <v>26378</v>
       </c>
       <c r="R2" t="n">
-        <v>12346</v>
+        <v>12888</v>
       </c>
       <c r="S2" t="n">
         <v>109.3</v>
@@ -510,7 +510,7 @@
         <v>34790</v>
       </c>
       <c r="B3" t="n">
-        <v>12081</v>
+        <v>13002</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -527,10 +527,10 @@
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3" t="n">
-        <v>26318</v>
+        <v>27444</v>
       </c>
       <c r="R3" t="n">
-        <v>13283</v>
+        <v>13866</v>
       </c>
       <c r="S3" t="n">
         <v>112.2</v>
@@ -544,7 +544,7 @@
         <v>34881</v>
       </c>
       <c r="B4" t="n">
-        <v>12298</v>
+        <v>13236</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -561,10 +561,10 @@
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4" t="n">
-        <v>26604</v>
+        <v>27743</v>
       </c>
       <c r="R4" t="n">
-        <v>13858</v>
+        <v>14466</v>
       </c>
       <c r="S4" t="n">
         <v>112.6</v>
@@ -578,7 +578,7 @@
         <v>34973</v>
       </c>
       <c r="B5" t="n">
-        <v>13927</v>
+        <v>14990</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -595,10 +595,10 @@
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5" t="n">
-        <v>26484</v>
+        <v>27618</v>
       </c>
       <c r="R5" t="n">
-        <v>14242</v>
+        <v>14867</v>
       </c>
       <c r="S5" t="n">
         <v>129.3</v>
@@ -612,7 +612,7 @@
         <v>35065</v>
       </c>
       <c r="B6" t="n">
-        <v>12576</v>
+        <v>13535</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -631,10 +631,10 @@
       <c r="O6"/>
       <c r="P6"/>
       <c r="Q6" t="n">
-        <v>27387</v>
+        <v>28559</v>
       </c>
       <c r="R6" t="n">
-        <v>13879</v>
+        <v>14489</v>
       </c>
       <c r="S6" t="n">
         <v>126.9</v>
@@ -648,7 +648,7 @@
         <v>35156</v>
       </c>
       <c r="B7" t="n">
-        <v>12912</v>
+        <v>13897</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -667,10 +667,10 @@
       <c r="O7"/>
       <c r="P7"/>
       <c r="Q7" t="n">
-        <v>28660</v>
+        <v>29887</v>
       </c>
       <c r="R7" t="n">
-        <v>14933</v>
+        <v>15589</v>
       </c>
       <c r="S7" t="n">
         <v>126.3</v>
@@ -684,7 +684,7 @@
         <v>35247</v>
       </c>
       <c r="B8" t="n">
-        <v>13071</v>
+        <v>14068</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -703,10 +703,10 @@
       <c r="O8"/>
       <c r="P8"/>
       <c r="Q8" t="n">
-        <v>28168</v>
+        <v>29373</v>
       </c>
       <c r="R8" t="n">
-        <v>15579</v>
+        <v>16263</v>
       </c>
       <c r="S8" t="n">
         <v>120.5</v>
@@ -720,7 +720,7 @@
         <v>35339</v>
       </c>
       <c r="B9" t="n">
-        <v>14822</v>
+        <v>15952</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -739,10 +739,10 @@
       <c r="O9"/>
       <c r="P9"/>
       <c r="Q9" t="n">
-        <v>28213</v>
+        <v>29420</v>
       </c>
       <c r="R9" t="n">
-        <v>16011</v>
+        <v>16714</v>
       </c>
       <c r="S9" t="n">
         <v>135.4</v>
@@ -756,7 +756,7 @@
         <v>35431</v>
       </c>
       <c r="B10" t="n">
-        <v>13353</v>
+        <v>14372</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -775,10 +775,10 @@
       <c r="O10"/>
       <c r="P10"/>
       <c r="Q10" t="n">
-        <v>29564</v>
+        <v>30829</v>
       </c>
       <c r="R10" t="n">
-        <v>16315</v>
+        <v>17031</v>
       </c>
       <c r="S10" t="n">
         <v>133</v>
@@ -792,7 +792,7 @@
         <v>35521</v>
       </c>
       <c r="B11" t="n">
-        <v>13790</v>
+        <v>14842</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -811,10 +811,10 @@
       <c r="O11"/>
       <c r="P11"/>
       <c r="Q11" t="n">
-        <v>31442</v>
+        <v>32788</v>
       </c>
       <c r="R11" t="n">
-        <v>17554</v>
+        <v>18324</v>
       </c>
       <c r="S11" t="n">
         <v>145.1</v>
@@ -828,7 +828,7 @@
         <v>35612</v>
       </c>
       <c r="B12" t="n">
-        <v>13988</v>
+        <v>15055</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -847,10 +847,10 @@
       <c r="O12"/>
       <c r="P12"/>
       <c r="Q12" t="n">
-        <v>31727</v>
+        <v>33084</v>
       </c>
       <c r="R12" t="n">
-        <v>18313</v>
+        <v>19117</v>
       </c>
       <c r="S12" t="n">
         <v>144.9</v>
@@ -864,7 +864,7 @@
         <v>35704</v>
       </c>
       <c r="B13" t="n">
-        <v>16058</v>
+        <v>17282</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -883,10 +883,10 @@
       <c r="O13"/>
       <c r="P13"/>
       <c r="Q13" t="n">
-        <v>32087</v>
+        <v>33461</v>
       </c>
       <c r="R13" t="n">
-        <v>18820</v>
+        <v>19647</v>
       </c>
       <c r="S13" t="n">
         <v>161.7</v>
@@ -900,7 +900,7 @@
         <v>35796</v>
       </c>
       <c r="B14" t="n">
-        <v>14639</v>
+        <v>15755</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -922,13 +922,13 @@
       </c>
       <c r="O14"/>
       <c r="P14" t="n">
-        <v>8.8</v>
+        <v>8.86666666666667</v>
       </c>
       <c r="Q14" t="n">
-        <v>32680</v>
+        <v>34079</v>
       </c>
       <c r="R14" t="n">
-        <v>20030</v>
+        <v>20909</v>
       </c>
       <c r="S14" t="n">
         <v>167</v>
@@ -942,7 +942,7 @@
         <v>35886</v>
       </c>
       <c r="B15" t="n">
-        <v>15130</v>
+        <v>16284</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -967,10 +967,10 @@
         <v>7.9</v>
       </c>
       <c r="Q15" t="n">
-        <v>33886</v>
+        <v>35336</v>
       </c>
       <c r="R15" t="n">
-        <v>21551</v>
+        <v>22497</v>
       </c>
       <c r="S15" t="n">
         <v>180.4</v>
@@ -984,7 +984,7 @@
         <v>35977</v>
       </c>
       <c r="B16" t="n">
-        <v>15337</v>
+        <v>16507</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -1006,13 +1006,13 @@
       </c>
       <c r="O16"/>
       <c r="P16" t="n">
-        <v>7.3</v>
+        <v>7.26666666666667</v>
       </c>
       <c r="Q16" t="n">
-        <v>35153</v>
+        <v>36657</v>
       </c>
       <c r="R16" t="n">
-        <v>22483</v>
+        <v>23470</v>
       </c>
       <c r="S16" t="n">
         <v>181.4</v>
@@ -1026,7 +1026,7 @@
         <v>36069</v>
       </c>
       <c r="B17" t="n">
-        <v>16870</v>
+        <v>18157</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -1048,13 +1048,13 @@
       </c>
       <c r="O17"/>
       <c r="P17" t="n">
-        <v>6.7</v>
+        <v>6.66666666666667</v>
       </c>
       <c r="Q17" t="n">
-        <v>34042</v>
+        <v>35499</v>
       </c>
       <c r="R17" t="n">
-        <v>23106</v>
+        <v>24120</v>
       </c>
       <c r="S17" t="n">
         <v>199.8</v>
@@ -1068,7 +1068,7 @@
         <v>36161</v>
       </c>
       <c r="B18" t="n">
-        <v>16141</v>
+        <v>17372</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -1097,10 +1097,10 @@
         <v>6.3</v>
       </c>
       <c r="Q18" t="n">
-        <v>35877</v>
+        <v>37412</v>
       </c>
       <c r="R18" t="n">
-        <v>22650</v>
+        <v>23644</v>
       </c>
       <c r="S18" t="n">
         <v>190.2</v>
@@ -1114,7 +1114,7 @@
         <v>36251</v>
       </c>
       <c r="B19" t="n">
-        <v>16162</v>
+        <v>17395</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -1143,10 +1143,10 @@
         <v>6</v>
       </c>
       <c r="Q19" t="n">
-        <v>36520</v>
+        <v>38083</v>
       </c>
       <c r="R19" t="n">
-        <v>24746</v>
+        <v>25832</v>
       </c>
       <c r="S19" t="n">
         <v>206.1</v>
@@ -1160,7 +1160,7 @@
         <v>36342</v>
       </c>
       <c r="B20" t="n">
-        <v>17108</v>
+        <v>18413</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -1186,13 +1186,13 @@
       </c>
       <c r="O20"/>
       <c r="P20" t="n">
-        <v>5.4</v>
+        <v>5.46666666666667</v>
       </c>
       <c r="Q20" t="n">
-        <v>38466</v>
+        <v>40112</v>
       </c>
       <c r="R20" t="n">
-        <v>25881</v>
+        <v>27017</v>
       </c>
       <c r="S20" t="n">
         <v>215.1</v>
@@ -1206,7 +1206,7 @@
         <v>36434</v>
       </c>
       <c r="B21" t="n">
-        <v>18413</v>
+        <v>19817</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
@@ -1235,10 +1235,10 @@
         <v>5.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>39194</v>
+        <v>40871</v>
       </c>
       <c r="R21" t="n">
-        <v>27641</v>
+        <v>28854</v>
       </c>
       <c r="S21" t="n">
         <v>236</v>
@@ -1252,7 +1252,7 @@
         <v>36526</v>
       </c>
       <c r="B22" t="n">
-        <v>18095</v>
+        <v>19475</v>
       </c>
       <c r="C22" t="n">
         <v>2126087</v>
@@ -1283,10 +1283,10 @@
         <v>4.8</v>
       </c>
       <c r="Q22" t="n">
-        <v>39190</v>
+        <v>40867</v>
       </c>
       <c r="R22" t="n">
-        <v>27150</v>
+        <v>28341</v>
       </c>
       <c r="S22" t="n">
         <v>237.1</v>
@@ -1300,7 +1300,7 @@
         <v>36617</v>
       </c>
       <c r="B23" t="n">
-        <v>18462</v>
+        <v>19870</v>
       </c>
       <c r="C23" t="n">
         <v>1529421</v>
@@ -1331,10 +1331,10 @@
         <v>4.6</v>
       </c>
       <c r="Q23" t="n">
-        <v>40499</v>
+        <v>42233</v>
       </c>
       <c r="R23" t="n">
-        <v>30214</v>
+        <v>31541</v>
       </c>
       <c r="S23" t="n">
         <v>257.9</v>
@@ -1348,7 +1348,7 @@
         <v>36708</v>
       </c>
       <c r="B24" t="n">
-        <v>18407</v>
+        <v>19811</v>
       </c>
       <c r="C24" t="n">
         <v>2141482</v>
@@ -1376,13 +1376,13 @@
       </c>
       <c r="O24"/>
       <c r="P24" t="n">
-        <v>4.2</v>
+        <v>4.23333333333333</v>
       </c>
       <c r="Q24" t="n">
-        <v>41935</v>
+        <v>43730</v>
       </c>
       <c r="R24" t="n">
-        <v>31259</v>
+        <v>32632</v>
       </c>
       <c r="S24" t="n">
         <v>261.9</v>
@@ -1396,7 +1396,7 @@
         <v>36800</v>
       </c>
       <c r="B25" t="n">
-        <v>20016</v>
+        <v>21543</v>
       </c>
       <c r="C25" t="n">
         <v>1673221</v>
@@ -1427,10 +1427,10 @@
         <v>3.9</v>
       </c>
       <c r="Q25" t="n">
-        <v>42543</v>
+        <v>44364</v>
       </c>
       <c r="R25" t="n">
-        <v>33676</v>
+        <v>35155</v>
       </c>
       <c r="S25" t="n">
         <v>283.1</v>
@@ -1444,7 +1444,7 @@
         <v>36892</v>
       </c>
       <c r="B26" t="n">
-        <v>19054</v>
+        <v>20507</v>
       </c>
       <c r="C26" t="n">
         <v>2382095</v>
@@ -1472,13 +1472,13 @@
       </c>
       <c r="O26"/>
       <c r="P26" t="n">
-        <v>4</v>
+        <v>3.96666666666667</v>
       </c>
       <c r="Q26" t="n">
-        <v>42181</v>
+        <v>43987</v>
       </c>
       <c r="R26" t="n">
-        <v>34706</v>
+        <v>36229</v>
       </c>
       <c r="S26" t="n">
         <v>324.8</v>
@@ -1492,7 +1492,7 @@
         <v>36982</v>
       </c>
       <c r="B27" t="n">
-        <v>19306</v>
+        <v>20779</v>
       </c>
       <c r="C27" t="n">
         <v>1572297</v>
@@ -1523,10 +1523,10 @@
         <v>4</v>
       </c>
       <c r="Q27" t="n">
-        <v>43082</v>
+        <v>44926</v>
       </c>
       <c r="R27" t="n">
-        <v>34270</v>
+        <v>35775</v>
       </c>
       <c r="S27" t="n">
         <v>301</v>
@@ -1540,7 +1540,7 @@
         <v>37073</v>
       </c>
       <c r="B28" t="n">
-        <v>19169</v>
+        <v>20631</v>
       </c>
       <c r="C28" t="n">
         <v>2230488</v>
@@ -1568,13 +1568,13 @@
       </c>
       <c r="O28"/>
       <c r="P28" t="n">
-        <v>4.4</v>
+        <v>4.36666666666667</v>
       </c>
       <c r="Q28" t="n">
-        <v>43151</v>
+        <v>44998</v>
       </c>
       <c r="R28" t="n">
-        <v>34445</v>
+        <v>35957</v>
       </c>
       <c r="S28" t="n">
         <v>315.5</v>
@@ -1588,7 +1588,7 @@
         <v>37165</v>
       </c>
       <c r="B29" t="n">
-        <v>21143</v>
+        <v>22756</v>
       </c>
       <c r="C29" t="n">
         <v>1735581</v>
@@ -1619,10 +1619,10 @@
         <v>4.4</v>
       </c>
       <c r="Q29" t="n">
-        <v>44463</v>
+        <v>46366</v>
       </c>
       <c r="R29" t="n">
-        <v>36011</v>
+        <v>37592</v>
       </c>
       <c r="S29" t="n">
         <v>319.2</v>
@@ -1636,7 +1636,7 @@
         <v>37257</v>
       </c>
       <c r="B30" t="n">
-        <v>19957</v>
+        <v>21479</v>
       </c>
       <c r="C30" t="n">
         <v>2471698</v>
@@ -1664,13 +1664,13 @@
       </c>
       <c r="O30"/>
       <c r="P30" t="n">
-        <v>4.5</v>
+        <v>4.53333333333333</v>
       </c>
       <c r="Q30" t="n">
-        <v>44455</v>
+        <v>46358</v>
       </c>
       <c r="R30" t="n">
-        <v>37816</v>
+        <v>39477</v>
       </c>
       <c r="S30" t="n">
         <v>361.4</v>
@@ -1684,7 +1684,7 @@
         <v>37347</v>
       </c>
       <c r="B31" t="n">
-        <v>19871</v>
+        <v>21387</v>
       </c>
       <c r="C31" t="n">
         <v>1869585</v>
@@ -1712,13 +1712,13 @@
       </c>
       <c r="O31"/>
       <c r="P31" t="n">
-        <v>4.6</v>
+        <v>4.63333333333333</v>
       </c>
       <c r="Q31" t="n">
-        <v>45307</v>
+        <v>47246</v>
       </c>
       <c r="R31" t="n">
-        <v>37271</v>
+        <v>38907</v>
       </c>
       <c r="S31" t="n">
         <v>342</v>
@@ -1732,7 +1732,7 @@
         <v>37438</v>
       </c>
       <c r="B32" t="n">
-        <v>20258</v>
+        <v>21803</v>
       </c>
       <c r="C32" t="n">
         <v>2593657</v>
@@ -1763,10 +1763,10 @@
         <v>4.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>45878</v>
+        <v>47842</v>
       </c>
       <c r="R32" t="n">
-        <v>36785</v>
+        <v>38399</v>
       </c>
       <c r="S32" t="n">
         <v>321.5</v>
@@ -1780,7 +1780,7 @@
         <v>37530</v>
       </c>
       <c r="B33" t="n">
-        <v>21719</v>
+        <v>23375</v>
       </c>
       <c r="C33" t="n">
         <v>1949962</v>
@@ -1808,13 +1808,13 @@
       </c>
       <c r="O33"/>
       <c r="P33" t="n">
-        <v>5.3</v>
+        <v>5.26666666666667</v>
       </c>
       <c r="Q33" t="n">
-        <v>47436</v>
+        <v>49467</v>
       </c>
       <c r="R33" t="n">
-        <v>36589</v>
+        <v>38195</v>
       </c>
       <c r="S33" t="n">
         <v>311.4</v>
@@ -1828,7 +1828,7 @@
         <v>37622</v>
       </c>
       <c r="B34" t="n">
-        <v>20573</v>
+        <v>22142</v>
       </c>
       <c r="C34" t="n">
         <v>3010753</v>
@@ -1858,13 +1858,13 @@
       </c>
       <c r="O34"/>
       <c r="P34" t="n">
-        <v>4.8</v>
+        <v>4.83333333333333</v>
       </c>
       <c r="Q34" t="n">
-        <v>45410</v>
+        <v>47354</v>
       </c>
       <c r="R34" t="n">
-        <v>34010</v>
+        <v>35503</v>
       </c>
       <c r="S34" t="n">
         <v>281</v>
@@ -1878,7 +1878,7 @@
         <v>37712</v>
       </c>
       <c r="B35" t="n">
-        <v>20555</v>
+        <v>22123</v>
       </c>
       <c r="C35" t="n">
         <v>1789446</v>
@@ -1911,10 +1911,10 @@
         <v>4.8</v>
       </c>
       <c r="Q35" t="n">
-        <v>46557</v>
+        <v>48550</v>
       </c>
       <c r="R35" t="n">
-        <v>35642</v>
+        <v>37207</v>
       </c>
       <c r="S35" t="n">
         <v>290.8</v>
@@ -1928,7 +1928,7 @@
         <v>37803</v>
       </c>
       <c r="B36" t="n">
-        <v>20662</v>
+        <v>22238</v>
       </c>
       <c r="C36" t="n">
         <v>2801586</v>
@@ -1961,10 +1961,10 @@
         <v>5</v>
       </c>
       <c r="Q36" t="n">
-        <v>46301</v>
+        <v>48283</v>
       </c>
       <c r="R36" t="n">
-        <v>36251</v>
+        <v>37843</v>
       </c>
       <c r="S36" t="n">
         <v>299.5</v>
@@ -1978,7 +1978,7 @@
         <v>37895</v>
       </c>
       <c r="B37" t="n">
-        <v>22331</v>
+        <v>24034</v>
       </c>
       <c r="C37" t="n">
         <v>2118759</v>
@@ -2008,13 +2008,13 @@
       </c>
       <c r="O37"/>
       <c r="P37" t="n">
-        <v>4.8</v>
+        <v>4.76666666666667</v>
       </c>
       <c r="Q37" t="n">
-        <v>50325</v>
+        <v>52479</v>
       </c>
       <c r="R37" t="n">
-        <v>40037</v>
+        <v>41794</v>
       </c>
       <c r="S37" t="n">
         <v>331.2</v>
@@ -2028,7 +2028,7 @@
         <v>37987</v>
       </c>
       <c r="B38" t="n">
-        <v>21359</v>
+        <v>22988</v>
       </c>
       <c r="C38" t="n">
         <v>3178409</v>
@@ -2058,13 +2058,13 @@
       </c>
       <c r="O38"/>
       <c r="P38" t="n">
-        <v>5.1</v>
+        <v>5.13333333333333</v>
       </c>
       <c r="Q38" t="n">
-        <v>48900</v>
+        <v>50992</v>
       </c>
       <c r="R38" t="n">
-        <v>37008</v>
+        <v>38632</v>
       </c>
       <c r="S38" t="n">
         <v>298.4</v>
@@ -2078,7 +2078,7 @@
         <v>38078</v>
       </c>
       <c r="B39" t="n">
-        <v>21371</v>
+        <v>23001</v>
       </c>
       <c r="C39" t="n">
         <v>2072480</v>
@@ -2108,13 +2108,13 @@
       </c>
       <c r="O39"/>
       <c r="P39" t="n">
-        <v>4.7</v>
+        <v>4.66666666666667</v>
       </c>
       <c r="Q39" t="n">
-        <v>50600</v>
+        <v>52766</v>
       </c>
       <c r="R39" t="n">
-        <v>39393</v>
+        <v>41123</v>
       </c>
       <c r="S39" t="n">
         <v>312.9</v>
@@ -2128,7 +2128,7 @@
         <v>38169</v>
       </c>
       <c r="B40" t="n">
-        <v>21588</v>
+        <v>23235</v>
       </c>
       <c r="C40" t="n">
         <v>3252680</v>
@@ -2161,10 +2161,10 @@
         <v>4.5</v>
       </c>
       <c r="Q40" t="n">
-        <v>49559</v>
+        <v>51680</v>
       </c>
       <c r="R40" t="n">
-        <v>38574</v>
+        <v>40268</v>
       </c>
       <c r="S40" t="n">
         <v>303.9</v>
@@ -2178,7 +2178,7 @@
         <v>38261</v>
       </c>
       <c r="B41" t="n">
-        <v>23167</v>
+        <v>24934</v>
       </c>
       <c r="C41" t="n">
         <v>2189722</v>
@@ -2211,10 +2211,10 @@
         <v>4.7</v>
       </c>
       <c r="Q41" t="n">
-        <v>52337</v>
+        <v>54577</v>
       </c>
       <c r="R41" t="n">
-        <v>40481</v>
+        <v>42258</v>
       </c>
       <c r="S41" t="n">
         <v>309.9</v>
@@ -2228,7 +2228,7 @@
         <v>38353</v>
       </c>
       <c r="B42" t="n">
-        <v>22206</v>
+        <v>23900</v>
       </c>
       <c r="C42" t="n">
         <v>3574613</v>
@@ -2258,13 +2258,13 @@
       </c>
       <c r="O42"/>
       <c r="P42" t="n">
-        <v>4.4</v>
+        <v>4.43333333333333</v>
       </c>
       <c r="Q42" t="n">
-        <v>51784</v>
+        <v>54001</v>
       </c>
       <c r="R42" t="n">
-        <v>38258</v>
+        <v>39938</v>
       </c>
       <c r="S42" t="n">
         <v>288.7</v>
@@ -2278,7 +2278,7 @@
         <v>38443</v>
       </c>
       <c r="B43" t="n">
-        <v>22827</v>
+        <v>24569</v>
       </c>
       <c r="C43" t="n">
         <v>2316039</v>
@@ -2308,13 +2308,13 @@
       </c>
       <c r="O43"/>
       <c r="P43" t="n">
-        <v>4.9</v>
+        <v>4.86666666666667</v>
       </c>
       <c r="Q43" t="n">
-        <v>53549</v>
+        <v>55841</v>
       </c>
       <c r="R43" t="n">
-        <v>41911</v>
+        <v>43751</v>
       </c>
       <c r="S43" t="n">
         <v>327.3</v>
@@ -2328,7 +2328,7 @@
         <v>38534</v>
       </c>
       <c r="B44" t="n">
-        <v>23555</v>
+        <v>25352</v>
       </c>
       <c r="C44" t="n">
         <v>3687345</v>
@@ -2361,10 +2361,10 @@
         <v>4.7</v>
       </c>
       <c r="Q44" t="n">
-        <v>52368</v>
+        <v>54609</v>
       </c>
       <c r="R44" t="n">
-        <v>40346</v>
+        <v>42117</v>
       </c>
       <c r="S44" t="n">
         <v>284.3</v>
@@ -2378,7 +2378,7 @@
         <v>38626</v>
       </c>
       <c r="B45" t="n">
-        <v>25199</v>
+        <v>27121</v>
       </c>
       <c r="C45" t="n">
         <v>2511073</v>
@@ -2408,13 +2408,13 @@
       </c>
       <c r="O45"/>
       <c r="P45" t="n">
-        <v>4.5</v>
+        <v>4.53333333333333</v>
       </c>
       <c r="Q45" t="n">
-        <v>55254</v>
+        <v>57619</v>
       </c>
       <c r="R45" t="n">
-        <v>43459</v>
+        <v>45367</v>
       </c>
       <c r="S45" t="n">
         <v>323.5</v>
@@ -2428,7 +2428,7 @@
         <v>38718</v>
       </c>
       <c r="B46" t="n">
-        <v>23896</v>
+        <v>25719</v>
       </c>
       <c r="C46" t="n">
         <v>4091100</v>
@@ -2461,10 +2461,10 @@
         <v>4.7</v>
       </c>
       <c r="Q46" t="n">
-        <v>55101</v>
+        <v>57459</v>
       </c>
       <c r="R46" t="n">
-        <v>41482</v>
+        <v>43303</v>
       </c>
       <c r="S46" t="n">
         <v>287.7</v>
@@ -2478,7 +2478,7 @@
         <v>38808</v>
       </c>
       <c r="B47" t="n">
-        <v>24534</v>
+        <v>26405</v>
       </c>
       <c r="C47" t="n">
         <v>2484260</v>
@@ -2508,13 +2508,13 @@
       </c>
       <c r="O47"/>
       <c r="P47" t="n">
-        <v>4.8</v>
+        <v>4.73333333333333</v>
       </c>
       <c r="Q47" t="n">
-        <v>55492</v>
+        <v>57867</v>
       </c>
       <c r="R47" t="n">
-        <v>43391</v>
+        <v>45295</v>
       </c>
       <c r="S47" t="n">
         <v>289.3</v>
@@ -2528,7 +2528,7 @@
         <v>38899</v>
       </c>
       <c r="B48" t="n">
-        <v>24713</v>
+        <v>26598</v>
       </c>
       <c r="C48" t="n">
         <v>4134739</v>
@@ -2561,10 +2561,10 @@
         <v>5</v>
       </c>
       <c r="Q48" t="n">
-        <v>56020</v>
+        <v>58417</v>
       </c>
       <c r="R48" t="n">
-        <v>44115</v>
+        <v>46052</v>
       </c>
       <c r="S48" t="n">
         <v>306.7</v>
@@ -2578,7 +2578,7 @@
         <v>38991</v>
       </c>
       <c r="B49" t="n">
-        <v>26717</v>
+        <v>28755</v>
       </c>
       <c r="C49" t="n">
         <v>2737892</v>
@@ -2608,13 +2608,13 @@
       </c>
       <c r="O49"/>
       <c r="P49" t="n">
-        <v>4.6</v>
+        <v>4.63333333333333</v>
       </c>
       <c r="Q49" t="n">
-        <v>56965</v>
+        <v>59403</v>
       </c>
       <c r="R49" t="n">
-        <v>44910</v>
+        <v>46881</v>
       </c>
       <c r="S49" t="n">
         <v>314.3</v>
@@ -2628,7 +2628,7 @@
         <v>39083</v>
       </c>
       <c r="B50" t="n">
-        <v>26021</v>
+        <v>28006</v>
       </c>
       <c r="C50" t="n">
         <v>4514383</v>
@@ -2661,10 +2661,10 @@
         <v>4.9</v>
       </c>
       <c r="Q50" t="n">
-        <v>59521</v>
+        <v>62068</v>
       </c>
       <c r="R50" t="n">
-        <v>45614</v>
+        <v>47616</v>
       </c>
       <c r="S50" t="n">
         <v>312.3</v>
@@ -2678,7 +2678,7 @@
         <v>39173</v>
       </c>
       <c r="B51" t="n">
-        <v>26126</v>
+        <v>28119</v>
       </c>
       <c r="C51" t="n">
         <v>2764655</v>
@@ -2711,10 +2711,10 @@
         <v>5</v>
       </c>
       <c r="Q51" t="n">
-        <v>58778</v>
+        <v>61294</v>
       </c>
       <c r="R51" t="n">
-        <v>48100</v>
+        <v>50211</v>
       </c>
       <c r="S51" t="n">
         <v>317.9</v>
@@ -2728,7 +2728,7 @@
         <v>39264</v>
       </c>
       <c r="B52" t="n">
-        <v>26336</v>
+        <v>28345</v>
       </c>
       <c r="C52" t="n">
         <v>4490560</v>
@@ -2761,10 +2761,10 @@
         <v>4.9</v>
       </c>
       <c r="Q52" t="n">
-        <v>57320</v>
+        <v>59773</v>
       </c>
       <c r="R52" t="n">
-        <v>46377</v>
+        <v>48413</v>
       </c>
       <c r="S52" t="n">
         <v>294.1</v>
@@ -2778,7 +2778,7 @@
         <v>39356</v>
       </c>
       <c r="B53" t="n">
-        <v>28200</v>
+        <v>30351</v>
       </c>
       <c r="C53" t="n">
         <v>2726990</v>
@@ -2808,13 +2808,13 @@
       </c>
       <c r="O53"/>
       <c r="P53" t="n">
-        <v>5.2</v>
+        <v>5.23333333333333</v>
       </c>
       <c r="Q53" t="n">
-        <v>59831</v>
+        <v>62392</v>
       </c>
       <c r="R53" t="n">
-        <v>49286</v>
+        <v>51450</v>
       </c>
       <c r="S53" t="n">
         <v>309.9</v>
@@ -2828,7 +2828,7 @@
         <v>39448</v>
       </c>
       <c r="B54" t="n">
-        <v>27056</v>
+        <v>29120</v>
       </c>
       <c r="C54" t="n">
         <v>4526702</v>
@@ -2860,13 +2860,13 @@
       </c>
       <c r="O54"/>
       <c r="P54" t="n">
-        <v>5.4</v>
+        <v>5.36666666666667</v>
       </c>
       <c r="Q54" t="n">
-        <v>57888</v>
+        <v>60366</v>
       </c>
       <c r="R54" t="n">
-        <v>44431</v>
+        <v>46381</v>
       </c>
       <c r="S54" t="n">
         <v>274.9</v>
@@ -2880,7 +2880,7 @@
         <v>39539</v>
       </c>
       <c r="B55" t="n">
-        <v>26127</v>
+        <v>28120</v>
       </c>
       <c r="C55" t="n">
         <v>2551203</v>
@@ -2912,13 +2912,13 @@
       </c>
       <c r="O55"/>
       <c r="P55" t="n">
-        <v>5.9</v>
+        <v>5.93333333333333</v>
       </c>
       <c r="Q55" t="n">
-        <v>56679</v>
+        <v>59104</v>
       </c>
       <c r="R55" t="n">
-        <v>46574</v>
+        <v>48619</v>
       </c>
       <c r="S55" t="n">
         <v>295.4</v>
@@ -2932,7 +2932,7 @@
         <v>39630</v>
       </c>
       <c r="B56" t="n">
-        <v>26243</v>
+        <v>28245</v>
       </c>
       <c r="C56" t="n">
         <v>3920580</v>
@@ -2964,13 +2964,13 @@
       </c>
       <c r="O56"/>
       <c r="P56" t="n">
-        <v>7.4</v>
+        <v>7.36666666666667</v>
       </c>
       <c r="Q56" t="n">
-        <v>56649</v>
+        <v>59074</v>
       </c>
       <c r="R56" t="n">
-        <v>45087</v>
+        <v>47067</v>
       </c>
       <c r="S56" t="n">
         <v>283.4</v>
@@ -2984,7 +2984,7 @@
         <v>39722</v>
       </c>
       <c r="B57" t="n">
-        <v>27722</v>
+        <v>29837</v>
       </c>
       <c r="C57" t="n">
         <v>2431117</v>
@@ -3016,13 +3016,13 @@
       </c>
       <c r="O57"/>
       <c r="P57" t="n">
-        <v>8.5</v>
+        <v>8.53333333333333</v>
       </c>
       <c r="Q57" t="n">
-        <v>53676</v>
+        <v>55973</v>
       </c>
       <c r="R57" t="n">
-        <v>46082</v>
+        <v>48105</v>
       </c>
       <c r="S57" t="n">
         <v>277.3</v>
@@ -3036,7 +3036,7 @@
         <v>39814</v>
       </c>
       <c r="B58" t="n">
-        <v>25384</v>
+        <v>27320</v>
       </c>
       <c r="C58" t="n">
         <v>3697469</v>
@@ -3068,13 +3068,13 @@
       </c>
       <c r="O58"/>
       <c r="P58" t="n">
-        <v>10.8</v>
+        <v>10.8666666666667</v>
       </c>
       <c r="Q58" t="n">
-        <v>53757</v>
+        <v>56058</v>
       </c>
       <c r="R58" t="n">
-        <v>47334</v>
+        <v>49412</v>
       </c>
       <c r="S58" t="n">
         <v>319</v>
@@ -3088,7 +3088,7 @@
         <v>39904</v>
       </c>
       <c r="B59" t="n">
-        <v>24986</v>
+        <v>26892</v>
       </c>
       <c r="C59" t="n">
         <v>1872065</v>
@@ -3123,10 +3123,10 @@
         <v>12.6</v>
       </c>
       <c r="Q59" t="n">
-        <v>53927</v>
+        <v>56235</v>
       </c>
       <c r="R59" t="n">
-        <v>48399</v>
+        <v>50524</v>
       </c>
       <c r="S59" t="n">
         <v>320.5</v>
@@ -3140,7 +3140,7 @@
         <v>39995</v>
       </c>
       <c r="B60" t="n">
-        <v>24937</v>
+        <v>26840</v>
       </c>
       <c r="C60" t="n">
         <v>3087757</v>
@@ -3175,10 +3175,10 @@
         <v>13.3</v>
       </c>
       <c r="Q60" t="n">
-        <v>53624</v>
+        <v>55919</v>
       </c>
       <c r="R60" t="n">
-        <v>46688</v>
+        <v>48738</v>
       </c>
       <c r="S60" t="n">
         <v>305.4</v>
@@ -3192,7 +3192,7 @@
         <v>40087</v>
       </c>
       <c r="B61" t="n">
-        <v>26570</v>
+        <v>28597</v>
       </c>
       <c r="C61" t="n">
         <v>2012361</v>
@@ -3224,13 +3224,13 @@
       </c>
       <c r="O61"/>
       <c r="P61" t="n">
-        <v>13.8</v>
+        <v>13.8333333333333</v>
       </c>
       <c r="Q61" t="n">
-        <v>52124</v>
+        <v>54354</v>
       </c>
       <c r="R61" t="n">
-        <v>48221</v>
+        <v>50338</v>
       </c>
       <c r="S61" t="n">
         <v>306.2</v>
@@ -3244,7 +3244,7 @@
         <v>40179</v>
       </c>
       <c r="B62" t="n">
-        <v>25235</v>
+        <v>27160</v>
       </c>
       <c r="C62" t="n">
         <v>3215680</v>
@@ -3279,10 +3279,10 @@
         <v>13.8</v>
       </c>
       <c r="Q62" t="n">
-        <v>53601</v>
+        <v>55896</v>
       </c>
       <c r="R62" t="n">
-        <v>47642</v>
+        <v>49733</v>
       </c>
       <c r="S62" t="n">
         <v>282.4</v>
@@ -3296,7 +3296,7 @@
         <v>40269</v>
       </c>
       <c r="B63" t="n">
-        <v>25146</v>
+        <v>27064</v>
       </c>
       <c r="C63" t="n">
         <v>1906433</v>
@@ -3328,13 +3328,13 @@
       </c>
       <c r="O63"/>
       <c r="P63" t="n">
-        <v>14.4</v>
+        <v>14.3666666666667</v>
       </c>
       <c r="Q63" t="n">
-        <v>54394</v>
+        <v>56722</v>
       </c>
       <c r="R63" t="n">
-        <v>51784</v>
+        <v>54058</v>
       </c>
       <c r="S63" t="n">
         <v>304.6</v>
@@ -3348,7 +3348,7 @@
         <v>40360</v>
       </c>
       <c r="B64" t="n">
-        <v>25367</v>
+        <v>27302</v>
       </c>
       <c r="C64" t="n">
         <v>3039214</v>
@@ -3380,13 +3380,13 @@
       </c>
       <c r="O64"/>
       <c r="P64" t="n">
-        <v>14.6</v>
+        <v>14.6333333333333</v>
       </c>
       <c r="Q64" t="n">
-        <v>55010</v>
+        <v>57364</v>
       </c>
       <c r="R64" t="n">
-        <v>51555</v>
+        <v>53818</v>
       </c>
       <c r="S64" t="n">
         <v>304.9</v>
@@ -3400,7 +3400,7 @@
         <v>40452</v>
       </c>
       <c r="B65" t="n">
-        <v>26944</v>
+        <v>28999</v>
       </c>
       <c r="C65" t="n">
         <v>1939957</v>
@@ -3432,13 +3432,13 @@
       </c>
       <c r="O65"/>
       <c r="P65" t="n">
-        <v>15.6</v>
+        <v>15.6333333333333</v>
       </c>
       <c r="Q65" t="n">
-        <v>54018</v>
+        <v>56330</v>
       </c>
       <c r="R65" t="n">
-        <v>51065</v>
+        <v>53307</v>
       </c>
       <c r="S65" t="n">
         <v>308.3</v>
@@ -3452,7 +3452,7 @@
         <v>40544</v>
       </c>
       <c r="B66" t="n">
-        <v>25108</v>
+        <v>27012</v>
       </c>
       <c r="C66" t="n">
         <v>3109796</v>
@@ -3484,13 +3484,13 @@
       </c>
       <c r="O66"/>
       <c r="P66" t="n">
-        <v>15.2</v>
+        <v>15.1666666666667</v>
       </c>
       <c r="Q66" t="n">
-        <v>54770</v>
+        <v>57110</v>
       </c>
       <c r="R66" t="n">
-        <v>51401</v>
+        <v>53657</v>
       </c>
       <c r="S66" t="n">
         <v>333.3</v>
@@ -3504,7 +3504,7 @@
         <v>40634</v>
       </c>
       <c r="B67" t="n">
-        <v>24905</v>
+        <v>26723</v>
       </c>
       <c r="C67" t="n">
         <v>1964839</v>
@@ -3538,13 +3538,13 @@
       </c>
       <c r="O67"/>
       <c r="P67" t="n">
-        <v>15.1</v>
+        <v>15.0333333333333</v>
       </c>
       <c r="Q67" t="n">
-        <v>55847</v>
+        <v>58200</v>
       </c>
       <c r="R67" t="n">
-        <v>53266</v>
+        <v>55605</v>
       </c>
       <c r="S67" t="n">
         <v>337</v>
@@ -3558,7 +3558,7 @@
         <v>40725</v>
       </c>
       <c r="B68" t="n">
-        <v>24627</v>
+        <v>26414</v>
       </c>
       <c r="C68" t="n">
         <v>2919811</v>
@@ -3595,10 +3595,10 @@
         <v>15.6</v>
       </c>
       <c r="Q68" t="n">
-        <v>55522</v>
+        <v>57855</v>
       </c>
       <c r="R68" t="n">
-        <v>51516</v>
+        <v>53778</v>
       </c>
       <c r="S68" t="n">
         <v>304.1</v>
@@ -3612,7 +3612,7 @@
         <v>40817</v>
       </c>
       <c r="B69" t="n">
-        <v>26713</v>
+        <v>28743</v>
       </c>
       <c r="C69" t="n">
         <v>1746079</v>
@@ -3646,13 +3646,13 @@
       </c>
       <c r="O69"/>
       <c r="P69" t="n">
-        <v>15.9</v>
+        <v>15.8333333333333</v>
       </c>
       <c r="Q69" t="n">
-        <v>54464</v>
+        <v>56789</v>
       </c>
       <c r="R69" t="n">
-        <v>52144</v>
+        <v>54433</v>
       </c>
       <c r="S69" t="n">
         <v>304.3</v>
@@ -3666,7 +3666,7 @@
         <v>40909</v>
       </c>
       <c r="B70" t="n">
-        <v>24416</v>
+        <v>26234</v>
       </c>
       <c r="C70" t="n">
         <v>3291379</v>
@@ -3700,13 +3700,13 @@
       </c>
       <c r="O70"/>
       <c r="P70" t="n">
-        <v>15.9</v>
+        <v>15.9333333333333</v>
       </c>
       <c r="Q70" t="n">
-        <v>53666</v>
+        <v>55943</v>
       </c>
       <c r="R70" t="n">
-        <v>49346</v>
+        <v>51512</v>
       </c>
       <c r="S70" t="n">
         <v>310.3</v>
@@ -3720,7 +3720,7 @@
         <v>41000</v>
       </c>
       <c r="B71" t="n">
-        <v>24419</v>
+        <v>26221</v>
       </c>
       <c r="C71" t="n">
         <v>1897184</v>
@@ -3754,13 +3754,13 @@
       </c>
       <c r="O71"/>
       <c r="P71" t="n">
-        <v>15.5</v>
+        <v>15.5333333333333</v>
       </c>
       <c r="Q71" t="n">
-        <v>55960</v>
+        <v>58330</v>
       </c>
       <c r="R71" t="n">
-        <v>52300</v>
+        <v>54596</v>
       </c>
       <c r="S71" t="n">
         <v>302.3</v>
@@ -3774,7 +3774,7 @@
         <v>41091</v>
       </c>
       <c r="B72" t="n">
-        <v>24963</v>
+        <v>26796</v>
       </c>
       <c r="C72" t="n">
         <v>3070223</v>
@@ -3811,10 +3811,10 @@
         <v>15.5</v>
       </c>
       <c r="Q72" t="n">
-        <v>55203</v>
+        <v>57532</v>
       </c>
       <c r="R72" t="n">
-        <v>51327</v>
+        <v>53580</v>
       </c>
       <c r="S72" t="n">
         <v>296.7</v>
@@ -3828,7 +3828,7 @@
         <v>41183</v>
       </c>
       <c r="B73" t="n">
-        <v>26926</v>
+        <v>28935</v>
       </c>
       <c r="C73" t="n">
         <v>1911984</v>
@@ -3865,10 +3865,10 @@
         <v>15</v>
       </c>
       <c r="Q73" t="n">
-        <v>54893</v>
+        <v>57217</v>
       </c>
       <c r="R73" t="n">
-        <v>53641</v>
+        <v>55996</v>
       </c>
       <c r="S73" t="n">
         <v>297.4</v>
@@ -3882,7 +3882,7 @@
         <v>41275</v>
       </c>
       <c r="B74" t="n">
-        <v>24334</v>
+        <v>26146</v>
       </c>
       <c r="C74" t="n">
         <v>3299197</v>
@@ -3916,13 +3916,13 @@
       </c>
       <c r="O74"/>
       <c r="P74" t="n">
-        <v>14.5</v>
+        <v>14.5333333333333</v>
       </c>
       <c r="Q74" t="n">
-        <v>53333</v>
+        <v>55596</v>
       </c>
       <c r="R74" t="n">
-        <v>50627</v>
+        <v>55065</v>
       </c>
       <c r="S74" t="n">
         <v>286</v>
@@ -3936,7 +3936,7 @@
         <v>41365</v>
       </c>
       <c r="B75" t="n">
-        <v>24220</v>
+        <v>26004</v>
       </c>
       <c r="C75" t="n">
         <v>1880260</v>
@@ -3970,13 +3970,13 @@
       </c>
       <c r="O75"/>
       <c r="P75" t="n">
-        <v>14.4</v>
+        <v>14.3666666666667</v>
       </c>
       <c r="Q75" t="n">
-        <v>55553</v>
+        <v>57904</v>
       </c>
       <c r="R75" t="n">
-        <v>55969</v>
+        <v>61418</v>
       </c>
       <c r="S75" t="n">
         <v>310.8</v>
@@ -3990,7 +3990,7 @@
         <v>41456</v>
       </c>
       <c r="B76" t="n">
-        <v>24806</v>
+        <v>26623</v>
       </c>
       <c r="C76" t="n">
         <v>3230474</v>
@@ -4024,13 +4024,13 @@
       </c>
       <c r="O76"/>
       <c r="P76" t="n">
-        <v>13.3</v>
+        <v>13.3333333333333</v>
       </c>
       <c r="Q76" t="n">
-        <v>58401</v>
+        <v>60869</v>
       </c>
       <c r="R76" t="n">
-        <v>55276</v>
+        <v>60045</v>
       </c>
       <c r="S76" t="n">
         <v>311</v>
@@ -4044,7 +4044,7 @@
         <v>41548</v>
       </c>
       <c r="B77" t="n">
-        <v>26921</v>
+        <v>28923</v>
       </c>
       <c r="C77" t="n">
         <v>1926069</v>
@@ -4078,13 +4078,13 @@
       </c>
       <c r="O77"/>
       <c r="P77" t="n">
-        <v>12.9</v>
+        <v>12.8333333333333</v>
       </c>
       <c r="Q77" t="n">
-        <v>57252</v>
+        <v>59675</v>
       </c>
       <c r="R77" t="n">
-        <v>56837</v>
+        <v>61948</v>
       </c>
       <c r="S77" t="n">
         <v>308.8</v>
@@ -4098,7 +4098,7 @@
         <v>41640</v>
       </c>
       <c r="B78" t="n">
-        <v>24658</v>
+        <v>26536</v>
       </c>
       <c r="C78" t="n">
         <v>3366361</v>
@@ -4132,13 +4132,13 @@
       </c>
       <c r="O78"/>
       <c r="P78" t="n">
-        <v>12.8</v>
+        <v>12.8333333333333</v>
       </c>
       <c r="Q78" t="n">
-        <v>58751</v>
+        <v>61272</v>
       </c>
       <c r="R78" t="n">
-        <v>57178</v>
+        <v>62552</v>
       </c>
       <c r="S78" t="n">
         <v>306.4</v>
@@ -4152,7 +4152,7 @@
         <v>41730</v>
       </c>
       <c r="B79" t="n">
-        <v>24786</v>
+        <v>26657</v>
       </c>
       <c r="C79" t="n">
         <v>2192458</v>
@@ -4189,10 +4189,10 @@
         <v>12.2</v>
       </c>
       <c r="Q79" t="n">
-        <v>60607</v>
+        <v>63200</v>
       </c>
       <c r="R79" t="n">
-        <v>63494</v>
+        <v>69014</v>
       </c>
       <c r="S79" t="n">
         <v>317.7</v>
@@ -4206,7 +4206,7 @@
         <v>41821</v>
       </c>
       <c r="B80" t="n">
-        <v>25369</v>
+        <v>27275</v>
       </c>
       <c r="C80" t="n">
         <v>3400773</v>
@@ -4240,13 +4240,13 @@
       </c>
       <c r="O80"/>
       <c r="P80" t="n">
-        <v>11.7</v>
+        <v>11.6666666666667</v>
       </c>
       <c r="Q80" t="n">
-        <v>63072</v>
+        <v>65767</v>
       </c>
       <c r="R80" t="n">
-        <v>64919</v>
+        <v>70264</v>
       </c>
       <c r="S80" t="n">
         <v>310.7</v>
@@ -4260,7 +4260,7 @@
         <v>41913</v>
       </c>
       <c r="B81" t="n">
-        <v>27742</v>
+        <v>29852</v>
       </c>
       <c r="C81" t="n">
         <v>2193337</v>
@@ -4294,13 +4294,13 @@
       </c>
       <c r="O81"/>
       <c r="P81" t="n">
-        <v>10.9</v>
+        <v>10.8666666666667</v>
       </c>
       <c r="Q81" t="n">
-        <v>63072</v>
+        <v>65772</v>
       </c>
       <c r="R81" t="n">
-        <v>65753</v>
+        <v>71212</v>
       </c>
       <c r="S81" t="n">
         <v>309.9</v>
@@ -4314,16 +4314,14 @@
         <v>42005</v>
       </c>
       <c r="B82" t="n">
-        <v>25538</v>
+        <v>27471</v>
       </c>
       <c r="C82" t="n">
         <v>3797391</v>
       </c>
       <c r="D82"/>
       <c r="E82"/>
-      <c r="F82" t="n">
-        <v>92.4</v>
-      </c>
+      <c r="F82"/>
       <c r="G82" t="n">
         <v>19843.89</v>
       </c>
@@ -4350,13 +4348,13 @@
       </c>
       <c r="O82"/>
       <c r="P82" t="n">
-        <v>10.6</v>
+        <v>10.6333333333333</v>
       </c>
       <c r="Q82" t="n">
-        <v>75460</v>
+        <v>78707</v>
       </c>
       <c r="R82" t="n">
-        <v>82209</v>
+        <v>88494</v>
       </c>
       <c r="S82" t="n">
         <v>330</v>
@@ -4370,16 +4368,14 @@
         <v>42095</v>
       </c>
       <c r="B83" t="n">
-        <v>25553</v>
+        <v>27463</v>
       </c>
       <c r="C83" t="n">
         <v>2202392</v>
       </c>
       <c r="D83"/>
       <c r="E83"/>
-      <c r="F83" t="n">
-        <v>97.2</v>
-      </c>
+      <c r="F83"/>
       <c r="G83" t="n">
         <v>20022.57</v>
       </c>
@@ -4409,10 +4405,10 @@
         <v>10.1</v>
       </c>
       <c r="Q83" t="n">
-        <v>73491</v>
+        <v>76638</v>
       </c>
       <c r="R83" t="n">
-        <v>86416</v>
+        <v>93137</v>
       </c>
       <c r="S83" t="n">
         <v>344</v>
@@ -4426,16 +4422,14 @@
         <v>42186</v>
       </c>
       <c r="B84" t="n">
-        <v>26490</v>
+        <v>28457</v>
       </c>
       <c r="C84" t="n">
         <v>3701609</v>
       </c>
       <c r="D84"/>
       <c r="E84"/>
-      <c r="F84" t="n">
-        <v>102.2</v>
-      </c>
+      <c r="F84"/>
       <c r="G84" t="n">
         <v>20210.94</v>
       </c>
@@ -4462,13 +4456,13 @@
       </c>
       <c r="O84"/>
       <c r="P84" t="n">
-        <v>9.6</v>
+        <v>9.53333333333333</v>
       </c>
       <c r="Q84" t="n">
-        <v>78116</v>
+        <v>81457</v>
       </c>
       <c r="R84" t="n">
-        <v>90486</v>
+        <v>96808</v>
       </c>
       <c r="S84" t="n">
         <v>343.5</v>
@@ -4482,16 +4476,14 @@
         <v>42278</v>
       </c>
       <c r="B85" t="n">
-        <v>28445</v>
+        <v>30585</v>
       </c>
       <c r="C85" t="n">
         <v>2242654</v>
       </c>
       <c r="D85"/>
       <c r="E85"/>
-      <c r="F85" t="n">
-        <v>108.3</v>
-      </c>
+      <c r="F85"/>
       <c r="G85" t="n">
         <v>20894.16</v>
       </c>
@@ -4518,13 +4510,13 @@
       </c>
       <c r="O85"/>
       <c r="P85" t="n">
-        <v>9.4</v>
+        <v>9.43333333333333</v>
       </c>
       <c r="Q85" t="n">
-        <v>78867</v>
+        <v>82249</v>
       </c>
       <c r="R85" t="n">
-        <v>95341</v>
+        <v>102253</v>
       </c>
       <c r="S85" t="n">
         <v>370.7</v>
@@ -4538,16 +4530,14 @@
         <v>42370</v>
       </c>
       <c r="B86" t="n">
-        <v>27208</v>
+        <v>29273</v>
       </c>
       <c r="C86" t="n">
         <v>3894967</v>
       </c>
       <c r="D86"/>
       <c r="E86"/>
-      <c r="F86" t="n">
-        <v>99.5</v>
-      </c>
+      <c r="F86"/>
       <c r="G86" t="n">
         <v>21082.72</v>
       </c>
@@ -4574,13 +4564,13 @@
       </c>
       <c r="O86"/>
       <c r="P86" t="n">
-        <v>9</v>
+        <v>8.93333333333333</v>
       </c>
       <c r="Q86" t="n">
-        <v>73829</v>
+        <v>77001</v>
       </c>
       <c r="R86" t="n">
-        <v>89723</v>
+        <v>96897</v>
       </c>
       <c r="S86" t="n">
         <v>358.5</v>
@@ -4594,16 +4584,14 @@
         <v>42461</v>
       </c>
       <c r="B87" t="n">
-        <v>26464</v>
+        <v>28445</v>
       </c>
       <c r="C87" t="n">
         <v>2324082</v>
       </c>
       <c r="D87"/>
       <c r="E87"/>
-      <c r="F87" t="n">
-        <v>102.5</v>
-      </c>
+      <c r="F87"/>
       <c r="G87" t="n">
         <v>21322.1</v>
       </c>
@@ -4633,10 +4621,10 @@
         <v>8.8</v>
       </c>
       <c r="Q87" t="n">
-        <v>73854</v>
+        <v>77016</v>
       </c>
       <c r="R87" t="n">
-        <v>90170</v>
+        <v>97720</v>
       </c>
       <c r="S87" t="n">
         <v>387.1</v>
@@ -4650,16 +4638,14 @@
         <v>42552</v>
       </c>
       <c r="B88" t="n">
-        <v>27267</v>
+        <v>29301</v>
       </c>
       <c r="C88" t="n">
         <v>3972399</v>
       </c>
       <c r="D88"/>
       <c r="E88"/>
-      <c r="F88" t="n">
-        <v>103</v>
-      </c>
+      <c r="F88"/>
       <c r="G88" t="n">
         <v>21644.84</v>
       </c>
@@ -4686,13 +4672,13 @@
       </c>
       <c r="O88"/>
       <c r="P88" t="n">
-        <v>8.2</v>
+        <v>8.23333333333333</v>
       </c>
       <c r="Q88" t="n">
-        <v>76641</v>
+        <v>79920</v>
       </c>
       <c r="R88" t="n">
-        <v>93278</v>
+        <v>101815</v>
       </c>
       <c r="S88" t="n">
         <v>379.4</v>
@@ -4706,16 +4692,14 @@
         <v>42644</v>
       </c>
       <c r="B89" t="n">
-        <v>29622</v>
+        <v>31852</v>
       </c>
       <c r="C89" t="n">
         <v>2229032</v>
       </c>
       <c r="D89"/>
       <c r="E89"/>
-      <c r="F89" t="n">
-        <v>111.7</v>
-      </c>
+      <c r="F89"/>
       <c r="G89" t="n">
         <v>22320.15</v>
       </c>
@@ -4742,13 +4726,13 @@
       </c>
       <c r="O89"/>
       <c r="P89" t="n">
-        <v>7.5</v>
+        <v>7.56666666666667</v>
       </c>
       <c r="Q89" t="n">
-        <v>85351</v>
+        <v>89015</v>
       </c>
       <c r="R89" t="n">
-        <v>96956</v>
+        <v>104460</v>
       </c>
       <c r="S89" t="n">
         <v>382.9</v>
@@ -4762,16 +4746,14 @@
         <v>42736</v>
       </c>
       <c r="B90" t="n">
-        <v>27873</v>
+        <v>30089</v>
       </c>
       <c r="C90" t="n">
         <v>4567844</v>
       </c>
       <c r="D90"/>
       <c r="E90"/>
-      <c r="F90" t="n">
-        <v>100.3</v>
-      </c>
+      <c r="F90"/>
       <c r="G90" t="n">
         <v>22725.24</v>
       </c>
@@ -4798,13 +4780,13 @@
       </c>
       <c r="O90"/>
       <c r="P90" t="n">
-        <v>7.3</v>
+        <v>7.26666666666667</v>
       </c>
       <c r="Q90" t="n">
-        <v>79797</v>
+        <v>83278</v>
       </c>
       <c r="R90" t="n">
-        <v>93167</v>
+        <v>100045</v>
       </c>
       <c r="S90" t="n">
         <v>410.9</v>
@@ -4818,16 +4800,14 @@
         <v>42826</v>
       </c>
       <c r="B91" t="n">
-        <v>27213</v>
+        <v>29348</v>
       </c>
       <c r="C91" t="n">
         <v>2337821</v>
       </c>
       <c r="D91"/>
       <c r="E91"/>
-      <c r="F91" t="n">
-        <v>106.4</v>
-      </c>
+      <c r="F91"/>
       <c r="G91" t="n">
         <v>22862.33</v>
       </c>
@@ -4854,13 +4834,13 @@
       </c>
       <c r="O91"/>
       <c r="P91" t="n">
-        <v>6.7</v>
+        <v>6.66666666666667</v>
       </c>
       <c r="Q91" t="n">
-        <v>80312</v>
+        <v>83804</v>
       </c>
       <c r="R91" t="n">
-        <v>98742</v>
+        <v>106566</v>
       </c>
       <c r="S91" t="n">
         <v>402.5</v>
@@ -4874,16 +4854,14 @@
         <v>42917</v>
       </c>
       <c r="B92" t="n">
-        <v>28526</v>
+        <v>30721</v>
       </c>
       <c r="C92" t="n">
         <v>4112642</v>
       </c>
       <c r="D92"/>
       <c r="E92"/>
-      <c r="F92" t="n">
-        <v>105.4</v>
-      </c>
+      <c r="F92"/>
       <c r="G92" t="n">
         <v>23005.19</v>
       </c>
@@ -4913,10 +4891,10 @@
         <v>6.7</v>
       </c>
       <c r="Q92" t="n">
-        <v>88418</v>
+        <v>92242</v>
       </c>
       <c r="R92" t="n">
-        <v>102956</v>
+        <v>110507</v>
       </c>
       <c r="S92" t="n">
         <v>387.3</v>
@@ -4930,16 +4908,14 @@
         <v>43009</v>
       </c>
       <c r="B93" t="n">
-        <v>30585</v>
+        <v>32984</v>
       </c>
       <c r="C93" t="n">
         <v>2284791</v>
       </c>
       <c r="D93"/>
       <c r="E93"/>
-      <c r="F93" t="n">
-        <v>113</v>
-      </c>
+      <c r="F93"/>
       <c r="G93" t="n">
         <v>23796.79</v>
       </c>
@@ -4966,13 +4942,13 @@
       </c>
       <c r="O93"/>
       <c r="P93" t="n">
-        <v>6.4</v>
+        <v>6.43333333333333</v>
       </c>
       <c r="Q93" t="n">
-        <v>92267</v>
+        <v>96276</v>
       </c>
       <c r="R93" t="n">
-        <v>120234</v>
+        <v>127945</v>
       </c>
       <c r="S93" t="n">
         <v>423.1</v>
@@ -4986,16 +4962,14 @@
         <v>43101</v>
       </c>
       <c r="B94" t="n">
-        <v>29186</v>
+        <v>31672</v>
       </c>
       <c r="C94" t="n">
         <v>4675975</v>
       </c>
       <c r="D94"/>
       <c r="E94"/>
-      <c r="F94" t="n">
-        <v>102.3</v>
-      </c>
+      <c r="F94"/>
       <c r="G94" t="n">
         <v>23860.34</v>
       </c>
@@ -5022,13 +4996,13 @@
       </c>
       <c r="O94"/>
       <c r="P94" t="n">
-        <v>6</v>
+        <v>5.93333333333333</v>
       </c>
       <c r="Q94" t="n">
-        <v>88228</v>
+        <v>92196</v>
       </c>
       <c r="R94" t="n">
-        <v>99634</v>
+        <v>106595</v>
       </c>
       <c r="S94" t="n">
         <v>456.8</v>
@@ -5042,16 +5016,14 @@
         <v>43191</v>
       </c>
       <c r="B95" t="n">
-        <v>28992</v>
+        <v>31425</v>
       </c>
       <c r="C95" t="n">
         <v>2424720</v>
       </c>
       <c r="D95"/>
       <c r="E95"/>
-      <c r="F95" t="n">
-        <v>112.1</v>
-      </c>
+      <c r="F95"/>
       <c r="G95" t="n">
         <v>24449.79</v>
       </c>
@@ -5078,13 +5050,13 @@
       </c>
       <c r="O95"/>
       <c r="P95" t="n">
-        <v>5.9</v>
+        <v>5.86666666666667</v>
       </c>
       <c r="Q95" t="n">
-        <v>89520</v>
+        <v>93528</v>
       </c>
       <c r="R95" t="n">
-        <v>107800</v>
+        <v>115225</v>
       </c>
       <c r="S95" t="n">
         <v>484.4</v>
@@ -5098,16 +5070,14 @@
         <v>43282</v>
       </c>
       <c r="B96" t="n">
-        <v>29984</v>
+        <v>32455</v>
       </c>
       <c r="C96" t="n">
         <v>4469935</v>
       </c>
       <c r="D96"/>
       <c r="E96"/>
-      <c r="F96" t="n">
-        <v>112.4</v>
-      </c>
+      <c r="F96"/>
       <c r="G96" t="n">
         <v>24625.06</v>
       </c>
@@ -5137,10 +5107,10 @@
         <v>5.7</v>
       </c>
       <c r="Q96" t="n">
-        <v>93912</v>
+        <v>98100</v>
       </c>
       <c r="R96" t="n">
-        <v>109989</v>
+        <v>117379</v>
       </c>
       <c r="S96" t="n">
         <v>444.6</v>
@@ -5154,16 +5124,14 @@
         <v>43374</v>
       </c>
       <c r="B97" t="n">
-        <v>32021</v>
+        <v>34736</v>
       </c>
       <c r="C97" t="n">
         <v>2663698</v>
       </c>
       <c r="D97"/>
       <c r="E97"/>
-      <c r="F97" t="n">
-        <v>123.1</v>
-      </c>
+      <c r="F97"/>
       <c r="G97" t="n">
         <v>25356.6</v>
       </c>
@@ -5193,10 +5161,10 @@
         <v>5.7</v>
       </c>
       <c r="Q97" t="n">
-        <v>94846</v>
+        <v>99116</v>
       </c>
       <c r="R97" t="n">
-        <v>120014</v>
+        <v>127424</v>
       </c>
       <c r="S97" t="n">
         <v>489.7</v>
@@ -5210,16 +5178,14 @@
         <v>43466</v>
       </c>
       <c r="B98" t="n">
-        <v>30054</v>
+        <v>32614</v>
       </c>
       <c r="C98" t="n">
         <v>4985532</v>
       </c>
       <c r="D98"/>
       <c r="E98"/>
-      <c r="F98" t="n">
-        <v>110.7</v>
-      </c>
+      <c r="F98"/>
       <c r="G98" t="n">
         <v>26071.46</v>
       </c>
@@ -5251,10 +5217,10 @@
         <v>5</v>
       </c>
       <c r="Q98" t="n">
-        <v>91639</v>
+        <v>95715</v>
       </c>
       <c r="R98" t="n">
-        <v>112066</v>
+        <v>119577</v>
       </c>
       <c r="S98" t="n">
         <v>499.5</v>
@@ -5268,16 +5234,14 @@
         <v>43556</v>
       </c>
       <c r="B99" t="n">
-        <v>29946</v>
+        <v>32470</v>
       </c>
       <c r="C99" t="n">
         <v>2460317</v>
       </c>
       <c r="D99"/>
       <c r="E99"/>
-      <c r="F99" t="n">
-        <v>119.2</v>
-      </c>
+      <c r="F99"/>
       <c r="G99" t="n">
         <v>26446.68</v>
       </c>
@@ -5306,13 +5270,13 @@
         <v>2152133.33333333</v>
       </c>
       <c r="P99" t="n">
-        <v>5.2</v>
+        <v>5.16666666666667</v>
       </c>
       <c r="Q99" t="n">
-        <v>93264</v>
+        <v>97405</v>
       </c>
       <c r="R99" t="n">
-        <v>117560</v>
+        <v>126589</v>
       </c>
       <c r="S99" t="n">
         <v>511.9</v>
@@ -5326,16 +5290,14 @@
         <v>43647</v>
       </c>
       <c r="B100" t="n">
-        <v>30796</v>
+        <v>33355</v>
       </c>
       <c r="C100" t="n">
         <v>4866665</v>
       </c>
       <c r="D100"/>
       <c r="E100"/>
-      <c r="F100" t="n">
-        <v>119.3</v>
-      </c>
+      <c r="F100"/>
       <c r="G100" t="n">
         <v>26141.23</v>
       </c>
@@ -5367,10 +5329,10 @@
         <v>5</v>
       </c>
       <c r="Q100" t="n">
-        <v>99609</v>
+        <v>104005</v>
       </c>
       <c r="R100" t="n">
-        <v>121420</v>
+        <v>130197</v>
       </c>
       <c r="S100" t="n">
         <v>499.6</v>
@@ -5384,16 +5346,14 @@
         <v>43739</v>
       </c>
       <c r="B101" t="n">
-        <v>32818</v>
+        <v>35599</v>
       </c>
       <c r="C101" t="n">
         <v>2805090</v>
       </c>
       <c r="D101"/>
       <c r="E101"/>
-      <c r="F101" t="n">
-        <v>124.3</v>
-      </c>
+      <c r="F101"/>
       <c r="G101" t="n">
         <v>27604.27</v>
       </c>
@@ -5422,13 +5382,13 @@
         <v>2180333.33333333</v>
       </c>
       <c r="P101" t="n">
-        <v>4.8</v>
+        <v>4.76666666666667</v>
       </c>
       <c r="Q101" t="n">
-        <v>100469</v>
+        <v>104858</v>
       </c>
       <c r="R101" t="n">
-        <v>132238</v>
+        <v>141708</v>
       </c>
       <c r="S101" t="n">
         <v>512.4</v>
@@ -5442,16 +5402,14 @@
         <v>43831</v>
       </c>
       <c r="B102" t="n">
-        <v>28535</v>
+        <v>30911</v>
       </c>
       <c r="C102" t="n">
         <v>4137135</v>
       </c>
       <c r="D102"/>
       <c r="E102"/>
-      <c r="F102" t="n">
-        <v>109.9</v>
-      </c>
+      <c r="F102"/>
       <c r="G102" t="n">
         <v>27751.31</v>
       </c>
@@ -5480,13 +5438,13 @@
         <v>2180366.66666667</v>
       </c>
       <c r="P102" t="n">
-        <v>4.9</v>
+        <v>4.86666666666667</v>
       </c>
       <c r="Q102" t="n">
-        <v>99741</v>
+        <v>103998</v>
       </c>
       <c r="R102" t="n">
-        <v>131570</v>
+        <v>141019</v>
       </c>
       <c r="S102" t="n">
         <v>610.4</v>
@@ -5500,16 +5458,14 @@
         <v>43922</v>
       </c>
       <c r="B103" t="n">
-        <v>24436</v>
+        <v>26597</v>
       </c>
       <c r="C103" t="n">
         <v>1784214</v>
       </c>
       <c r="D103"/>
       <c r="E103"/>
-      <c r="F103" t="n">
-        <v>96.4</v>
-      </c>
+      <c r="F103"/>
       <c r="G103" t="n">
         <v>24141.21</v>
       </c>
@@ -5538,13 +5494,13 @@
         <v>1905733.33333333</v>
       </c>
       <c r="P103" t="n">
-        <v>5.1</v>
+        <v>5.13333333333333</v>
       </c>
       <c r="Q103" t="n">
-        <v>95476</v>
+        <v>99800</v>
       </c>
       <c r="R103" t="n">
-        <v>124951</v>
+        <v>134224</v>
       </c>
       <c r="S103" t="n">
         <v>523</v>
@@ -5558,16 +5514,14 @@
         <v>44013</v>
       </c>
       <c r="B104" t="n">
-        <v>28909</v>
+        <v>31337</v>
       </c>
       <c r="C104" t="n">
         <v>3947098</v>
       </c>
       <c r="D104"/>
       <c r="E104"/>
-      <c r="F104" t="n">
-        <v>107.1</v>
-      </c>
+      <c r="F104"/>
       <c r="G104" t="n">
         <v>25659.44</v>
       </c>
@@ -5599,10 +5553,10 @@
         <v>7.1</v>
       </c>
       <c r="Q104" t="n">
-        <v>111258</v>
+        <v>116211</v>
       </c>
       <c r="R104" t="n">
-        <v>135741</v>
+        <v>145290</v>
       </c>
       <c r="S104" t="n">
         <v>571.3</v>
@@ -5616,16 +5570,14 @@
         <v>44105</v>
       </c>
       <c r="B105" t="n">
-        <v>30030</v>
+        <v>32674</v>
       </c>
       <c r="C105" t="n">
         <v>2555110</v>
       </c>
       <c r="D105"/>
       <c r="E105"/>
-      <c r="F105" t="n">
-        <v>115.9</v>
-      </c>
+      <c r="F105"/>
       <c r="G105" t="n">
         <v>28551.04</v>
       </c>
@@ -5654,13 +5606,13 @@
         <v>2065133.33333333</v>
       </c>
       <c r="P105" t="n">
-        <v>6.3</v>
+        <v>6.26666666666667</v>
       </c>
       <c r="Q105" t="n">
-        <v>106062</v>
+        <v>110731</v>
       </c>
       <c r="R105" t="n">
-        <v>157759</v>
+        <v>167772</v>
       </c>
       <c r="S105" t="n">
         <v>555.1</v>
@@ -5674,7 +5626,7 @@
         <v>44197</v>
       </c>
       <c r="B106" t="n">
-        <v>25673</v>
+        <v>29731</v>
       </c>
       <c r="C106" t="n">
         <v>4484069</v>
@@ -5684,7 +5636,7 @@
       </c>
       <c r="E106"/>
       <c r="F106" t="n">
-        <v>105.5</v>
+        <v>88.7</v>
       </c>
       <c r="G106" t="n">
         <v>27351.88</v>
@@ -5714,13 +5666,13 @@
         <v>1955900</v>
       </c>
       <c r="P106" t="n">
-        <v>7.3</v>
+        <v>7.26666666666667</v>
       </c>
       <c r="Q106" t="n">
-        <v>113276</v>
+        <v>118884</v>
       </c>
       <c r="R106" t="n">
-        <v>142652</v>
+        <v>151312</v>
       </c>
       <c r="S106" t="n">
         <v>586.2</v>
@@ -5734,7 +5686,7 @@
         <v>44287</v>
       </c>
       <c r="B107" t="n">
-        <v>29789</v>
+        <v>31563</v>
       </c>
       <c r="C107" t="n">
         <v>2719391</v>
@@ -5744,7 +5696,7 @@
       </c>
       <c r="E107"/>
       <c r="F107" t="n">
-        <v>114.4</v>
+        <v>96.1</v>
       </c>
       <c r="G107" t="n">
         <v>28694.31</v>
@@ -5774,13 +5726,13 @@
         <v>2069433.33333333</v>
       </c>
       <c r="P107" t="n">
-        <v>7</v>
+        <v>6.96666666666667</v>
       </c>
       <c r="Q107" t="n">
-        <v>117479</v>
+        <v>122488</v>
       </c>
       <c r="R107" t="n">
-        <v>155256</v>
+        <v>165316</v>
       </c>
       <c r="S107" t="n">
         <v>584.7</v>
@@ -5794,7 +5746,7 @@
         <v>44378</v>
       </c>
       <c r="B108" t="n">
-        <v>32078</v>
+        <v>34402</v>
       </c>
       <c r="C108" t="n">
         <v>5235549</v>
@@ -5804,7 +5756,7 @@
       </c>
       <c r="E108"/>
       <c r="F108" t="n">
-        <v>121.2</v>
+        <v>101</v>
       </c>
       <c r="G108" t="n">
         <v>29716.88</v>
@@ -5837,10 +5789,10 @@
         <v>5.5</v>
       </c>
       <c r="Q108" t="n">
-        <v>126559</v>
+        <v>132215</v>
       </c>
       <c r="R108" t="n">
-        <v>158998</v>
+        <v>168994</v>
       </c>
       <c r="S108" t="n">
         <v>554.1</v>
@@ -5854,7 +5806,7 @@
         <v>44470</v>
       </c>
       <c r="B109" t="n">
-        <v>34277</v>
+        <v>36664</v>
       </c>
       <c r="C109" t="n">
         <v>3002088</v>
@@ -5864,7 +5816,7 @@
       </c>
       <c r="E109"/>
       <c r="F109" t="n">
-        <v>133.5</v>
+        <v>114.2</v>
       </c>
       <c r="G109" t="n">
         <v>31509.06</v>
@@ -5894,13 +5846,13 @@
         <v>2260666.66666667</v>
       </c>
       <c r="P109" t="n">
-        <v>5.2</v>
+        <v>5.23333333333333</v>
       </c>
       <c r="Q109" t="n">
-        <v>122282</v>
+        <v>127184</v>
       </c>
       <c r="R109" t="n">
-        <v>170473</v>
+        <v>179995</v>
       </c>
       <c r="S109" t="n">
         <v>575.6</v>
@@ -5914,7 +5866,7 @@
         <v>44562</v>
       </c>
       <c r="B110" t="n">
-        <v>30778</v>
+        <v>34683</v>
       </c>
       <c r="C110" t="n">
         <v>5850858</v>
@@ -5924,7 +5876,7 @@
       </c>
       <c r="E110"/>
       <c r="F110" t="n">
-        <v>125.4</v>
+        <v>104.8</v>
       </c>
       <c r="G110" t="n">
         <v>31190.67</v>
@@ -5954,13 +5906,13 @@
         <v>2284166.66666667</v>
       </c>
       <c r="P110" t="n">
-        <v>4.9</v>
+        <v>4.83333333333333</v>
       </c>
       <c r="Q110" t="n">
-        <v>122635</v>
+        <v>127670</v>
       </c>
       <c r="R110" t="n">
-        <v>162832</v>
+        <v>171695</v>
       </c>
       <c r="S110" t="n">
         <v>718.141</v>
@@ -5974,7 +5926,7 @@
         <v>44652</v>
       </c>
       <c r="B111" t="n">
-        <v>32614</v>
+        <v>35412</v>
       </c>
       <c r="C111" t="n">
         <v>3237158</v>
@@ -5984,7 +5936,7 @@
       </c>
       <c r="E111"/>
       <c r="F111" t="n">
-        <v>136.8</v>
+        <v>111</v>
       </c>
       <c r="G111" t="n">
         <v>31851.08</v>
@@ -6017,10 +5969,10 @@
         <v>4.3</v>
       </c>
       <c r="Q111" t="n">
-        <v>127060</v>
+        <v>131793</v>
       </c>
       <c r="R111" t="n">
-        <v>174701</v>
+        <v>183674</v>
       </c>
       <c r="S111" t="n">
         <v>717.519</v>
@@ -6034,7 +5986,7 @@
         <v>44743</v>
       </c>
       <c r="B112" t="n">
-        <v>34388</v>
+        <v>36879</v>
       </c>
       <c r="C112" t="n">
         <v>6194321</v>
@@ -6044,7 +5996,7 @@
       </c>
       <c r="E112"/>
       <c r="F112" t="n">
-        <v>139.4</v>
+        <v>114.4</v>
       </c>
       <c r="G112" t="n">
         <v>31906.11</v>
@@ -6074,13 +6026,13 @@
         <v>2384666.66666667</v>
       </c>
       <c r="P112" t="n">
-        <v>4.3</v>
+        <v>4.26666666666667</v>
       </c>
       <c r="Q112" t="n">
-        <v>138231</v>
+        <v>141833</v>
       </c>
       <c r="R112" t="n">
-        <v>185324</v>
+        <v>193947</v>
       </c>
       <c r="S112" t="n">
         <v>714.975</v>
@@ -6094,7 +6046,7 @@
         <v>44835</v>
       </c>
       <c r="B113" t="n">
-        <v>37093</v>
+        <v>39631</v>
       </c>
       <c r="C113" t="n">
         <v>3318614</v>
@@ -6106,7 +6058,7 @@
         <v>16488432014.35</v>
       </c>
       <c r="F113" t="n">
-        <v>142.4</v>
+        <v>120.1</v>
       </c>
       <c r="G113" t="n">
         <v>33642.74</v>
@@ -6136,13 +6088,13 @@
         <v>2399666.66666667</v>
       </c>
       <c r="P113" t="n">
-        <v>4.4</v>
+        <v>4.46666666666667</v>
       </c>
       <c r="Q113" t="n">
-        <v>133009</v>
+        <v>137088</v>
       </c>
       <c r="R113" t="n">
-        <v>189180</v>
+        <v>196348</v>
       </c>
       <c r="S113" t="n">
         <v>641.195</v>
@@ -6156,7 +6108,7 @@
         <v>44927</v>
       </c>
       <c r="B114" t="n">
-        <v>33053</v>
+        <v>37636</v>
       </c>
       <c r="C114" t="n">
         <v>6781197</v>
@@ -6168,7 +6120,7 @@
         <v>15942643573.17</v>
       </c>
       <c r="F114" t="n">
-        <v>132.5</v>
+        <v>110</v>
       </c>
       <c r="G114" t="n">
         <v>35451.23</v>
@@ -6198,13 +6150,13 @@
         <v>2393300</v>
       </c>
       <c r="P114" t="n">
-        <v>4.2</v>
+        <v>4.16666666666667</v>
       </c>
       <c r="Q114" t="n">
-        <v>122440</v>
+        <v>130787</v>
       </c>
       <c r="R114" t="n">
-        <v>169567</v>
+        <v>179969</v>
       </c>
       <c r="S114" t="n">
         <v>698.192</v>
@@ -6218,7 +6170,7 @@
         <v>45017</v>
       </c>
       <c r="B115" t="n">
-        <v>34724</v>
+        <v>37823</v>
       </c>
       <c r="C115" t="n">
         <v>3535501</v>
@@ -6230,7 +6182,7 @@
         <v>18425570673.76</v>
       </c>
       <c r="F115" t="n">
-        <v>140.8</v>
+        <v>114.9</v>
       </c>
       <c r="G115" t="n">
         <v>35473.08</v>
@@ -6260,13 +6212,13 @@
         <v>2430066.66666667</v>
       </c>
       <c r="P115" t="n">
-        <v>4.2</v>
+        <v>4.16666666666667</v>
       </c>
       <c r="Q115" t="n">
-        <v>122096</v>
+        <v>130697</v>
       </c>
       <c r="R115" t="n">
-        <v>164597</v>
+        <v>176799</v>
       </c>
       <c r="S115" t="n">
         <v>682.158</v>
@@ -6280,7 +6232,7 @@
         <v>45108</v>
       </c>
       <c r="B116" t="n">
-        <v>34968</v>
+        <v>37483</v>
       </c>
       <c r="C116" t="n">
         <v>6452144</v>
@@ -6292,7 +6244,7 @@
         <v>18893804323.66</v>
       </c>
       <c r="F116" t="n">
-        <v>143.2</v>
+        <v>115.4</v>
       </c>
       <c r="G116" t="n">
         <v>34901.13</v>
@@ -6322,13 +6274,13 @@
         <v>2447500</v>
       </c>
       <c r="P116" t="n">
-        <v>4.4</v>
+        <v>4.46666666666667</v>
       </c>
       <c r="Q116" t="n">
-        <v>126645</v>
+        <v>135161</v>
       </c>
       <c r="R116" t="n">
-        <v>166703</v>
+        <v>177765</v>
       </c>
       <c r="S116" t="n">
         <v>640.322</v>
@@ -6342,7 +6294,7 @@
         <v>45200</v>
       </c>
       <c r="B117" t="n">
-        <v>38594</v>
+        <v>40984</v>
       </c>
       <c r="C117" t="n">
         <v>3577930</v>
@@ -6354,7 +6306,7 @@
         <v>20795308722.88</v>
       </c>
       <c r="F117" t="n">
-        <v>151.8</v>
+        <v>124.8</v>
       </c>
       <c r="G117" t="n">
         <v>36724.99</v>
@@ -6384,13 +6336,13 @@
         <v>2456000</v>
       </c>
       <c r="P117" t="n">
-        <v>4.5</v>
+        <v>4.43333333333333</v>
       </c>
       <c r="Q117" t="n">
-        <v>120947</v>
+        <v>128084</v>
       </c>
       <c r="R117" t="n">
-        <v>169742</v>
+        <v>181860</v>
       </c>
       <c r="S117" t="n">
         <v>620.473</v>
@@ -6404,7 +6356,7 @@
         <v>45292</v>
       </c>
       <c r="B118" t="n">
-        <v>34059</v>
+        <v>38287</v>
       </c>
       <c r="C118" t="n">
         <v>7145517</v>
@@ -6416,10 +6368,10 @@
         <v>19359656813.84</v>
       </c>
       <c r="F118" t="n">
-        <v>145.1</v>
+        <v>115.2</v>
       </c>
       <c r="G118" t="n">
-        <v>38403.17</v>
+        <v>38308.12</v>
       </c>
       <c r="H118" t="n">
         <v>5355.625</v>
@@ -6446,13 +6398,13 @@
         <v>2452633.33333333</v>
       </c>
       <c r="P118" t="n">
-        <v>4.3</v>
+        <v>4.23333333333333</v>
       </c>
       <c r="Q118" t="n">
-        <v>116961</v>
+        <v>127278</v>
       </c>
       <c r="R118" t="n">
-        <v>168996</v>
+        <v>176666</v>
       </c>
       <c r="S118" t="n">
         <v>712.091</v>
@@ -6466,7 +6418,7 @@
         <v>45383</v>
       </c>
       <c r="B119" t="n">
-        <v>35545</v>
+        <v>38955</v>
       </c>
       <c r="C119" t="n">
         <v>3806495</v>
@@ -6478,10 +6430,10 @@
         <v>20480000107.86</v>
       </c>
       <c r="F119" t="n">
-        <v>155.6</v>
+        <v>125</v>
       </c>
       <c r="G119" t="n">
-        <v>37709.02</v>
+        <v>38230.18</v>
       </c>
       <c r="H119" t="n">
         <v>5380</v>
@@ -6508,13 +6460,13 @@
         <v>2492300</v>
       </c>
       <c r="P119" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Q119" t="n">
-        <v>118388</v>
+        <v>127631</v>
       </c>
       <c r="R119" t="n">
-        <v>195076</v>
+        <v>202325</v>
       </c>
       <c r="S119" t="n">
         <v>710.331</v>
@@ -6528,7 +6480,7 @@
         <v>45474</v>
       </c>
       <c r="B120" t="n">
-        <v>35456</v>
+        <v>38745</v>
       </c>
       <c r="C120" t="n">
         <v>6988518</v>
@@ -6540,10 +6492,10 @@
         <v>21469267453.5</v>
       </c>
       <c r="F120" t="n">
-        <v>156.7</v>
+        <v>125.3</v>
       </c>
       <c r="G120" t="n">
-        <v>37031.7</v>
+        <v>37330.76</v>
       </c>
       <c r="H120" t="n">
         <v>5396.35</v>
@@ -6573,10 +6525,10 @@
         <v>4.3</v>
       </c>
       <c r="Q120" t="n">
-        <v>130736</v>
+        <v>140564</v>
       </c>
       <c r="R120" t="n">
-        <v>184724</v>
+        <v>191224</v>
       </c>
       <c r="S120" t="n">
         <v>755.066</v>
@@ -6590,7 +6542,7 @@
         <v>45566</v>
       </c>
       <c r="B121" t="n">
-        <v>39500</v>
+        <v>42472</v>
       </c>
       <c r="C121" t="n">
         <v>3894691</v>
@@ -6602,10 +6554,10 @@
         <v>23263588708.15</v>
       </c>
       <c r="F121" t="n">
-        <v>169.7</v>
+        <v>141.2</v>
       </c>
       <c r="G121" t="n">
-        <v>38902.8</v>
+        <v>39259.96</v>
       </c>
       <c r="H121" t="n">
         <v>5412.4</v>
@@ -6632,13 +6584,13 @@
         <v>2519700</v>
       </c>
       <c r="P121" t="n">
-        <v>4.3</v>
+        <v>4.26666666666667</v>
       </c>
       <c r="Q121" t="n">
-        <v>132052</v>
+        <v>142896</v>
       </c>
       <c r="R121" t="n">
-        <v>200112</v>
+        <v>207556</v>
       </c>
       <c r="S121" t="n">
         <v>754.761</v>
@@ -6652,7 +6604,7 @@
         <v>45658</v>
       </c>
       <c r="B122" t="n">
-        <v>34908</v>
+        <v>39441</v>
       </c>
       <c r="C122" t="n">
         <v>7632907</v>
@@ -6663,7 +6615,9 @@
       <c r="E122" t="n">
         <v>21501607569.35</v>
       </c>
-      <c r="F122"/>
+      <c r="F122" t="n">
+        <v>140.8</v>
+      </c>
       <c r="G122" t="n">
         <v>40967.24</v>
       </c>
@@ -6690,13 +6644,13 @@
         <v>2509300</v>
       </c>
       <c r="P122" t="n">
-        <v>4</v>
+        <v>4.43333333333333</v>
       </c>
       <c r="Q122" t="n">
-        <v>142902</v>
+        <v>152783</v>
       </c>
       <c r="R122" t="n">
-        <v>208309</v>
+        <v>214898</v>
       </c>
       <c r="S122" t="n">
         <v>1216.387</v>
@@ -6710,7 +6664,9 @@
         <v>45748</v>
       </c>
       <c r="B123"/>
-      <c r="C123"/>
+      <c r="C123" t="n">
+        <v>3956528</v>
+      </c>
       <c r="D123"/>
       <c r="E123"/>
       <c r="F123"/>
@@ -6721,11 +6677,15 @@
       <c r="I123"/>
       <c r="J123"/>
       <c r="K123"/>
-      <c r="L123"/>
+      <c r="L123" t="n">
+        <v>121.7</v>
+      </c>
       <c r="M123"/>
       <c r="N123"/>
       <c r="O123"/>
-      <c r="P123"/>
+      <c r="P123" t="n">
+        <v>4.03333333333333</v>
+      </c>
       <c r="Q123"/>
       <c r="R123"/>
       <c r="S123"/>

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -6596,7 +6596,7 @@
         <v>754.761</v>
       </c>
       <c r="T121" t="n">
-        <v>58430400</v>
+        <v>57911676</v>
       </c>
     </row>
     <row r="122">

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -6641,7 +6641,7 @@
         <v>2794.1</v>
       </c>
       <c r="O122" t="n">
-        <v>2509300</v>
+        <v>2510133.33333333</v>
       </c>
       <c r="P122" t="n">
         <v>4.43333333333333</v>

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -6667,7 +6667,9 @@
       <c r="C123" t="n">
         <v>3956528</v>
       </c>
-      <c r="D123"/>
+      <c r="D123" t="n">
+        <v>110.933333333333</v>
+      </c>
       <c r="E123"/>
       <c r="F123"/>
       <c r="G123"/>

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -1087,7 +1087,7 @@
         <v>72</v>
       </c>
       <c r="M18" t="n">
-        <v>11.2</v>
+        <v>11.6</v>
       </c>
       <c r="N18" t="n">
         <v>1644.4</v>
@@ -1133,7 +1133,7 @@
         <v>73.1</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
       <c r="N19" t="n">
         <v>1679.2</v>
@@ -1179,7 +1179,7 @@
         <v>73.5333333333333</v>
       </c>
       <c r="M20" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="N20" t="n">
         <v>1746.8</v>
@@ -1225,7 +1225,7 @@
         <v>74.3666666666667</v>
       </c>
       <c r="M21" t="n">
-        <v>10.8</v>
+        <v>11.4</v>
       </c>
       <c r="N21" t="n">
         <v>1723.1</v>
@@ -1273,7 +1273,7 @@
         <v>75.3666666666667</v>
       </c>
       <c r="M22" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="N22" t="n">
         <v>1726.8</v>
@@ -1321,7 +1321,7 @@
         <v>76.9</v>
       </c>
       <c r="M23" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="N23" t="n">
         <v>1758.2</v>
@@ -1369,7 +1369,7 @@
         <v>77.7333333333333</v>
       </c>
       <c r="M24" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="N24" t="n">
         <v>1818.4</v>
@@ -1417,7 +1417,7 @@
         <v>78.4666666666667</v>
       </c>
       <c r="M25" t="n">
-        <v>5.7</v>
+        <v>6.3</v>
       </c>
       <c r="N25" t="n">
         <v>1787.6</v>
@@ -1465,7 +1465,7 @@
         <v>78.3666666666667</v>
       </c>
       <c r="M26" t="n">
-        <v>8.2</v>
+        <v>8.1</v>
       </c>
       <c r="N26" t="n">
         <v>1780.4</v>
@@ -1513,7 +1513,7 @@
         <v>80.1333333333333</v>
       </c>
       <c r="M27" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="N27" t="n">
         <v>1809.7</v>
@@ -1561,7 +1561,7 @@
         <v>80.7333333333333</v>
       </c>
       <c r="M28" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="N28" t="n">
         <v>1866.8</v>
@@ -1609,7 +1609,7 @@
         <v>81.5333333333333</v>
       </c>
       <c r="M29" t="n">
-        <v>8.3</v>
+        <v>8.9</v>
       </c>
       <c r="N29" t="n">
         <v>1833.1</v>
@@ -1657,7 +1657,7 @@
         <v>82.3666666666667</v>
       </c>
       <c r="M30" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="N30" t="n">
         <v>1825.1</v>
@@ -1705,7 +1705,7 @@
         <v>84.0333333333333</v>
       </c>
       <c r="M31" t="n">
-        <v>8.6</v>
+        <v>8.3</v>
       </c>
       <c r="N31" t="n">
         <v>1840.3</v>
@@ -1801,7 +1801,7 @@
         <v>85.2</v>
       </c>
       <c r="M33" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="N33" t="n">
         <v>1850.3</v>
@@ -1851,7 +1851,7 @@
         <v>86.4333333333333</v>
       </c>
       <c r="M34" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="N34" t="n">
         <v>1855.6</v>
@@ -1901,7 +1901,7 @@
         <v>87.4333333333333</v>
       </c>
       <c r="M35" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="N35" t="n">
         <v>1874</v>
@@ -2001,7 +2001,7 @@
         <v>87.9333333333333</v>
       </c>
       <c r="M37" t="n">
-        <v>9.3</v>
+        <v>9.6</v>
       </c>
       <c r="N37" t="n">
         <v>1899.4</v>
@@ -2051,7 +2051,7 @@
         <v>88.2333333333333</v>
       </c>
       <c r="M38" t="n">
-        <v>8.2</v>
+        <v>8.1</v>
       </c>
       <c r="N38" t="n">
         <v>1902.3</v>
@@ -2101,7 +2101,7 @@
         <v>89.2666666666667</v>
       </c>
       <c r="M39" t="n">
-        <v>8.1</v>
+        <v>7.9</v>
       </c>
       <c r="N39" t="n">
         <v>1925.8</v>
@@ -2201,7 +2201,7 @@
         <v>90.1666666666667</v>
       </c>
       <c r="M41" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="N41" t="n">
         <v>1973.8</v>
@@ -2251,7 +2251,7 @@
         <v>90</v>
       </c>
       <c r="M42" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="N42" t="n">
         <v>1989.7</v>
@@ -2301,7 +2301,7 @@
         <v>91.1333333333333</v>
       </c>
       <c r="M43" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="N43" t="n">
         <v>2018</v>
@@ -2401,7 +2401,7 @@
         <v>92.2</v>
       </c>
       <c r="M45" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="N45" t="n">
         <v>2070</v>
@@ -2451,7 +2451,7 @@
         <v>92.3333333333333</v>
       </c>
       <c r="M46" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="N46" t="n">
         <v>2082.3</v>
@@ -2501,7 +2501,7 @@
         <v>93.7666666666667</v>
       </c>
       <c r="M47" t="n">
-        <v>10.6</v>
+        <v>10.4</v>
       </c>
       <c r="N47" t="n">
         <v>2109</v>
@@ -2601,7 +2601,7 @@
         <v>94.5333333333333</v>
       </c>
       <c r="M49" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="N49" t="n">
         <v>2166.8</v>
@@ -2651,7 +2651,7 @@
         <v>95</v>
       </c>
       <c r="M50" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="N50" t="n">
         <v>2185.6</v>
@@ -2701,7 +2701,7 @@
         <v>96.3666666666667</v>
       </c>
       <c r="M51" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="N51" t="n">
         <v>2211.8</v>
@@ -2751,7 +2751,7 @@
         <v>96.8333333333333</v>
       </c>
       <c r="M52" t="n">
-        <v>8.8</v>
+        <v>8.9</v>
       </c>
       <c r="N52" t="n">
         <v>2251</v>
@@ -2801,7 +2801,7 @@
         <v>97.5666666666667</v>
       </c>
       <c r="M53" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="N53" t="n">
         <v>2230.7</v>
@@ -2853,7 +2853,7 @@
         <v>98.2333333333333</v>
       </c>
       <c r="M54" t="n">
-        <v>9.2</v>
+        <v>8.9</v>
       </c>
       <c r="N54" t="n">
         <v>2217.8</v>
@@ -2905,7 +2905,7 @@
         <v>99.9333333333333</v>
       </c>
       <c r="M55" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="N55" t="n">
         <v>2217.8</v>
@@ -2957,7 +2957,7 @@
         <v>100.033333333333</v>
       </c>
       <c r="M56" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="N56" t="n">
         <v>2209.4</v>
@@ -3009,7 +3009,7 @@
         <v>99.6</v>
       </c>
       <c r="M57" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="N57" t="n">
         <v>2145.6</v>
@@ -3061,7 +3061,7 @@
         <v>98.4</v>
       </c>
       <c r="M58" t="n">
-        <v>16.2</v>
+        <v>15.9</v>
       </c>
       <c r="N58" t="n">
         <v>2054.5</v>
@@ -3165,7 +3165,7 @@
         <v>97.4333333333333</v>
       </c>
       <c r="M60" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="N60" t="n">
         <v>2006.2</v>
@@ -3217,7 +3217,7 @@
         <v>96.8333333333333</v>
       </c>
       <c r="M61" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="N61" t="n">
         <v>1970.6</v>
@@ -3269,7 +3269,7 @@
         <v>95.9666666666667</v>
       </c>
       <c r="M62" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="N62" t="n">
         <v>1934.6</v>
@@ -3321,7 +3321,7 @@
         <v>96.3</v>
       </c>
       <c r="M63" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="N63" t="n">
         <v>1936.5</v>
@@ -3373,7 +3373,7 @@
         <v>96.2666666666667</v>
       </c>
       <c r="M64" t="n">
-        <v>12.8</v>
+        <v>13.3</v>
       </c>
       <c r="N64" t="n">
         <v>1930.3</v>
@@ -3425,7 +3425,7 @@
         <v>96.2333333333333</v>
       </c>
       <c r="M65" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="N65" t="n">
         <v>1896.6</v>
@@ -3477,7 +3477,7 @@
         <v>96.7666666666667</v>
       </c>
       <c r="M66" t="n">
-        <v>11.4</v>
+        <v>11.8</v>
       </c>
       <c r="N66" t="n">
         <v>1878.1</v>
@@ -3531,7 +3531,7 @@
         <v>97.5333333333333</v>
       </c>
       <c r="M67" t="n">
-        <v>11</v>
+        <v>11.8</v>
       </c>
       <c r="N67" t="n">
         <v>1899.6</v>
@@ -3585,7 +3585,7 @@
         <v>97.3666666666667</v>
       </c>
       <c r="M68" t="n">
-        <v>12.5</v>
+        <v>13.4</v>
       </c>
       <c r="N68" t="n">
         <v>1885.7</v>
@@ -3639,7 +3639,7 @@
         <v>97.7666666666667</v>
       </c>
       <c r="M69" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="N69" t="n">
         <v>1886.4</v>
@@ -3681,7 +3681,7 @@
         <v>4589</v>
       </c>
       <c r="I70" t="n">
-        <v>22424</v>
+        <v>22716</v>
       </c>
       <c r="J70" t="n">
         <v>22.25</v>
@@ -3693,7 +3693,7 @@
         <v>98.3666666666667</v>
       </c>
       <c r="M70" t="n">
-        <v>14.9</v>
+        <v>16.4</v>
       </c>
       <c r="N70" t="n">
         <v>1862.6</v>
@@ -3735,7 +3735,7 @@
         <v>4593.7</v>
       </c>
       <c r="I71" t="n">
-        <v>22831</v>
+        <v>22917</v>
       </c>
       <c r="J71" t="n">
         <v>21.96</v>
@@ -3747,7 +3747,7 @@
         <v>99.3333333333333</v>
       </c>
       <c r="M71" t="n">
-        <v>13</v>
+        <v>13.9</v>
       </c>
       <c r="N71" t="n">
         <v>1876.8</v>
@@ -3789,7 +3789,7 @@
         <v>4599</v>
       </c>
       <c r="I72" t="n">
-        <v>22875</v>
+        <v>22744</v>
       </c>
       <c r="J72" t="n">
         <v>21.82</v>
@@ -3801,7 +3801,7 @@
         <v>99.6333333333333</v>
       </c>
       <c r="M72" t="n">
-        <v>14.1</v>
+        <v>14.6</v>
       </c>
       <c r="N72" t="n">
         <v>1888.5</v>
@@ -3843,7 +3843,7 @@
         <v>4604</v>
       </c>
       <c r="I73" t="n">
-        <v>22511</v>
+        <v>22154</v>
       </c>
       <c r="J73" t="n">
         <v>21.9</v>
@@ -3855,7 +3855,7 @@
         <v>99.5</v>
       </c>
       <c r="M73" t="n">
-        <v>15.4</v>
+        <v>14.5</v>
       </c>
       <c r="N73" t="n">
         <v>1892.9</v>
@@ -3897,7 +3897,7 @@
         <v>4609</v>
       </c>
       <c r="I74" t="n">
-        <v>22281</v>
+        <v>22397</v>
       </c>
       <c r="J74" t="n">
         <v>22.24</v>
@@ -3909,7 +3909,7 @@
         <v>99.4666666666667</v>
       </c>
       <c r="M74" t="n">
-        <v>12.2</v>
+        <v>13.5</v>
       </c>
       <c r="N74" t="n">
         <v>1893.2</v>
@@ -3951,7 +3951,7 @@
         <v>4614.7</v>
       </c>
       <c r="I75" t="n">
-        <v>23090</v>
+        <v>23188</v>
       </c>
       <c r="J75" t="n">
         <v>22.02</v>
@@ -3963,7 +3963,7 @@
         <v>99.8666666666667</v>
       </c>
       <c r="M75" t="n">
-        <v>12.6</v>
+        <v>13.5</v>
       </c>
       <c r="N75" t="n">
         <v>1924.2</v>
@@ -4005,7 +4005,7 @@
         <v>4622</v>
       </c>
       <c r="I76" t="n">
-        <v>22519</v>
+        <v>22607</v>
       </c>
       <c r="J76" t="n">
         <v>21.53</v>
@@ -4017,7 +4017,7 @@
         <v>99.9333333333333</v>
       </c>
       <c r="M76" t="n">
-        <v>11.6</v>
+        <v>12.7</v>
       </c>
       <c r="N76" t="n">
         <v>1962</v>
@@ -4059,7 +4059,7 @@
         <v>4630</v>
       </c>
       <c r="I77" t="n">
-        <v>22344</v>
+        <v>22391</v>
       </c>
       <c r="J77" t="n">
         <v>21.89</v>
@@ -4071,7 +4071,7 @@
         <v>99.6666666666667</v>
       </c>
       <c r="M77" t="n">
-        <v>12.8</v>
+        <v>13.2</v>
       </c>
       <c r="N77" t="n">
         <v>1969.6</v>
@@ -4113,7 +4113,7 @@
         <v>4638</v>
       </c>
       <c r="I78" t="n">
-        <v>22605</v>
+        <v>22551</v>
       </c>
       <c r="J78" t="n">
         <v>22.37</v>
@@ -4125,7 +4125,7 @@
         <v>99.6666666666667</v>
       </c>
       <c r="M78" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="N78" t="n">
         <v>1950.8</v>
@@ -4167,7 +4167,7 @@
         <v>4645.4</v>
       </c>
       <c r="I79" t="n">
-        <v>23287</v>
+        <v>23234</v>
       </c>
       <c r="J79" t="n">
         <v>21.81</v>
@@ -4179,7 +4179,7 @@
         <v>100.266666666667</v>
       </c>
       <c r="M79" t="n">
-        <v>10.6</v>
+        <v>10.9</v>
       </c>
       <c r="N79" t="n">
         <v>1968.9</v>
@@ -4221,7 +4221,7 @@
         <v>4656</v>
       </c>
       <c r="I80" t="n">
-        <v>23046</v>
+        <v>23022</v>
       </c>
       <c r="J80" t="n">
         <v>21.2</v>
@@ -4233,7 +4233,7 @@
         <v>100.433333333333</v>
       </c>
       <c r="M80" t="n">
-        <v>10.2</v>
+        <v>10.8</v>
       </c>
       <c r="N80" t="n">
         <v>2009.4</v>
@@ -4275,7 +4275,7 @@
         <v>4667</v>
       </c>
       <c r="I81" t="n">
-        <v>22929</v>
+        <v>22908</v>
       </c>
       <c r="J81" t="n">
         <v>22.05</v>
@@ -4287,7 +4287,7 @@
         <v>99.7666666666667</v>
       </c>
       <c r="M81" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="N81" t="n">
         <v>2025</v>
@@ -4329,7 +4329,7 @@
         <v>4677</v>
       </c>
       <c r="I82" t="n">
-        <v>23625</v>
+        <v>23620</v>
       </c>
       <c r="J82" t="n">
         <v>22.3</v>
@@ -4341,7 +4341,7 @@
         <v>99.3333333333333</v>
       </c>
       <c r="M82" t="n">
-        <v>12.3</v>
+        <v>13</v>
       </c>
       <c r="N82" t="n">
         <v>2012.4</v>
@@ -4383,7 +4383,7 @@
         <v>4687.8</v>
       </c>
       <c r="I83" t="n">
-        <v>24799</v>
+        <v>24806</v>
       </c>
       <c r="J83" t="n">
         <v>21.86</v>
@@ -4395,7 +4395,7 @@
         <v>100.366666666667</v>
       </c>
       <c r="M83" t="n">
-        <v>13.2</v>
+        <v>13.9</v>
       </c>
       <c r="N83" t="n">
         <v>2047.7</v>
@@ -4437,7 +4437,7 @@
         <v>4701</v>
       </c>
       <c r="I84" t="n">
-        <v>24775</v>
+        <v>24772</v>
       </c>
       <c r="J84" t="n">
         <v>21.5</v>
@@ -4449,7 +4449,7 @@
         <v>100.533333333333</v>
       </c>
       <c r="M84" t="n">
-        <v>11.8</v>
+        <v>12.5</v>
       </c>
       <c r="N84" t="n">
         <v>2078.6</v>
@@ -4491,7 +4491,7 @@
         <v>4714</v>
       </c>
       <c r="I85" t="n">
-        <v>23617</v>
+        <v>23620</v>
       </c>
       <c r="J85" t="n">
         <v>21.91</v>
@@ -4503,7 +4503,7 @@
         <v>99.7666666666667</v>
       </c>
       <c r="M85" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="N85" t="n">
         <v>2083.9</v>
@@ -4545,7 +4545,7 @@
         <v>4727</v>
       </c>
       <c r="I86" t="n">
-        <v>24732</v>
+        <v>24740</v>
       </c>
       <c r="J86" t="n">
         <v>22.55</v>
@@ -4611,7 +4611,7 @@
         <v>100.266666666667</v>
       </c>
       <c r="M87" t="n">
-        <v>11.6</v>
+        <v>12.2</v>
       </c>
       <c r="N87" t="n">
         <v>2124.4</v>
@@ -4653,7 +4653,7 @@
         <v>4757</v>
       </c>
       <c r="I88" t="n">
-        <v>26327</v>
+        <v>26321</v>
       </c>
       <c r="J88" t="n">
         <v>21.56</v>
@@ -4665,7 +4665,7 @@
         <v>100.333333333333</v>
       </c>
       <c r="M88" t="n">
-        <v>13.6</v>
+        <v>14.3</v>
       </c>
       <c r="N88" t="n">
         <v>2159.9</v>
@@ -4707,7 +4707,7 @@
         <v>4775</v>
       </c>
       <c r="I89" t="n">
-        <v>24889</v>
+        <v>24901</v>
       </c>
       <c r="J89" t="n">
         <v>22.18</v>
@@ -4719,7 +4719,7 @@
         <v>99.5</v>
       </c>
       <c r="M89" t="n">
-        <v>11.6</v>
+        <v>12.4</v>
       </c>
       <c r="N89" t="n">
         <v>2165.5</v>
@@ -4761,7 +4761,7 @@
         <v>4793</v>
       </c>
       <c r="I90" t="n">
-        <v>26343</v>
+        <v>26341</v>
       </c>
       <c r="J90" t="n">
         <v>22.69</v>
@@ -4773,7 +4773,7 @@
         <v>99.4333333333333</v>
       </c>
       <c r="M90" t="n">
-        <v>13.9</v>
+        <v>14.2</v>
       </c>
       <c r="N90" t="n">
         <v>2162.8</v>
@@ -4815,7 +4815,7 @@
         <v>4810.9</v>
       </c>
       <c r="I91" t="n">
-        <v>27259</v>
+        <v>27252</v>
       </c>
       <c r="J91" t="n">
         <v>22.27</v>
@@ -4827,7 +4827,7 @@
         <v>100.3</v>
       </c>
       <c r="M91" t="n">
-        <v>14.3</v>
+        <v>14.8</v>
       </c>
       <c r="N91" t="n">
         <v>2187.4</v>
@@ -4869,7 +4869,7 @@
         <v>4829</v>
       </c>
       <c r="I92" t="n">
-        <v>27802</v>
+        <v>27783</v>
       </c>
       <c r="J92" t="n">
         <v>22.16</v>
@@ -4881,7 +4881,7 @@
         <v>100.466666666667</v>
       </c>
       <c r="M92" t="n">
-        <v>14.6</v>
+        <v>14.9</v>
       </c>
       <c r="N92" t="n">
         <v>2212.3</v>
@@ -4923,7 +4923,7 @@
         <v>4848</v>
       </c>
       <c r="I93" t="n">
-        <v>26693</v>
+        <v>26670</v>
       </c>
       <c r="J93" t="n">
         <v>22.6</v>
@@ -4977,7 +4977,7 @@
         <v>4866</v>
       </c>
       <c r="I94" t="n">
-        <v>27081</v>
+        <v>27064</v>
       </c>
       <c r="J94" t="n">
         <v>23.4</v>
@@ -4989,7 +4989,7 @@
         <v>99.9333333333333</v>
       </c>
       <c r="M94" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="N94" t="n">
         <v>2225.3</v>
@@ -5031,7 +5031,7 @@
         <v>4884.9</v>
       </c>
       <c r="I95" t="n">
-        <v>28743</v>
+        <v>28729</v>
       </c>
       <c r="J95" t="n">
         <v>22.94</v>
@@ -5139,7 +5139,7 @@
         <v>4922</v>
       </c>
       <c r="I97" t="n">
-        <v>28072</v>
+        <v>28061</v>
       </c>
       <c r="J97" t="n">
         <v>23.31</v>
@@ -5151,7 +5151,7 @@
         <v>100.9</v>
       </c>
       <c r="M97" t="n">
-        <v>13.4</v>
+        <v>12.6</v>
       </c>
       <c r="N97" t="n">
         <v>2290.4</v>
@@ -5193,7 +5193,7 @@
         <v>4940</v>
       </c>
       <c r="I98" t="n">
-        <v>29242</v>
+        <v>29221</v>
       </c>
       <c r="J98" t="n">
         <v>24.05</v>
@@ -5205,7 +5205,7 @@
         <v>100.8</v>
       </c>
       <c r="M98" t="n">
-        <v>13.6</v>
+        <v>13.9</v>
       </c>
       <c r="N98" t="n">
         <v>2312.8</v>
@@ -5249,7 +5249,7 @@
         <v>4958.5</v>
       </c>
       <c r="I99" t="n">
-        <v>30771</v>
+        <v>30750</v>
       </c>
       <c r="J99" t="n">
         <v>23.69</v>
@@ -5305,7 +5305,7 @@
         <v>4976</v>
       </c>
       <c r="I100" t="n">
-        <v>30591</v>
+        <v>30569</v>
       </c>
       <c r="J100" t="n">
         <v>23.54</v>
@@ -5317,7 +5317,7 @@
         <v>102.066666666667</v>
       </c>
       <c r="M100" t="n">
-        <v>13.6</v>
+        <v>13.2</v>
       </c>
       <c r="N100" t="n">
         <v>2341.6</v>
@@ -5361,7 +5361,7 @@
         <v>4994</v>
       </c>
       <c r="I101" t="n">
-        <v>30259</v>
+        <v>30122</v>
       </c>
       <c r="J101" t="n">
         <v>24.23</v>
@@ -5373,7 +5373,7 @@
         <v>101.733333333333</v>
       </c>
       <c r="M101" t="n">
-        <v>15.7</v>
+        <v>14.1</v>
       </c>
       <c r="N101" t="n">
         <v>2377.8</v>
@@ -5417,7 +5417,7 @@
         <v>5012</v>
       </c>
       <c r="I102" t="n">
-        <v>32348</v>
+        <v>32462</v>
       </c>
       <c r="J102" t="n">
         <v>24.76</v>
@@ -5429,7 +5429,7 @@
         <v>101.633333333333</v>
       </c>
       <c r="M102" t="n">
-        <v>24.8</v>
+        <v>25.6</v>
       </c>
       <c r="N102" t="n">
         <v>2368.8</v>
@@ -5473,7 +5473,7 @@
         <v>5029.9</v>
       </c>
       <c r="I103" t="n">
-        <v>32068</v>
+        <v>32154</v>
       </c>
       <c r="J103" t="n">
         <v>25.38</v>
@@ -5485,7 +5485,7 @@
         <v>101.433333333333</v>
       </c>
       <c r="M103" t="n">
-        <v>34.1</v>
+        <v>33.8</v>
       </c>
       <c r="N103" t="n">
         <v>2161.3</v>
@@ -5529,7 +5529,7 @@
         <v>5041</v>
       </c>
       <c r="I104" t="n">
-        <v>31133</v>
+        <v>31247</v>
       </c>
       <c r="J104" t="n">
         <v>24.38</v>
@@ -5541,7 +5541,7 @@
         <v>101.1</v>
       </c>
       <c r="M104" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="N104" t="n">
         <v>2275</v>
@@ -5585,7 +5585,7 @@
         <v>5052</v>
       </c>
       <c r="I105" t="n">
-        <v>30843</v>
+        <v>30989</v>
       </c>
       <c r="J105" t="n">
         <v>25.57</v>
@@ -5597,7 +5597,7 @@
         <v>100.566666666667</v>
       </c>
       <c r="M105" t="n">
-        <v>25.6</v>
+        <v>24.8</v>
       </c>
       <c r="N105" t="n">
         <v>2305.1</v>
@@ -5645,7 +5645,7 @@
         <v>5064</v>
       </c>
       <c r="I106" t="n">
-        <v>31474</v>
+        <v>31598</v>
       </c>
       <c r="J106" t="n">
         <v>26.84</v>
@@ -5657,7 +5657,7 @@
         <v>101.5</v>
       </c>
       <c r="M106" t="n">
-        <v>31.1</v>
+        <v>27.2</v>
       </c>
       <c r="N106" t="n">
         <v>2259.9</v>
@@ -5705,7 +5705,7 @@
         <v>5074.7</v>
       </c>
       <c r="I107" t="n">
-        <v>33782</v>
+        <v>34232</v>
       </c>
       <c r="J107" t="n">
         <v>26.08</v>
@@ -5717,7 +5717,7 @@
         <v>102.966666666667</v>
       </c>
       <c r="M107" t="n">
-        <v>22.1</v>
+        <v>24.1</v>
       </c>
       <c r="N107" t="n">
         <v>2382.2</v>
@@ -5765,7 +5765,7 @@
         <v>5102.025</v>
       </c>
       <c r="I108" t="n">
-        <v>34557</v>
+        <v>35073</v>
       </c>
       <c r="J108" t="n">
         <v>25.31</v>
@@ -5777,7 +5777,7 @@
         <v>104.1</v>
       </c>
       <c r="M108" t="n">
-        <v>19.5</v>
+        <v>20.7</v>
       </c>
       <c r="N108" t="n">
         <v>2515</v>
@@ -5825,7 +5825,7 @@
         <v>5129.35</v>
       </c>
       <c r="I109" t="n">
-        <v>33183</v>
+        <v>33568</v>
       </c>
       <c r="J109" t="n">
         <v>26.29</v>
@@ -5837,7 +5837,7 @@
         <v>105.966666666667</v>
       </c>
       <c r="M109" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="N109" t="n">
         <v>2551.4</v>
@@ -5885,7 +5885,7 @@
         <v>5156.675</v>
       </c>
       <c r="I110" t="n">
-        <v>34168</v>
+        <v>34180</v>
       </c>
       <c r="J110" t="n">
         <v>27.46</v>
@@ -5897,7 +5897,7 @@
         <v>107.5</v>
       </c>
       <c r="M110" t="n">
-        <v>16.6</v>
+        <v>16.4</v>
       </c>
       <c r="N110" t="n">
         <v>2559.4</v>
@@ -5945,7 +5945,7 @@
         <v>5184</v>
       </c>
       <c r="I111" t="n">
-        <v>36966</v>
+        <v>36757</v>
       </c>
       <c r="J111" t="n">
         <v>26.76</v>
@@ -5957,7 +5957,7 @@
         <v>111.6</v>
       </c>
       <c r="M111" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="N111" t="n">
         <v>2601.2</v>
@@ -6005,7 +6005,7 @@
         <v>5208.4</v>
       </c>
       <c r="I112" t="n">
-        <v>37636</v>
+        <v>37231</v>
       </c>
       <c r="J112" t="n">
         <v>26.23</v>
@@ -6017,7 +6017,7 @@
         <v>113.533333333333</v>
       </c>
       <c r="M112" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="N112" t="n">
         <v>2602.6</v>
@@ -6067,7 +6067,7 @@
         <v>5232.8</v>
       </c>
       <c r="I113" t="n">
-        <v>36204</v>
+        <v>35463</v>
       </c>
       <c r="J113" t="n">
         <v>27.9</v>
@@ -6079,7 +6079,7 @@
         <v>115.333333333333</v>
       </c>
       <c r="M113" t="n">
-        <v>13.7</v>
+        <v>12.9</v>
       </c>
       <c r="N113" t="n">
         <v>2616.7</v>
@@ -6129,7 +6129,7 @@
         <v>5257.2</v>
       </c>
       <c r="I114" t="n">
-        <v>38960</v>
+        <v>38605</v>
       </c>
       <c r="J114" t="n">
         <v>28.55</v>
@@ -6141,7 +6141,7 @@
         <v>115.6</v>
       </c>
       <c r="M114" t="n">
-        <v>15.7</v>
+        <v>13.2</v>
       </c>
       <c r="N114" t="n">
         <v>2652.7</v>
@@ -6191,7 +6191,7 @@
         <v>5281.6</v>
       </c>
       <c r="I115" t="n">
-        <v>40840</v>
+        <v>40437</v>
       </c>
       <c r="J115" t="n">
         <v>28.19</v>
@@ -6203,7 +6203,7 @@
         <v>117.7</v>
       </c>
       <c r="M115" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="N115" t="n">
         <v>2682.7</v>
@@ -6253,7 +6253,7 @@
         <v>5306.275</v>
       </c>
       <c r="I116" t="n">
-        <v>41263</v>
+        <v>40829</v>
       </c>
       <c r="J116" t="n">
         <v>27.84</v>
@@ -6265,7 +6265,7 @@
         <v>119.033333333333</v>
       </c>
       <c r="M116" t="n">
-        <v>13.2</v>
+        <v>12.1</v>
       </c>
       <c r="N116" t="n">
         <v>2696.2</v>
@@ -6315,7 +6315,7 @@
         <v>5330.95</v>
       </c>
       <c r="I117" t="n">
-        <v>39848</v>
+        <v>39513</v>
       </c>
       <c r="J117" t="n">
         <v>28.44</v>
@@ -6327,7 +6327,7 @@
         <v>118.933333333333</v>
       </c>
       <c r="M117" t="n">
-        <v>12.3</v>
+        <v>10.6</v>
       </c>
       <c r="N117" t="n">
         <v>2706.4</v>
@@ -6377,7 +6377,7 @@
         <v>5355.625</v>
       </c>
       <c r="I118" t="n">
-        <v>42588</v>
+        <v>43056</v>
       </c>
       <c r="J118" t="n">
         <v>29.96</v>
@@ -6389,7 +6389,7 @@
         <v>118.2</v>
       </c>
       <c r="M118" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="N118" t="n">
         <v>2704.2</v>
@@ -6439,7 +6439,7 @@
         <v>5380</v>
       </c>
       <c r="I119" t="n">
-        <v>42985</v>
+        <v>43623</v>
       </c>
       <c r="J119" t="n">
         <v>29.75</v>
@@ -6451,7 +6451,7 @@
         <v>119.7</v>
       </c>
       <c r="M119" t="n">
-        <v>12.8</v>
+        <v>12.2</v>
       </c>
       <c r="N119" t="n">
         <v>2754.2</v>
@@ -6501,7 +6501,7 @@
         <v>5396.35</v>
       </c>
       <c r="I120" t="n">
-        <v>44181</v>
+        <v>44400</v>
       </c>
       <c r="J120" t="n">
         <v>29.23</v>
@@ -6513,7 +6513,7 @@
         <v>120.066666666667</v>
       </c>
       <c r="M120" t="n">
-        <v>14.9</v>
+        <v>13.9</v>
       </c>
       <c r="N120" t="n">
         <v>2794.8</v>
@@ -6563,7 +6563,7 @@
         <v>5412.4</v>
       </c>
       <c r="I121" t="n">
-        <v>43229</v>
+        <v>43180</v>
       </c>
       <c r="J121" t="n">
         <v>30.18</v>
@@ -6575,7 +6575,7 @@
         <v>119.566666666667</v>
       </c>
       <c r="M121" t="n">
-        <v>14.8</v>
+        <v>13.3</v>
       </c>
       <c r="N121" t="n">
         <v>2776.4</v>
@@ -6624,7 +6624,9 @@
       <c r="H122" t="n">
         <v>5428.45</v>
       </c>
-      <c r="I122"/>
+      <c r="I122" t="n">
+        <v>44718</v>
+      </c>
       <c r="J122" t="n">
         <v>31.72</v>
       </c>
@@ -6635,7 +6637,7 @@
         <v>120.133333333333</v>
       </c>
       <c r="M122" t="n">
-        <v>14</v>
+        <v>13.4</v>
       </c>
       <c r="N122" t="n">
         <v>2794.1</v>

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -1186,7 +1186,7 @@
       </c>
       <c r="O20"/>
       <c r="P20" t="n">
-        <v>5.46666666666667</v>
+        <v>5.43333333333333</v>
       </c>
       <c r="Q20" t="n">
         <v>40112</v>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="O35"/>
       <c r="P35" t="n">
-        <v>4.8</v>
+        <v>4.76666666666667</v>
       </c>
       <c r="Q35" t="n">
         <v>48550</v>
@@ -2308,7 +2308,7 @@
       </c>
       <c r="O43"/>
       <c r="P43" t="n">
-        <v>4.86666666666667</v>
+        <v>4.9</v>
       </c>
       <c r="Q43" t="n">
         <v>55841</v>
@@ -2608,7 +2608,7 @@
       </c>
       <c r="O49"/>
       <c r="P49" t="n">
-        <v>4.63333333333333</v>
+        <v>4.66666666666667</v>
       </c>
       <c r="Q49" t="n">
         <v>59403</v>
@@ -3380,7 +3380,7 @@
       </c>
       <c r="O64"/>
       <c r="P64" t="n">
-        <v>14.6333333333333</v>
+        <v>14.6</v>
       </c>
       <c r="Q64" t="n">
         <v>57364</v>
@@ -3808,7 +3808,7 @@
       </c>
       <c r="O72"/>
       <c r="P72" t="n">
-        <v>15.5</v>
+        <v>15.4666666666667</v>
       </c>
       <c r="Q72" t="n">
         <v>57532</v>
@@ -3916,7 +3916,7 @@
       </c>
       <c r="O74"/>
       <c r="P74" t="n">
-        <v>14.5333333333333</v>
+        <v>14.5666666666667</v>
       </c>
       <c r="Q74" t="n">
         <v>55596</v>
@@ -4618,7 +4618,7 @@
       </c>
       <c r="O87"/>
       <c r="P87" t="n">
-        <v>8.8</v>
+        <v>8.83333333333333</v>
       </c>
       <c r="Q87" t="n">
         <v>77016</v>
@@ -4888,7 +4888,7 @@
       </c>
       <c r="O92"/>
       <c r="P92" t="n">
-        <v>6.7</v>
+        <v>6.66666666666667</v>
       </c>
       <c r="Q92" t="n">
         <v>92242</v>
@@ -5158,7 +5158,7 @@
       </c>
       <c r="O97"/>
       <c r="P97" t="n">
-        <v>5.7</v>
+        <v>5.73333333333333</v>
       </c>
       <c r="Q97" t="n">
         <v>99116</v>
@@ -5666,7 +5666,7 @@
         <v>1955900</v>
       </c>
       <c r="P106" t="n">
-        <v>7.26666666666667</v>
+        <v>7.33333333333333</v>
       </c>
       <c r="Q106" t="n">
         <v>118884</v>
@@ -5786,7 +5786,7 @@
         <v>2211866.66666667</v>
       </c>
       <c r="P108" t="n">
-        <v>5.5</v>
+        <v>5.46666666666667</v>
       </c>
       <c r="Q108" t="n">
         <v>132215</v>
@@ -5906,7 +5906,7 @@
         <v>2284166.66666667</v>
       </c>
       <c r="P110" t="n">
-        <v>4.83333333333333</v>
+        <v>4.86666666666667</v>
       </c>
       <c r="Q110" t="n">
         <v>127670</v>
@@ -6026,7 +6026,7 @@
         <v>2384666.66666667</v>
       </c>
       <c r="P112" t="n">
-        <v>4.26666666666667</v>
+        <v>4.23333333333333</v>
       </c>
       <c r="Q112" t="n">
         <v>141833</v>
@@ -6088,7 +6088,7 @@
         <v>2399666.66666667</v>
       </c>
       <c r="P113" t="n">
-        <v>4.46666666666667</v>
+        <v>4.43333333333333</v>
       </c>
       <c r="Q113" t="n">
         <v>137088</v>
@@ -6150,7 +6150,7 @@
         <v>2393300</v>
       </c>
       <c r="P114" t="n">
-        <v>4.16666666666667</v>
+        <v>4.2</v>
       </c>
       <c r="Q114" t="n">
         <v>130787</v>
@@ -6274,7 +6274,7 @@
         <v>2447500</v>
       </c>
       <c r="P116" t="n">
-        <v>4.46666666666667</v>
+        <v>4.4</v>
       </c>
       <c r="Q116" t="n">
         <v>135161</v>
@@ -6336,7 +6336,7 @@
         <v>2456000</v>
       </c>
       <c r="P117" t="n">
-        <v>4.43333333333333</v>
+        <v>4.46666666666667</v>
       </c>
       <c r="Q117" t="n">
         <v>128084</v>
@@ -6398,7 +6398,7 @@
         <v>2452633.33333333</v>
       </c>
       <c r="P118" t="n">
-        <v>4.23333333333333</v>
+        <v>4.3</v>
       </c>
       <c r="Q118" t="n">
         <v>127278</v>
@@ -6522,7 +6522,7 @@
         <v>2507066.66666667</v>
       </c>
       <c r="P120" t="n">
-        <v>4.3</v>
+        <v>4.23333333333333</v>
       </c>
       <c r="Q120" t="n">
         <v>140564</v>
@@ -6584,7 +6584,7 @@
         <v>2519700</v>
       </c>
       <c r="P121" t="n">
-        <v>4.26666666666667</v>
+        <v>4.3</v>
       </c>
       <c r="Q121" t="n">
         <v>142896</v>
@@ -6646,7 +6646,7 @@
         <v>2510133.33333333</v>
       </c>
       <c r="P122" t="n">
-        <v>4.43333333333333</v>
+        <v>4.5</v>
       </c>
       <c r="Q122" t="n">
         <v>152783</v>
@@ -6672,8 +6672,12 @@
       <c r="D123" t="n">
         <v>110.933333333333</v>
       </c>
-      <c r="E123"/>
-      <c r="F123"/>
+      <c r="E123" t="n">
+        <v>22917176477.21</v>
+      </c>
+      <c r="F123" t="n">
+        <v>156.8</v>
+      </c>
       <c r="G123"/>
       <c r="H123" t="n">
         <v>5444.5</v>
@@ -6688,7 +6692,7 @@
       <c r="N123"/>
       <c r="O123"/>
       <c r="P123" t="n">
-        <v>4.03333333333333</v>
+        <v>4.6</v>
       </c>
       <c r="Q123"/>
       <c r="R123"/>

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -6596,7 +6596,7 @@
         <v>754.761</v>
       </c>
       <c r="T121" t="n">
-        <v>57911676</v>
+        <v>57488299</v>
       </c>
     </row>
     <row r="122">
@@ -6684,20 +6684,28 @@
       </c>
       <c r="I123"/>
       <c r="J123"/>
-      <c r="K123"/>
+      <c r="K123" t="n">
+        <v>501164</v>
+      </c>
       <c r="L123" t="n">
         <v>121.7</v>
       </c>
       <c r="M123"/>
       <c r="N123"/>
-      <c r="O123"/>
+      <c r="O123" t="n">
+        <v>2550233.33333333</v>
+      </c>
       <c r="P123" t="n">
         <v>4.6</v>
       </c>
       <c r="Q123"/>
       <c r="R123"/>
-      <c r="S123"/>
-      <c r="T123"/>
+      <c r="S123" t="n">
+        <v>871.648</v>
+      </c>
+      <c r="T123" t="n">
+        <v>63139487</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -922,7 +922,7 @@
       </c>
       <c r="O14"/>
       <c r="P14" t="n">
-        <v>8.86666666666667</v>
+        <v>8.8</v>
       </c>
       <c r="Q14" t="n">
         <v>34079</v>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="O16"/>
       <c r="P16" t="n">
-        <v>7.26666666666667</v>
+        <v>7.3</v>
       </c>
       <c r="Q16" t="n">
         <v>36657</v>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="O17"/>
       <c r="P17" t="n">
-        <v>6.66666666666667</v>
+        <v>6.7</v>
       </c>
       <c r="Q17" t="n">
         <v>35499</v>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="O20"/>
       <c r="P20" t="n">
-        <v>5.43333333333333</v>
+        <v>5.4</v>
       </c>
       <c r="Q20" t="n">
         <v>40112</v>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="O24"/>
       <c r="P24" t="n">
-        <v>4.23333333333333</v>
+        <v>4.2</v>
       </c>
       <c r="Q24" t="n">
         <v>43730</v>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="O26"/>
       <c r="P26" t="n">
-        <v>3.96666666666667</v>
+        <v>4</v>
       </c>
       <c r="Q26" t="n">
         <v>43987</v>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="O28"/>
       <c r="P28" t="n">
-        <v>4.36666666666667</v>
+        <v>4.4</v>
       </c>
       <c r="Q28" t="n">
         <v>44998</v>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="O30"/>
       <c r="P30" t="n">
-        <v>4.53333333333333</v>
+        <v>4.5</v>
       </c>
       <c r="Q30" t="n">
         <v>46358</v>
@@ -1712,7 +1712,7 @@
       </c>
       <c r="O31"/>
       <c r="P31" t="n">
-        <v>4.63333333333333</v>
+        <v>4.6</v>
       </c>
       <c r="Q31" t="n">
         <v>47246</v>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="O33"/>
       <c r="P33" t="n">
-        <v>5.26666666666667</v>
+        <v>5.3</v>
       </c>
       <c r="Q33" t="n">
         <v>49467</v>
@@ -1858,7 +1858,7 @@
       </c>
       <c r="O34"/>
       <c r="P34" t="n">
-        <v>4.83333333333333</v>
+        <v>4.8</v>
       </c>
       <c r="Q34" t="n">
         <v>47354</v>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="O35"/>
       <c r="P35" t="n">
-        <v>4.76666666666667</v>
+        <v>4.8</v>
       </c>
       <c r="Q35" t="n">
         <v>48550</v>
@@ -2008,7 +2008,7 @@
       </c>
       <c r="O37"/>
       <c r="P37" t="n">
-        <v>4.76666666666667</v>
+        <v>4.8</v>
       </c>
       <c r="Q37" t="n">
         <v>52479</v>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="O38"/>
       <c r="P38" t="n">
-        <v>5.13333333333333</v>
+        <v>5.1</v>
       </c>
       <c r="Q38" t="n">
         <v>50992</v>
@@ -2108,7 +2108,7 @@
       </c>
       <c r="O39"/>
       <c r="P39" t="n">
-        <v>4.66666666666667</v>
+        <v>4.7</v>
       </c>
       <c r="Q39" t="n">
         <v>52766</v>
@@ -2258,7 +2258,7 @@
       </c>
       <c r="O42"/>
       <c r="P42" t="n">
-        <v>4.43333333333333</v>
+        <v>4.4</v>
       </c>
       <c r="Q42" t="n">
         <v>54001</v>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="O45"/>
       <c r="P45" t="n">
-        <v>4.53333333333333</v>
+        <v>4.5</v>
       </c>
       <c r="Q45" t="n">
         <v>57619</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="O47"/>
       <c r="P47" t="n">
-        <v>4.73333333333333</v>
+        <v>4.8</v>
       </c>
       <c r="Q47" t="n">
         <v>57867</v>
@@ -2608,7 +2608,7 @@
       </c>
       <c r="O49"/>
       <c r="P49" t="n">
-        <v>4.66666666666667</v>
+        <v>4.6</v>
       </c>
       <c r="Q49" t="n">
         <v>59403</v>
@@ -2808,7 +2808,7 @@
       </c>
       <c r="O53"/>
       <c r="P53" t="n">
-        <v>5.23333333333333</v>
+        <v>5.2</v>
       </c>
       <c r="Q53" t="n">
         <v>62392</v>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="O54"/>
       <c r="P54" t="n">
-        <v>5.36666666666667</v>
+        <v>5.4</v>
       </c>
       <c r="Q54" t="n">
         <v>60366</v>
@@ -2912,7 +2912,7 @@
       </c>
       <c r="O55"/>
       <c r="P55" t="n">
-        <v>5.93333333333333</v>
+        <v>5.9</v>
       </c>
       <c r="Q55" t="n">
         <v>59104</v>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="O56"/>
       <c r="P56" t="n">
-        <v>7.36666666666667</v>
+        <v>7.4</v>
       </c>
       <c r="Q56" t="n">
         <v>59074</v>
@@ -3016,7 +3016,7 @@
       </c>
       <c r="O57"/>
       <c r="P57" t="n">
-        <v>8.53333333333333</v>
+        <v>8.6</v>
       </c>
       <c r="Q57" t="n">
         <v>55973</v>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="O58"/>
       <c r="P58" t="n">
-        <v>10.8666666666667</v>
+        <v>10.8</v>
       </c>
       <c r="Q58" t="n">
         <v>56058</v>
@@ -3224,7 +3224,7 @@
       </c>
       <c r="O61"/>
       <c r="P61" t="n">
-        <v>13.8333333333333</v>
+        <v>13.8</v>
       </c>
       <c r="Q61" t="n">
         <v>54354</v>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="O63"/>
       <c r="P63" t="n">
-        <v>14.3666666666667</v>
+        <v>14.4</v>
       </c>
       <c r="Q63" t="n">
         <v>56722</v>
@@ -3432,7 +3432,7 @@
       </c>
       <c r="O65"/>
       <c r="P65" t="n">
-        <v>15.6333333333333</v>
+        <v>15.6</v>
       </c>
       <c r="Q65" t="n">
         <v>56330</v>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="O66"/>
       <c r="P66" t="n">
-        <v>15.1666666666667</v>
+        <v>15.2</v>
       </c>
       <c r="Q66" t="n">
         <v>57110</v>
@@ -3538,7 +3538,7 @@
       </c>
       <c r="O67"/>
       <c r="P67" t="n">
-        <v>15.0333333333333</v>
+        <v>15.1</v>
       </c>
       <c r="Q67" t="n">
         <v>58200</v>
@@ -3646,7 +3646,7 @@
       </c>
       <c r="O69"/>
       <c r="P69" t="n">
-        <v>15.8333333333333</v>
+        <v>15.9</v>
       </c>
       <c r="Q69" t="n">
         <v>56789</v>
@@ -3700,7 +3700,7 @@
       </c>
       <c r="O70"/>
       <c r="P70" t="n">
-        <v>15.9333333333333</v>
+        <v>15.9</v>
       </c>
       <c r="Q70" t="n">
         <v>55943</v>
@@ -3754,7 +3754,7 @@
       </c>
       <c r="O71"/>
       <c r="P71" t="n">
-        <v>15.5333333333333</v>
+        <v>15.5</v>
       </c>
       <c r="Q71" t="n">
         <v>58330</v>
@@ -3808,7 +3808,7 @@
       </c>
       <c r="O72"/>
       <c r="P72" t="n">
-        <v>15.4666666666667</v>
+        <v>15.5</v>
       </c>
       <c r="Q72" t="n">
         <v>57532</v>
@@ -3916,7 +3916,7 @@
       </c>
       <c r="O74"/>
       <c r="P74" t="n">
-        <v>14.5666666666667</v>
+        <v>14.5</v>
       </c>
       <c r="Q74" t="n">
         <v>55596</v>
@@ -3970,7 +3970,7 @@
       </c>
       <c r="O75"/>
       <c r="P75" t="n">
-        <v>14.3666666666667</v>
+        <v>14.4</v>
       </c>
       <c r="Q75" t="n">
         <v>57904</v>
@@ -4024,7 +4024,7 @@
       </c>
       <c r="O76"/>
       <c r="P76" t="n">
-        <v>13.3333333333333</v>
+        <v>13.3</v>
       </c>
       <c r="Q76" t="n">
         <v>60869</v>
@@ -4078,7 +4078,7 @@
       </c>
       <c r="O77"/>
       <c r="P77" t="n">
-        <v>12.8333333333333</v>
+        <v>12.9</v>
       </c>
       <c r="Q77" t="n">
         <v>59675</v>
@@ -4132,7 +4132,7 @@
       </c>
       <c r="O78"/>
       <c r="P78" t="n">
-        <v>12.8333333333333</v>
+        <v>12.8</v>
       </c>
       <c r="Q78" t="n">
         <v>61272</v>
@@ -4240,7 +4240,7 @@
       </c>
       <c r="O80"/>
       <c r="P80" t="n">
-        <v>11.6666666666667</v>
+        <v>11.7</v>
       </c>
       <c r="Q80" t="n">
         <v>65767</v>
@@ -4294,7 +4294,7 @@
       </c>
       <c r="O81"/>
       <c r="P81" t="n">
-        <v>10.8666666666667</v>
+        <v>10.9</v>
       </c>
       <c r="Q81" t="n">
         <v>65772</v>
@@ -4348,7 +4348,7 @@
       </c>
       <c r="O82"/>
       <c r="P82" t="n">
-        <v>10.6333333333333</v>
+        <v>10.6</v>
       </c>
       <c r="Q82" t="n">
         <v>78707</v>
@@ -4456,7 +4456,7 @@
       </c>
       <c r="O84"/>
       <c r="P84" t="n">
-        <v>9.53333333333333</v>
+        <v>9.6</v>
       </c>
       <c r="Q84" t="n">
         <v>81457</v>
@@ -4510,7 +4510,7 @@
       </c>
       <c r="O85"/>
       <c r="P85" t="n">
-        <v>9.43333333333333</v>
+        <v>9.4</v>
       </c>
       <c r="Q85" t="n">
         <v>82249</v>
@@ -4564,7 +4564,7 @@
       </c>
       <c r="O86"/>
       <c r="P86" t="n">
-        <v>8.93333333333333</v>
+        <v>9</v>
       </c>
       <c r="Q86" t="n">
         <v>77001</v>
@@ -4618,7 +4618,7 @@
       </c>
       <c r="O87"/>
       <c r="P87" t="n">
-        <v>8.83333333333333</v>
+        <v>8.8</v>
       </c>
       <c r="Q87" t="n">
         <v>77016</v>
@@ -4672,7 +4672,7 @@
       </c>
       <c r="O88"/>
       <c r="P88" t="n">
-        <v>8.23333333333333</v>
+        <v>8.2</v>
       </c>
       <c r="Q88" t="n">
         <v>79920</v>
@@ -4726,7 +4726,7 @@
       </c>
       <c r="O89"/>
       <c r="P89" t="n">
-        <v>7.56666666666667</v>
+        <v>7.5</v>
       </c>
       <c r="Q89" t="n">
         <v>89015</v>
@@ -4780,7 +4780,7 @@
       </c>
       <c r="O90"/>
       <c r="P90" t="n">
-        <v>7.26666666666667</v>
+        <v>7.3</v>
       </c>
       <c r="Q90" t="n">
         <v>83278</v>
@@ -4834,7 +4834,7 @@
       </c>
       <c r="O91"/>
       <c r="P91" t="n">
-        <v>6.66666666666667</v>
+        <v>6.7</v>
       </c>
       <c r="Q91" t="n">
         <v>83804</v>
@@ -4888,7 +4888,7 @@
       </c>
       <c r="O92"/>
       <c r="P92" t="n">
-        <v>6.66666666666667</v>
+        <v>6.7</v>
       </c>
       <c r="Q92" t="n">
         <v>92242</v>
@@ -4942,7 +4942,7 @@
       </c>
       <c r="O93"/>
       <c r="P93" t="n">
-        <v>6.43333333333333</v>
+        <v>6.4</v>
       </c>
       <c r="Q93" t="n">
         <v>96276</v>
@@ -4996,7 +4996,7 @@
       </c>
       <c r="O94"/>
       <c r="P94" t="n">
-        <v>5.93333333333333</v>
+        <v>6</v>
       </c>
       <c r="Q94" t="n">
         <v>92196</v>
@@ -5050,7 +5050,7 @@
       </c>
       <c r="O95"/>
       <c r="P95" t="n">
-        <v>5.86666666666667</v>
+        <v>5.9</v>
       </c>
       <c r="Q95" t="n">
         <v>93528</v>
@@ -5158,7 +5158,7 @@
       </c>
       <c r="O97"/>
       <c r="P97" t="n">
-        <v>5.73333333333333</v>
+        <v>5.7</v>
       </c>
       <c r="Q97" t="n">
         <v>99116</v>
@@ -5270,7 +5270,7 @@
         <v>2152133.33333333</v>
       </c>
       <c r="P99" t="n">
-        <v>5.16666666666667</v>
+        <v>5.2</v>
       </c>
       <c r="Q99" t="n">
         <v>97405</v>
@@ -5382,7 +5382,7 @@
         <v>2180333.33333333</v>
       </c>
       <c r="P101" t="n">
-        <v>4.76666666666667</v>
+        <v>4.8</v>
       </c>
       <c r="Q101" t="n">
         <v>104858</v>
@@ -5438,7 +5438,7 @@
         <v>2180366.66666667</v>
       </c>
       <c r="P102" t="n">
-        <v>4.86666666666667</v>
+        <v>4.9</v>
       </c>
       <c r="Q102" t="n">
         <v>103998</v>
@@ -5494,7 +5494,7 @@
         <v>1905733.33333333</v>
       </c>
       <c r="P103" t="n">
-        <v>5.13333333333333</v>
+        <v>5.1</v>
       </c>
       <c r="Q103" t="n">
         <v>99800</v>
@@ -5606,7 +5606,7 @@
         <v>2065133.33333333</v>
       </c>
       <c r="P105" t="n">
-        <v>6.26666666666667</v>
+        <v>6.3</v>
       </c>
       <c r="Q105" t="n">
         <v>110731</v>
@@ -5666,7 +5666,7 @@
         <v>1955900</v>
       </c>
       <c r="P106" t="n">
-        <v>7.33333333333333</v>
+        <v>7.3</v>
       </c>
       <c r="Q106" t="n">
         <v>118884</v>
@@ -5726,7 +5726,7 @@
         <v>2069433.33333333</v>
       </c>
       <c r="P107" t="n">
-        <v>6.96666666666667</v>
+        <v>7</v>
       </c>
       <c r="Q107" t="n">
         <v>122488</v>
@@ -5786,7 +5786,7 @@
         <v>2211866.66666667</v>
       </c>
       <c r="P108" t="n">
-        <v>5.46666666666667</v>
+        <v>5.5</v>
       </c>
       <c r="Q108" t="n">
         <v>132215</v>
@@ -5846,7 +5846,7 @@
         <v>2260666.66666667</v>
       </c>
       <c r="P109" t="n">
-        <v>5.23333333333333</v>
+        <v>5.2</v>
       </c>
       <c r="Q109" t="n">
         <v>127184</v>
@@ -5906,7 +5906,7 @@
         <v>2284166.66666667</v>
       </c>
       <c r="P110" t="n">
-        <v>4.86666666666667</v>
+        <v>4.9</v>
       </c>
       <c r="Q110" t="n">
         <v>127670</v>
@@ -6026,7 +6026,7 @@
         <v>2384666.66666667</v>
       </c>
       <c r="P112" t="n">
-        <v>4.23333333333333</v>
+        <v>4.2</v>
       </c>
       <c r="Q112" t="n">
         <v>141833</v>
@@ -6088,7 +6088,7 @@
         <v>2399666.66666667</v>
       </c>
       <c r="P113" t="n">
-        <v>4.43333333333333</v>
+        <v>4.4</v>
       </c>
       <c r="Q113" t="n">
         <v>137088</v>
@@ -6212,7 +6212,7 @@
         <v>2430066.66666667</v>
       </c>
       <c r="P115" t="n">
-        <v>4.16666666666667</v>
+        <v>4.2</v>
       </c>
       <c r="Q115" t="n">
         <v>130697</v>
@@ -6336,7 +6336,7 @@
         <v>2456000</v>
       </c>
       <c r="P117" t="n">
-        <v>4.46666666666667</v>
+        <v>4.5</v>
       </c>
       <c r="Q117" t="n">
         <v>128084</v>
@@ -6522,7 +6522,7 @@
         <v>2507066.66666667</v>
       </c>
       <c r="P120" t="n">
-        <v>4.23333333333333</v>
+        <v>4.2</v>
       </c>
       <c r="Q120" t="n">
         <v>140564</v>
@@ -6691,7 +6691,9 @@
         <v>121.7</v>
       </c>
       <c r="M123"/>
-      <c r="N123"/>
+      <c r="N123" t="n">
+        <v>2818.1</v>
+      </c>
       <c r="O123" t="n">
         <v>2550233.33333333</v>
       </c>

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -72,6 +72,15 @@
   </si>
   <si>
     <t xml:space="preserve">External Trade Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GG Expenditure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GG Revenue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GG Balance</t>
   </si>
 </sst>
 </file>
@@ -470,6 +479,15 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -504,6 +522,9 @@
       <c r="T2" t="n">
         <v>8208164</v>
       </c>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -538,6 +559,9 @@
       <c r="T3" t="n">
         <v>8688563</v>
       </c>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -572,6 +596,9 @@
       <c r="T4" t="n">
         <v>8590667</v>
       </c>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -606,6 +633,9 @@
       <c r="T5" t="n">
         <v>9842629</v>
       </c>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -642,6 +672,9 @@
       <c r="T6" t="n">
         <v>9893672</v>
       </c>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -678,6 +711,9 @@
       <c r="T7" t="n">
         <v>9721115</v>
       </c>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -714,6 +750,9 @@
       <c r="T8" t="n">
         <v>9030759</v>
       </c>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -750,6 +789,9 @@
       <c r="T9" t="n">
         <v>9963508</v>
       </c>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -786,6 +828,9 @@
       <c r="T10" t="n">
         <v>10049469</v>
       </c>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -822,6 +867,9 @@
       <c r="T11" t="n">
         <v>11148681</v>
       </c>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -858,6 +906,9 @@
       <c r="T12" t="n">
         <v>11179664</v>
       </c>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -894,6 +945,9 @@
       <c r="T13" t="n">
         <v>12490287</v>
       </c>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -936,6 +990,9 @@
       <c r="T14" t="n">
         <v>13252764</v>
       </c>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -978,6 +1035,9 @@
       <c r="T15" t="n">
         <v>14292933</v>
       </c>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1020,6 +1080,9 @@
       <c r="T16" t="n">
         <v>14513614</v>
       </c>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1062,6 +1125,9 @@
       <c r="T17" t="n">
         <v>15262506</v>
       </c>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1108,6 +1174,9 @@
       <c r="T18" t="n">
         <v>14977450</v>
       </c>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1154,6 +1223,9 @@
       <c r="T19" t="n">
         <v>16225474</v>
       </c>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1200,6 +1272,9 @@
       <c r="T20" t="n">
         <v>17130163</v>
       </c>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1246,6 +1321,9 @@
       <c r="T21" t="n">
         <v>18623121</v>
       </c>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1294,6 +1372,15 @@
       <c r="T22" t="n">
         <v>18520100</v>
       </c>
+      <c r="U22" t="n">
+        <v>7374</v>
+      </c>
+      <c r="V22" t="n">
+        <v>8558</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1184</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1342,6 +1429,15 @@
       <c r="T23" t="n">
         <v>20391000</v>
       </c>
+      <c r="U23" t="n">
+        <v>7572</v>
+      </c>
+      <c r="V23" t="n">
+        <v>10525</v>
+      </c>
+      <c r="W23" t="n">
+        <v>2953</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1390,6 +1486,15 @@
       <c r="T24" t="n">
         <v>20915900</v>
       </c>
+      <c r="U24" t="n">
+        <v>8378</v>
+      </c>
+      <c r="V24" t="n">
+        <v>9145</v>
+      </c>
+      <c r="W24" t="n">
+        <v>767</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1438,6 +1543,15 @@
       <c r="T25" t="n">
         <v>24159100</v>
       </c>
+      <c r="U25" t="n">
+        <v>9841</v>
+      </c>
+      <c r="V25" t="n">
+        <v>10204</v>
+      </c>
+      <c r="W25" t="n">
+        <v>363</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1486,6 +1600,15 @@
       <c r="T26" t="n">
         <v>23446700</v>
       </c>
+      <c r="U26" t="n">
+        <v>8273</v>
+      </c>
+      <c r="V26" t="n">
+        <v>9060</v>
+      </c>
+      <c r="W26" t="n">
+        <v>787</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1534,6 +1657,15 @@
       <c r="T27" t="n">
         <v>23056900</v>
       </c>
+      <c r="U27" t="n">
+        <v>9269</v>
+      </c>
+      <c r="V27" t="n">
+        <v>11209</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1940</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1582,6 +1714,15 @@
       <c r="T28" t="n">
         <v>23011700</v>
       </c>
+      <c r="U28" t="n">
+        <v>9688</v>
+      </c>
+      <c r="V28" t="n">
+        <v>9246</v>
+      </c>
+      <c r="W28" t="n">
+        <v>-441</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1630,6 +1771,15 @@
       <c r="T29" t="n">
         <v>23215100</v>
       </c>
+      <c r="U29" t="n">
+        <v>12050</v>
+      </c>
+      <c r="V29" t="n">
+        <v>10936</v>
+      </c>
+      <c r="W29" t="n">
+        <v>-1115</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1678,6 +1828,15 @@
       <c r="T30" t="n">
         <v>25139300</v>
       </c>
+      <c r="U30" t="n">
+        <v>10095</v>
+      </c>
+      <c r="V30" t="n">
+        <v>9544</v>
+      </c>
+      <c r="W30" t="n">
+        <v>-551</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1726,6 +1885,15 @@
       <c r="T31" t="n">
         <v>24623300</v>
       </c>
+      <c r="U31" t="n">
+        <v>10572</v>
+      </c>
+      <c r="V31" t="n">
+        <v>10830</v>
+      </c>
+      <c r="W31" t="n">
+        <v>257</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1774,6 +1942,15 @@
       <c r="T32" t="n">
         <v>22309200</v>
       </c>
+      <c r="U32" t="n">
+        <v>10903</v>
+      </c>
+      <c r="V32" t="n">
+        <v>11059</v>
+      </c>
+      <c r="W32" t="n">
+        <v>156</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1822,6 +1999,15 @@
       <c r="T33" t="n">
         <v>21987100</v>
       </c>
+      <c r="U33" t="n">
+        <v>13145</v>
+      </c>
+      <c r="V33" t="n">
+        <v>12577</v>
+      </c>
+      <c r="W33" t="n">
+        <v>-569</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1872,6 +2058,15 @@
       <c r="T34" t="n">
         <v>20038500</v>
       </c>
+      <c r="U34" t="n">
+        <v>10790</v>
+      </c>
+      <c r="V34" t="n">
+        <v>10502</v>
+      </c>
+      <c r="W34" t="n">
+        <v>-287</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1922,6 +2117,15 @@
       <c r="T35" t="n">
         <v>20543700</v>
       </c>
+      <c r="U35" t="n">
+        <v>11456</v>
+      </c>
+      <c r="V35" t="n">
+        <v>11762</v>
+      </c>
+      <c r="W35" t="n">
+        <v>306</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1972,6 +2176,15 @@
       <c r="T36" t="n">
         <v>20164300</v>
       </c>
+      <c r="U36" t="n">
+        <v>11612</v>
+      </c>
+      <c r="V36" t="n">
+        <v>11253</v>
+      </c>
+      <c r="W36" t="n">
+        <v>-359</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2022,6 +2235,15 @@
       <c r="T37" t="n">
         <v>21838400</v>
       </c>
+      <c r="U37" t="n">
+        <v>13695</v>
+      </c>
+      <c r="V37" t="n">
+        <v>14539</v>
+      </c>
+      <c r="W37" t="n">
+        <v>845</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2072,6 +2294,15 @@
       <c r="T38" t="n">
         <v>21251000</v>
       </c>
+      <c r="U38" t="n">
+        <v>11257</v>
+      </c>
+      <c r="V38" t="n">
+        <v>12056</v>
+      </c>
+      <c r="W38" t="n">
+        <v>799</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2122,6 +2353,15 @@
       <c r="T39" t="n">
         <v>21390800</v>
       </c>
+      <c r="U39" t="n">
+        <v>12134</v>
+      </c>
+      <c r="V39" t="n">
+        <v>12847</v>
+      </c>
+      <c r="W39" t="n">
+        <v>714</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2172,6 +2412,15 @@
       <c r="T40" t="n">
         <v>20545300</v>
       </c>
+      <c r="U40" t="n">
+        <v>12812</v>
+      </c>
+      <c r="V40" t="n">
+        <v>12291</v>
+      </c>
+      <c r="W40" t="n">
+        <v>-521</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2222,6 +2471,15 @@
       <c r="T41" t="n">
         <v>21762100</v>
       </c>
+      <c r="U41" t="n">
+        <v>15084</v>
+      </c>
+      <c r="V41" t="n">
+        <v>16121</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1037</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2272,6 +2530,15 @@
       <c r="T42" t="n">
         <v>20800900</v>
       </c>
+      <c r="U42" t="n">
+        <v>12566</v>
+      </c>
+      <c r="V42" t="n">
+        <v>13374</v>
+      </c>
+      <c r="W42" t="n">
+        <v>808</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2322,6 +2589,15 @@
       <c r="T43" t="n">
         <v>22250800</v>
       </c>
+      <c r="U43" t="n">
+        <v>13309</v>
+      </c>
+      <c r="V43" t="n">
+        <v>13054</v>
+      </c>
+      <c r="W43" t="n">
+        <v>-255</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2372,6 +2648,15 @@
       <c r="T44" t="n">
         <v>21342000</v>
       </c>
+      <c r="U44" t="n">
+        <v>13943</v>
+      </c>
+      <c r="V44" t="n">
+        <v>13999</v>
+      </c>
+      <c r="W44" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2422,6 +2707,15 @@
       <c r="T45" t="n">
         <v>22779200</v>
       </c>
+      <c r="U45" t="n">
+        <v>16421</v>
+      </c>
+      <c r="V45" t="n">
+        <v>18485</v>
+      </c>
+      <c r="W45" t="n">
+        <v>2064</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2472,6 +2766,15 @@
       <c r="T46" t="n">
         <v>21531800</v>
       </c>
+      <c r="U46" t="n">
+        <v>13658</v>
+      </c>
+      <c r="V46" t="n">
+        <v>15585</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1928</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2522,6 +2825,15 @@
       <c r="T47" t="n">
         <v>21727900</v>
       </c>
+      <c r="U47" t="n">
+        <v>14650</v>
+      </c>
+      <c r="V47" t="n">
+        <v>14226</v>
+      </c>
+      <c r="W47" t="n">
+        <v>-424</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2572,6 +2884,15 @@
       <c r="T48" t="n">
         <v>21815500</v>
       </c>
+      <c r="U48" t="n">
+        <v>15650</v>
+      </c>
+      <c r="V48" t="n">
+        <v>15107</v>
+      </c>
+      <c r="W48" t="n">
+        <v>-543</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2622,6 +2943,15 @@
       <c r="T49" t="n">
         <v>22421500</v>
       </c>
+      <c r="U49" t="n">
+        <v>18105</v>
+      </c>
+      <c r="V49" t="n">
+        <v>22276</v>
+      </c>
+      <c r="W49" t="n">
+        <v>4171</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2672,6 +3002,15 @@
       <c r="T50" t="n">
         <v>22652500</v>
       </c>
+      <c r="U50" t="n">
+        <v>15898</v>
+      </c>
+      <c r="V50" t="n">
+        <v>17331</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1433</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2722,6 +3061,15 @@
       <c r="T51" t="n">
         <v>23672100</v>
       </c>
+      <c r="U51" t="n">
+        <v>16448</v>
+      </c>
+      <c r="V51" t="n">
+        <v>14855</v>
+      </c>
+      <c r="W51" t="n">
+        <v>-1593</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2772,6 +3120,15 @@
       <c r="T52" t="n">
         <v>21799900</v>
       </c>
+      <c r="U52" t="n">
+        <v>17891</v>
+      </c>
+      <c r="V52" t="n">
+        <v>15741</v>
+      </c>
+      <c r="W52" t="n">
+        <v>-2150</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2822,6 +3179,15 @@
       <c r="T53" t="n">
         <v>22455300</v>
       </c>
+      <c r="U53" t="n">
+        <v>19999</v>
+      </c>
+      <c r="V53" t="n">
+        <v>22837</v>
+      </c>
+      <c r="W53" t="n">
+        <v>2838</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2874,6 +3240,15 @@
       <c r="T54" t="n">
         <v>21892500</v>
       </c>
+      <c r="U54" t="n">
+        <v>18240</v>
+      </c>
+      <c r="V54" t="n">
+        <v>16423</v>
+      </c>
+      <c r="W54" t="n">
+        <v>-1817</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2926,6 +3301,15 @@
       <c r="T55" t="n">
         <v>22241000</v>
       </c>
+      <c r="U55" t="n">
+        <v>18671</v>
+      </c>
+      <c r="V55" t="n">
+        <v>14106</v>
+      </c>
+      <c r="W55" t="n">
+        <v>-4565</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2978,6 +3362,15 @@
       <c r="T56" t="n">
         <v>21736100</v>
       </c>
+      <c r="U56" t="n">
+        <v>19183</v>
+      </c>
+      <c r="V56" t="n">
+        <v>14907</v>
+      </c>
+      <c r="W56" t="n">
+        <v>-4276</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3030,6 +3423,15 @@
       <c r="T57" t="n">
         <v>22633500</v>
       </c>
+      <c r="U57" t="n">
+        <v>21736</v>
+      </c>
+      <c r="V57" t="n">
+        <v>19227</v>
+      </c>
+      <c r="W57" t="n">
+        <v>-2509</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3082,6 +3484,15 @@
       <c r="T58" t="n">
         <v>22742000</v>
       </c>
+      <c r="U58" t="n">
+        <v>18366</v>
+      </c>
+      <c r="V58" t="n">
+        <v>13450</v>
+      </c>
+      <c r="W58" t="n">
+        <v>-4916</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3134,6 +3545,15 @@
       <c r="T59" t="n">
         <v>23413800</v>
       </c>
+      <c r="U59" t="n">
+        <v>21284</v>
+      </c>
+      <c r="V59" t="n">
+        <v>13245</v>
+      </c>
+      <c r="W59" t="n">
+        <v>-8038</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3186,6 +3606,15 @@
       <c r="T60" t="n">
         <v>21290800</v>
       </c>
+      <c r="U60" t="n">
+        <v>20137</v>
+      </c>
+      <c r="V60" t="n">
+        <v>13518</v>
+      </c>
+      <c r="W60" t="n">
+        <v>-6619</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3238,6 +3667,15 @@
       <c r="T61" t="n">
         <v>20138900</v>
       </c>
+      <c r="U61" t="n">
+        <v>19674</v>
+      </c>
+      <c r="V61" t="n">
+        <v>15731</v>
+      </c>
+      <c r="W61" t="n">
+        <v>-3943</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3290,6 +3728,15 @@
       <c r="T62" t="n">
         <v>21499800</v>
       </c>
+      <c r="U62" t="n">
+        <v>29060</v>
+      </c>
+      <c r="V62" t="n">
+        <v>12535</v>
+      </c>
+      <c r="W62" t="n">
+        <v>-16526</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3342,6 +3789,15 @@
       <c r="T63" t="n">
         <v>22683100</v>
       </c>
+      <c r="U63" t="n">
+        <v>19485</v>
+      </c>
+      <c r="V63" t="n">
+        <v>13167</v>
+      </c>
+      <c r="W63" t="n">
+        <v>-6318</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3394,6 +3850,15 @@
       <c r="T64" t="n">
         <v>23344800</v>
       </c>
+      <c r="U64" t="n">
+        <v>26487</v>
+      </c>
+      <c r="V64" t="n">
+        <v>12876</v>
+      </c>
+      <c r="W64" t="n">
+        <v>-13611</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3446,6 +3911,15 @@
       <c r="T65" t="n">
         <v>23395900</v>
       </c>
+      <c r="U65" t="n">
+        <v>33595</v>
+      </c>
+      <c r="V65" t="n">
+        <v>16286</v>
+      </c>
+      <c r="W65" t="n">
+        <v>-17309</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3498,6 +3972,15 @@
       <c r="T66" t="n">
         <v>23827600</v>
       </c>
+      <c r="U66" t="n">
+        <v>17655</v>
+      </c>
+      <c r="V66" t="n">
+        <v>13225</v>
+      </c>
+      <c r="W66" t="n">
+        <v>-4429</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3552,6 +4035,15 @@
       <c r="T67" t="n">
         <v>23719500</v>
       </c>
+      <c r="U67" t="n">
+        <v>17591</v>
+      </c>
+      <c r="V67" t="n">
+        <v>13653</v>
+      </c>
+      <c r="W67" t="n">
+        <v>-3938</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3606,6 +4098,15 @@
       <c r="T68" t="n">
         <v>22777500</v>
       </c>
+      <c r="U68" t="n">
+        <v>25682</v>
+      </c>
+      <c r="V68" t="n">
+        <v>14290</v>
+      </c>
+      <c r="W68" t="n">
+        <v>-11392</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3660,6 +4161,15 @@
       <c r="T69" t="n">
         <v>22866200</v>
       </c>
+      <c r="U69" t="n">
+        <v>20187</v>
+      </c>
+      <c r="V69" t="n">
+        <v>16625</v>
+      </c>
+      <c r="W69" t="n">
+        <v>-3561</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3714,6 +4224,15 @@
       <c r="T70" t="n">
         <v>24027800</v>
       </c>
+      <c r="U70" t="n">
+        <v>18420</v>
+      </c>
+      <c r="V70" t="n">
+        <v>13694</v>
+      </c>
+      <c r="W70" t="n">
+        <v>-4728</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3768,6 +4287,15 @@
       <c r="T71" t="n">
         <v>23041300</v>
       </c>
+      <c r="U71" t="n">
+        <v>18674</v>
+      </c>
+      <c r="V71" t="n">
+        <v>14651</v>
+      </c>
+      <c r="W71" t="n">
+        <v>-4023</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3822,6 +4350,15 @@
       <c r="T72" t="n">
         <v>23956100</v>
       </c>
+      <c r="U72" t="n">
+        <v>18201</v>
+      </c>
+      <c r="V72" t="n">
+        <v>14773</v>
+      </c>
+      <c r="W72" t="n">
+        <v>-3428</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3876,6 +4413,15 @@
       <c r="T73" t="n">
         <v>22481500</v>
       </c>
+      <c r="U73" t="n">
+        <v>19371</v>
+      </c>
+      <c r="V73" t="n">
+        <v>16685</v>
+      </c>
+      <c r="W73" t="n">
+        <v>-2686</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3930,6 +4476,15 @@
       <c r="T74" t="n">
         <v>21987400</v>
       </c>
+      <c r="U74" t="n">
+        <v>18167</v>
+      </c>
+      <c r="V74" t="n">
+        <v>14109</v>
+      </c>
+      <c r="W74" t="n">
+        <v>-4057</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3984,6 +4539,15 @@
       <c r="T75" t="n">
         <v>22496400</v>
       </c>
+      <c r="U75" t="n">
+        <v>17256</v>
+      </c>
+      <c r="V75" t="n">
+        <v>15365</v>
+      </c>
+      <c r="W75" t="n">
+        <v>-1892</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4038,6 +4602,15 @@
       <c r="T76" t="n">
         <v>22538800</v>
       </c>
+      <c r="U76" t="n">
+        <v>17871</v>
+      </c>
+      <c r="V76" t="n">
+        <v>14844</v>
+      </c>
+      <c r="W76" t="n">
+        <v>-3027</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4092,6 +4665,15 @@
       <c r="T77" t="n">
         <v>22158800</v>
       </c>
+      <c r="U77" t="n">
+        <v>19581</v>
+      </c>
+      <c r="V77" t="n">
+        <v>17077</v>
+      </c>
+      <c r="W77" t="n">
+        <v>-2505</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4146,6 +4728,15 @@
       <c r="T78" t="n">
         <v>21764800</v>
       </c>
+      <c r="U78" t="n">
+        <v>17804</v>
+      </c>
+      <c r="V78" t="n">
+        <v>15034</v>
+      </c>
+      <c r="W78" t="n">
+        <v>-2770</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4200,6 +4791,15 @@
       <c r="T79" t="n">
         <v>23559100</v>
       </c>
+      <c r="U79" t="n">
+        <v>17835</v>
+      </c>
+      <c r="V79" t="n">
+        <v>16420</v>
+      </c>
+      <c r="W79" t="n">
+        <v>-1416</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4254,6 +4854,15 @@
       <c r="T80" t="n">
         <v>23271200</v>
       </c>
+      <c r="U80" t="n">
+        <v>18060</v>
+      </c>
+      <c r="V80" t="n">
+        <v>16003</v>
+      </c>
+      <c r="W80" t="n">
+        <v>-2056</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4308,6 +4917,15 @@
       <c r="T81" t="n">
         <v>24020600</v>
       </c>
+      <c r="U81" t="n">
+        <v>19623</v>
+      </c>
+      <c r="V81" t="n">
+        <v>18810</v>
+      </c>
+      <c r="W81" t="n">
+        <v>-814</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4362,6 +4980,15 @@
       <c r="T82" t="n">
         <v>26042800</v>
       </c>
+      <c r="U82" t="n">
+        <v>18328</v>
+      </c>
+      <c r="V82" t="n">
+        <v>16075</v>
+      </c>
+      <c r="W82" t="n">
+        <v>-2253</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -4416,6 +5043,15 @@
       <c r="T83" t="n">
         <v>28704500</v>
       </c>
+      <c r="U83" t="n">
+        <v>18067</v>
+      </c>
+      <c r="V83" t="n">
+        <v>17527</v>
+      </c>
+      <c r="W83" t="n">
+        <v>-540</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -4470,6 +5106,15 @@
       <c r="T84" t="n">
         <v>27476800</v>
       </c>
+      <c r="U84" t="n">
+        <v>18154</v>
+      </c>
+      <c r="V84" t="n">
+        <v>16763</v>
+      </c>
+      <c r="W84" t="n">
+        <v>-1391</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4524,6 +5169,15 @@
       <c r="T85" t="n">
         <v>30183300</v>
       </c>
+      <c r="U85" t="n">
+        <v>21881</v>
+      </c>
+      <c r="V85" t="n">
+        <v>20693</v>
+      </c>
+      <c r="W85" t="n">
+        <v>-1189</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4578,6 +5232,15 @@
       <c r="T86" t="n">
         <v>27813124</v>
       </c>
+      <c r="U86" t="n">
+        <v>18212</v>
+      </c>
+      <c r="V86" t="n">
+        <v>16447</v>
+      </c>
+      <c r="W86" t="n">
+        <v>-1765</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4632,6 +5295,15 @@
       <c r="T87" t="n">
         <v>30306574</v>
       </c>
+      <c r="U87" t="n">
+        <v>18249</v>
+      </c>
+      <c r="V87" t="n">
+        <v>18446</v>
+      </c>
+      <c r="W87" t="n">
+        <v>197</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4686,6 +5358,15 @@
       <c r="T88" t="n">
         <v>30360762</v>
       </c>
+      <c r="U88" t="n">
+        <v>18935</v>
+      </c>
+      <c r="V88" t="n">
+        <v>17188</v>
+      </c>
+      <c r="W88" t="n">
+        <v>-1747</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4740,6 +5421,15 @@
       <c r="T89" t="n">
         <v>30811693</v>
       </c>
+      <c r="U89" t="n">
+        <v>20528</v>
+      </c>
+      <c r="V89" t="n">
+        <v>21741</v>
+      </c>
+      <c r="W89" t="n">
+        <v>1213</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4794,6 +5484,15 @@
       <c r="T90" t="n">
         <v>32178710</v>
       </c>
+      <c r="U90" t="n">
+        <v>18517</v>
+      </c>
+      <c r="V90" t="n">
+        <v>17438</v>
+      </c>
+      <c r="W90" t="n">
+        <v>-1079</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4848,6 +5547,15 @@
       <c r="T91" t="n">
         <v>31076438</v>
       </c>
+      <c r="U91" t="n">
+        <v>18940</v>
+      </c>
+      <c r="V91" t="n">
+        <v>18828</v>
+      </c>
+      <c r="W91" t="n">
+        <v>-112</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4902,6 +5610,15 @@
       <c r="T92" t="n">
         <v>28983231</v>
       </c>
+      <c r="U92" t="n">
+        <v>19690</v>
+      </c>
+      <c r="V92" t="n">
+        <v>17793</v>
+      </c>
+      <c r="W92" t="n">
+        <v>-1896</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4956,6 +5673,15 @@
       <c r="T93" t="n">
         <v>30546414</v>
       </c>
+      <c r="U93" t="n">
+        <v>20806</v>
+      </c>
+      <c r="V93" t="n">
+        <v>22976</v>
+      </c>
+      <c r="W93" t="n">
+        <v>2170</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -5010,6 +5736,15 @@
       <c r="T94" t="n">
         <v>33842889</v>
       </c>
+      <c r="U94" t="n">
+        <v>19644</v>
+      </c>
+      <c r="V94" t="n">
+        <v>17936</v>
+      </c>
+      <c r="W94" t="n">
+        <v>-1709</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -5064,6 +5799,15 @@
       <c r="T95" t="n">
         <v>35555779</v>
       </c>
+      <c r="U95" t="n">
+        <v>20462</v>
+      </c>
+      <c r="V95" t="n">
+        <v>20284</v>
+      </c>
+      <c r="W95" t="n">
+        <v>-178</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -5118,6 +5862,15 @@
       <c r="T96" t="n">
         <v>34162903</v>
       </c>
+      <c r="U96" t="n">
+        <v>20526</v>
+      </c>
+      <c r="V96" t="n">
+        <v>18932</v>
+      </c>
+      <c r="W96" t="n">
+        <v>-1594</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -5172,6 +5925,15 @@
       <c r="T97" t="n">
         <v>37083398</v>
       </c>
+      <c r="U97" t="n">
+        <v>22304</v>
+      </c>
+      <c r="V97" t="n">
+        <v>26087</v>
+      </c>
+      <c r="W97" t="n">
+        <v>3784</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -5228,6 +5990,15 @@
       <c r="T98" t="n">
         <v>37576554</v>
       </c>
+      <c r="U98" t="n">
+        <v>20917</v>
+      </c>
+      <c r="V98" t="n">
+        <v>18929</v>
+      </c>
+      <c r="W98" t="n">
+        <v>-1988</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -5284,6 +6055,15 @@
       <c r="T99" t="n">
         <v>38539854</v>
       </c>
+      <c r="U99" t="n">
+        <v>20877</v>
+      </c>
+      <c r="V99" t="n">
+        <v>21721</v>
+      </c>
+      <c r="W99" t="n">
+        <v>844</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -5340,6 +6120,15 @@
       <c r="T100" t="n">
         <v>37628972</v>
       </c>
+      <c r="U100" t="n">
+        <v>21684</v>
+      </c>
+      <c r="V100" t="n">
+        <v>20586</v>
+      </c>
+      <c r="W100" t="n">
+        <v>-1098</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -5396,6 +6185,15 @@
       <c r="T101" t="n">
         <v>38788618</v>
       </c>
+      <c r="U101" t="n">
+        <v>23343</v>
+      </c>
+      <c r="V101" t="n">
+        <v>27063</v>
+      </c>
+      <c r="W101" t="n">
+        <v>3720</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -5452,6 +6250,15 @@
       <c r="T102" t="n">
         <v>44223535</v>
       </c>
+      <c r="U102" t="n">
+        <v>21549</v>
+      </c>
+      <c r="V102" t="n">
+        <v>17937</v>
+      </c>
+      <c r="W102" t="n">
+        <v>-3612</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -5508,6 +6315,15 @@
       <c r="T103" t="n">
         <v>37865269</v>
       </c>
+      <c r="U103" t="n">
+        <v>26654</v>
+      </c>
+      <c r="V103" t="n">
+        <v>20257</v>
+      </c>
+      <c r="W103" t="n">
+        <v>-6397</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -5564,6 +6380,15 @@
       <c r="T104" t="n">
         <v>40543260</v>
       </c>
+      <c r="U104" t="n">
+        <v>26230</v>
+      </c>
+      <c r="V104" t="n">
+        <v>19527</v>
+      </c>
+      <c r="W104" t="n">
+        <v>-6703</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -5620,6 +6445,15 @@
       <c r="T105" t="n">
         <v>39499018</v>
       </c>
+      <c r="U105" t="n">
+        <v>27498</v>
+      </c>
+      <c r="V105" t="n">
+        <v>25628</v>
+      </c>
+      <c r="W105" t="n">
+        <v>-1870</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -5680,6 +6514,15 @@
       <c r="T106" t="n">
         <v>40352700</v>
       </c>
+      <c r="U106" t="n">
+        <v>25564</v>
+      </c>
+      <c r="V106" t="n">
+        <v>19571</v>
+      </c>
+      <c r="W106" t="n">
+        <v>-5993</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -5740,6 +6583,15 @@
       <c r="T107" t="n">
         <v>40586158</v>
       </c>
+      <c r="U107" t="n">
+        <v>26230</v>
+      </c>
+      <c r="V107" t="n">
+        <v>23800</v>
+      </c>
+      <c r="W107" t="n">
+        <v>-2430</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -5800,6 +6652,15 @@
       <c r="T108" t="n">
         <v>41140686</v>
       </c>
+      <c r="U108" t="n">
+        <v>26583</v>
+      </c>
+      <c r="V108" t="n">
+        <v>24033</v>
+      </c>
+      <c r="W108" t="n">
+        <v>-2550</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -5860,6 +6721,15 @@
       <c r="T109" t="n">
         <v>43635570</v>
       </c>
+      <c r="U109" t="n">
+        <v>27408</v>
+      </c>
+      <c r="V109" t="n">
+        <v>32251</v>
+      </c>
+      <c r="W109" t="n">
+        <v>4842</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -5920,6 +6790,15 @@
       <c r="T110" t="n">
         <v>52199816</v>
       </c>
+      <c r="U110" t="n">
+        <v>24611</v>
+      </c>
+      <c r="V110" t="n">
+        <v>24363</v>
+      </c>
+      <c r="W110" t="n">
+        <v>-248</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5980,6 +6859,15 @@
       <c r="T111" t="n">
         <v>52834241</v>
       </c>
+      <c r="U111" t="n">
+        <v>26022</v>
+      </c>
+      <c r="V111" t="n">
+        <v>27689</v>
+      </c>
+      <c r="W111" t="n">
+        <v>1667</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -6040,6 +6928,15 @@
       <c r="T112" t="n">
         <v>53727718</v>
       </c>
+      <c r="U112" t="n">
+        <v>26881</v>
+      </c>
+      <c r="V112" t="n">
+        <v>28814</v>
+      </c>
+      <c r="W112" t="n">
+        <v>1934</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -6102,6 +6999,15 @@
       <c r="T113" t="n">
         <v>50000866</v>
       </c>
+      <c r="U113" t="n">
+        <v>29809</v>
+      </c>
+      <c r="V113" t="n">
+        <v>35142</v>
+      </c>
+      <c r="W113" t="n">
+        <v>5332</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -6164,6 +7070,15 @@
       <c r="T114" t="n">
         <v>50949371</v>
       </c>
+      <c r="U114" t="n">
+        <v>27040</v>
+      </c>
+      <c r="V114" t="n">
+        <v>27670</v>
+      </c>
+      <c r="W114" t="n">
+        <v>630</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -6226,6 +7141,15 @@
       <c r="T115" t="n">
         <v>50144962</v>
       </c>
+      <c r="U115" t="n">
+        <v>28162</v>
+      </c>
+      <c r="V115" t="n">
+        <v>29729</v>
+      </c>
+      <c r="W115" t="n">
+        <v>1567</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -6288,6 +7212,15 @@
       <c r="T116" t="n">
         <v>47580578</v>
       </c>
+      <c r="U116" t="n">
+        <v>29020</v>
+      </c>
+      <c r="V116" t="n">
+        <v>28886</v>
+      </c>
+      <c r="W116" t="n">
+        <v>-134</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -6350,6 +7283,15 @@
       <c r="T117" t="n">
         <v>47354838</v>
       </c>
+      <c r="U117" t="n">
+        <v>31761</v>
+      </c>
+      <c r="V117" t="n">
+        <v>37698</v>
+      </c>
+      <c r="W117" t="n">
+        <v>5937</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -6412,6 +7354,15 @@
       <c r="T118" t="n">
         <v>54026587</v>
       </c>
+      <c r="U118" t="n">
+        <v>29596</v>
+      </c>
+      <c r="V118" t="n">
+        <v>28932</v>
+      </c>
+      <c r="W118" t="n">
+        <v>-664</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -6474,6 +7425,15 @@
       <c r="T119" t="n">
         <v>54179804</v>
       </c>
+      <c r="U119" t="n">
+        <v>30490</v>
+      </c>
+      <c r="V119" t="n">
+        <v>33546</v>
+      </c>
+      <c r="W119" t="n">
+        <v>3055</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -6536,6 +7496,15 @@
       <c r="T120" t="n">
         <v>57703021</v>
       </c>
+      <c r="U120" t="n">
+        <v>31070</v>
+      </c>
+      <c r="V120" t="n">
+        <v>46533</v>
+      </c>
+      <c r="W120" t="n">
+        <v>15463</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -6598,6 +7567,15 @@
       <c r="T121" t="n">
         <v>57488299</v>
       </c>
+      <c r="U121" t="n">
+        <v>34390</v>
+      </c>
+      <c r="V121" t="n">
+        <v>39530</v>
+      </c>
+      <c r="W121" t="n">
+        <v>5140</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -6659,6 +7637,15 @@
       </c>
       <c r="T122" t="n">
         <v>89211441</v>
+      </c>
+      <c r="U122" t="n">
+        <v>30086</v>
+      </c>
+      <c r="V122" t="n">
+        <v>30924</v>
+      </c>
+      <c r="W122" t="n">
+        <v>838</v>
       </c>
     </row>
     <row r="123">
@@ -6708,6 +7695,9 @@
       <c r="T123" t="n">
         <v>63139487</v>
       </c>
+      <c r="U123"/>
+      <c r="V123"/>
+      <c r="W123"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -6734,6 +7724,9 @@
       <c r="R124"/>
       <c r="S124"/>
       <c r="T124"/>
+      <c r="U124"/>
+      <c r="V124"/>
+      <c r="W124"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -6760,6 +7753,9 @@
       <c r="R125"/>
       <c r="S125"/>
       <c r="T125"/>
+      <c r="U125"/>
+      <c r="V125"/>
+      <c r="W125"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -6786,6 +7782,9 @@
       <c r="R126"/>
       <c r="S126"/>
       <c r="T126"/>
+      <c r="U126"/>
+      <c r="V126"/>
+      <c r="W126"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -6812,6 +7811,9 @@
       <c r="R127"/>
       <c r="S127"/>
       <c r="T127"/>
+      <c r="U127"/>
+      <c r="V127"/>
+      <c r="W127"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -6838,6 +7840,9 @@
       <c r="R128"/>
       <c r="S128"/>
       <c r="T128"/>
+      <c r="U128"/>
+      <c r="V128"/>
+      <c r="W128"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -6864,6 +7869,9 @@
       <c r="R129"/>
       <c r="S129"/>
       <c r="T129"/>
+      <c r="U129"/>
+      <c r="V129"/>
+      <c r="W129"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -6890,6 +7898,9 @@
       <c r="R130"/>
       <c r="S130"/>
       <c r="T130"/>
+      <c r="U130"/>
+      <c r="V130"/>
+      <c r="W130"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -6916,6 +7927,9 @@
       <c r="R131"/>
       <c r="S131"/>
       <c r="T131"/>
+      <c r="U131"/>
+      <c r="V131"/>
+      <c r="W131"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -6942,6 +7956,9 @@
       <c r="R132"/>
       <c r="S132"/>
       <c r="T132"/>
+      <c r="U132"/>
+      <c r="V132"/>
+      <c r="W132"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -6968,6 +7985,9 @@
       <c r="R133"/>
       <c r="S133"/>
       <c r="T133"/>
+      <c r="U133"/>
+      <c r="V133"/>
+      <c r="W133"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -6994,6 +8014,9 @@
       <c r="R134"/>
       <c r="S134"/>
       <c r="T134"/>
+      <c r="U134"/>
+      <c r="V134"/>
+      <c r="W134"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -7020,6 +8043,9 @@
       <c r="R135"/>
       <c r="S135"/>
       <c r="T135"/>
+      <c r="U135"/>
+      <c r="V135"/>
+      <c r="W135"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -7046,6 +8072,9 @@
       <c r="R136"/>
       <c r="S136"/>
       <c r="T136"/>
+      <c r="U136"/>
+      <c r="V136"/>
+      <c r="W136"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -7072,6 +8101,9 @@
       <c r="R137"/>
       <c r="S137"/>
       <c r="T137"/>
+      <c r="U137"/>
+      <c r="V137"/>
+      <c r="W137"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -7098,6 +8130,9 @@
       <c r="R138"/>
       <c r="S138"/>
       <c r="T138"/>
+      <c r="U138"/>
+      <c r="V138"/>
+      <c r="W138"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -7124,6 +8159,9 @@
       <c r="R139"/>
       <c r="S139"/>
       <c r="T139"/>
+      <c r="U139"/>
+      <c r="V139"/>
+      <c r="W139"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -7150,6 +8188,9 @@
       <c r="R140"/>
       <c r="S140"/>
       <c r="T140"/>
+      <c r="U140"/>
+      <c r="V140"/>
+      <c r="W140"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -7176,6 +8217,9 @@
       <c r="R141"/>
       <c r="S141"/>
       <c r="T141"/>
+      <c r="U141"/>
+      <c r="V141"/>
+      <c r="W141"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -7202,6 +8246,9 @@
       <c r="R142"/>
       <c r="S142"/>
       <c r="T142"/>
+      <c r="U142"/>
+      <c r="V142"/>
+      <c r="W142"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -7228,6 +8275,9 @@
       <c r="R143"/>
       <c r="S143"/>
       <c r="T143"/>
+      <c r="U143"/>
+      <c r="V143"/>
+      <c r="W143"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -7254,6 +8304,9 @@
       <c r="R144"/>
       <c r="S144"/>
       <c r="T144"/>
+      <c r="U144"/>
+      <c r="V144"/>
+      <c r="W144"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -7280,6 +8333,9 @@
       <c r="R145"/>
       <c r="S145"/>
       <c r="T145"/>
+      <c r="U145"/>
+      <c r="V145"/>
+      <c r="W145"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -29,7 +29,7 @@
     <t xml:space="preserve">Central Bank Card Payment</t>
   </si>
   <si>
-    <t xml:space="preserve">Modified Services Index</t>
+    <t xml:space="preserve">Modified Services</t>
   </si>
   <si>
     <t xml:space="preserve">Compensation of Employees</t>
@@ -68,7 +68,7 @@
     <t xml:space="preserve">Exports</t>
   </si>
   <si>
-    <t xml:space="preserve">External Trade VOlume Index</t>
+    <t xml:space="preserve">External Trade Vol Index</t>
   </si>
   <si>
     <t xml:space="preserve">External Trade Value</t>
@@ -6952,7 +6952,7 @@
         <v>114.4</v>
       </c>
       <c r="E113" t="n">
-        <v>16488432014.35</v>
+        <v>1560.40930192399</v>
       </c>
       <c r="F113" t="n">
         <v>120.1</v>
@@ -7023,7 +7023,7 @@
         <v>113.7</v>
       </c>
       <c r="E114" t="n">
-        <v>15942643573.17</v>
+        <v>1367.92833490847</v>
       </c>
       <c r="F114" t="n">
         <v>110</v>
@@ -7094,7 +7094,7 @@
         <v>109.2</v>
       </c>
       <c r="E115" t="n">
-        <v>18425570673.76</v>
+        <v>1301.63108566465</v>
       </c>
       <c r="F115" t="n">
         <v>114.9</v>
@@ -7165,7 +7165,7 @@
         <v>108.5</v>
       </c>
       <c r="E116" t="n">
-        <v>18893804323.66</v>
+        <v>1287.97278021242</v>
       </c>
       <c r="F116" t="n">
         <v>115.4</v>
@@ -7236,7 +7236,7 @@
         <v>116.4</v>
       </c>
       <c r="E117" t="n">
-        <v>20795308722.88</v>
+        <v>1390.16802305877</v>
       </c>
       <c r="F117" t="n">
         <v>124.8</v>
@@ -7307,7 +7307,7 @@
         <v>116.633333333333</v>
       </c>
       <c r="E118" t="n">
-        <v>19359656813.84</v>
+        <v>1275.65703833616</v>
       </c>
       <c r="F118" t="n">
         <v>115.2</v>
@@ -7378,7 +7378,7 @@
         <v>108.833333333333</v>
       </c>
       <c r="E119" t="n">
-        <v>20480000107.86</v>
+        <v>1331.97891292119</v>
       </c>
       <c r="F119" t="n">
         <v>125</v>
@@ -7449,7 +7449,7 @@
         <v>108</v>
       </c>
       <c r="E120" t="n">
-        <v>21469267453.5</v>
+        <v>1374.99385776137</v>
       </c>
       <c r="F120" t="n">
         <v>125.3</v>
@@ -7520,7 +7520,7 @@
         <v>116.766666666667</v>
       </c>
       <c r="E121" t="n">
-        <v>23263588708.15</v>
+        <v>1468.7979519018</v>
       </c>
       <c r="F121" t="n">
         <v>141.2</v>
@@ -7591,7 +7591,7 @@
         <v>117.8</v>
       </c>
       <c r="E122" t="n">
-        <v>21501607569.35</v>
+        <v>1344.14742923704</v>
       </c>
       <c r="F122" t="n">
         <v>140.8</v>
@@ -7660,7 +7660,7 @@
         <v>110.933333333333</v>
       </c>
       <c r="E123" t="n">
-        <v>22917176477.21</v>
+        <v>1414.37789377804</v>
       </c>
       <c r="F123" t="n">
         <v>156.8</v>

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -7606,7 +7606,7 @@
         <v>44718</v>
       </c>
       <c r="J122" t="n">
-        <v>31.72</v>
+        <v>31.86</v>
       </c>
       <c r="K122" t="n">
         <v>491315</v>
@@ -7670,7 +7670,9 @@
         <v>5444.5</v>
       </c>
       <c r="I123"/>
-      <c r="J123"/>
+      <c r="J123" t="n">
+        <v>31.04</v>
+      </c>
       <c r="K123" t="n">
         <v>501164</v>
       </c>

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -7657,7 +7657,7 @@
         <v>3956528</v>
       </c>
       <c r="D123" t="n">
-        <v>110.933333333333</v>
+        <v>111</v>
       </c>
       <c r="E123" t="n">
         <v>1414.37789377804</v>

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -6746,7 +6746,7 @@
       </c>
       <c r="E110"/>
       <c r="F110" t="n">
-        <v>104.8</v>
+        <v>104.9</v>
       </c>
       <c r="G110" t="n">
         <v>31190.67</v>
@@ -7239,7 +7239,7 @@
         <v>1390.16802305877</v>
       </c>
       <c r="F117" t="n">
-        <v>124.8</v>
+        <v>124.7</v>
       </c>
       <c r="G117" t="n">
         <v>36724.99</v>
@@ -7523,7 +7523,7 @@
         <v>1468.7979519018</v>
       </c>
       <c r="F121" t="n">
-        <v>141.2</v>
+        <v>141.1</v>
       </c>
       <c r="G121" t="n">
         <v>39259.96</v>
@@ -7582,7 +7582,7 @@
         <v>45658</v>
       </c>
       <c r="B122" t="n">
-        <v>39441</v>
+        <v>39381</v>
       </c>
       <c r="C122" t="n">
         <v>7632907</v>
@@ -7594,10 +7594,10 @@
         <v>1344.14742923704</v>
       </c>
       <c r="F122" t="n">
-        <v>140.8</v>
+        <v>140.6</v>
       </c>
       <c r="G122" t="n">
-        <v>40967.24</v>
+        <v>41079.23</v>
       </c>
       <c r="H122" t="n">
         <v>5428.45</v>
@@ -7627,10 +7627,10 @@
         <v>4.5</v>
       </c>
       <c r="Q122" t="n">
-        <v>152783</v>
+        <v>152651</v>
       </c>
       <c r="R122" t="n">
-        <v>214898</v>
+        <v>214568</v>
       </c>
       <c r="S122" t="n">
         <v>1216.387</v>
@@ -7652,7 +7652,9 @@
       <c r="A123" s="1" t="n">
         <v>45748</v>
       </c>
-      <c r="B123"/>
+      <c r="B123" t="n">
+        <v>40214</v>
+      </c>
       <c r="C123" t="n">
         <v>3956528</v>
       </c>
@@ -7663,9 +7665,11 @@
         <v>1414.37789377804</v>
       </c>
       <c r="F123" t="n">
-        <v>156.8</v>
-      </c>
-      <c r="G123"/>
+        <v>148.2</v>
+      </c>
+      <c r="G123" t="n">
+        <v>40120.89</v>
+      </c>
       <c r="H123" t="n">
         <v>5444.5</v>
       </c>
@@ -7689,8 +7693,12 @@
       <c r="P123" t="n">
         <v>4.6</v>
       </c>
-      <c r="Q123"/>
-      <c r="R123"/>
+      <c r="Q123" t="n">
+        <v>149405</v>
+      </c>
+      <c r="R123" t="n">
+        <v>206488</v>
+      </c>
       <c r="S123" t="n">
         <v>871.648</v>
       </c>

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -4266,7 +4266,7 @@
         <v>99.3333333333333</v>
       </c>
       <c r="M71" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="N71" t="n">
         <v>1876.8</v>
@@ -4329,7 +4329,7 @@
         <v>99.6333333333333</v>
       </c>
       <c r="M72" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="N72" t="n">
         <v>1888.5</v>
@@ -4392,7 +4392,7 @@
         <v>99.5</v>
       </c>
       <c r="M73" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="N73" t="n">
         <v>1892.9</v>
@@ -4455,7 +4455,7 @@
         <v>99.4666666666667</v>
       </c>
       <c r="M74" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="N74" t="n">
         <v>1893.2</v>
@@ -4518,7 +4518,7 @@
         <v>99.8666666666667</v>
       </c>
       <c r="M75" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="N75" t="n">
         <v>1924.2</v>
@@ -4581,7 +4581,7 @@
         <v>99.9333333333333</v>
       </c>
       <c r="M76" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="N76" t="n">
         <v>1962</v>
@@ -4644,7 +4644,7 @@
         <v>99.6666666666667</v>
       </c>
       <c r="M77" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="N77" t="n">
         <v>1969.6</v>
@@ -4707,7 +4707,7 @@
         <v>99.6666666666667</v>
       </c>
       <c r="M78" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="N78" t="n">
         <v>1950.8</v>
@@ -4770,7 +4770,7 @@
         <v>100.266666666667</v>
       </c>
       <c r="M79" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="N79" t="n">
         <v>1968.9</v>
@@ -4833,7 +4833,7 @@
         <v>100.433333333333</v>
       </c>
       <c r="M80" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="N80" t="n">
         <v>2009.4</v>
@@ -4896,7 +4896,7 @@
         <v>99.7666666666667</v>
       </c>
       <c r="M81" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="N81" t="n">
         <v>2025</v>
@@ -4959,7 +4959,7 @@
         <v>99.3333333333333</v>
       </c>
       <c r="M82" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="N82" t="n">
         <v>2012.4</v>
@@ -5022,7 +5022,7 @@
         <v>100.366666666667</v>
       </c>
       <c r="M83" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="N83" t="n">
         <v>2047.7</v>
@@ -5085,7 +5085,7 @@
         <v>100.533333333333</v>
       </c>
       <c r="M84" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="N84" t="n">
         <v>2078.6</v>
@@ -5148,7 +5148,7 @@
         <v>99.7666666666667</v>
       </c>
       <c r="M85" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="N85" t="n">
         <v>2083.9</v>
@@ -5211,7 +5211,7 @@
         <v>99.0666666666667</v>
       </c>
       <c r="M86" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="N86" t="n">
         <v>2079</v>
@@ -5274,7 +5274,7 @@
         <v>100.266666666667</v>
       </c>
       <c r="M87" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="N87" t="n">
         <v>2124.4</v>
@@ -5337,7 +5337,7 @@
         <v>100.333333333333</v>
       </c>
       <c r="M88" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="N88" t="n">
         <v>2159.9</v>
@@ -5400,7 +5400,7 @@
         <v>99.5</v>
       </c>
       <c r="M89" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="N89" t="n">
         <v>2165.5</v>
@@ -5463,7 +5463,7 @@
         <v>99.4333333333333</v>
       </c>
       <c r="M90" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="N90" t="n">
         <v>2162.8</v>
@@ -5526,7 +5526,7 @@
         <v>100.3</v>
       </c>
       <c r="M91" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="N91" t="n">
         <v>2187.4</v>
@@ -5589,7 +5589,7 @@
         <v>100.466666666667</v>
       </c>
       <c r="M92" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="N92" t="n">
         <v>2212.3</v>
@@ -5652,7 +5652,7 @@
         <v>100</v>
       </c>
       <c r="M93" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="N93" t="n">
         <v>2234.7</v>
@@ -5904,7 +5904,7 @@
         <v>100.9</v>
       </c>
       <c r="M97" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="N97" t="n">
         <v>2290.4</v>
@@ -5967,7 +5967,7 @@
         <v>100.8</v>
       </c>
       <c r="M98" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="N98" t="n">
         <v>2312.8</v>
@@ -6032,7 +6032,7 @@
         <v>102</v>
       </c>
       <c r="M99" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="N99" t="n">
         <v>2311.5</v>
@@ -6097,7 +6097,7 @@
         <v>102.066666666667</v>
       </c>
       <c r="M100" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="N100" t="n">
         <v>2341.6</v>
@@ -6162,7 +6162,7 @@
         <v>101.733333333333</v>
       </c>
       <c r="M101" t="n">
-        <v>14.1</v>
+        <v>14.4</v>
       </c>
       <c r="N101" t="n">
         <v>2377.8</v>
@@ -6227,7 +6227,7 @@
         <v>101.633333333333</v>
       </c>
       <c r="M102" t="n">
-        <v>25.6</v>
+        <v>25.1</v>
       </c>
       <c r="N102" t="n">
         <v>2368.8</v>
@@ -6292,7 +6292,7 @@
         <v>101.433333333333</v>
       </c>
       <c r="M103" t="n">
-        <v>33.8</v>
+        <v>33.4</v>
       </c>
       <c r="N103" t="n">
         <v>2161.3</v>
@@ -6357,7 +6357,7 @@
         <v>101.1</v>
       </c>
       <c r="M104" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="N104" t="n">
         <v>2275</v>
@@ -6422,7 +6422,7 @@
         <v>100.566666666667</v>
       </c>
       <c r="M105" t="n">
-        <v>24.8</v>
+        <v>24.5</v>
       </c>
       <c r="N105" t="n">
         <v>2305.1</v>
@@ -6491,7 +6491,7 @@
         <v>101.5</v>
       </c>
       <c r="M106" t="n">
-        <v>27.2</v>
+        <v>26.2</v>
       </c>
       <c r="N106" t="n">
         <v>2259.9</v>
@@ -6560,7 +6560,7 @@
         <v>102.966666666667</v>
       </c>
       <c r="M107" t="n">
-        <v>24.1</v>
+        <v>23.1</v>
       </c>
       <c r="N107" t="n">
         <v>2382.2</v>
@@ -6629,7 +6629,7 @@
         <v>104.1</v>
       </c>
       <c r="M108" t="n">
-        <v>20.7</v>
+        <v>19.6</v>
       </c>
       <c r="N108" t="n">
         <v>2515</v>
@@ -6698,7 +6698,7 @@
         <v>105.966666666667</v>
       </c>
       <c r="M109" t="n">
-        <v>19</v>
+        <v>17.9</v>
       </c>
       <c r="N109" t="n">
         <v>2551.4</v>
@@ -6767,7 +6767,7 @@
         <v>107.5</v>
       </c>
       <c r="M110" t="n">
-        <v>16.4</v>
+        <v>15.9</v>
       </c>
       <c r="N110" t="n">
         <v>2559.4</v>
@@ -6836,7 +6836,7 @@
         <v>111.6</v>
       </c>
       <c r="M111" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="N111" t="n">
         <v>2601.2</v>
@@ -6905,7 +6905,7 @@
         <v>113.533333333333</v>
       </c>
       <c r="M112" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="N112" t="n">
         <v>2602.6</v>
@@ -6976,13 +6976,13 @@
         <v>115.333333333333</v>
       </c>
       <c r="M113" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="N113" t="n">
         <v>2616.7</v>
       </c>
       <c r="O113" t="n">
-        <v>2399666.66666667</v>
+        <v>2399700</v>
       </c>
       <c r="P113" t="n">
         <v>4.4</v>
@@ -7047,7 +7047,7 @@
         <v>115.6</v>
       </c>
       <c r="M114" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="N114" t="n">
         <v>2652.7</v>
@@ -7118,7 +7118,7 @@
         <v>117.7</v>
       </c>
       <c r="M115" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="N115" t="n">
         <v>2682.7</v>
@@ -7260,7 +7260,7 @@
         <v>118.933333333333</v>
       </c>
       <c r="M117" t="n">
-        <v>10.6</v>
+        <v>10.8</v>
       </c>
       <c r="N117" t="n">
         <v>2706.4</v>
@@ -7331,7 +7331,7 @@
         <v>118.2</v>
       </c>
       <c r="M118" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="N118" t="n">
         <v>2704.2</v>
@@ -7550,7 +7550,7 @@
         <v>2776.4</v>
       </c>
       <c r="O121" t="n">
-        <v>2519700</v>
+        <v>2519733.33333333</v>
       </c>
       <c r="P121" t="n">
         <v>4.3</v>
@@ -7615,7 +7615,7 @@
         <v>120.133333333333</v>
       </c>
       <c r="M122" t="n">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
       <c r="N122" t="n">
         <v>2794.1</v>
@@ -7683,12 +7683,14 @@
       <c r="L123" t="n">
         <v>121.7</v>
       </c>
-      <c r="M123"/>
+      <c r="M123" t="n">
+        <v>12.5</v>
+      </c>
       <c r="N123" t="n">
         <v>2818.1</v>
       </c>
       <c r="O123" t="n">
-        <v>2550233.33333333</v>
+        <v>2553533.33333333</v>
       </c>
       <c r="P123" t="n">
         <v>4.6</v>

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -7633,10 +7633,10 @@
         <v>214568</v>
       </c>
       <c r="S122" t="n">
-        <v>1216.387</v>
+        <v>1203.456</v>
       </c>
       <c r="T122" t="n">
-        <v>89211441</v>
+        <v>88232913</v>
       </c>
       <c r="U122" t="n">
         <v>30086</v>
@@ -7702,10 +7702,10 @@
         <v>206488</v>
       </c>
       <c r="S123" t="n">
-        <v>871.648</v>
+        <v>868.41</v>
       </c>
       <c r="T123" t="n">
-        <v>63139487</v>
+        <v>62909476</v>
       </c>
       <c r="U123"/>
       <c r="V123"/>

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -1066,7 +1066,7 @@
       </c>
       <c r="O16"/>
       <c r="P16" t="n">
-        <v>7.3</v>
+        <v>7.26666666666667</v>
       </c>
       <c r="Q16" t="n">
         <v>36657</v>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="O17"/>
       <c r="P17" t="n">
-        <v>6.7</v>
+        <v>6.66666666666667</v>
       </c>
       <c r="Q17" t="n">
         <v>35499</v>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="O18"/>
       <c r="P18" t="n">
-        <v>6.3</v>
+        <v>6.26666666666667</v>
       </c>
       <c r="Q18" t="n">
         <v>37412</v>
@@ -1258,7 +1258,7 @@
       </c>
       <c r="O20"/>
       <c r="P20" t="n">
-        <v>5.4</v>
+        <v>5.43333333333333</v>
       </c>
       <c r="Q20" t="n">
         <v>40112</v>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="O24"/>
       <c r="P24" t="n">
-        <v>4.2</v>
+        <v>4.23333333333333</v>
       </c>
       <c r="Q24" t="n">
         <v>43730</v>
@@ -1586,7 +1586,7 @@
       </c>
       <c r="O26"/>
       <c r="P26" t="n">
-        <v>4</v>
+        <v>3.96666666666667</v>
       </c>
       <c r="Q26" t="n">
         <v>43987</v>
@@ -1700,7 +1700,7 @@
       </c>
       <c r="O28"/>
       <c r="P28" t="n">
-        <v>4.4</v>
+        <v>4.36666666666667</v>
       </c>
       <c r="Q28" t="n">
         <v>44998</v>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="O30"/>
       <c r="P30" t="n">
-        <v>4.5</v>
+        <v>4.53333333333333</v>
       </c>
       <c r="Q30" t="n">
         <v>46358</v>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="O31"/>
       <c r="P31" t="n">
-        <v>4.6</v>
+        <v>4.63333333333333</v>
       </c>
       <c r="Q31" t="n">
         <v>47246</v>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="O33"/>
       <c r="P33" t="n">
-        <v>5.3</v>
+        <v>5.26666666666667</v>
       </c>
       <c r="Q33" t="n">
         <v>49467</v>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="O34"/>
       <c r="P34" t="n">
-        <v>4.8</v>
+        <v>4.83333333333333</v>
       </c>
       <c r="Q34" t="n">
         <v>47354</v>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="O35"/>
       <c r="P35" t="n">
-        <v>4.8</v>
+        <v>4.76666666666667</v>
       </c>
       <c r="Q35" t="n">
         <v>48550</v>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="O37"/>
       <c r="P37" t="n">
-        <v>4.8</v>
+        <v>4.73333333333333</v>
       </c>
       <c r="Q37" t="n">
         <v>52479</v>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="O38"/>
       <c r="P38" t="n">
-        <v>5.1</v>
+        <v>5.13333333333333</v>
       </c>
       <c r="Q38" t="n">
         <v>50992</v>
@@ -2339,7 +2339,7 @@
       </c>
       <c r="O39"/>
       <c r="P39" t="n">
-        <v>4.7</v>
+        <v>4.66666666666667</v>
       </c>
       <c r="Q39" t="n">
         <v>52766</v>
@@ -2516,7 +2516,7 @@
       </c>
       <c r="O42"/>
       <c r="P42" t="n">
-        <v>4.4</v>
+        <v>4.43333333333333</v>
       </c>
       <c r="Q42" t="n">
         <v>54001</v>
@@ -2693,7 +2693,7 @@
       </c>
       <c r="O45"/>
       <c r="P45" t="n">
-        <v>4.5</v>
+        <v>4.53333333333333</v>
       </c>
       <c r="Q45" t="n">
         <v>57619</v>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="O47"/>
       <c r="P47" t="n">
-        <v>4.8</v>
+        <v>4.73333333333333</v>
       </c>
       <c r="Q47" t="n">
         <v>57867</v>
@@ -2929,7 +2929,7 @@
       </c>
       <c r="O49"/>
       <c r="P49" t="n">
-        <v>4.6</v>
+        <v>4.63333333333333</v>
       </c>
       <c r="Q49" t="n">
         <v>59403</v>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="O53"/>
       <c r="P53" t="n">
-        <v>5.2</v>
+        <v>5.23333333333333</v>
       </c>
       <c r="Q53" t="n">
         <v>62392</v>
@@ -3226,7 +3226,7 @@
       </c>
       <c r="O54"/>
       <c r="P54" t="n">
-        <v>5.4</v>
+        <v>5.36666666666667</v>
       </c>
       <c r="Q54" t="n">
         <v>60366</v>
@@ -3287,7 +3287,7 @@
       </c>
       <c r="O55"/>
       <c r="P55" t="n">
-        <v>5.9</v>
+        <v>5.93333333333333</v>
       </c>
       <c r="Q55" t="n">
         <v>59104</v>
@@ -3348,7 +3348,7 @@
       </c>
       <c r="O56"/>
       <c r="P56" t="n">
-        <v>7.4</v>
+        <v>7.36666666666667</v>
       </c>
       <c r="Q56" t="n">
         <v>59074</v>
@@ -3409,7 +3409,7 @@
       </c>
       <c r="O57"/>
       <c r="P57" t="n">
-        <v>8.6</v>
+        <v>8.53333333333333</v>
       </c>
       <c r="Q57" t="n">
         <v>55973</v>
@@ -3470,7 +3470,7 @@
       </c>
       <c r="O58"/>
       <c r="P58" t="n">
-        <v>10.8</v>
+        <v>10.8666666666667</v>
       </c>
       <c r="Q58" t="n">
         <v>56058</v>
@@ -3653,7 +3653,7 @@
       </c>
       <c r="O61"/>
       <c r="P61" t="n">
-        <v>13.8</v>
+        <v>13.8333333333333</v>
       </c>
       <c r="Q61" t="n">
         <v>54354</v>
@@ -3775,7 +3775,7 @@
       </c>
       <c r="O63"/>
       <c r="P63" t="n">
-        <v>14.4</v>
+        <v>14.3666666666667</v>
       </c>
       <c r="Q63" t="n">
         <v>56722</v>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="O65"/>
       <c r="P65" t="n">
-        <v>15.6</v>
+        <v>15.6333333333333</v>
       </c>
       <c r="Q65" t="n">
         <v>56330</v>
@@ -3958,7 +3958,7 @@
       </c>
       <c r="O66"/>
       <c r="P66" t="n">
-        <v>15.2</v>
+        <v>15.1333333333333</v>
       </c>
       <c r="Q66" t="n">
         <v>57110</v>
@@ -4021,7 +4021,7 @@
       </c>
       <c r="O67"/>
       <c r="P67" t="n">
-        <v>15.1</v>
+        <v>15.0333333333333</v>
       </c>
       <c r="Q67" t="n">
         <v>58200</v>
@@ -4147,7 +4147,7 @@
       </c>
       <c r="O69"/>
       <c r="P69" t="n">
-        <v>15.9</v>
+        <v>15.8333333333333</v>
       </c>
       <c r="Q69" t="n">
         <v>56789</v>
@@ -4191,7 +4191,7 @@
         <v>4589</v>
       </c>
       <c r="I70" t="n">
-        <v>22716</v>
+        <v>22743</v>
       </c>
       <c r="J70" t="n">
         <v>22.25</v>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="O70"/>
       <c r="P70" t="n">
-        <v>15.9</v>
+        <v>15.9333333333333</v>
       </c>
       <c r="Q70" t="n">
         <v>55943</v>
@@ -4254,7 +4254,7 @@
         <v>4593.7</v>
       </c>
       <c r="I71" t="n">
-        <v>22917</v>
+        <v>22944</v>
       </c>
       <c r="J71" t="n">
         <v>21.96</v>
@@ -4273,7 +4273,7 @@
       </c>
       <c r="O71"/>
       <c r="P71" t="n">
-        <v>15.5</v>
+        <v>15.5333333333333</v>
       </c>
       <c r="Q71" t="n">
         <v>58330</v>
@@ -4317,7 +4317,7 @@
         <v>4599</v>
       </c>
       <c r="I72" t="n">
-        <v>22744</v>
+        <v>22771</v>
       </c>
       <c r="J72" t="n">
         <v>21.82</v>
@@ -4336,7 +4336,7 @@
       </c>
       <c r="O72"/>
       <c r="P72" t="n">
-        <v>15.5</v>
+        <v>15.4666666666667</v>
       </c>
       <c r="Q72" t="n">
         <v>57532</v>
@@ -4380,7 +4380,7 @@
         <v>4604</v>
       </c>
       <c r="I73" t="n">
-        <v>22154</v>
+        <v>22182</v>
       </c>
       <c r="J73" t="n">
         <v>21.9</v>
@@ -4443,7 +4443,7 @@
         <v>4609</v>
       </c>
       <c r="I74" t="n">
-        <v>22397</v>
+        <v>22435</v>
       </c>
       <c r="J74" t="n">
         <v>22.24</v>
@@ -4462,7 +4462,7 @@
       </c>
       <c r="O74"/>
       <c r="P74" t="n">
-        <v>14.5</v>
+        <v>14.5666666666667</v>
       </c>
       <c r="Q74" t="n">
         <v>55596</v>
@@ -4506,7 +4506,7 @@
         <v>4614.7</v>
       </c>
       <c r="I75" t="n">
-        <v>23188</v>
+        <v>23226</v>
       </c>
       <c r="J75" t="n">
         <v>22.02</v>
@@ -4525,7 +4525,7 @@
       </c>
       <c r="O75"/>
       <c r="P75" t="n">
-        <v>14.4</v>
+        <v>14.3666666666667</v>
       </c>
       <c r="Q75" t="n">
         <v>57904</v>
@@ -4569,7 +4569,7 @@
         <v>4622</v>
       </c>
       <c r="I76" t="n">
-        <v>22607</v>
+        <v>22646</v>
       </c>
       <c r="J76" t="n">
         <v>21.53</v>
@@ -4588,7 +4588,7 @@
       </c>
       <c r="O76"/>
       <c r="P76" t="n">
-        <v>13.3</v>
+        <v>13.3333333333333</v>
       </c>
       <c r="Q76" t="n">
         <v>60869</v>
@@ -4632,7 +4632,7 @@
         <v>4630</v>
       </c>
       <c r="I77" t="n">
-        <v>22391</v>
+        <v>22431</v>
       </c>
       <c r="J77" t="n">
         <v>21.89</v>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="O77"/>
       <c r="P77" t="n">
-        <v>12.9</v>
+        <v>12.8333333333333</v>
       </c>
       <c r="Q77" t="n">
         <v>59675</v>
@@ -4695,7 +4695,7 @@
         <v>4638</v>
       </c>
       <c r="I78" t="n">
-        <v>22551</v>
+        <v>22588</v>
       </c>
       <c r="J78" t="n">
         <v>22.37</v>
@@ -4714,7 +4714,7 @@
       </c>
       <c r="O78"/>
       <c r="P78" t="n">
-        <v>12.8</v>
+        <v>12.8333333333333</v>
       </c>
       <c r="Q78" t="n">
         <v>61272</v>
@@ -4758,7 +4758,7 @@
         <v>4645.4</v>
       </c>
       <c r="I79" t="n">
-        <v>23234</v>
+        <v>23272</v>
       </c>
       <c r="J79" t="n">
         <v>21.81</v>
@@ -4821,7 +4821,7 @@
         <v>4656</v>
       </c>
       <c r="I80" t="n">
-        <v>23022</v>
+        <v>23061</v>
       </c>
       <c r="J80" t="n">
         <v>21.2</v>
@@ -4840,7 +4840,7 @@
       </c>
       <c r="O80"/>
       <c r="P80" t="n">
-        <v>11.7</v>
+        <v>11.6666666666667</v>
       </c>
       <c r="Q80" t="n">
         <v>65767</v>
@@ -4884,7 +4884,7 @@
         <v>4667</v>
       </c>
       <c r="I81" t="n">
-        <v>22908</v>
+        <v>22948</v>
       </c>
       <c r="J81" t="n">
         <v>22.05</v>
@@ -4903,7 +4903,7 @@
       </c>
       <c r="O81"/>
       <c r="P81" t="n">
-        <v>10.9</v>
+        <v>10.8666666666667</v>
       </c>
       <c r="Q81" t="n">
         <v>65772</v>
@@ -4947,7 +4947,7 @@
         <v>4677</v>
       </c>
       <c r="I82" t="n">
-        <v>23620</v>
+        <v>23660</v>
       </c>
       <c r="J82" t="n">
         <v>22.3</v>
@@ -4966,7 +4966,7 @@
       </c>
       <c r="O82"/>
       <c r="P82" t="n">
-        <v>10.6</v>
+        <v>10.6333333333333</v>
       </c>
       <c r="Q82" t="n">
         <v>78707</v>
@@ -5010,7 +5010,7 @@
         <v>4687.8</v>
       </c>
       <c r="I83" t="n">
-        <v>24806</v>
+        <v>24848</v>
       </c>
       <c r="J83" t="n">
         <v>21.86</v>
@@ -5073,7 +5073,7 @@
         <v>4701</v>
       </c>
       <c r="I84" t="n">
-        <v>24772</v>
+        <v>24816</v>
       </c>
       <c r="J84" t="n">
         <v>21.5</v>
@@ -5092,7 +5092,7 @@
       </c>
       <c r="O84"/>
       <c r="P84" t="n">
-        <v>9.6</v>
+        <v>9.53333333333333</v>
       </c>
       <c r="Q84" t="n">
         <v>81457</v>
@@ -5136,7 +5136,7 @@
         <v>4714</v>
       </c>
       <c r="I85" t="n">
-        <v>23620</v>
+        <v>23665</v>
       </c>
       <c r="J85" t="n">
         <v>21.91</v>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="O85"/>
       <c r="P85" t="n">
-        <v>9.4</v>
+        <v>9.43333333333333</v>
       </c>
       <c r="Q85" t="n">
         <v>82249</v>
@@ -5199,7 +5199,7 @@
         <v>4727</v>
       </c>
       <c r="I86" t="n">
-        <v>24740</v>
+        <v>24772</v>
       </c>
       <c r="J86" t="n">
         <v>22.55</v>
@@ -5218,7 +5218,7 @@
       </c>
       <c r="O86"/>
       <c r="P86" t="n">
-        <v>9</v>
+        <v>8.93333333333333</v>
       </c>
       <c r="Q86" t="n">
         <v>77001</v>
@@ -5262,7 +5262,7 @@
         <v>4739.6</v>
       </c>
       <c r="I87" t="n">
-        <v>25653</v>
+        <v>25687</v>
       </c>
       <c r="J87" t="n">
         <v>21.97</v>
@@ -5281,7 +5281,7 @@
       </c>
       <c r="O87"/>
       <c r="P87" t="n">
-        <v>8.8</v>
+        <v>8.86666666666667</v>
       </c>
       <c r="Q87" t="n">
         <v>77016</v>
@@ -5325,7 +5325,7 @@
         <v>4757</v>
       </c>
       <c r="I88" t="n">
-        <v>26321</v>
+        <v>26358</v>
       </c>
       <c r="J88" t="n">
         <v>21.56</v>
@@ -5344,7 +5344,7 @@
       </c>
       <c r="O88"/>
       <c r="P88" t="n">
-        <v>8.2</v>
+        <v>8.23333333333333</v>
       </c>
       <c r="Q88" t="n">
         <v>79920</v>
@@ -5388,7 +5388,7 @@
         <v>4775</v>
       </c>
       <c r="I89" t="n">
-        <v>24901</v>
+        <v>24939</v>
       </c>
       <c r="J89" t="n">
         <v>22.18</v>
@@ -5407,7 +5407,7 @@
       </c>
       <c r="O89"/>
       <c r="P89" t="n">
-        <v>7.5</v>
+        <v>7.56666666666667</v>
       </c>
       <c r="Q89" t="n">
         <v>89015</v>
@@ -5451,7 +5451,7 @@
         <v>4793</v>
       </c>
       <c r="I90" t="n">
-        <v>26341</v>
+        <v>26395</v>
       </c>
       <c r="J90" t="n">
         <v>22.69</v>
@@ -5470,7 +5470,7 @@
       </c>
       <c r="O90"/>
       <c r="P90" t="n">
-        <v>7.3</v>
+        <v>7.26666666666667</v>
       </c>
       <c r="Q90" t="n">
         <v>83278</v>
@@ -5514,7 +5514,7 @@
         <v>4810.9</v>
       </c>
       <c r="I91" t="n">
-        <v>27252</v>
+        <v>27309</v>
       </c>
       <c r="J91" t="n">
         <v>22.27</v>
@@ -5533,7 +5533,7 @@
       </c>
       <c r="O91"/>
       <c r="P91" t="n">
-        <v>6.7</v>
+        <v>6.66666666666667</v>
       </c>
       <c r="Q91" t="n">
         <v>83804</v>
@@ -5577,7 +5577,7 @@
         <v>4829</v>
       </c>
       <c r="I92" t="n">
-        <v>27783</v>
+        <v>27844</v>
       </c>
       <c r="J92" t="n">
         <v>22.16</v>
@@ -5640,7 +5640,7 @@
         <v>4848</v>
       </c>
       <c r="I93" t="n">
-        <v>26670</v>
+        <v>26734</v>
       </c>
       <c r="J93" t="n">
         <v>22.6</v>
@@ -5659,7 +5659,7 @@
       </c>
       <c r="O93"/>
       <c r="P93" t="n">
-        <v>6.4</v>
+        <v>6.43333333333333</v>
       </c>
       <c r="Q93" t="n">
         <v>96276</v>
@@ -5703,7 +5703,7 @@
         <v>4866</v>
       </c>
       <c r="I94" t="n">
-        <v>27064</v>
+        <v>27081</v>
       </c>
       <c r="J94" t="n">
         <v>23.4</v>
@@ -5722,7 +5722,7 @@
       </c>
       <c r="O94"/>
       <c r="P94" t="n">
-        <v>6</v>
+        <v>5.93333333333333</v>
       </c>
       <c r="Q94" t="n">
         <v>92196</v>
@@ -5766,7 +5766,7 @@
         <v>4884.9</v>
       </c>
       <c r="I95" t="n">
-        <v>28729</v>
+        <v>28748</v>
       </c>
       <c r="J95" t="n">
         <v>22.94</v>
@@ -5785,7 +5785,7 @@
       </c>
       <c r="O95"/>
       <c r="P95" t="n">
-        <v>5.9</v>
+        <v>5.86666666666667</v>
       </c>
       <c r="Q95" t="n">
         <v>93528</v>
@@ -5829,7 +5829,7 @@
         <v>4903</v>
       </c>
       <c r="I96" t="n">
-        <v>29000</v>
+        <v>29019</v>
       </c>
       <c r="J96" t="n">
         <v>22.62</v>
@@ -5892,7 +5892,7 @@
         <v>4922</v>
       </c>
       <c r="I97" t="n">
-        <v>28061</v>
+        <v>28081</v>
       </c>
       <c r="J97" t="n">
         <v>23.31</v>
@@ -5911,7 +5911,7 @@
       </c>
       <c r="O97"/>
       <c r="P97" t="n">
-        <v>5.7</v>
+        <v>5.73333333333333</v>
       </c>
       <c r="Q97" t="n">
         <v>99116</v>
@@ -5955,7 +5955,7 @@
         <v>4940</v>
       </c>
       <c r="I98" t="n">
-        <v>29221</v>
+        <v>29274</v>
       </c>
       <c r="J98" t="n">
         <v>24.05</v>
@@ -5976,7 +5976,7 @@
         <v>2107100</v>
       </c>
       <c r="P98" t="n">
-        <v>5</v>
+        <v>4.96666666666667</v>
       </c>
       <c r="Q98" t="n">
         <v>95715</v>
@@ -6020,7 +6020,7 @@
         <v>4958.5</v>
       </c>
       <c r="I99" t="n">
-        <v>30750</v>
+        <v>30806</v>
       </c>
       <c r="J99" t="n">
         <v>23.69</v>
@@ -6041,7 +6041,7 @@
         <v>2152133.33333333</v>
       </c>
       <c r="P99" t="n">
-        <v>5.2</v>
+        <v>5.16666666666667</v>
       </c>
       <c r="Q99" t="n">
         <v>97405</v>
@@ -6085,7 +6085,7 @@
         <v>4976</v>
       </c>
       <c r="I100" t="n">
-        <v>30569</v>
+        <v>30628</v>
       </c>
       <c r="J100" t="n">
         <v>23.54</v>
@@ -6150,7 +6150,7 @@
         <v>4994</v>
       </c>
       <c r="I101" t="n">
-        <v>30122</v>
+        <v>30185</v>
       </c>
       <c r="J101" t="n">
         <v>24.23</v>
@@ -6215,7 +6215,7 @@
         <v>5012</v>
       </c>
       <c r="I102" t="n">
-        <v>32462</v>
+        <v>32262</v>
       </c>
       <c r="J102" t="n">
         <v>24.76</v>
@@ -6236,7 +6236,7 @@
         <v>2180366.66666667</v>
       </c>
       <c r="P102" t="n">
-        <v>4.9</v>
+        <v>4.86666666666667</v>
       </c>
       <c r="Q102" t="n">
         <v>103998</v>
@@ -6280,7 +6280,7 @@
         <v>5029.9</v>
       </c>
       <c r="I103" t="n">
-        <v>32154</v>
+        <v>31972</v>
       </c>
       <c r="J103" t="n">
         <v>25.38</v>
@@ -6292,7 +6292,7 @@
         <v>101.433333333333</v>
       </c>
       <c r="M103" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="N103" t="n">
         <v>2161.3</v>
@@ -6301,7 +6301,7 @@
         <v>1905733.33333333</v>
       </c>
       <c r="P103" t="n">
-        <v>5.1</v>
+        <v>5.13333333333333</v>
       </c>
       <c r="Q103" t="n">
         <v>99800</v>
@@ -6345,7 +6345,7 @@
         <v>5041</v>
       </c>
       <c r="I104" t="n">
-        <v>31247</v>
+        <v>31069</v>
       </c>
       <c r="J104" t="n">
         <v>24.38</v>
@@ -6410,7 +6410,7 @@
         <v>5052</v>
       </c>
       <c r="I105" t="n">
-        <v>30989</v>
+        <v>30806</v>
       </c>
       <c r="J105" t="n">
         <v>25.57</v>
@@ -6431,7 +6431,7 @@
         <v>2065133.33333333</v>
       </c>
       <c r="P105" t="n">
-        <v>6.3</v>
+        <v>6.26666666666667</v>
       </c>
       <c r="Q105" t="n">
         <v>110731</v>
@@ -6479,7 +6479,7 @@
         <v>5064</v>
       </c>
       <c r="I106" t="n">
-        <v>31598</v>
+        <v>31237</v>
       </c>
       <c r="J106" t="n">
         <v>26.84</v>
@@ -6500,7 +6500,7 @@
         <v>1955900</v>
       </c>
       <c r="P106" t="n">
-        <v>7.3</v>
+        <v>7.33333333333333</v>
       </c>
       <c r="Q106" t="n">
         <v>118884</v>
@@ -6548,7 +6548,7 @@
         <v>5074.7</v>
       </c>
       <c r="I107" t="n">
-        <v>34232</v>
+        <v>33802</v>
       </c>
       <c r="J107" t="n">
         <v>26.08</v>
@@ -6569,7 +6569,7 @@
         <v>2069433.33333333</v>
       </c>
       <c r="P107" t="n">
-        <v>7</v>
+        <v>6.96666666666667</v>
       </c>
       <c r="Q107" t="n">
         <v>122488</v>
@@ -6617,7 +6617,7 @@
         <v>5102.025</v>
       </c>
       <c r="I108" t="n">
-        <v>35073</v>
+        <v>34570</v>
       </c>
       <c r="J108" t="n">
         <v>25.31</v>
@@ -6638,7 +6638,7 @@
         <v>2211866.66666667</v>
       </c>
       <c r="P108" t="n">
-        <v>5.5</v>
+        <v>5.46666666666667</v>
       </c>
       <c r="Q108" t="n">
         <v>132215</v>
@@ -6686,7 +6686,7 @@
         <v>5129.35</v>
       </c>
       <c r="I109" t="n">
-        <v>33568</v>
+        <v>33015</v>
       </c>
       <c r="J109" t="n">
         <v>26.29</v>
@@ -6707,7 +6707,7 @@
         <v>2260666.66666667</v>
       </c>
       <c r="P109" t="n">
-        <v>5.2</v>
+        <v>5.23333333333333</v>
       </c>
       <c r="Q109" t="n">
         <v>127184</v>
@@ -6755,7 +6755,7 @@
         <v>5156.675</v>
       </c>
       <c r="I110" t="n">
-        <v>34180</v>
+        <v>34043</v>
       </c>
       <c r="J110" t="n">
         <v>27.46</v>
@@ -6767,7 +6767,7 @@
         <v>107.5</v>
       </c>
       <c r="M110" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="N110" t="n">
         <v>2559.4</v>
@@ -6776,7 +6776,7 @@
         <v>2284166.66666667</v>
       </c>
       <c r="P110" t="n">
-        <v>4.9</v>
+        <v>4.86666666666667</v>
       </c>
       <c r="Q110" t="n">
         <v>127670</v>
@@ -6824,7 +6824,7 @@
         <v>5184</v>
       </c>
       <c r="I111" t="n">
-        <v>36757</v>
+        <v>36627</v>
       </c>
       <c r="J111" t="n">
         <v>26.76</v>
@@ -6836,7 +6836,7 @@
         <v>111.6</v>
       </c>
       <c r="M111" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="N111" t="n">
         <v>2601.2</v>
@@ -6893,7 +6893,7 @@
         <v>5208.4</v>
       </c>
       <c r="I112" t="n">
-        <v>37231</v>
+        <v>37065</v>
       </c>
       <c r="J112" t="n">
         <v>26.23</v>
@@ -6914,7 +6914,7 @@
         <v>2384666.66666667</v>
       </c>
       <c r="P112" t="n">
-        <v>4.2</v>
+        <v>4.26666666666667</v>
       </c>
       <c r="Q112" t="n">
         <v>141833</v>
@@ -6964,7 +6964,7 @@
         <v>5232.8</v>
       </c>
       <c r="I113" t="n">
-        <v>35463</v>
+        <v>35289</v>
       </c>
       <c r="J113" t="n">
         <v>27.9</v>
@@ -6985,7 +6985,7 @@
         <v>2399700</v>
       </c>
       <c r="P113" t="n">
-        <v>4.4</v>
+        <v>4.46666666666667</v>
       </c>
       <c r="Q113" t="n">
         <v>137088</v>
@@ -7035,7 +7035,7 @@
         <v>5257.2</v>
       </c>
       <c r="I114" t="n">
-        <v>38605</v>
+        <v>38607</v>
       </c>
       <c r="J114" t="n">
         <v>28.55</v>
@@ -7106,7 +7106,7 @@
         <v>5281.6</v>
       </c>
       <c r="I115" t="n">
-        <v>40437</v>
+        <v>40465</v>
       </c>
       <c r="J115" t="n">
         <v>28.19</v>
@@ -7118,7 +7118,7 @@
         <v>117.7</v>
       </c>
       <c r="M115" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="N115" t="n">
         <v>2682.7</v>
@@ -7127,7 +7127,7 @@
         <v>2430066.66666667</v>
       </c>
       <c r="P115" t="n">
-        <v>4.2</v>
+        <v>4.16666666666667</v>
       </c>
       <c r="Q115" t="n">
         <v>130697</v>
@@ -7177,7 +7177,7 @@
         <v>5306.275</v>
       </c>
       <c r="I116" t="n">
-        <v>40829</v>
+        <v>40861</v>
       </c>
       <c r="J116" t="n">
         <v>27.84</v>
@@ -7189,7 +7189,7 @@
         <v>119.033333333333</v>
       </c>
       <c r="M116" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="N116" t="n">
         <v>2696.2</v>
@@ -7198,7 +7198,7 @@
         <v>2447500</v>
       </c>
       <c r="P116" t="n">
-        <v>4.4</v>
+        <v>4.43333333333333</v>
       </c>
       <c r="Q116" t="n">
         <v>135161</v>
@@ -7239,7 +7239,7 @@
         <v>1390.16802305877</v>
       </c>
       <c r="F117" t="n">
-        <v>124.7</v>
+        <v>124.8</v>
       </c>
       <c r="G117" t="n">
         <v>36724.99</v>
@@ -7248,7 +7248,7 @@
         <v>5330.95</v>
       </c>
       <c r="I117" t="n">
-        <v>39513</v>
+        <v>39549</v>
       </c>
       <c r="J117" t="n">
         <v>28.44</v>
@@ -7260,7 +7260,7 @@
         <v>118.933333333333</v>
       </c>
       <c r="M117" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="N117" t="n">
         <v>2706.4</v>
@@ -7269,7 +7269,7 @@
         <v>2456000</v>
       </c>
       <c r="P117" t="n">
-        <v>4.5</v>
+        <v>4.43333333333333</v>
       </c>
       <c r="Q117" t="n">
         <v>128084</v>
@@ -7319,7 +7319,7 @@
         <v>5355.625</v>
       </c>
       <c r="I118" t="n">
-        <v>43056</v>
+        <v>43059</v>
       </c>
       <c r="J118" t="n">
         <v>29.96</v>
@@ -7331,7 +7331,7 @@
         <v>118.2</v>
       </c>
       <c r="M118" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="N118" t="n">
         <v>2704.2</v>
@@ -7340,7 +7340,7 @@
         <v>2452633.33333333</v>
       </c>
       <c r="P118" t="n">
-        <v>4.3</v>
+        <v>4.26666666666667</v>
       </c>
       <c r="Q118" t="n">
         <v>127278</v>
@@ -7352,7 +7352,7 @@
         <v>712.091</v>
       </c>
       <c r="T118" t="n">
-        <v>54026587</v>
+        <v>53998355</v>
       </c>
       <c r="U118" t="n">
         <v>29596</v>
@@ -7390,7 +7390,7 @@
         <v>5380</v>
       </c>
       <c r="I119" t="n">
-        <v>43623</v>
+        <v>43618</v>
       </c>
       <c r="J119" t="n">
         <v>29.75</v>
@@ -7423,7 +7423,7 @@
         <v>710.331</v>
       </c>
       <c r="T119" t="n">
-        <v>54179804</v>
+        <v>54218647</v>
       </c>
       <c r="U119" t="n">
         <v>30490</v>
@@ -7461,7 +7461,7 @@
         <v>5396.35</v>
       </c>
       <c r="I120" t="n">
-        <v>44400</v>
+        <v>44381</v>
       </c>
       <c r="J120" t="n">
         <v>29.23</v>
@@ -7482,7 +7482,7 @@
         <v>2507066.66666667</v>
       </c>
       <c r="P120" t="n">
-        <v>4.2</v>
+        <v>4.23333333333333</v>
       </c>
       <c r="Q120" t="n">
         <v>140564</v>
@@ -7494,7 +7494,7 @@
         <v>755.066</v>
       </c>
       <c r="T120" t="n">
-        <v>57703021</v>
+        <v>57909652</v>
       </c>
       <c r="U120" t="n">
         <v>31070</v>
@@ -7523,7 +7523,7 @@
         <v>1468.7979519018</v>
       </c>
       <c r="F121" t="n">
-        <v>141.1</v>
+        <v>141.2</v>
       </c>
       <c r="G121" t="n">
         <v>39259.96</v>
@@ -7532,7 +7532,7 @@
         <v>5412.4</v>
       </c>
       <c r="I121" t="n">
-        <v>43180</v>
+        <v>43133</v>
       </c>
       <c r="J121" t="n">
         <v>30.18</v>
@@ -7544,7 +7544,7 @@
         <v>119.566666666667</v>
       </c>
       <c r="M121" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="N121" t="n">
         <v>2776.4</v>
@@ -7553,7 +7553,7 @@
         <v>2519733.33333333</v>
       </c>
       <c r="P121" t="n">
-        <v>4.3</v>
+        <v>4.26666666666667</v>
       </c>
       <c r="Q121" t="n">
         <v>142896</v>
@@ -7565,7 +7565,7 @@
         <v>754.761</v>
       </c>
       <c r="T121" t="n">
-        <v>57488299</v>
+        <v>57607313</v>
       </c>
       <c r="U121" t="n">
         <v>34390</v>
@@ -7594,7 +7594,7 @@
         <v>1344.14742923704</v>
       </c>
       <c r="F122" t="n">
-        <v>140.6</v>
+        <v>140.7</v>
       </c>
       <c r="G122" t="n">
         <v>41079.23</v>
@@ -7603,7 +7603,7 @@
         <v>5428.45</v>
       </c>
       <c r="I122" t="n">
-        <v>44718</v>
+        <v>44847</v>
       </c>
       <c r="J122" t="n">
         <v>31.86</v>
@@ -7615,7 +7615,7 @@
         <v>120.133333333333</v>
       </c>
       <c r="M122" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="N122" t="n">
         <v>2794.1</v>
@@ -7624,7 +7624,7 @@
         <v>2510133.33333333</v>
       </c>
       <c r="P122" t="n">
-        <v>4.5</v>
+        <v>4.43333333333333</v>
       </c>
       <c r="Q122" t="n">
         <v>152651</v>
@@ -7633,10 +7633,10 @@
         <v>214568</v>
       </c>
       <c r="S122" t="n">
-        <v>1203.456</v>
+        <v>1201.926</v>
       </c>
       <c r="T122" t="n">
-        <v>88232913</v>
+        <v>87996779</v>
       </c>
       <c r="U122" t="n">
         <v>30086</v>
@@ -7665,7 +7665,7 @@
         <v>1414.37789377804</v>
       </c>
       <c r="F123" t="n">
-        <v>148.2</v>
+        <v>150.3</v>
       </c>
       <c r="G123" t="n">
         <v>40120.89</v>
@@ -7673,7 +7673,9 @@
       <c r="H123" t="n">
         <v>5444.5</v>
       </c>
-      <c r="I123"/>
+      <c r="I123" t="n">
+        <v>45928</v>
+      </c>
       <c r="J123" t="n">
         <v>31.04</v>
       </c>
@@ -7690,7 +7692,7 @@
         <v>2818.1</v>
       </c>
       <c r="O123" t="n">
-        <v>2553533.33333333</v>
+        <v>2554266.66666667</v>
       </c>
       <c r="P123" t="n">
         <v>4.6</v>
@@ -7727,11 +7729,15 @@
       <c r="I124"/>
       <c r="J124"/>
       <c r="K124"/>
-      <c r="L124"/>
+      <c r="L124" t="n">
+        <v>122.533333333333</v>
+      </c>
       <c r="M124"/>
       <c r="N124"/>
       <c r="O124"/>
-      <c r="P124"/>
+      <c r="P124" t="n">
+        <v>4.73333333333333</v>
+      </c>
       <c r="Q124"/>
       <c r="R124"/>
       <c r="S124"/>

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -7718,7 +7718,9 @@
         <v>45839</v>
       </c>
       <c r="B124"/>
-      <c r="C124"/>
+      <c r="C124" t="n">
+        <v>7215000</v>
+      </c>
       <c r="D124"/>
       <c r="E124"/>
       <c r="F124"/>

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -6446,13 +6446,13 @@
         <v>39499018</v>
       </c>
       <c r="U105" t="n">
-        <v>27498</v>
+        <v>27499</v>
       </c>
       <c r="V105" t="n">
         <v>25628</v>
       </c>
       <c r="W105" t="n">
-        <v>-1870</v>
+        <v>-1871</v>
       </c>
     </row>
     <row r="106">
@@ -6515,13 +6515,13 @@
         <v>40352700</v>
       </c>
       <c r="U106" t="n">
-        <v>25564</v>
+        <v>25558</v>
       </c>
       <c r="V106" t="n">
-        <v>19571</v>
+        <v>19568</v>
       </c>
       <c r="W106" t="n">
-        <v>-5993</v>
+        <v>-5989</v>
       </c>
     </row>
     <row r="107">
@@ -6584,13 +6584,13 @@
         <v>40586158</v>
       </c>
       <c r="U107" t="n">
-        <v>26230</v>
+        <v>26016</v>
       </c>
       <c r="V107" t="n">
-        <v>23800</v>
+        <v>23816</v>
       </c>
       <c r="W107" t="n">
-        <v>-2430</v>
+        <v>-2200</v>
       </c>
     </row>
     <row r="108">
@@ -6653,13 +6653,13 @@
         <v>41140686</v>
       </c>
       <c r="U108" t="n">
-        <v>26583</v>
+        <v>26576</v>
       </c>
       <c r="V108" t="n">
-        <v>24033</v>
+        <v>24028</v>
       </c>
       <c r="W108" t="n">
-        <v>-2550</v>
+        <v>-2549</v>
       </c>
     </row>
     <row r="109">
@@ -6722,13 +6722,13 @@
         <v>43635570</v>
       </c>
       <c r="U109" t="n">
-        <v>27408</v>
+        <v>27381</v>
       </c>
       <c r="V109" t="n">
-        <v>32251</v>
+        <v>32256</v>
       </c>
       <c r="W109" t="n">
-        <v>4842</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="110">
@@ -6791,13 +6791,13 @@
         <v>52199816</v>
       </c>
       <c r="U110" t="n">
-        <v>24611</v>
+        <v>24686</v>
       </c>
       <c r="V110" t="n">
-        <v>24363</v>
+        <v>24337</v>
       </c>
       <c r="W110" t="n">
-        <v>-248</v>
+        <v>-350</v>
       </c>
     </row>
     <row r="111">
@@ -6860,13 +6860,13 @@
         <v>52834241</v>
       </c>
       <c r="U111" t="n">
-        <v>26022</v>
+        <v>26097</v>
       </c>
       <c r="V111" t="n">
-        <v>27689</v>
+        <v>27634</v>
       </c>
       <c r="W111" t="n">
-        <v>1667</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="112">
@@ -6929,13 +6929,13 @@
         <v>53727718</v>
       </c>
       <c r="U112" t="n">
-        <v>26881</v>
+        <v>26957</v>
       </c>
       <c r="V112" t="n">
-        <v>28814</v>
+        <v>28777</v>
       </c>
       <c r="W112" t="n">
-        <v>1934</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="113">
@@ -7000,13 +7000,13 @@
         <v>50000866</v>
       </c>
       <c r="U113" t="n">
-        <v>29809</v>
+        <v>29863</v>
       </c>
       <c r="V113" t="n">
-        <v>35142</v>
+        <v>35091</v>
       </c>
       <c r="W113" t="n">
-        <v>5332</v>
+        <v>5228</v>
       </c>
     </row>
     <row r="114">
@@ -7071,13 +7071,13 @@
         <v>50949371</v>
       </c>
       <c r="U114" t="n">
-        <v>27040</v>
+        <v>27218</v>
       </c>
       <c r="V114" t="n">
-        <v>27670</v>
+        <v>27625</v>
       </c>
       <c r="W114" t="n">
-        <v>630</v>
+        <v>407</v>
       </c>
     </row>
     <row r="115">
@@ -7142,13 +7142,13 @@
         <v>50144962</v>
       </c>
       <c r="U115" t="n">
-        <v>28162</v>
+        <v>28343</v>
       </c>
       <c r="V115" t="n">
-        <v>29729</v>
+        <v>29661</v>
       </c>
       <c r="W115" t="n">
-        <v>1567</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="116">
@@ -7213,13 +7213,13 @@
         <v>47580578</v>
       </c>
       <c r="U116" t="n">
-        <v>29020</v>
+        <v>29178</v>
       </c>
       <c r="V116" t="n">
-        <v>28886</v>
+        <v>28840</v>
       </c>
       <c r="W116" t="n">
-        <v>-134</v>
+        <v>-338</v>
       </c>
     </row>
     <row r="117">
@@ -7284,13 +7284,13 @@
         <v>47354838</v>
       </c>
       <c r="U117" t="n">
-        <v>31761</v>
+        <v>31882</v>
       </c>
       <c r="V117" t="n">
-        <v>37698</v>
+        <v>37654</v>
       </c>
       <c r="W117" t="n">
-        <v>5937</v>
+        <v>5772</v>
       </c>
     </row>
     <row r="118">
@@ -7355,13 +7355,13 @@
         <v>53998355</v>
       </c>
       <c r="U118" t="n">
-        <v>29596</v>
+        <v>29693</v>
       </c>
       <c r="V118" t="n">
-        <v>28932</v>
+        <v>28896</v>
       </c>
       <c r="W118" t="n">
-        <v>-664</v>
+        <v>-797</v>
       </c>
     </row>
     <row r="119">
@@ -7426,13 +7426,13 @@
         <v>54218647</v>
       </c>
       <c r="U119" t="n">
-        <v>30490</v>
+        <v>30601</v>
       </c>
       <c r="V119" t="n">
-        <v>33546</v>
+        <v>33532</v>
       </c>
       <c r="W119" t="n">
-        <v>3055</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="120">
@@ -7497,13 +7497,13 @@
         <v>57909652</v>
       </c>
       <c r="U120" t="n">
-        <v>31070</v>
+        <v>31210</v>
       </c>
       <c r="V120" t="n">
-        <v>46533</v>
+        <v>46615</v>
       </c>
       <c r="W120" t="n">
-        <v>15463</v>
+        <v>15406</v>
       </c>
     </row>
     <row r="121">
@@ -7568,13 +7568,13 @@
         <v>57607313</v>
       </c>
       <c r="U121" t="n">
-        <v>34390</v>
+        <v>34494</v>
       </c>
       <c r="V121" t="n">
-        <v>39530</v>
+        <v>39560</v>
       </c>
       <c r="W121" t="n">
-        <v>5140</v>
+        <v>5066</v>
       </c>
     </row>
     <row r="122">
@@ -7639,13 +7639,13 @@
         <v>87996779</v>
       </c>
       <c r="U122" t="n">
-        <v>30086</v>
+        <v>30389</v>
       </c>
       <c r="V122" t="n">
-        <v>30924</v>
+        <v>30909</v>
       </c>
       <c r="W122" t="n">
-        <v>838</v>
+        <v>521</v>
       </c>
     </row>
     <row r="123">
@@ -7709,9 +7709,15 @@
       <c r="T123" t="n">
         <v>62909476</v>
       </c>
-      <c r="U123"/>
-      <c r="V123"/>
-      <c r="W123"/>
+      <c r="U123" t="n">
+        <v>32817</v>
+      </c>
+      <c r="V123" t="n">
+        <v>34827</v>
+      </c>
+      <c r="W123" t="n">
+        <v>2010</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -7727,7 +7727,9 @@
       <c r="C124" t="n">
         <v>7215000</v>
       </c>
-      <c r="D124"/>
+      <c r="D124" t="n">
+        <v>112.2</v>
+      </c>
       <c r="E124"/>
       <c r="F124"/>
       <c r="G124"/>

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -976,7 +976,7 @@
       </c>
       <c r="O14"/>
       <c r="P14" t="n">
-        <v>8.8</v>
+        <v>8.83333333333333</v>
       </c>
       <c r="Q14" t="n">
         <v>34079</v>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="O29"/>
       <c r="P29" t="n">
-        <v>4.4</v>
+        <v>4.43333333333333</v>
       </c>
       <c r="Q29" t="n">
         <v>46366</v>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="O37"/>
       <c r="P37" t="n">
-        <v>4.73333333333333</v>
+        <v>4.76666666666667</v>
       </c>
       <c r="Q37" t="n">
         <v>52479</v>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="O43"/>
       <c r="P43" t="n">
-        <v>4.9</v>
+        <v>4.86666666666667</v>
       </c>
       <c r="Q43" t="n">
         <v>55841</v>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="O53"/>
       <c r="P53" t="n">
-        <v>5.23333333333333</v>
+        <v>5.2</v>
       </c>
       <c r="Q53" t="n">
         <v>62392</v>
@@ -4147,7 +4147,7 @@
       </c>
       <c r="O69"/>
       <c r="P69" t="n">
-        <v>15.8333333333333</v>
+        <v>15.8666666666667</v>
       </c>
       <c r="Q69" t="n">
         <v>56789</v>
@@ -4336,7 +4336,7 @@
       </c>
       <c r="O72"/>
       <c r="P72" t="n">
-        <v>15.4666666666667</v>
+        <v>15.5</v>
       </c>
       <c r="Q72" t="n">
         <v>57532</v>
@@ -4462,7 +4462,7 @@
       </c>
       <c r="O74"/>
       <c r="P74" t="n">
-        <v>14.5666666666667</v>
+        <v>14.5333333333333</v>
       </c>
       <c r="Q74" t="n">
         <v>55596</v>
@@ -5029,7 +5029,7 @@
       </c>
       <c r="O83"/>
       <c r="P83" t="n">
-        <v>10.1</v>
+        <v>10.0666666666667</v>
       </c>
       <c r="Q83" t="n">
         <v>76638</v>
@@ -5281,7 +5281,7 @@
       </c>
       <c r="O87"/>
       <c r="P87" t="n">
-        <v>8.86666666666667</v>
+        <v>8.8</v>
       </c>
       <c r="Q87" t="n">
         <v>77016</v>
@@ -6171,7 +6171,7 @@
         <v>2180333.33333333</v>
       </c>
       <c r="P101" t="n">
-        <v>4.8</v>
+        <v>4.76666666666667</v>
       </c>
       <c r="Q101" t="n">
         <v>104858</v>
@@ -6500,7 +6500,7 @@
         <v>1955900</v>
       </c>
       <c r="P106" t="n">
-        <v>7.33333333333333</v>
+        <v>7.36666666666667</v>
       </c>
       <c r="Q106" t="n">
         <v>118884</v>
@@ -6914,7 +6914,7 @@
         <v>2384666.66666667</v>
       </c>
       <c r="P112" t="n">
-        <v>4.26666666666667</v>
+        <v>4.23333333333333</v>
       </c>
       <c r="Q112" t="n">
         <v>141833</v>
@@ -6985,7 +6985,7 @@
         <v>2399700</v>
       </c>
       <c r="P113" t="n">
-        <v>4.46666666666667</v>
+        <v>4.43333333333333</v>
       </c>
       <c r="Q113" t="n">
         <v>137088</v>
@@ -7198,7 +7198,7 @@
         <v>2447500</v>
       </c>
       <c r="P116" t="n">
-        <v>4.43333333333333</v>
+        <v>4.4</v>
       </c>
       <c r="Q116" t="n">
         <v>135161</v>
@@ -7553,7 +7553,7 @@
         <v>2519733.33333333</v>
       </c>
       <c r="P121" t="n">
-        <v>4.26666666666667</v>
+        <v>4.3</v>
       </c>
       <c r="Q121" t="n">
         <v>142896</v>
@@ -7730,7 +7730,9 @@
       <c r="D124" t="n">
         <v>112.2</v>
       </c>
-      <c r="E124"/>
+      <c r="E124" t="n">
+        <v>1427.57260582941</v>
+      </c>
       <c r="F124"/>
       <c r="G124"/>
       <c r="H124" t="n">
@@ -7746,7 +7748,7 @@
       <c r="N124"/>
       <c r="O124"/>
       <c r="P124" t="n">
-        <v>4.73333333333333</v>
+        <v>5.03333333333333</v>
       </c>
       <c r="Q124"/>
       <c r="R124"/>

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -7097,7 +7097,7 @@
         <v>1301.63108566465</v>
       </c>
       <c r="F115" t="n">
-        <v>114.9</v>
+        <v>114.8</v>
       </c>
       <c r="G115" t="n">
         <v>35473.08</v>
@@ -7168,7 +7168,7 @@
         <v>1287.97278021242</v>
       </c>
       <c r="F116" t="n">
-        <v>115.4</v>
+        <v>115.3</v>
       </c>
       <c r="G116" t="n">
         <v>34901.13</v>
@@ -7733,7 +7733,9 @@
       <c r="E124" t="n">
         <v>1427.57260582941</v>
       </c>
-      <c r="F124"/>
+      <c r="F124" t="n">
+        <v>152.1</v>
+      </c>
       <c r="G124"/>
       <c r="H124" t="n">
         <v>5458.625</v>

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -7748,7 +7748,9 @@
       </c>
       <c r="M124"/>
       <c r="N124"/>
-      <c r="O124"/>
+      <c r="O124" t="n">
+        <v>2565166.66666667</v>
+      </c>
       <c r="P124" t="n">
         <v>5.03333333333333</v>
       </c>

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -7633,10 +7633,10 @@
         <v>214568</v>
       </c>
       <c r="S122" t="n">
-        <v>1201.926</v>
+        <v>1195.089</v>
       </c>
       <c r="T122" t="n">
-        <v>87996779</v>
+        <v>87467279</v>
       </c>
       <c r="U122" t="n">
         <v>30389</v>
@@ -7756,8 +7756,12 @@
       </c>
       <c r="Q124"/>
       <c r="R124"/>
-      <c r="S124"/>
-      <c r="T124"/>
+      <c r="S124" t="n">
+        <v>871.483</v>
+      </c>
+      <c r="T124" t="n">
+        <v>61827974</v>
+      </c>
       <c r="U124"/>
       <c r="V124"/>
       <c r="W124"/>

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -976,7 +976,7 @@
       </c>
       <c r="O14"/>
       <c r="P14" t="n">
-        <v>8.83333333333333</v>
+        <v>8.8</v>
       </c>
       <c r="Q14" t="n">
         <v>34079</v>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="O16"/>
       <c r="P16" t="n">
-        <v>7.26666666666667</v>
+        <v>7.3</v>
       </c>
       <c r="Q16" t="n">
         <v>36657</v>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="O17"/>
       <c r="P17" t="n">
-        <v>6.66666666666667</v>
+        <v>6.7</v>
       </c>
       <c r="Q17" t="n">
         <v>35499</v>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="O18"/>
       <c r="P18" t="n">
-        <v>6.26666666666667</v>
+        <v>6.3</v>
       </c>
       <c r="Q18" t="n">
         <v>37412</v>
@@ -1258,7 +1258,7 @@
       </c>
       <c r="O20"/>
       <c r="P20" t="n">
-        <v>5.43333333333333</v>
+        <v>5.4</v>
       </c>
       <c r="Q20" t="n">
         <v>40112</v>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="O24"/>
       <c r="P24" t="n">
-        <v>4.23333333333333</v>
+        <v>4.2</v>
       </c>
       <c r="Q24" t="n">
         <v>43730</v>
@@ -1586,7 +1586,7 @@
       </c>
       <c r="O26"/>
       <c r="P26" t="n">
-        <v>3.96666666666667</v>
+        <v>4</v>
       </c>
       <c r="Q26" t="n">
         <v>43987</v>
@@ -1700,7 +1700,7 @@
       </c>
       <c r="O28"/>
       <c r="P28" t="n">
-        <v>4.36666666666667</v>
+        <v>4.4</v>
       </c>
       <c r="Q28" t="n">
         <v>44998</v>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="O29"/>
       <c r="P29" t="n">
-        <v>4.43333333333333</v>
+        <v>4.4</v>
       </c>
       <c r="Q29" t="n">
         <v>46366</v>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="O30"/>
       <c r="P30" t="n">
-        <v>4.53333333333333</v>
+        <v>4.5</v>
       </c>
       <c r="Q30" t="n">
         <v>46358</v>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="O31"/>
       <c r="P31" t="n">
-        <v>4.63333333333333</v>
+        <v>4.6</v>
       </c>
       <c r="Q31" t="n">
         <v>47246</v>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="O33"/>
       <c r="P33" t="n">
-        <v>5.26666666666667</v>
+        <v>5.3</v>
       </c>
       <c r="Q33" t="n">
         <v>49467</v>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="O34"/>
       <c r="P34" t="n">
-        <v>4.83333333333333</v>
+        <v>4.8</v>
       </c>
       <c r="Q34" t="n">
         <v>47354</v>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="O35"/>
       <c r="P35" t="n">
-        <v>4.76666666666667</v>
+        <v>4.8</v>
       </c>
       <c r="Q35" t="n">
         <v>48550</v>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="O37"/>
       <c r="P37" t="n">
-        <v>4.76666666666667</v>
+        <v>4.8</v>
       </c>
       <c r="Q37" t="n">
         <v>52479</v>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="O38"/>
       <c r="P38" t="n">
-        <v>5.13333333333333</v>
+        <v>5.1</v>
       </c>
       <c r="Q38" t="n">
         <v>50992</v>
@@ -2339,7 +2339,7 @@
       </c>
       <c r="O39"/>
       <c r="P39" t="n">
-        <v>4.66666666666667</v>
+        <v>4.7</v>
       </c>
       <c r="Q39" t="n">
         <v>52766</v>
@@ -2516,7 +2516,7 @@
       </c>
       <c r="O42"/>
       <c r="P42" t="n">
-        <v>4.43333333333333</v>
+        <v>4.4</v>
       </c>
       <c r="Q42" t="n">
         <v>54001</v>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="O43"/>
       <c r="P43" t="n">
-        <v>4.86666666666667</v>
+        <v>4.9</v>
       </c>
       <c r="Q43" t="n">
         <v>55841</v>
@@ -2693,7 +2693,7 @@
       </c>
       <c r="O45"/>
       <c r="P45" t="n">
-        <v>4.53333333333333</v>
+        <v>4.5</v>
       </c>
       <c r="Q45" t="n">
         <v>57619</v>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="O47"/>
       <c r="P47" t="n">
-        <v>4.73333333333333</v>
+        <v>4.8</v>
       </c>
       <c r="Q47" t="n">
         <v>57867</v>
@@ -2929,7 +2929,7 @@
       </c>
       <c r="O49"/>
       <c r="P49" t="n">
-        <v>4.63333333333333</v>
+        <v>4.6</v>
       </c>
       <c r="Q49" t="n">
         <v>59403</v>
@@ -3226,7 +3226,7 @@
       </c>
       <c r="O54"/>
       <c r="P54" t="n">
-        <v>5.36666666666667</v>
+        <v>5.4</v>
       </c>
       <c r="Q54" t="n">
         <v>60366</v>
@@ -3287,7 +3287,7 @@
       </c>
       <c r="O55"/>
       <c r="P55" t="n">
-        <v>5.93333333333333</v>
+        <v>5.9</v>
       </c>
       <c r="Q55" t="n">
         <v>59104</v>
@@ -3348,7 +3348,7 @@
       </c>
       <c r="O56"/>
       <c r="P56" t="n">
-        <v>7.36666666666667</v>
+        <v>7.4</v>
       </c>
       <c r="Q56" t="n">
         <v>59074</v>
@@ -3409,7 +3409,7 @@
       </c>
       <c r="O57"/>
       <c r="P57" t="n">
-        <v>8.53333333333333</v>
+        <v>8.6</v>
       </c>
       <c r="Q57" t="n">
         <v>55973</v>
@@ -3470,7 +3470,7 @@
       </c>
       <c r="O58"/>
       <c r="P58" t="n">
-        <v>10.8666666666667</v>
+        <v>10.9</v>
       </c>
       <c r="Q58" t="n">
         <v>56058</v>
@@ -3653,7 +3653,7 @@
       </c>
       <c r="O61"/>
       <c r="P61" t="n">
-        <v>13.8333333333333</v>
+        <v>13.8</v>
       </c>
       <c r="Q61" t="n">
         <v>54354</v>
@@ -3775,7 +3775,7 @@
       </c>
       <c r="O63"/>
       <c r="P63" t="n">
-        <v>14.3666666666667</v>
+        <v>14.4</v>
       </c>
       <c r="Q63" t="n">
         <v>56722</v>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="O65"/>
       <c r="P65" t="n">
-        <v>15.6333333333333</v>
+        <v>15.7</v>
       </c>
       <c r="Q65" t="n">
         <v>56330</v>
@@ -3958,7 +3958,7 @@
       </c>
       <c r="O66"/>
       <c r="P66" t="n">
-        <v>15.1333333333333</v>
+        <v>15.1</v>
       </c>
       <c r="Q66" t="n">
         <v>57110</v>
@@ -4021,7 +4021,7 @@
       </c>
       <c r="O67"/>
       <c r="P67" t="n">
-        <v>15.0333333333333</v>
+        <v>15.1</v>
       </c>
       <c r="Q67" t="n">
         <v>58200</v>
@@ -4147,7 +4147,7 @@
       </c>
       <c r="O69"/>
       <c r="P69" t="n">
-        <v>15.8666666666667</v>
+        <v>15.9</v>
       </c>
       <c r="Q69" t="n">
         <v>56789</v>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="O70"/>
       <c r="P70" t="n">
-        <v>15.9333333333333</v>
+        <v>15.9</v>
       </c>
       <c r="Q70" t="n">
         <v>55943</v>
@@ -4273,7 +4273,7 @@
       </c>
       <c r="O71"/>
       <c r="P71" t="n">
-        <v>15.5333333333333</v>
+        <v>15.5</v>
       </c>
       <c r="Q71" t="n">
         <v>58330</v>
@@ -4462,7 +4462,7 @@
       </c>
       <c r="O74"/>
       <c r="P74" t="n">
-        <v>14.5333333333333</v>
+        <v>14.5</v>
       </c>
       <c r="Q74" t="n">
         <v>55596</v>
@@ -4525,7 +4525,7 @@
       </c>
       <c r="O75"/>
       <c r="P75" t="n">
-        <v>14.3666666666667</v>
+        <v>14.4</v>
       </c>
       <c r="Q75" t="n">
         <v>57904</v>
@@ -4588,7 +4588,7 @@
       </c>
       <c r="O76"/>
       <c r="P76" t="n">
-        <v>13.3333333333333</v>
+        <v>13.3</v>
       </c>
       <c r="Q76" t="n">
         <v>60869</v>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="O77"/>
       <c r="P77" t="n">
-        <v>12.8333333333333</v>
+        <v>12.9</v>
       </c>
       <c r="Q77" t="n">
         <v>59675</v>
@@ -4714,7 +4714,7 @@
       </c>
       <c r="O78"/>
       <c r="P78" t="n">
-        <v>12.8333333333333</v>
+        <v>12.8</v>
       </c>
       <c r="Q78" t="n">
         <v>61272</v>
@@ -4840,7 +4840,7 @@
       </c>
       <c r="O80"/>
       <c r="P80" t="n">
-        <v>11.6666666666667</v>
+        <v>11.7</v>
       </c>
       <c r="Q80" t="n">
         <v>65767</v>
@@ -4903,7 +4903,7 @@
       </c>
       <c r="O81"/>
       <c r="P81" t="n">
-        <v>10.8666666666667</v>
+        <v>10.9</v>
       </c>
       <c r="Q81" t="n">
         <v>65772</v>
@@ -4966,7 +4966,7 @@
       </c>
       <c r="O82"/>
       <c r="P82" t="n">
-        <v>10.6333333333333</v>
+        <v>10.6</v>
       </c>
       <c r="Q82" t="n">
         <v>78707</v>
@@ -5029,7 +5029,7 @@
       </c>
       <c r="O83"/>
       <c r="P83" t="n">
-        <v>10.0666666666667</v>
+        <v>10.1</v>
       </c>
       <c r="Q83" t="n">
         <v>76638</v>
@@ -5092,7 +5092,7 @@
       </c>
       <c r="O84"/>
       <c r="P84" t="n">
-        <v>9.53333333333333</v>
+        <v>9.6</v>
       </c>
       <c r="Q84" t="n">
         <v>81457</v>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="O85"/>
       <c r="P85" t="n">
-        <v>9.43333333333333</v>
+        <v>9.4</v>
       </c>
       <c r="Q85" t="n">
         <v>82249</v>
@@ -5218,7 +5218,7 @@
       </c>
       <c r="O86"/>
       <c r="P86" t="n">
-        <v>8.93333333333333</v>
+        <v>9</v>
       </c>
       <c r="Q86" t="n">
         <v>77001</v>
@@ -5344,7 +5344,7 @@
       </c>
       <c r="O88"/>
       <c r="P88" t="n">
-        <v>8.23333333333333</v>
+        <v>8.2</v>
       </c>
       <c r="Q88" t="n">
         <v>79920</v>
@@ -5407,7 +5407,7 @@
       </c>
       <c r="O89"/>
       <c r="P89" t="n">
-        <v>7.56666666666667</v>
+        <v>7.5</v>
       </c>
       <c r="Q89" t="n">
         <v>89015</v>
@@ -5470,7 +5470,7 @@
       </c>
       <c r="O90"/>
       <c r="P90" t="n">
-        <v>7.26666666666667</v>
+        <v>7.3</v>
       </c>
       <c r="Q90" t="n">
         <v>83278</v>
@@ -5533,7 +5533,7 @@
       </c>
       <c r="O91"/>
       <c r="P91" t="n">
-        <v>6.66666666666667</v>
+        <v>6.6</v>
       </c>
       <c r="Q91" t="n">
         <v>83804</v>
@@ -5659,7 +5659,7 @@
       </c>
       <c r="O93"/>
       <c r="P93" t="n">
-        <v>6.43333333333333</v>
+        <v>6.4</v>
       </c>
       <c r="Q93" t="n">
         <v>96276</v>
@@ -5722,7 +5722,7 @@
       </c>
       <c r="O94"/>
       <c r="P94" t="n">
-        <v>5.93333333333333</v>
+        <v>5.9</v>
       </c>
       <c r="Q94" t="n">
         <v>92196</v>
@@ -5785,7 +5785,7 @@
       </c>
       <c r="O95"/>
       <c r="P95" t="n">
-        <v>5.86666666666667</v>
+        <v>5.9</v>
       </c>
       <c r="Q95" t="n">
         <v>93528</v>
@@ -5911,7 +5911,7 @@
       </c>
       <c r="O97"/>
       <c r="P97" t="n">
-        <v>5.73333333333333</v>
+        <v>5.7</v>
       </c>
       <c r="Q97" t="n">
         <v>99116</v>
@@ -5976,7 +5976,7 @@
         <v>2107100</v>
       </c>
       <c r="P98" t="n">
-        <v>4.96666666666667</v>
+        <v>5</v>
       </c>
       <c r="Q98" t="n">
         <v>95715</v>
@@ -6041,7 +6041,7 @@
         <v>2152133.33333333</v>
       </c>
       <c r="P99" t="n">
-        <v>5.16666666666667</v>
+        <v>5.2</v>
       </c>
       <c r="Q99" t="n">
         <v>97405</v>
@@ -6171,7 +6171,7 @@
         <v>2180333.33333333</v>
       </c>
       <c r="P101" t="n">
-        <v>4.76666666666667</v>
+        <v>4.8</v>
       </c>
       <c r="Q101" t="n">
         <v>104858</v>
@@ -6236,7 +6236,7 @@
         <v>2180366.66666667</v>
       </c>
       <c r="P102" t="n">
-        <v>4.86666666666667</v>
+        <v>4.9</v>
       </c>
       <c r="Q102" t="n">
         <v>103998</v>
@@ -6301,7 +6301,7 @@
         <v>1905733.33333333</v>
       </c>
       <c r="P103" t="n">
-        <v>5.13333333333333</v>
+        <v>5.1</v>
       </c>
       <c r="Q103" t="n">
         <v>99800</v>
@@ -6431,7 +6431,7 @@
         <v>2065133.33333333</v>
       </c>
       <c r="P105" t="n">
-        <v>6.26666666666667</v>
+        <v>6.3</v>
       </c>
       <c r="Q105" t="n">
         <v>110731</v>
@@ -6500,7 +6500,7 @@
         <v>1955900</v>
       </c>
       <c r="P106" t="n">
-        <v>7.36666666666667</v>
+        <v>7.3</v>
       </c>
       <c r="Q106" t="n">
         <v>118884</v>
@@ -6569,7 +6569,7 @@
         <v>2069433.33333333</v>
       </c>
       <c r="P107" t="n">
-        <v>6.96666666666667</v>
+        <v>7</v>
       </c>
       <c r="Q107" t="n">
         <v>122488</v>
@@ -6638,7 +6638,7 @@
         <v>2211866.66666667</v>
       </c>
       <c r="P108" t="n">
-        <v>5.46666666666667</v>
+        <v>5.5</v>
       </c>
       <c r="Q108" t="n">
         <v>132215</v>
@@ -6707,7 +6707,7 @@
         <v>2260666.66666667</v>
       </c>
       <c r="P109" t="n">
-        <v>5.23333333333333</v>
+        <v>5.2</v>
       </c>
       <c r="Q109" t="n">
         <v>127184</v>
@@ -6776,7 +6776,7 @@
         <v>2284166.66666667</v>
       </c>
       <c r="P110" t="n">
-        <v>4.86666666666667</v>
+        <v>4.9</v>
       </c>
       <c r="Q110" t="n">
         <v>127670</v>
@@ -6914,7 +6914,7 @@
         <v>2384666.66666667</v>
       </c>
       <c r="P112" t="n">
-        <v>4.23333333333333</v>
+        <v>4.2</v>
       </c>
       <c r="Q112" t="n">
         <v>141833</v>
@@ -6985,7 +6985,7 @@
         <v>2399700</v>
       </c>
       <c r="P113" t="n">
-        <v>4.43333333333333</v>
+        <v>4.4</v>
       </c>
       <c r="Q113" t="n">
         <v>137088</v>
@@ -7127,7 +7127,7 @@
         <v>2430066.66666667</v>
       </c>
       <c r="P115" t="n">
-        <v>4.16666666666667</v>
+        <v>4.2</v>
       </c>
       <c r="Q115" t="n">
         <v>130697</v>
@@ -7269,7 +7269,7 @@
         <v>2456000</v>
       </c>
       <c r="P117" t="n">
-        <v>4.43333333333333</v>
+        <v>4.5</v>
       </c>
       <c r="Q117" t="n">
         <v>128084</v>
@@ -7340,7 +7340,7 @@
         <v>2452633.33333333</v>
       </c>
       <c r="P118" t="n">
-        <v>4.26666666666667</v>
+        <v>4.3</v>
       </c>
       <c r="Q118" t="n">
         <v>127278</v>
@@ -7482,7 +7482,7 @@
         <v>2507066.66666667</v>
       </c>
       <c r="P120" t="n">
-        <v>4.23333333333333</v>
+        <v>4.2</v>
       </c>
       <c r="Q120" t="n">
         <v>140564</v>
@@ -7624,7 +7624,7 @@
         <v>2510133.33333333</v>
       </c>
       <c r="P122" t="n">
-        <v>4.43333333333333</v>
+        <v>4.5</v>
       </c>
       <c r="Q122" t="n">
         <v>152651</v>
@@ -7747,12 +7747,14 @@
         <v>122.533333333333</v>
       </c>
       <c r="M124"/>
-      <c r="N124"/>
+      <c r="N124" t="n">
+        <v>2825.5</v>
+      </c>
       <c r="O124" t="n">
         <v>2565166.66666667</v>
       </c>
       <c r="P124" t="n">
-        <v>5.03333333333333</v>
+        <v>5</v>
       </c>
       <c r="Q124"/>
       <c r="R124"/>

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -7677,7 +7677,7 @@
         <v>45928</v>
       </c>
       <c r="J123" t="n">
-        <v>31.04</v>
+        <v>30.79</v>
       </c>
       <c r="K123" t="n">
         <v>501164</v>
@@ -7741,7 +7741,9 @@
         <v>5458.625</v>
       </c>
       <c r="I124"/>
-      <c r="J124"/>
+      <c r="J124" t="n">
+        <v>30.48</v>
+      </c>
       <c r="K124"/>
       <c r="L124" t="n">
         <v>122.533333333333</v>

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -7728,7 +7728,7 @@
         <v>7215000</v>
       </c>
       <c r="D124" t="n">
-        <v>112.2</v>
+        <v>112.266666666667</v>
       </c>
       <c r="E124" t="n">
         <v>1427.57260582941</v>

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -7597,7 +7597,7 @@
         <v>140.7</v>
       </c>
       <c r="G122" t="n">
-        <v>41079.23</v>
+        <v>41081.88</v>
       </c>
       <c r="H122" t="n">
         <v>5428.45</v>
@@ -7627,7 +7627,7 @@
         <v>4.5</v>
       </c>
       <c r="Q122" t="n">
-        <v>152651</v>
+        <v>152750</v>
       </c>
       <c r="R122" t="n">
         <v>214568</v>
@@ -7653,7 +7653,7 @@
         <v>45748</v>
       </c>
       <c r="B123" t="n">
-        <v>40214</v>
+        <v>40285</v>
       </c>
       <c r="C123" t="n">
         <v>3956528</v>
@@ -7668,7 +7668,7 @@
         <v>150.3</v>
       </c>
       <c r="G123" t="n">
-        <v>40120.89</v>
+        <v>40636.22</v>
       </c>
       <c r="H123" t="n">
         <v>5444.5</v>
@@ -7698,10 +7698,10 @@
         <v>4.6</v>
       </c>
       <c r="Q123" t="n">
-        <v>149405</v>
+        <v>149531</v>
       </c>
       <c r="R123" t="n">
-        <v>206488</v>
+        <v>207265</v>
       </c>
       <c r="S123" t="n">
         <v>868.41</v>
@@ -7723,7 +7723,9 @@
       <c r="A124" s="1" t="n">
         <v>45839</v>
       </c>
-      <c r="B124"/>
+      <c r="B124" t="n">
+        <v>39665</v>
+      </c>
       <c r="C124" t="n">
         <v>7215000</v>
       </c>
@@ -7736,7 +7738,9 @@
       <c r="F124" t="n">
         <v>152.1</v>
       </c>
-      <c r="G124"/>
+      <c r="G124" t="n">
+        <v>39844.79</v>
+      </c>
       <c r="H124" t="n">
         <v>5458.625</v>
       </c>
@@ -7758,8 +7762,12 @@
       <c r="P124" t="n">
         <v>5</v>
       </c>
-      <c r="Q124"/>
-      <c r="R124"/>
+      <c r="Q124" t="n">
+        <v>155746</v>
+      </c>
+      <c r="R124" t="n">
+        <v>215510</v>
+      </c>
       <c r="S124" t="n">
         <v>871.483</v>
       </c>

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -7736,7 +7736,7 @@
         <v>1427.57260582941</v>
       </c>
       <c r="F124" t="n">
-        <v>152.1</v>
+        <v>148.8</v>
       </c>
       <c r="G124" t="n">
         <v>39844.79</v>
@@ -7748,7 +7748,9 @@
       <c r="J124" t="n">
         <v>30.48</v>
       </c>
-      <c r="K124"/>
+      <c r="K124" t="n">
+        <v>508952</v>
+      </c>
       <c r="L124" t="n">
         <v>122.533333333333</v>
       </c>

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -4518,7 +4518,7 @@
         <v>99.8666666666667</v>
       </c>
       <c r="M75" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="N75" t="n">
         <v>1924.2</v>
@@ -4707,7 +4707,7 @@
         <v>99.6666666666667</v>
       </c>
       <c r="M78" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="N78" t="n">
         <v>1950.8</v>
@@ -4833,7 +4833,7 @@
         <v>100.433333333333</v>
       </c>
       <c r="M80" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="N80" t="n">
         <v>2009.4</v>
@@ -4896,7 +4896,7 @@
         <v>99.7666666666667</v>
       </c>
       <c r="M81" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="N81" t="n">
         <v>2025</v>
@@ -5526,7 +5526,7 @@
         <v>100.3</v>
       </c>
       <c r="M91" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="N91" t="n">
         <v>2187.4</v>
@@ -5967,7 +5967,7 @@
         <v>100.8</v>
       </c>
       <c r="M98" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="N98" t="n">
         <v>2312.8</v>
@@ -6292,7 +6292,7 @@
         <v>101.433333333333</v>
       </c>
       <c r="M103" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="N103" t="n">
         <v>2161.3</v>
@@ -6357,7 +6357,7 @@
         <v>101.1</v>
       </c>
       <c r="M104" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="N104" t="n">
         <v>2275</v>
@@ -6629,7 +6629,7 @@
         <v>104.1</v>
       </c>
       <c r="M108" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N108" t="n">
         <v>2515</v>
@@ -6836,7 +6836,7 @@
         <v>111.6</v>
       </c>
       <c r="M111" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="N111" t="n">
         <v>2601.2</v>
@@ -6905,7 +6905,7 @@
         <v>113.533333333333</v>
       </c>
       <c r="M112" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="N112" t="n">
         <v>2602.6</v>
@@ -7047,7 +7047,7 @@
         <v>115.6</v>
       </c>
       <c r="M114" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="N114" t="n">
         <v>2652.7</v>
@@ -7118,7 +7118,7 @@
         <v>117.7</v>
       </c>
       <c r="M115" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="N115" t="n">
         <v>2682.7</v>
@@ -7260,7 +7260,7 @@
         <v>118.933333333333</v>
       </c>
       <c r="M117" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="N117" t="n">
         <v>2706.4</v>
@@ -7331,7 +7331,7 @@
         <v>118.2</v>
       </c>
       <c r="M118" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="N118" t="n">
         <v>2704.2</v>
@@ -7402,7 +7402,7 @@
         <v>119.7</v>
       </c>
       <c r="M119" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="N119" t="n">
         <v>2754.2</v>
@@ -7473,7 +7473,7 @@
         <v>120.066666666667</v>
       </c>
       <c r="M120" t="n">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
       <c r="N120" t="n">
         <v>2794.8</v>
@@ -7544,7 +7544,7 @@
         <v>119.566666666667</v>
       </c>
       <c r="M121" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="N121" t="n">
         <v>2776.4</v>
@@ -7615,7 +7615,7 @@
         <v>120.133333333333</v>
       </c>
       <c r="M122" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="N122" t="n">
         <v>2794.1</v>
@@ -7686,7 +7686,7 @@
         <v>121.7</v>
       </c>
       <c r="M123" t="n">
-        <v>12.5</v>
+        <v>13.1</v>
       </c>
       <c r="N123" t="n">
         <v>2818.1</v>
@@ -7754,7 +7754,9 @@
       <c r="L124" t="n">
         <v>122.533333333333</v>
       </c>
-      <c r="M124"/>
+      <c r="M124" t="n">
+        <v>14.8</v>
+      </c>
       <c r="N124" t="n">
         <v>2825.5</v>
       </c>

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -7621,7 +7621,7 @@
         <v>2794.1</v>
       </c>
       <c r="O122" t="n">
-        <v>2510133.33333333</v>
+        <v>2510166.66666667</v>
       </c>
       <c r="P122" t="n">
         <v>4.5</v>
@@ -7761,7 +7761,7 @@
         <v>2825.5</v>
       </c>
       <c r="O124" t="n">
-        <v>2565166.66666667</v>
+        <v>2567933.33333333</v>
       </c>
       <c r="P124" t="n">
         <v>5</v>

--- a/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/QUARTERLY_DATA_DOWNLOAD_ALL.xlsx
@@ -7636,7 +7636,7 @@
         <v>1195.089</v>
       </c>
       <c r="T122" t="n">
-        <v>87467279</v>
+        <v>87445208</v>
       </c>
       <c r="U122" t="n">
         <v>30389</v>
@@ -7704,10 +7704,10 @@
         <v>207265</v>
       </c>
       <c r="S123" t="n">
-        <v>868.41</v>
+        <v>861.147</v>
       </c>
       <c r="T123" t="n">
-        <v>62909476</v>
+        <v>62312929</v>
       </c>
       <c r="U123" t="n">
         <v>32817</v>
@@ -7773,10 +7773,10 @@
         <v>215510</v>
       </c>
       <c r="S124" t="n">
-        <v>871.483</v>
+        <v>873.186</v>
       </c>
       <c r="T124" t="n">
-        <v>61827974</v>
+        <v>62080100</v>
       </c>
       <c r="U124"/>
       <c r="V124"/>
